--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="-150" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="266">
   <si>
     <t>31/07/2007</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Xuất hiện thông báo: "Đăng nhập thất bại. Vui lòng nhập lại"</t>
-  </si>
-  <si>
-    <t>Xử lý khoảng trắng cuối ở tên đăng nhập để xuất thông báo: "Tên đăng nhập hoặc mật khẩu không đúng. Vui lòng nhập lại"</t>
   </si>
   <si>
     <t>1: Nhập tên đăng nhập "asd"
@@ -420,29 +417,11 @@
     </r>
   </si>
   <si>
-    <t>1: Nhập ID "119"
-2: Nhập họ tên: "Nguyễn Văn B" 
-3: Nhập ngày sinh "19/11/1999"
-4: Nhập CMND "123456789"
-5: Nhập giới tính "Nam"
-6: Nhập tên đăng nhập: "nguyenb"
-7: Nhập mật khẩu: 123</t>
-  </si>
-  <si>
-    <t>Xuất hiện thông báo: "Thêm thành công"</t>
-  </si>
-  <si>
-    <t>Không thêm được, tự thoát khỏi chương trình</t>
-  </si>
-  <si>
     <t>1: Chọn dòng cần xóa
 2: Bấm vào nút "XÓA"</t>
   </si>
   <si>
     <t>Xuất hiện thông báo: "Xóa thành công"</t>
-  </si>
-  <si>
-    <t>Không xóa được, tự thoát khỏi chương trình</t>
   </si>
   <si>
     <t>1: Nhập mã nhân viên: "111"
@@ -604,6 +583,776 @@
       <t>chỉnh sửa nhân viên</t>
     </r>
   </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Thêm thành công" và thêm dữ liệu vào bảng</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Nhập chưa đúng định dạng! Nhập lại"</t>
+  </si>
+  <si>
+    <t>1: Nhập ID ""
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 1</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "!@#$%"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 1</t>
+  </si>
+  <si>
+    <t>1: Nhập ID trùng với một ID có sẵn
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 2</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "   116   "
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 3</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "   1 1 1   "
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 4</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "-111"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 5</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Mã nhân viên đã tồn tại"</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "1+1"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 6</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "1234567891"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 6</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Thêm thành công" và thêm dữ liệu vào bảng</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "2222222222"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 7</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Mã nhân viên phải lớn hơn 0!"</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "0"
+2: Nhập họ tên: "Nguyễn Văn Nghi" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 8</t>
+  </si>
+  <si>
+    <t>1: Nhập mã nhân viên: "-111"
+2: Bấm vào hình kính lúp</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên: "" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 9</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "  " 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 10</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "!@#!@$" 
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 11</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên trùng với 1 họ tên có sẵn
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 12</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi 2210"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 13</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/2019"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 14</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Năm sinh không đúng, bạn chưa đủ tuổi"</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/2018"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 15</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/2000"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 16</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/2001"
+4: Nhập CMND "123456789"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 17</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND ""
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 18</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND " "
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 19</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "DJHSD"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 20</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "!@#!@%"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 21</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "-111111111"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 22</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "  123456789    "
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 23</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND trùng với một CMND có trong bảng
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 24</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "CMND đã tồn tại. Nhập lại!"</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "1 1 1 1 1 1 1 1 1 1"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 25</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "000000000"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 26</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "CMND phải lớn hơn 0!"</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính ""
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 27</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính " "
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 28</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "1521"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 29</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "#@$ @#$"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 30</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "sdfdsf sdfsd sdfdsf"
+6: Nhập tên đăng nhập: "vannghi"
+7: Nhập mật khẩu: 31</t>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thêm nhân viên</t>
+    </r>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: ""
+7: Nhập mật khẩu: 30</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập: " "
+7: Nhập mật khẩu: 31</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập trùng với tên đăng nhập đã có trong bảng
+7: Nhập mật khẩu: 32</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo lỗi: "Tên đăng nhập đã tồn tại!"</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "vannghi2210@gmail.com"
+7: Nhập mật khẩu: 33</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập quá dài</t>
+  </si>
+  <si>
+    <t>Nhập giới tính quá dài</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "vannghi2@^"
+7: Nhập mật khẩu: 34</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "v a n n ghi2@^"
+7: Nhập mật khẩu: 35</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "v a n n ghi2@^"
+7: Nhập mật khẩu: ""</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "v a n n ghi2@^"
+7: Nhập mật khẩu: " "</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "v a n n ghi2@^"
+7: Nhập mật khẩu: "HSD F SDF SDF SD FS DF"</t>
+  </si>
+  <si>
+    <t>Nhập quá dài tự thoát chương trình</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>1: Nhập mã nhân viên: "   111   "
+2: Bấm vào hình kính lúp</t>
+  </si>
+  <si>
+    <t>1: Nhập mã nhân viên: "1 1 1 "
+2: Bấm vào hình kính lúp</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>1: Nhập mã nhân viên: "  "
+2: Bấm vào hình kính lúp</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Vui lòng nhập mã nhân viên"</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành ""
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Sửa thành công" và sửa các hàng dữ liệu"</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Sửa không thành công"</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "  "
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành " !@#@!!#@"
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC58</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành " 2313214"
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC59</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng không có chứa dữ liệu
+2: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Vui lòng chọn dòng để sửa"</t>
+  </si>
+  <si>
+    <t>TC60</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>Không sửa được ngày tháng năm</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "-147896324"
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "SDFJSDF"
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Nhập chưa đúng. Nhập lại!"</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo: "Sửa thành công"</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "!@#!@#"
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC62</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành ""
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC63</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "     "
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "321478965"
+4: Sửa giới tính thành ""
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "321478965"
+4: Sửa giới tính thành "   "
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "321478965"
+4: Sửa giới tính thành "23142SDFDSFSDF"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>Sửa giới tính quá dài</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "321478965"
+4: Sửa giới tính thành "231"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "321478965"
+4: Sửa giới tính thành "!@#!@#"
+5: Sửa ngày sinh thành "19/11/1999"
+5: Nhấn button "Cập nhật"</t>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +1362,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -788,6 +1537,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1333,7 +2087,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1571,9 +2325,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1618,111 +2369,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1732,12 +2378,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1747,9 +2387,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="24" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1762,22 +2399,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1817,12 +2442,6 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1855,29 +2474,251 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4551,11 +5392,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -4564,11 +5405,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -4638,7 +5479,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="36" customFormat="1">
-      <c r="B13" s="108">
+      <c r="B13" s="107">
         <v>39295</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -4651,7 +5492,7 @@
       <c r="F13" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="105" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="91" t="s">
@@ -4672,7 +5513,7 @@
       <c r="F14" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="105" t="s">
         <v>64</v>
       </c>
       <c r="H14" s="91" t="s">
@@ -4779,101 +5620,101 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="98" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="182" customWidth="1"/>
-    <col min="9" max="9" width="9" style="102"/>
-    <col min="10" max="10" width="18" style="100" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="139" customWidth="1"/>
+    <col min="9" max="9" width="9" style="101"/>
+    <col min="10" max="10" width="18" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="110"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4881,22 +5722,22 @@
         <v>37</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(I12:I76,"Pass")</f>
-        <v>16</v>
+        <f>COUNTIF(I12:I138,"Pass")</f>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I798,"Pending")</f>
+        <f>COUNTIF(I10:I860,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4904,120 +5745,120 @@
         <v>8</v>
       </c>
       <c r="B7" s="96">
-        <f>COUNTIF(I12:I76,"Fail")</f>
-        <v>6</v>
+        <f>COUNTIF(I12:I138,"Fail")</f>
+        <v>31</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A79) -15</f>
-        <v>25</v>
+        <f>COUNTA(A12:A141) -15</f>
+        <v>87</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="185" t="s">
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="132" t="s">
+      <c r="J9" s="168" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>86</v>
+      <c r="B13" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
       <c r="G13" s="86"/>
-      <c r="H13" s="161">
+      <c r="H13" s="122">
         <v>43774</v>
       </c>
       <c r="I13" s="87" t="s">
@@ -5029,19 +5870,19 @@
       <c r="A14" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>86</v>
+      <c r="B14" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
       <c r="G14" s="86"/>
-      <c r="H14" s="161">
+      <c r="H14" s="122">
         <v>43774</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -5053,19 +5894,19 @@
       <c r="A15" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>86</v>
+      <c r="B15" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="86"/>
-      <c r="H15" s="161">
+      <c r="H15" s="122">
         <v>43774</v>
       </c>
       <c r="I15" s="87" t="s">
@@ -5077,19 +5918,19 @@
       <c r="A16" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="97" t="s">
-        <v>87</v>
+      <c r="B16" s="216" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="86"/>
-      <c r="H16" s="161">
+      <c r="H16" s="122">
         <v>43774</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -5101,19 +5942,19 @@
       <c r="A17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="97" t="s">
-        <v>87</v>
+      <c r="B17" s="216" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="161">
+      <c r="H17" s="122">
         <v>43774</v>
       </c>
       <c r="I17" s="87" t="s">
@@ -5125,19 +5966,19 @@
       <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>87</v>
+      <c r="B18" s="216" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="161">
+      <c r="H18" s="122">
         <v>43774</v>
       </c>
       <c r="I18" s="87" t="s">
@@ -5149,19 +5990,19 @@
       <c r="A19" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="97" t="s">
-        <v>87</v>
+      <c r="B19" s="216" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="161">
+      <c r="H19" s="122">
         <v>43774</v>
       </c>
       <c r="I19" s="87" t="s">
@@ -5169,52 +6010,50 @@
       </c>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="57.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="97" t="s">
-        <v>86</v>
+      <c r="B20" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="161">
+      <c r="H20" s="122">
         <v>43774</v>
       </c>
-      <c r="I20" s="112" t="s">
+      <c r="I20" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="85" t="s">
-        <v>83</v>
-      </c>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="51" customHeight="1" outlineLevel="1">
       <c r="A21" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="97" t="s">
-        <v>86</v>
+      <c r="B21" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="86"/>
-      <c r="H21" s="161">
+      <c r="H21" s="122">
         <v>43774</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="112" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="85"/>
@@ -5223,22 +6062,22 @@
       <c r="A22" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="97" t="s">
-        <v>86</v>
+      <c r="B22" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
       <c r="G22" s="86"/>
-      <c r="H22" s="161">
+      <c r="H22" s="122">
         <v>43774</v>
       </c>
-      <c r="I22" s="112" t="s">
+      <c r="I22" s="111" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="85"/>
@@ -5247,949 +6086,2527 @@
       <c r="A23" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="97" t="s">
-        <v>86</v>
+      <c r="B23" s="216" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="86"/>
-      <c r="H23" s="161">
+      <c r="H23" s="122">
         <v>43774</v>
       </c>
-      <c r="I23" s="113" t="s">
+      <c r="I23" s="112" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="148"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
+      <c r="A25" s="159" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="196" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+    </row>
+    <row r="27" spans="1:10" s="212" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A27" s="206" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-    </row>
-    <row r="27" spans="1:10" s="159" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="152" t="s">
+      <c r="C27" s="208" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="209"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I27" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="211"/>
+    </row>
+    <row r="28" spans="1:10" s="212" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A28" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="208" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I28" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="211"/>
+    </row>
+    <row r="29" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A29" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I29" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="211"/>
+    </row>
+    <row r="30" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A30" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="213" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I30" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="211"/>
+    </row>
+    <row r="31" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A31" s="206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="208" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I31" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="211"/>
+    </row>
+    <row r="32" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A32" s="206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="208" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I32" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="211"/>
+    </row>
+    <row r="33" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A33" s="206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="208" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="213" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I33" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="211"/>
+    </row>
+    <row r="34" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A34" s="206" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="208" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I34" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="211"/>
+    </row>
+    <row r="35" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A35" s="206" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="208" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="213" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I35" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="211"/>
+    </row>
+    <row r="36" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A36" s="206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="208" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="213" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I36" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="211"/>
+    </row>
+    <row r="37" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A37" s="206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="208" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="213" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="209"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I37" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="211"/>
+    </row>
+    <row r="38" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A38" s="206" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="208" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I38" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="211"/>
+    </row>
+    <row r="39" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A39" s="206" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="208" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I39" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="211"/>
+    </row>
+    <row r="40" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A40" s="206" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="208" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I40" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="211"/>
+    </row>
+    <row r="41" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A41" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="208" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I41" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="211"/>
+    </row>
+    <row r="42" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A42" s="206" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I42" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="211"/>
+    </row>
+    <row r="43" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A43" s="206" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="213" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="209"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I43" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="211"/>
+    </row>
+    <row r="44" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A44" s="206" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="208" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="213" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I44" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="211"/>
+    </row>
+    <row r="45" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A45" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="208" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="209"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I45" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="211"/>
+    </row>
+    <row r="46" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A46" s="206" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="208" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="213" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="209"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I46" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="211"/>
+    </row>
+    <row r="47" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A47" s="206" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="208" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="209"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I47" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="211"/>
+    </row>
+    <row r="48" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A48" s="206" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I48" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="211"/>
+    </row>
+    <row r="49" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A49" s="206" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="208" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I49" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="211"/>
+    </row>
+    <row r="50" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A50" s="206" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="208" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="209"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I50" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="211"/>
+    </row>
+    <row r="51" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A51" s="206" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="208" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I51" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="211"/>
+    </row>
+    <row r="52" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A52" s="206" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="208" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="209"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="210"/>
+      <c r="H52" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I52" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="211"/>
+    </row>
+    <row r="53" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A53" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="208" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="213" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="209"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I53" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="211"/>
+    </row>
+    <row r="54" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A54" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
+      <c r="H54" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I54" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="211"/>
+    </row>
+    <row r="55" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A55" s="206" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="213" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="209"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="210"/>
+      <c r="H55" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I55" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="211"/>
+    </row>
+    <row r="56" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A56" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="209"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="210"/>
+      <c r="H56" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I56" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="211"/>
+    </row>
+    <row r="57" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A57" s="206" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="208" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="209"/>
+      <c r="F57" s="209"/>
+      <c r="G57" s="210"/>
+      <c r="H57" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I57" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="211"/>
+    </row>
+    <row r="58" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A58" s="206" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="208" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="209"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="210"/>
+      <c r="H58" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I58" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="211"/>
+    </row>
+    <row r="59" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A59" s="206" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="209"/>
+      <c r="F59" s="209"/>
+      <c r="G59" s="210"/>
+      <c r="H59" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I59" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="211"/>
+    </row>
+    <row r="60" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A60" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="215" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="121">
+        <v>43774</v>
+      </c>
+      <c r="I60" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A61" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="208" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I61" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="211"/>
+    </row>
+    <row r="62" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A62" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="209"/>
+      <c r="F62" s="209"/>
+      <c r="G62" s="210"/>
+      <c r="H62" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I62" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="211"/>
+    </row>
+    <row r="63" spans="1:10" s="212" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A63" s="206" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="208" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="213" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="210"/>
+      <c r="H63" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I63" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="211"/>
+    </row>
+    <row r="64" spans="1:10" s="212" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A64" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="215" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="176"/>
+      <c r="F64" s="176"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="217">
+        <v>43774</v>
+      </c>
+      <c r="I64" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="120" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="222" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A65" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="208" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="227" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="228"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="224"/>
+      <c r="H65" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I65" s="225" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="226"/>
+    </row>
+    <row r="66" spans="1:10" s="222" customFormat="1" ht="95.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="208" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="224"/>
+      <c r="H66" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I66" s="229" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="226"/>
+    </row>
+    <row r="67" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A67" s="223" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="208" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="224"/>
+      <c r="H67" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I67" s="229" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="226"/>
+    </row>
+    <row r="68" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A68" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="208" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="224"/>
+      <c r="H68" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I68" s="229" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="226"/>
+    </row>
+    <row r="69" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A69" s="218" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="231"/>
+      <c r="F69" s="231"/>
+      <c r="G69" s="219"/>
+      <c r="H69" s="121">
+        <v>43774</v>
+      </c>
+      <c r="I69" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="221" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="212" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="206" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="153" t="s">
+      <c r="D70" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="E70" s="209"/>
+      <c r="F70" s="209"/>
+      <c r="G70" s="210"/>
+      <c r="H70" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I70" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" s="211"/>
+    </row>
+    <row r="71" spans="1:10" s="212" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="206" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="208" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="213" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="209"/>
+      <c r="F71" s="209"/>
+      <c r="G71" s="210"/>
+      <c r="H71" s="214">
+        <v>43774</v>
+      </c>
+      <c r="I71" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="211"/>
+    </row>
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
+      <c r="A72" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="160">
+      <c r="D72" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="123">
         <v>43774</v>
       </c>
-      <c r="I27" s="157" t="s">
+      <c r="I72" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="85"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="85"/>
+    </row>
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" outlineLevel="1">
+      <c r="A74" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I74" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="85"/>
+    </row>
+    <row r="75" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A75" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="163"/>
+      <c r="F75" s="199"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I75" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="85"/>
+    </row>
+    <row r="76" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A76" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="163"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I76" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="85"/>
+    </row>
+    <row r="77" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A77" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="163"/>
+      <c r="F77" s="199"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I77" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J77" s="85"/>
+    </row>
+    <row r="78" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A78" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="163"/>
+      <c r="F78" s="199"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I78" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" s="85"/>
+    </row>
+    <row r="79" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A79" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="162" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="163"/>
+      <c r="F79" s="199"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I79" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J79" s="85"/>
+    </row>
+    <row r="80" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A80" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" s="162" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="163"/>
+      <c r="F80" s="199"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="122">
+        <v>43774</v>
+      </c>
+      <c r="I80" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" s="85"/>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A81" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="163"/>
+      <c r="F81" s="199"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I81" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="158" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="152" t="s">
+      <c r="J81" s="85"/>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A82" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="163"/>
+      <c r="F82" s="199"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I82" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="85"/>
+    </row>
+    <row r="83" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A83" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="163"/>
+      <c r="F83" s="199"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I83" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="85"/>
+    </row>
+    <row r="84" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A84" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="163"/>
+      <c r="F84" s="199"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I84" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="85"/>
+    </row>
+    <row r="85" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+      <c r="A85" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="163"/>
+      <c r="F85" s="199"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I85" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="85"/>
+    </row>
+    <row r="86" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A86" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" s="162" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="163"/>
+      <c r="F86" s="199"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I86" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A87" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="163"/>
+      <c r="F87" s="199"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I87" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="85"/>
+    </row>
+    <row r="88" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A88" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="163"/>
+      <c r="F88" s="199"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I88" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J88" s="85"/>
+    </row>
+    <row r="89" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A89" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89" s="163"/>
+      <c r="F89" s="199"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I89" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="85"/>
+    </row>
+    <row r="90" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A90" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" s="163"/>
+      <c r="F90" s="199"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I90" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="85"/>
+    </row>
+    <row r="91" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A91" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91" s="163"/>
+      <c r="F91" s="199"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I91" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="85"/>
+    </row>
+    <row r="92" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A92" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="162" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" s="163"/>
+      <c r="F92" s="199"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I92" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" s="85"/>
+    </row>
+    <row r="93" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A93" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="162" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="163"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="123">
+        <v>43774</v>
+      </c>
+      <c r="I93" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" s="85"/>
+    </row>
+    <row r="94" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A94" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="215" t="s">
+        <v>248</v>
+      </c>
+      <c r="E94" s="176"/>
+      <c r="F94" s="232"/>
+      <c r="G94" s="119"/>
+      <c r="H94" s="233">
+        <v>43774</v>
+      </c>
+      <c r="I94" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="120" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A95" s="206" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="207" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" s="213" t="s">
+        <v>248</v>
+      </c>
+      <c r="E95" s="209"/>
+      <c r="F95" s="234"/>
+      <c r="G95" s="112"/>
+      <c r="H95" s="235">
+        <v>43774</v>
+      </c>
+      <c r="I95" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="211"/>
+    </row>
+    <row r="96" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A96" s="206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="207" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="213" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" s="209"/>
+      <c r="F96" s="234"/>
+      <c r="G96" s="112"/>
+      <c r="H96" s="235">
+        <v>43774</v>
+      </c>
+      <c r="I96" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" s="211"/>
+    </row>
+    <row r="97" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A97" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="197"/>
+      <c r="C97" s="197"/>
+      <c r="D97" s="197"/>
+      <c r="E97" s="197"/>
+      <c r="F97" s="197"/>
+      <c r="G97" s="197"/>
+      <c r="H97" s="197"/>
+      <c r="I97" s="197"/>
+      <c r="J97" s="198"/>
+    </row>
+    <row r="98" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A98" s="88"/>
+      <c r="B98" s="102"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="163"/>
+      <c r="F98" s="163"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="135"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="85"/>
+    </row>
+    <row r="99" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A99" s="88"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="195"/>
+      <c r="E99" s="163"/>
+      <c r="F99" s="163"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="135"/>
+      <c r="I99" s="87"/>
+      <c r="J99" s="85"/>
+    </row>
+    <row r="100" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A100" s="88"/>
+      <c r="B100" s="102"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="195"/>
+      <c r="E100" s="163"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="87"/>
+      <c r="J100" s="85"/>
+    </row>
+    <row r="101" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A101" s="88"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="195"/>
+      <c r="E101" s="163"/>
+      <c r="F101" s="163"/>
+      <c r="G101" s="86"/>
+      <c r="H101" s="135"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="85"/>
+    </row>
+    <row r="102" spans="1:14" s="4" customFormat="1" ht="12.75">
+      <c r="A102" s="196" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="197"/>
+      <c r="C102" s="197"/>
+      <c r="D102" s="197"/>
+      <c r="E102" s="197"/>
+      <c r="F102" s="197"/>
+      <c r="G102" s="197"/>
+      <c r="H102" s="197"/>
+      <c r="I102" s="197"/>
+      <c r="J102" s="198"/>
+    </row>
+    <row r="103" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A103" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="153" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="154" t="s">
+      <c r="D103" s="200" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="200"/>
+      <c r="F103" s="200"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="137">
+        <v>43774</v>
+      </c>
+      <c r="I103" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J103" s="94"/>
+    </row>
+    <row r="104" spans="1:14" s="93" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A104" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="160">
+      <c r="E104" s="205"/>
+      <c r="F104" s="205"/>
+      <c r="G104" s="131"/>
+      <c r="H104" s="141">
         <v>43774</v>
       </c>
-      <c r="I28" s="157" t="s">
+      <c r="I104" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="128"/>
+    </row>
+    <row r="105" spans="1:14" s="148" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
+      <c r="A105" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="142" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="203"/>
+      <c r="F105" s="203"/>
+      <c r="G105" s="144"/>
+      <c r="H105" s="149">
+        <v>43774</v>
+      </c>
+      <c r="I105" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="158" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A29" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="152" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="160">
+      <c r="J105" s="146"/>
+      <c r="K105" s="147"/>
+      <c r="L105" s="147"/>
+      <c r="M105" s="147"/>
+      <c r="N105" s="147"/>
+    </row>
+    <row r="106" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
+      <c r="A106" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="153" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="202"/>
+      <c r="F106" s="202"/>
+      <c r="G106" s="131"/>
+      <c r="H106" s="154">
         <v>43774</v>
       </c>
-      <c r="I29" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="158" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
-      <c r="A30" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="162">
-        <v>43774</v>
-      </c>
-      <c r="I30" s="87" t="s">
+      <c r="I106" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="85"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="161">
-        <v>43774</v>
-      </c>
-      <c r="I31" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="85"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" outlineLevel="1">
-      <c r="A32" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="161">
-        <v>43774</v>
-      </c>
-      <c r="I32" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="85"/>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="104" t="s">
+      <c r="J106" s="156"/>
+    </row>
+    <row r="107" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
+      <c r="A107" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="161">
-        <v>43774</v>
-      </c>
-      <c r="I33" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="85"/>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
-      <c r="A34" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="85"/>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A35" s="204" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A36" s="88"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="85"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="85"/>
-    </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A39" s="88"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="85"/>
-    </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A40" s="204" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
-    </row>
-    <row r="41" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="172" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="180">
-        <v>43774</v>
-      </c>
-      <c r="I41" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="94"/>
-    </row>
-    <row r="42" spans="1:14" s="93" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A42" s="166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="167" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="184">
-        <v>43774</v>
-      </c>
-      <c r="I42" s="170" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="171"/>
-    </row>
-    <row r="43" spans="1:14" s="193" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
-      <c r="A43" s="151" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="187" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="188" t="s">
+      <c r="C107" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="154" t="s">
+      <c r="D107" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="194">
-        <v>43774</v>
-      </c>
-      <c r="I43" s="190" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="191"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="192"/>
-    </row>
-    <row r="44" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="196" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="197" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="198" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="199" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="201">
-        <v>43774</v>
-      </c>
-      <c r="I44" s="202" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="203"/>
-    </row>
-    <row r="45" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="172" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="198" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="119"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="94"/>
-    </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A46" s="121" t="s">
+      <c r="E107" s="163"/>
+      <c r="F107" s="199"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="137"/>
+      <c r="I107" s="150"/>
+      <c r="J107" s="94"/>
+    </row>
+    <row r="108" spans="1:14" s="4" customFormat="1" ht="12.75">
+      <c r="A108" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="123"/>
-    </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A47" s="121" t="s">
+      <c r="B108" s="160"/>
+      <c r="C108" s="160"/>
+      <c r="D108" s="160"/>
+      <c r="E108" s="160"/>
+      <c r="F108" s="160"/>
+      <c r="G108" s="160"/>
+      <c r="H108" s="160"/>
+      <c r="I108" s="160"/>
+      <c r="J108" s="161"/>
+    </row>
+    <row r="109" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A109" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="123"/>
-    </row>
-    <row r="48" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="181"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="94"/>
-    </row>
-    <row r="49" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="94"/>
-    </row>
-    <row r="50" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="94"/>
-    </row>
-    <row r="51" spans="1:10" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="174"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="94"/>
-    </row>
-    <row r="52" spans="1:10" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="94"/>
-    </row>
-    <row r="53" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="181"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="94"/>
-    </row>
-    <row r="54" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="181"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="94"/>
-    </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A55" s="121" t="s">
+      <c r="B109" s="160"/>
+      <c r="C109" s="160"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="160"/>
+      <c r="F109" s="160"/>
+      <c r="G109" s="160"/>
+      <c r="H109" s="160"/>
+      <c r="I109" s="160"/>
+      <c r="J109" s="161"/>
+    </row>
+    <row r="110" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A110" s="88"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="162"/>
+      <c r="E110" s="163"/>
+      <c r="F110" s="163"/>
+      <c r="G110" s="131"/>
+      <c r="H110" s="138"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="94"/>
+    </row>
+    <row r="111" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A111" s="88"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="162"/>
+      <c r="E111" s="163"/>
+      <c r="F111" s="163"/>
+      <c r="G111" s="131"/>
+      <c r="H111" s="138"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="94"/>
+    </row>
+    <row r="112" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A112" s="88"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="162"/>
+      <c r="E112" s="163"/>
+      <c r="F112" s="163"/>
+      <c r="G112" s="131"/>
+      <c r="H112" s="138"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="94"/>
+    </row>
+    <row r="113" spans="1:10" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+      <c r="A113" s="88"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="162"/>
+      <c r="E113" s="163"/>
+      <c r="F113" s="163"/>
+      <c r="G113" s="131"/>
+      <c r="H113" s="138"/>
+      <c r="I113" s="100"/>
+      <c r="J113" s="94"/>
+    </row>
+    <row r="114" spans="1:10" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+      <c r="A114" s="88"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="162"/>
+      <c r="E114" s="163"/>
+      <c r="F114" s="163"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="138"/>
+      <c r="I114" s="100"/>
+      <c r="J114" s="94"/>
+    </row>
+    <row r="115" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A115" s="88"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="163"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="131"/>
+      <c r="H115" s="138"/>
+      <c r="I115" s="100"/>
+      <c r="J115" s="94"/>
+    </row>
+    <row r="116" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A116" s="88"/>
+      <c r="B116" s="97"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="162"/>
+      <c r="E116" s="163"/>
+      <c r="F116" s="163"/>
+      <c r="G116" s="131"/>
+      <c r="H116" s="138"/>
+      <c r="I116" s="100"/>
+      <c r="J116" s="94"/>
+    </row>
+    <row r="117" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A117" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="123"/>
-    </row>
-    <row r="56" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A56" s="88"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="94"/>
-    </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A57" s="121" t="s">
+      <c r="B117" s="160"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="160"/>
+      <c r="F117" s="160"/>
+      <c r="G117" s="160"/>
+      <c r="H117" s="160"/>
+      <c r="I117" s="160"/>
+      <c r="J117" s="161"/>
+    </row>
+    <row r="118" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A118" s="88"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="162"/>
+      <c r="E118" s="163"/>
+      <c r="F118" s="163"/>
+      <c r="G118" s="131"/>
+      <c r="H118" s="138"/>
+      <c r="I118" s="100"/>
+      <c r="J118" s="94"/>
+    </row>
+    <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A119" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="123"/>
-    </row>
-    <row r="58" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A58" s="88"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="94"/>
-    </row>
-    <row r="59" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A59" s="88"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="94"/>
-    </row>
-    <row r="60" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="181"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="94"/>
-    </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A61" s="121" t="s">
+      <c r="B119" s="160"/>
+      <c r="C119" s="160"/>
+      <c r="D119" s="160"/>
+      <c r="E119" s="160"/>
+      <c r="F119" s="160"/>
+      <c r="G119" s="160"/>
+      <c r="H119" s="160"/>
+      <c r="I119" s="160"/>
+      <c r="J119" s="161"/>
+    </row>
+    <row r="120" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A120" s="88"/>
+      <c r="B120" s="97"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="162"/>
+      <c r="E120" s="163"/>
+      <c r="F120" s="163"/>
+      <c r="G120" s="131"/>
+      <c r="H120" s="138"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="94"/>
+    </row>
+    <row r="121" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A121" s="88"/>
+      <c r="B121" s="97"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="162"/>
+      <c r="E121" s="163"/>
+      <c r="F121" s="163"/>
+      <c r="G121" s="131"/>
+      <c r="H121" s="138"/>
+      <c r="I121" s="100"/>
+      <c r="J121" s="94"/>
+    </row>
+    <row r="122" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A122" s="88"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="162"/>
+      <c r="E122" s="163"/>
+      <c r="F122" s="163"/>
+      <c r="G122" s="131"/>
+      <c r="H122" s="138"/>
+      <c r="I122" s="100"/>
+      <c r="J122" s="94"/>
+    </row>
+    <row r="123" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A123" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="123"/>
-    </row>
-    <row r="62" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A62" s="88"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="174"/>
-      <c r="H62" s="181"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="94"/>
-    </row>
-    <row r="63" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="174"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="94"/>
-    </row>
-    <row r="64" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A64" s="121" t="s">
+      <c r="B123" s="160"/>
+      <c r="C123" s="160"/>
+      <c r="D123" s="160"/>
+      <c r="E123" s="160"/>
+      <c r="F123" s="160"/>
+      <c r="G123" s="160"/>
+      <c r="H123" s="160"/>
+      <c r="I123" s="160"/>
+      <c r="J123" s="161"/>
+    </row>
+    <row r="124" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A124" s="88"/>
+      <c r="B124" s="97"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="162"/>
+      <c r="E124" s="163"/>
+      <c r="F124" s="163"/>
+      <c r="G124" s="131"/>
+      <c r="H124" s="138"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="94"/>
+    </row>
+    <row r="125" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A125" s="88"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="164"/>
+      <c r="E125" s="163"/>
+      <c r="F125" s="163"/>
+      <c r="G125" s="131"/>
+      <c r="H125" s="138"/>
+      <c r="I125" s="100"/>
+      <c r="J125" s="94"/>
+    </row>
+    <row r="126" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A126" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="123"/>
-    </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A65" s="121" t="s">
+      <c r="B126" s="160"/>
+      <c r="C126" s="160"/>
+      <c r="D126" s="160"/>
+      <c r="E126" s="160"/>
+      <c r="F126" s="160"/>
+      <c r="G126" s="160"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="160"/>
+      <c r="J126" s="161"/>
+    </row>
+    <row r="127" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A127" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="123"/>
-    </row>
-    <row r="66" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A66" s="88"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="174"/>
-      <c r="H66" s="181"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="94"/>
-    </row>
-    <row r="67" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A67" s="88"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="174"/>
-      <c r="H67" s="181"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="94"/>
-    </row>
-    <row r="68" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A68" s="121" t="s">
+      <c r="B127" s="160"/>
+      <c r="C127" s="160"/>
+      <c r="D127" s="160"/>
+      <c r="E127" s="160"/>
+      <c r="F127" s="160"/>
+      <c r="G127" s="160"/>
+      <c r="H127" s="160"/>
+      <c r="I127" s="160"/>
+      <c r="J127" s="161"/>
+    </row>
+    <row r="128" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A128" s="88"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="162"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="163"/>
+      <c r="G128" s="131"/>
+      <c r="H128" s="138"/>
+      <c r="I128" s="100"/>
+      <c r="J128" s="94"/>
+    </row>
+    <row r="129" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A129" s="88"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="162"/>
+      <c r="E129" s="163"/>
+      <c r="F129" s="163"/>
+      <c r="G129" s="131"/>
+      <c r="H129" s="138"/>
+      <c r="I129" s="100"/>
+      <c r="J129" s="94"/>
+    </row>
+    <row r="130" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A130" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="123"/>
-    </row>
-    <row r="69" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="94"/>
-    </row>
-    <row r="70" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A70" s="88"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="120"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="181"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="94"/>
-    </row>
-    <row r="71" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A71" s="121" t="s">
+      <c r="B130" s="160"/>
+      <c r="C130" s="160"/>
+      <c r="D130" s="160"/>
+      <c r="E130" s="160"/>
+      <c r="F130" s="160"/>
+      <c r="G130" s="160"/>
+      <c r="H130" s="160"/>
+      <c r="I130" s="160"/>
+      <c r="J130" s="161"/>
+    </row>
+    <row r="131" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A131" s="88"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="162"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="163"/>
+      <c r="G131" s="131"/>
+      <c r="H131" s="138"/>
+      <c r="I131" s="100"/>
+      <c r="J131" s="94"/>
+    </row>
+    <row r="132" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A132" s="88"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="162"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="131"/>
+      <c r="H132" s="138"/>
+      <c r="I132" s="100"/>
+      <c r="J132" s="94"/>
+    </row>
+    <row r="133" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A133" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="123"/>
-    </row>
-    <row r="72" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="181"/>
-      <c r="I72" s="101"/>
-      <c r="J72" s="94"/>
-    </row>
-    <row r="73" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A73" s="88"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="181"/>
-      <c r="I73" s="101"/>
-      <c r="J73" s="94"/>
-    </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A74" s="121" t="s">
+      <c r="B133" s="160"/>
+      <c r="C133" s="160"/>
+      <c r="D133" s="160"/>
+      <c r="E133" s="160"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="160"/>
+      <c r="H133" s="160"/>
+      <c r="I133" s="160"/>
+      <c r="J133" s="161"/>
+    </row>
+    <row r="134" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A134" s="88"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="92"/>
+      <c r="D134" s="162"/>
+      <c r="E134" s="163"/>
+      <c r="F134" s="163"/>
+      <c r="G134" s="131"/>
+      <c r="H134" s="138"/>
+      <c r="I134" s="100"/>
+      <c r="J134" s="94"/>
+    </row>
+    <row r="135" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A135" s="88"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="162"/>
+      <c r="E135" s="163"/>
+      <c r="F135" s="163"/>
+      <c r="G135" s="131"/>
+      <c r="H135" s="138"/>
+      <c r="I135" s="100"/>
+      <c r="J135" s="94"/>
+    </row>
+    <row r="136" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A136" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="122"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="123"/>
-    </row>
-    <row r="75" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A75" s="88"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="174"/>
-      <c r="H75" s="181"/>
-      <c r="I75" s="101"/>
-      <c r="J75" s="94"/>
-    </row>
-    <row r="76" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A76" s="88"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="174"/>
-      <c r="H76" s="181"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="94"/>
-    </row>
-    <row r="77" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A77" s="121" t="s">
+      <c r="B136" s="160"/>
+      <c r="C136" s="160"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="160"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="160"/>
+      <c r="J136" s="161"/>
+    </row>
+    <row r="137" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A137" s="88"/>
+      <c r="B137" s="97"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="162"/>
+      <c r="E137" s="163"/>
+      <c r="F137" s="163"/>
+      <c r="G137" s="131"/>
+      <c r="H137" s="138"/>
+      <c r="I137" s="100"/>
+      <c r="J137" s="94"/>
+    </row>
+    <row r="138" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A138" s="88"/>
+      <c r="B138" s="97"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="162"/>
+      <c r="E138" s="163"/>
+      <c r="F138" s="163"/>
+      <c r="G138" s="131"/>
+      <c r="H138" s="138"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="94"/>
+    </row>
+    <row r="139" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A139" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="123"/>
-    </row>
-    <row r="78" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A78" s="88"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="119"/>
-      <c r="G78" s="174"/>
-      <c r="H78" s="181"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="94"/>
-    </row>
-    <row r="79" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A79" s="88"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="174"/>
-      <c r="H79" s="181"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="94"/>
-    </row>
-    <row r="80" spans="1:10" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
-    <row r="98" ht="12" customHeight="1"/>
-    <row r="99" ht="12" customHeight="1"/>
-    <row r="100" ht="12" customHeight="1"/>
-    <row r="101" ht="12" customHeight="1"/>
-    <row r="102" ht="12" customHeight="1"/>
-    <row r="103" ht="12" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
-    <row r="110" ht="12" customHeight="1"/>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
+      <c r="B139" s="160"/>
+      <c r="C139" s="160"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="161"/>
+    </row>
+    <row r="140" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A140" s="88"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="162"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="131"/>
+      <c r="H140" s="138"/>
+      <c r="I140" s="100"/>
+      <c r="J140" s="94"/>
+    </row>
+    <row r="141" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A141" s="88"/>
+      <c r="B141" s="97"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="162"/>
+      <c r="E141" s="163"/>
+      <c r="F141" s="163"/>
+      <c r="G141" s="131"/>
+      <c r="H141" s="138"/>
+      <c r="I141" s="100"/>
+      <c r="J141" s="94"/>
+    </row>
+    <row r="142" spans="1:10" ht="12" customHeight="1"/>
+    <row r="143" spans="1:10" ht="12" customHeight="1"/>
+    <row r="144" spans="1:10" ht="12" customHeight="1"/>
+    <row r="145" ht="12" customHeight="1"/>
+    <row r="146" ht="12" customHeight="1"/>
+    <row r="147" ht="12" customHeight="1"/>
+    <row r="148" ht="12" customHeight="1"/>
+    <row r="149" ht="12" customHeight="1"/>
+    <row r="150" ht="12" customHeight="1"/>
+    <row r="151" ht="12" customHeight="1"/>
+    <row r="152" ht="12" customHeight="1"/>
+    <row r="153" ht="12" customHeight="1"/>
+    <row r="154" ht="12" customHeight="1"/>
+    <row r="155" ht="12" customHeight="1"/>
+    <row r="156" ht="12" customHeight="1"/>
+    <row r="157" ht="12" customHeight="1"/>
+    <row r="158" ht="12" customHeight="1"/>
+    <row r="159" ht="12" customHeight="1"/>
+    <row r="160" ht="12" customHeight="1"/>
+    <row r="161" ht="12" customHeight="1"/>
+    <row r="162" ht="12" customHeight="1"/>
+    <row r="163" ht="12" customHeight="1"/>
+    <row r="164" ht="12" customHeight="1"/>
+    <row r="165" ht="12" customHeight="1"/>
+    <row r="166" ht="12" customHeight="1"/>
+    <row r="167" ht="12" customHeight="1"/>
+    <row r="168" ht="12" customHeight="1"/>
+    <row r="169" ht="12" customHeight="1"/>
+    <row r="170" ht="12" customHeight="1"/>
+    <row r="171" ht="12" customHeight="1"/>
+    <row r="172" ht="12" customHeight="1"/>
+    <row r="173" ht="12" customHeight="1"/>
+    <row r="174" ht="12" customHeight="1"/>
+    <row r="175" ht="12" customHeight="1"/>
+    <row r="176" ht="12" customHeight="1"/>
+    <row r="177" ht="12" customHeight="1"/>
+    <row r="178" ht="12" customHeight="1"/>
+    <row r="179" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A77:J77"/>
+  <mergeCells count="148">
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="A109:J109"/>
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
@@ -6206,49 +8623,33 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A127:J127"/>
+    <mergeCell ref="A130:J130"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6262,7 +8663,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6305,7 +8706,7 @@
       <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -6361,11 +8762,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -6373,7 +8774,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -6393,11 +8794,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -6405,7 +8806,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -6426,7 +8827,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>88</v>
+        <v>97.701149425287355</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>25</v>
@@ -6442,7 +8843,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>64</v>
+        <v>62.068965517241381</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>25</v>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kiemthutest\newupdate_thu7\CuaHangDoChoi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-150" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="300" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1357,7 +1362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2442,26 +2447,6 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="24" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2483,12 +2468,138 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2498,228 +2609,122 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="24" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2732,6 +2737,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5074,7 +5082,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5109,7 +5117,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5392,11 +5400,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5405,11 +5413,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5622,8 +5630,8 @@
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5642,9 +5650,9 @@
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5655,9 +5663,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5670,51 +5678,51 @@
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="185"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5723,7 +5731,7 @@
       </c>
       <c r="B6" s="95">
         <f>COUNTIF(I12:I138,"Pass")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
@@ -5735,9 +5743,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5746,7 +5754,7 @@
       </c>
       <c r="B7" s="96">
         <f>COUNTIF(I12:I138,"Fail")</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>71</v>
@@ -5758,16 +5766,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="182"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5777,86 +5785,86 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="191" t="s">
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="168" t="s">
+      <c r="I9" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="168" t="s">
+      <c r="J9" s="205" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="168"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="193"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="86"/>
       <c r="H13" s="122">
         <v>43774</v>
@@ -5870,17 +5878,17 @@
       <c r="A14" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="86"/>
       <c r="H14" s="122">
         <v>43774</v>
@@ -5894,17 +5902,17 @@
       <c r="A15" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="86"/>
       <c r="H15" s="122">
         <v>43774</v>
@@ -5918,17 +5926,17 @@
       <c r="A16" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="156" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="86"/>
       <c r="H16" s="122">
         <v>43774</v>
@@ -5942,17 +5950,17 @@
       <c r="A17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="156" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="86"/>
       <c r="H17" s="122">
         <v>43774</v>
@@ -5966,17 +5974,17 @@
       <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="156" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="86"/>
       <c r="H18" s="122">
         <v>43774</v>
@@ -5990,17 +5998,17 @@
       <c r="A19" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="156" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="86"/>
       <c r="H19" s="122">
         <v>43774</v>
@@ -6014,17 +6022,17 @@
       <c r="A20" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="162" t="s">
+      <c r="D20" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="86"/>
       <c r="H20" s="122">
         <v>43774</v>
@@ -6038,17 +6046,17 @@
       <c r="A21" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="86"/>
       <c r="H21" s="122">
         <v>43774</v>
@@ -6062,17 +6070,17 @@
       <c r="A22" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="86"/>
       <c r="H22" s="122">
         <v>43774</v>
@@ -6086,17 +6094,17 @@
       <c r="A23" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="216" t="s">
+      <c r="B23" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
       <c r="G23" s="86"/>
       <c r="H23" s="122">
         <v>43774</v>
@@ -6107,23 +6115,23 @@
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="177"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="222"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="224"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
       <c r="F25" s="113"/>
@@ -6133,812 +6141,812 @@
       <c r="J25" s="114"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="198"/>
-    </row>
-    <row r="27" spans="1:10" s="212" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="206" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
+    </row>
+    <row r="27" spans="1:10" s="154" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A27" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="213" t="s">
+      <c r="D27" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="214">
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="155">
         <v>43774</v>
       </c>
       <c r="I27" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="211"/>
-    </row>
-    <row r="28" spans="1:10" s="212" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A28" s="206" t="s">
+      <c r="J27" s="153"/>
+    </row>
+    <row r="28" spans="1:10" s="154" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A28" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="207" t="s">
+      <c r="B28" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="208" t="s">
+      <c r="C28" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="213" t="s">
+      <c r="D28" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="214">
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="155">
         <v>43774</v>
       </c>
       <c r="I28" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="211"/>
-    </row>
-    <row r="29" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A29" s="206" t="s">
+      <c r="J28" s="153"/>
+    </row>
+    <row r="29" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A29" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="213" t="s">
+      <c r="D29" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="214">
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="155">
         <v>43774</v>
       </c>
       <c r="I29" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="211"/>
-    </row>
-    <row r="30" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A30" s="206" t="s">
+      <c r="J29" s="153"/>
+    </row>
+    <row r="30" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A30" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="207" t="s">
+      <c r="B30" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="213" t="s">
+      <c r="D30" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="214">
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="155">
         <v>43774</v>
       </c>
       <c r="I30" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="211"/>
-    </row>
-    <row r="31" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A31" s="206" t="s">
+      <c r="J30" s="153"/>
+    </row>
+    <row r="31" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A31" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="213" t="s">
+      <c r="D31" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="214">
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="155">
         <v>43774</v>
       </c>
       <c r="I31" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="211"/>
-    </row>
-    <row r="32" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A32" s="206" t="s">
+      <c r="J31" s="153"/>
+    </row>
+    <row r="32" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A32" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="208" t="s">
+      <c r="C32" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="213" t="s">
+      <c r="D32" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="214">
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="155">
         <v>43774</v>
       </c>
       <c r="I32" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="211"/>
-    </row>
-    <row r="33" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A33" s="206" t="s">
+      <c r="J32" s="153"/>
+    </row>
+    <row r="33" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A33" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="208" t="s">
+      <c r="C33" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="214">
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="155">
         <v>43774</v>
       </c>
       <c r="I33" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="211"/>
-    </row>
-    <row r="34" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A34" s="206" t="s">
+      <c r="J33" s="153"/>
+    </row>
+    <row r="34" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A34" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="207" t="s">
+      <c r="B34" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="208" t="s">
+      <c r="C34" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="213" t="s">
+      <c r="D34" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="214">
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="155">
         <v>43774</v>
       </c>
       <c r="I34" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="211"/>
-    </row>
-    <row r="35" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A35" s="206" t="s">
+      <c r="J34" s="153"/>
+    </row>
+    <row r="35" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A35" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="207" t="s">
+      <c r="B35" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="208" t="s">
+      <c r="C35" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="213" t="s">
+      <c r="D35" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="214">
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="155">
         <v>43774</v>
       </c>
       <c r="I35" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="211"/>
-    </row>
-    <row r="36" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A36" s="206" t="s">
+      <c r="J35" s="153"/>
+    </row>
+    <row r="36" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A36" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="208" t="s">
+      <c r="C36" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="213" t="s">
+      <c r="D36" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="214">
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="155">
         <v>43774</v>
       </c>
       <c r="I36" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="211"/>
-    </row>
-    <row r="37" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A37" s="206" t="s">
+      <c r="J36" s="153"/>
+    </row>
+    <row r="37" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A37" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="207" t="s">
+      <c r="B37" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="208" t="s">
+      <c r="C37" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="214">
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="155">
         <v>43774</v>
       </c>
       <c r="I37" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="211"/>
-    </row>
-    <row r="38" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A38" s="206" t="s">
+      <c r="J37" s="153"/>
+    </row>
+    <row r="38" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A38" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="208" t="s">
+      <c r="C38" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="213" t="s">
+      <c r="D38" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="214">
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="155">
         <v>43774</v>
       </c>
       <c r="I38" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="211"/>
-    </row>
-    <row r="39" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A39" s="206" t="s">
+      <c r="J38" s="153"/>
+    </row>
+    <row r="39" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A39" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="208" t="s">
+      <c r="C39" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="213" t="s">
+      <c r="D39" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="214">
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="155">
         <v>43774</v>
       </c>
       <c r="I39" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="211"/>
-    </row>
-    <row r="40" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A40" s="206" t="s">
+      <c r="J39" s="153"/>
+    </row>
+    <row r="40" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A40" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="207" t="s">
+      <c r="B40" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="208" t="s">
+      <c r="C40" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="213" t="s">
+      <c r="D40" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="214">
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="155">
         <v>43774</v>
       </c>
       <c r="I40" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="211"/>
-    </row>
-    <row r="41" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A41" s="206" t="s">
+      <c r="J40" s="153"/>
+    </row>
+    <row r="41" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A41" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="208" t="s">
+      <c r="C41" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="213" t="s">
+      <c r="D41" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="214">
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="155">
         <v>43774</v>
       </c>
       <c r="I41" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="211"/>
-    </row>
-    <row r="42" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A42" s="206" t="s">
+      <c r="J41" s="153"/>
+    </row>
+    <row r="42" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A42" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="207" t="s">
+      <c r="B42" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="208" t="s">
+      <c r="C42" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="213" t="s">
+      <c r="D42" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="214">
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="155">
         <v>43774</v>
       </c>
       <c r="I42" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="211"/>
-    </row>
-    <row r="43" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A43" s="206" t="s">
+      <c r="J42" s="153"/>
+    </row>
+    <row r="43" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A43" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="207" t="s">
+      <c r="B43" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="208" t="s">
+      <c r="C43" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="213" t="s">
+      <c r="D43" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="209"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="214">
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="155">
         <v>43774</v>
       </c>
       <c r="I43" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="211"/>
-    </row>
-    <row r="44" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A44" s="206" t="s">
+      <c r="J43" s="153"/>
+    </row>
+    <row r="44" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A44" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="207" t="s">
+      <c r="B44" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="208" t="s">
+      <c r="C44" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="213" t="s">
+      <c r="D44" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="214">
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="155">
         <v>43774</v>
       </c>
       <c r="I44" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J44" s="211"/>
-    </row>
-    <row r="45" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A45" s="206" t="s">
+      <c r="J44" s="153"/>
+    </row>
+    <row r="45" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A45" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="207" t="s">
+      <c r="B45" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="208" t="s">
+      <c r="C45" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="213" t="s">
+      <c r="D45" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="209"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="214">
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="155">
         <v>43774</v>
       </c>
       <c r="I45" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="211"/>
-    </row>
-    <row r="46" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A46" s="206" t="s">
+      <c r="J45" s="153"/>
+    </row>
+    <row r="46" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A46" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="207" t="s">
+      <c r="B46" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="208" t="s">
+      <c r="C46" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="213" t="s">
+      <c r="D46" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="209"/>
-      <c r="F46" s="209"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="214">
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="155">
         <v>43774</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="211"/>
-    </row>
-    <row r="47" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A47" s="206" t="s">
+      <c r="J46" s="153"/>
+    </row>
+    <row r="47" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A47" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="208" t="s">
+      <c r="C47" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="213" t="s">
+      <c r="D47" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="210"/>
-      <c r="H47" s="214">
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="155">
         <v>43774</v>
       </c>
       <c r="I47" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="211"/>
-    </row>
-    <row r="48" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A48" s="206" t="s">
+      <c r="J47" s="153"/>
+    </row>
+    <row r="48" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A48" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="207" t="s">
+      <c r="B48" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="208" t="s">
+      <c r="C48" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="213" t="s">
+      <c r="D48" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="209"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="214">
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="155">
         <v>43774</v>
       </c>
       <c r="I48" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="211"/>
-    </row>
-    <row r="49" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A49" s="206" t="s">
+      <c r="J48" s="153"/>
+    </row>
+    <row r="49" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A49" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="208" t="s">
+      <c r="C49" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="213" t="s">
+      <c r="D49" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="209"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="210"/>
-      <c r="H49" s="214">
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="155">
         <v>43774</v>
       </c>
       <c r="I49" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="211"/>
-    </row>
-    <row r="50" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A50" s="206" t="s">
+      <c r="J49" s="153"/>
+    </row>
+    <row r="50" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A50" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="207" t="s">
+      <c r="B50" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="208" t="s">
+      <c r="C50" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="213" t="s">
+      <c r="D50" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="209"/>
-      <c r="F50" s="209"/>
-      <c r="G50" s="210"/>
-      <c r="H50" s="214">
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="155">
         <v>43774</v>
       </c>
       <c r="I50" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="211"/>
-    </row>
-    <row r="51" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A51" s="206" t="s">
+      <c r="J50" s="153"/>
+    </row>
+    <row r="51" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A51" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="208" t="s">
+      <c r="C51" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="213" t="s">
+      <c r="D51" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="209"/>
-      <c r="F51" s="209"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="214">
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="155">
         <v>43774</v>
       </c>
       <c r="I51" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="211"/>
-    </row>
-    <row r="52" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A52" s="206" t="s">
+      <c r="J51" s="153"/>
+    </row>
+    <row r="52" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A52" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="207" t="s">
+      <c r="B52" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="208" t="s">
+      <c r="C52" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="213" t="s">
+      <c r="D52" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="209"/>
-      <c r="F52" s="209"/>
-      <c r="G52" s="210"/>
-      <c r="H52" s="214">
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="155">
         <v>43774</v>
       </c>
       <c r="I52" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J52" s="211"/>
-    </row>
-    <row r="53" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A53" s="206" t="s">
+      <c r="J52" s="153"/>
+    </row>
+    <row r="53" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A53" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="208" t="s">
+      <c r="C53" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="213" t="s">
+      <c r="D53" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="209"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="214">
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="155">
         <v>43774</v>
       </c>
       <c r="I53" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="211"/>
-    </row>
-    <row r="54" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A54" s="206" t="s">
+      <c r="J53" s="153"/>
+    </row>
+    <row r="54" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A54" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="207" t="s">
+      <c r="B54" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="208" t="s">
+      <c r="C54" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="213" t="s">
+      <c r="D54" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="209"/>
-      <c r="F54" s="209"/>
-      <c r="G54" s="210"/>
-      <c r="H54" s="214">
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="155">
         <v>43774</v>
       </c>
       <c r="I54" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="211"/>
-    </row>
-    <row r="55" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A55" s="206" t="s">
+      <c r="J54" s="153"/>
+    </row>
+    <row r="55" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A55" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="208" t="s">
+      <c r="C55" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="213" t="s">
+      <c r="D55" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="209"/>
-      <c r="F55" s="209"/>
-      <c r="G55" s="210"/>
-      <c r="H55" s="214">
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="155">
         <v>43774</v>
       </c>
       <c r="I55" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="211"/>
-    </row>
-    <row r="56" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A56" s="206" t="s">
+      <c r="J55" s="153"/>
+    </row>
+    <row r="56" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A56" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="207" t="s">
+      <c r="B56" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="208" t="s">
+      <c r="C56" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="213" t="s">
+      <c r="D56" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="209"/>
-      <c r="F56" s="209"/>
-      <c r="G56" s="210"/>
-      <c r="H56" s="214">
+      <c r="E56" s="176"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="155">
         <v>43774</v>
       </c>
       <c r="I56" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="211"/>
-    </row>
-    <row r="57" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A57" s="206" t="s">
+      <c r="J56" s="153"/>
+    </row>
+    <row r="57" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A57" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="207" t="s">
+      <c r="B57" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="208" t="s">
+      <c r="C57" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="213" t="s">
+      <c r="D57" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="209"/>
-      <c r="F57" s="209"/>
-      <c r="G57" s="210"/>
-      <c r="H57" s="214">
+      <c r="E57" s="176"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="155">
         <v>43774</v>
       </c>
       <c r="I57" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J57" s="211"/>
-    </row>
-    <row r="58" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A58" s="206" t="s">
+      <c r="J57" s="153"/>
+    </row>
+    <row r="58" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A58" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="207" t="s">
+      <c r="B58" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="208" t="s">
+      <c r="C58" s="151" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="213" t="s">
+      <c r="D58" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="209"/>
-      <c r="F58" s="209"/>
-      <c r="G58" s="210"/>
-      <c r="H58" s="214">
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="155">
         <v>43774</v>
       </c>
       <c r="I58" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="211"/>
-    </row>
-    <row r="59" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A59" s="206" t="s">
+      <c r="J58" s="153"/>
+    </row>
+    <row r="59" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A59" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="208" t="s">
+      <c r="C59" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="213" t="s">
+      <c r="D59" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="210"/>
-      <c r="H59" s="214">
+      <c r="E59" s="176"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="155">
         <v>43774</v>
       </c>
       <c r="I59" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="211"/>
-    </row>
-    <row r="60" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="J59" s="153"/>
+    </row>
+    <row r="60" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
       <c r="A60" s="115" t="s">
         <v>184</v>
       </c>
@@ -6948,11 +6956,11 @@
       <c r="C60" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="215" t="s">
+      <c r="D60" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="176"/>
-      <c r="F60" s="176"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
       <c r="G60" s="118"/>
       <c r="H60" s="121">
         <v>43774</v>
@@ -6964,79 +6972,79 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A61" s="206" t="s">
+    <row r="61" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A61" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="207" t="s">
+      <c r="B61" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="208" t="s">
+      <c r="C61" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="213" t="s">
+      <c r="D61" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="209"/>
-      <c r="F61" s="209"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="214">
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="155">
         <v>43774</v>
       </c>
       <c r="I61" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="211"/>
-    </row>
-    <row r="62" spans="1:10" s="212" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A62" s="206" t="s">
+      <c r="J61" s="153"/>
+    </row>
+    <row r="62" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A62" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="207" t="s">
+      <c r="B62" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="208" t="s">
+      <c r="C62" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="213" t="s">
+      <c r="D62" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="209"/>
-      <c r="F62" s="209"/>
-      <c r="G62" s="210"/>
-      <c r="H62" s="214">
+      <c r="E62" s="176"/>
+      <c r="F62" s="176"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="155">
         <v>43774</v>
       </c>
       <c r="I62" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="211"/>
-    </row>
-    <row r="63" spans="1:10" s="212" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A63" s="206" t="s">
+      <c r="J62" s="153"/>
+    </row>
+    <row r="63" spans="1:10" s="154" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A63" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="207" t="s">
+      <c r="B63" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="208" t="s">
+      <c r="C63" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="213" t="s">
+      <c r="D63" s="175" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="209"/>
-      <c r="F63" s="209"/>
-      <c r="G63" s="210"/>
-      <c r="H63" s="214">
+      <c r="E63" s="176"/>
+      <c r="F63" s="176"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="155">
         <v>43774</v>
       </c>
       <c r="I63" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J63" s="211"/>
-    </row>
-    <row r="64" spans="1:10" s="212" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="J63" s="153"/>
+    </row>
+    <row r="64" spans="1:10" s="154" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
       <c r="A64" s="115" t="s">
         <v>198</v>
       </c>
@@ -7046,13 +7054,13 @@
       <c r="C64" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="215" t="s">
+      <c r="D64" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="176"/>
-      <c r="F64" s="176"/>
+      <c r="E64" s="173"/>
+      <c r="F64" s="173"/>
       <c r="G64" s="118"/>
-      <c r="H64" s="217">
+      <c r="H64" s="157">
         <v>43774</v>
       </c>
       <c r="I64" s="119" t="s">
@@ -7062,104 +7070,104 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="222" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A65" s="223" t="s">
+    <row r="65" spans="1:10" s="162" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A65" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="B65" s="207" t="s">
+      <c r="B65" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="208" t="s">
+      <c r="C65" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="227" t="s">
+      <c r="D65" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="228"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="224"/>
-      <c r="H65" s="214">
+      <c r="E65" s="182"/>
+      <c r="F65" s="182"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="155">
         <v>43774</v>
       </c>
-      <c r="I65" s="225" t="s">
+      <c r="I65" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="J65" s="226"/>
-    </row>
-    <row r="66" spans="1:10" s="222" customFormat="1" ht="95.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="223" t="s">
+      <c r="J65" s="166"/>
+    </row>
+    <row r="66" spans="1:10" s="162" customFormat="1" ht="95.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="163" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="207" t="s">
+      <c r="B66" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="208" t="s">
+      <c r="C66" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="227" t="s">
+      <c r="D66" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="224"/>
-      <c r="H66" s="214">
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="155">
         <v>43774</v>
       </c>
-      <c r="I66" s="229" t="s">
+      <c r="I66" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="226"/>
-    </row>
-    <row r="67" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A67" s="223" t="s">
+      <c r="J66" s="166"/>
+    </row>
+    <row r="67" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A67" s="163" t="s">
         <v>206</v>
       </c>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="208" t="s">
+      <c r="C67" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="227" t="s">
+      <c r="D67" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="228"/>
-      <c r="F67" s="228"/>
-      <c r="G67" s="224"/>
-      <c r="H67" s="214">
+      <c r="E67" s="182"/>
+      <c r="F67" s="182"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="155">
         <v>43774</v>
       </c>
-      <c r="I67" s="229" t="s">
+      <c r="I67" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="226"/>
-    </row>
-    <row r="68" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A68" s="223" t="s">
+      <c r="J67" s="166"/>
+    </row>
+    <row r="68" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A68" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="207" t="s">
+      <c r="B68" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="208" t="s">
+      <c r="C68" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="227" t="s">
+      <c r="D68" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="224"/>
-      <c r="H68" s="214">
+      <c r="E68" s="182"/>
+      <c r="F68" s="182"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="155">
         <v>43774</v>
       </c>
-      <c r="I68" s="229" t="s">
+      <c r="I68" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="226"/>
-    </row>
-    <row r="69" spans="1:10" s="222" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A69" s="218" t="s">
+      <c r="J68" s="166"/>
+    </row>
+    <row r="69" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A69" s="158" t="s">
         <v>210</v>
       </c>
       <c r="B69" s="116" t="s">
@@ -7168,69 +7176,69 @@
       <c r="C69" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="230" t="s">
+      <c r="D69" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="231"/>
-      <c r="F69" s="231"/>
-      <c r="G69" s="219"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="159"/>
       <c r="H69" s="121">
         <v>43774</v>
       </c>
-      <c r="I69" s="220" t="s">
+      <c r="I69" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="221" t="s">
+      <c r="J69" s="161" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="212" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A70" s="206" t="s">
+    <row r="70" spans="1:10" s="154" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="207" t="s">
+      <c r="B70" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="208" t="s">
+      <c r="C70" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="213" t="s">
+      <c r="D70" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="209"/>
-      <c r="F70" s="209"/>
-      <c r="G70" s="210"/>
-      <c r="H70" s="214">
+      <c r="E70" s="176"/>
+      <c r="F70" s="176"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="155">
         <v>43774</v>
       </c>
       <c r="I70" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J70" s="211"/>
-    </row>
-    <row r="71" spans="1:10" s="212" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A71" s="206" t="s">
+      <c r="J70" s="153"/>
+    </row>
+    <row r="71" spans="1:10" s="154" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="208" t="s">
+      <c r="C71" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="213" t="s">
+      <c r="D71" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="209"/>
-      <c r="F71" s="209"/>
-      <c r="G71" s="210"/>
-      <c r="H71" s="214">
+      <c r="E71" s="176"/>
+      <c r="F71" s="176"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="155">
         <v>43774</v>
       </c>
       <c r="I71" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="211"/>
+      <c r="J71" s="153"/>
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
       <c r="A72" s="88" t="s">
@@ -7242,11 +7250,11 @@
       <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="162" t="s">
+      <c r="D72" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="163"/>
-      <c r="F72" s="163"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
       <c r="G72" s="86"/>
       <c r="H72" s="123">
         <v>43774</v>
@@ -7266,11 +7274,11 @@
       <c r="C73" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="162" t="s">
+      <c r="D73" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
       <c r="G73" s="86"/>
       <c r="H73" s="122">
         <v>43774</v>
@@ -7290,11 +7298,11 @@
       <c r="C74" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="162" t="s">
+      <c r="D74" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
+      <c r="E74" s="179"/>
+      <c r="F74" s="179"/>
       <c r="G74" s="86"/>
       <c r="H74" s="122">
         <v>43774</v>
@@ -7314,11 +7322,11 @@
       <c r="C75" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="162" t="s">
+      <c r="D75" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="163"/>
-      <c r="F75" s="199"/>
+      <c r="E75" s="179"/>
+      <c r="F75" s="180"/>
       <c r="G75" s="87"/>
       <c r="H75" s="122">
         <v>43774</v>
@@ -7338,11 +7346,11 @@
       <c r="C76" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="162" t="s">
+      <c r="D76" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="163"/>
-      <c r="F76" s="199"/>
+      <c r="E76" s="179"/>
+      <c r="F76" s="180"/>
       <c r="G76" s="124"/>
       <c r="H76" s="122">
         <v>43774</v>
@@ -7362,11 +7370,11 @@
       <c r="C77" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="162" t="s">
+      <c r="D77" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="163"/>
-      <c r="F77" s="199"/>
+      <c r="E77" s="179"/>
+      <c r="F77" s="180"/>
       <c r="G77" s="124"/>
       <c r="H77" s="122">
         <v>43774</v>
@@ -7386,11 +7394,11 @@
       <c r="C78" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="162" t="s">
+      <c r="D78" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="163"/>
-      <c r="F78" s="199"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="180"/>
       <c r="G78" s="124"/>
       <c r="H78" s="122">
         <v>43774</v>
@@ -7410,11 +7418,11 @@
       <c r="C79" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="162" t="s">
+      <c r="D79" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="E79" s="163"/>
-      <c r="F79" s="199"/>
+      <c r="E79" s="179"/>
+      <c r="F79" s="180"/>
       <c r="G79" s="124"/>
       <c r="H79" s="122">
         <v>43774</v>
@@ -7434,11 +7442,11 @@
       <c r="C80" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="162" t="s">
+      <c r="D80" s="178" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="163"/>
-      <c r="F80" s="199"/>
+      <c r="E80" s="179"/>
+      <c r="F80" s="180"/>
       <c r="G80" s="87"/>
       <c r="H80" s="122">
         <v>43774</v>
@@ -7458,11 +7466,11 @@
       <c r="C81" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="162" t="s">
+      <c r="D81" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="163"/>
-      <c r="F81" s="199"/>
+      <c r="E81" s="179"/>
+      <c r="F81" s="180"/>
       <c r="G81" s="124"/>
       <c r="H81" s="123">
         <v>43774</v>
@@ -7482,11 +7490,11 @@
       <c r="C82" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="162" t="s">
+      <c r="D82" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="E82" s="163"/>
-      <c r="F82" s="199"/>
+      <c r="E82" s="179"/>
+      <c r="F82" s="180"/>
       <c r="G82" s="124"/>
       <c r="H82" s="123">
         <v>43774</v>
@@ -7506,11 +7514,11 @@
       <c r="C83" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="162" t="s">
+      <c r="D83" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="163"/>
-      <c r="F83" s="199"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="180"/>
       <c r="G83" s="124"/>
       <c r="H83" s="123">
         <v>43774</v>
@@ -7530,11 +7538,11 @@
       <c r="C84" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="D84" s="162" t="s">
+      <c r="D84" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="E84" s="163"/>
-      <c r="F84" s="199"/>
+      <c r="E84" s="179"/>
+      <c r="F84" s="180"/>
       <c r="G84" s="124"/>
       <c r="H84" s="123">
         <v>43774</v>
@@ -7554,11 +7562,11 @@
       <c r="C85" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="162" t="s">
+      <c r="D85" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="E85" s="163"/>
-      <c r="F85" s="199"/>
+      <c r="E85" s="179"/>
+      <c r="F85" s="180"/>
       <c r="G85" s="124"/>
       <c r="H85" s="123">
         <v>43774</v>
@@ -7578,11 +7586,11 @@
       <c r="C86" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="D86" s="162" t="s">
+      <c r="D86" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="163"/>
-      <c r="F86" s="199"/>
+      <c r="E86" s="179"/>
+      <c r="F86" s="180"/>
       <c r="G86" s="124"/>
       <c r="H86" s="123">
         <v>43774</v>
@@ -7604,11 +7612,11 @@
       <c r="C87" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="162" t="s">
+      <c r="D87" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="163"/>
-      <c r="F87" s="199"/>
+      <c r="E87" s="179"/>
+      <c r="F87" s="180"/>
       <c r="G87" s="124"/>
       <c r="H87" s="123">
         <v>43774</v>
@@ -7628,11 +7636,11 @@
       <c r="C88" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="162" t="s">
+      <c r="D88" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="163"/>
-      <c r="F88" s="199"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="180"/>
       <c r="G88" s="124"/>
       <c r="H88" s="123">
         <v>43774</v>
@@ -7652,11 +7660,11 @@
       <c r="C89" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="162" t="s">
+      <c r="D89" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E89" s="163"/>
-      <c r="F89" s="199"/>
+      <c r="E89" s="179"/>
+      <c r="F89" s="180"/>
       <c r="G89" s="124"/>
       <c r="H89" s="123">
         <v>43774</v>
@@ -7676,11 +7684,11 @@
       <c r="C90" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="D90" s="162" t="s">
+      <c r="D90" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E90" s="163"/>
-      <c r="F90" s="199"/>
+      <c r="E90" s="179"/>
+      <c r="F90" s="180"/>
       <c r="G90" s="124"/>
       <c r="H90" s="123">
         <v>43774</v>
@@ -7700,11 +7708,11 @@
       <c r="C91" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="162" t="s">
+      <c r="D91" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="163"/>
-      <c r="F91" s="199"/>
+      <c r="E91" s="179"/>
+      <c r="F91" s="180"/>
       <c r="G91" s="124"/>
       <c r="H91" s="123">
         <v>43774</v>
@@ -7724,11 +7732,11 @@
       <c r="C92" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="162" t="s">
+      <c r="D92" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="E92" s="163"/>
-      <c r="F92" s="199"/>
+      <c r="E92" s="179"/>
+      <c r="F92" s="180"/>
       <c r="G92" s="124"/>
       <c r="H92" s="123">
         <v>43774</v>
@@ -7748,11 +7756,11 @@
       <c r="C93" s="124" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="162" t="s">
+      <c r="D93" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="163"/>
-      <c r="F93" s="199"/>
+      <c r="E93" s="179"/>
+      <c r="F93" s="180"/>
       <c r="G93" s="124"/>
       <c r="H93" s="123">
         <v>43774</v>
@@ -7772,13 +7780,13 @@
       <c r="C94" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="215" t="s">
+      <c r="D94" s="172" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="176"/>
-      <c r="F94" s="232"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="174"/>
       <c r="G94" s="119"/>
-      <c r="H94" s="233">
+      <c r="H94" s="168">
         <v>43774</v>
       </c>
       <c r="I94" s="119" t="s">
@@ -7789,74 +7797,74 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A95" s="206" t="s">
+      <c r="A95" s="149" t="s">
         <v>262</v>
       </c>
-      <c r="B95" s="207" t="s">
+      <c r="B95" s="150" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="213" t="s">
+      <c r="D95" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="E95" s="209"/>
-      <c r="F95" s="234"/>
+      <c r="E95" s="176"/>
+      <c r="F95" s="177"/>
       <c r="G95" s="112"/>
-      <c r="H95" s="235">
+      <c r="H95" s="169">
         <v>43774</v>
       </c>
       <c r="I95" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="211"/>
+      <c r="J95" s="153"/>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A96" s="206" t="s">
+      <c r="A96" s="149" t="s">
         <v>264</v>
       </c>
-      <c r="B96" s="207" t="s">
+      <c r="B96" s="150" t="s">
         <v>125</v>
       </c>
       <c r="C96" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="213" t="s">
+      <c r="D96" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="E96" s="209"/>
-      <c r="F96" s="234"/>
+      <c r="E96" s="176"/>
+      <c r="F96" s="177"/>
       <c r="G96" s="112"/>
-      <c r="H96" s="235">
+      <c r="H96" s="169">
         <v>43774</v>
       </c>
       <c r="I96" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J96" s="211"/>
+      <c r="J96" s="153"/>
     </row>
     <row r="97" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A97" s="196" t="s">
+      <c r="A97" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="197"/>
-      <c r="C97" s="197"/>
-      <c r="D97" s="197"/>
-      <c r="E97" s="197"/>
-      <c r="F97" s="197"/>
-      <c r="G97" s="197"/>
-      <c r="H97" s="197"/>
-      <c r="I97" s="197"/>
-      <c r="J97" s="198"/>
+      <c r="B97" s="186"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="186"/>
+      <c r="E97" s="186"/>
+      <c r="F97" s="186"/>
+      <c r="G97" s="186"/>
+      <c r="H97" s="186"/>
+      <c r="I97" s="186"/>
+      <c r="J97" s="187"/>
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A98" s="88"/>
       <c r="B98" s="102"/>
       <c r="C98" s="103"/>
-      <c r="D98" s="195"/>
-      <c r="E98" s="163"/>
-      <c r="F98" s="163"/>
+      <c r="D98" s="196"/>
+      <c r="E98" s="179"/>
+      <c r="F98" s="179"/>
       <c r="G98" s="86"/>
       <c r="H98" s="135"/>
       <c r="I98" s="87"/>
@@ -7866,9 +7874,9 @@
       <c r="A99" s="88"/>
       <c r="B99" s="102"/>
       <c r="C99" s="103"/>
-      <c r="D99" s="195"/>
-      <c r="E99" s="163"/>
-      <c r="F99" s="163"/>
+      <c r="D99" s="196"/>
+      <c r="E99" s="179"/>
+      <c r="F99" s="179"/>
       <c r="G99" s="86"/>
       <c r="H99" s="135"/>
       <c r="I99" s="87"/>
@@ -7878,9 +7886,9 @@
       <c r="A100" s="88"/>
       <c r="B100" s="102"/>
       <c r="C100" s="103"/>
-      <c r="D100" s="195"/>
-      <c r="E100" s="163"/>
-      <c r="F100" s="163"/>
+      <c r="D100" s="196"/>
+      <c r="E100" s="179"/>
+      <c r="F100" s="179"/>
       <c r="G100" s="86"/>
       <c r="H100" s="136"/>
       <c r="I100" s="87"/>
@@ -7890,27 +7898,27 @@
       <c r="A101" s="88"/>
       <c r="B101" s="102"/>
       <c r="C101" s="103"/>
-      <c r="D101" s="195"/>
-      <c r="E101" s="163"/>
-      <c r="F101" s="163"/>
+      <c r="D101" s="196"/>
+      <c r="E101" s="179"/>
+      <c r="F101" s="179"/>
       <c r="G101" s="86"/>
       <c r="H101" s="135"/>
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
     </row>
     <row r="102" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A102" s="196" t="s">
+      <c r="A102" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="197"/>
-      <c r="C102" s="197"/>
-      <c r="D102" s="197"/>
-      <c r="E102" s="197"/>
-      <c r="F102" s="197"/>
-      <c r="G102" s="197"/>
-      <c r="H102" s="197"/>
-      <c r="I102" s="197"/>
-      <c r="J102" s="198"/>
+      <c r="B102" s="186"/>
+      <c r="C102" s="186"/>
+      <c r="D102" s="186"/>
+      <c r="E102" s="186"/>
+      <c r="F102" s="186"/>
+      <c r="G102" s="186"/>
+      <c r="H102" s="186"/>
+      <c r="I102" s="186"/>
+      <c r="J102" s="187"/>
     </row>
     <row r="103" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A103" s="88" t="s">
@@ -7922,11 +7930,11 @@
       <c r="C103" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="200" t="s">
+      <c r="D103" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="200"/>
-      <c r="F103" s="200"/>
+      <c r="E103" s="188"/>
+      <c r="F103" s="188"/>
       <c r="G103" s="130"/>
       <c r="H103" s="137">
         <v>43774</v>
@@ -7946,11 +7954,11 @@
       <c r="C104" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="204" t="s">
+      <c r="D104" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="205"/>
-      <c r="F104" s="205"/>
+      <c r="E104" s="192"/>
+      <c r="F104" s="192"/>
       <c r="G104" s="131"/>
       <c r="H104" s="141">
         <v>43774</v>
@@ -7960,57 +7968,57 @@
       </c>
       <c r="J104" s="128"/>
     </row>
-    <row r="105" spans="1:14" s="148" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
-      <c r="A105" s="115" t="s">
+    <row r="105" spans="1:14" s="235" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
+      <c r="A105" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="142" t="s">
+      <c r="B105" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="143" t="s">
+      <c r="C105" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="175" t="s">
+      <c r="D105" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="203"/>
-      <c r="F105" s="203"/>
-      <c r="G105" s="144"/>
-      <c r="H105" s="149">
+      <c r="E105" s="229"/>
+      <c r="F105" s="229"/>
+      <c r="G105" s="230"/>
+      <c r="H105" s="231">
         <v>43774</v>
       </c>
-      <c r="I105" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="146"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="147"/>
-      <c r="M105" s="147"/>
-      <c r="N105" s="147"/>
+      <c r="I105" s="232" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" s="233"/>
+      <c r="K105" s="234"/>
+      <c r="L105" s="234"/>
+      <c r="M105" s="234"/>
+      <c r="N105" s="234"/>
     </row>
     <row r="106" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
-      <c r="A106" s="151" t="s">
+      <c r="A106" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="B106" s="152" t="s">
+      <c r="B106" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="153" t="s">
+      <c r="C106" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="201" t="s">
+      <c r="D106" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="202"/>
-      <c r="F106" s="202"/>
+      <c r="E106" s="190"/>
+      <c r="F106" s="190"/>
       <c r="G106" s="131"/>
-      <c r="H106" s="154">
+      <c r="H106" s="146">
         <v>43774</v>
       </c>
-      <c r="I106" s="155" t="s">
+      <c r="I106" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="J106" s="156"/>
+      <c r="J106" s="148"/>
     </row>
     <row r="107" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
       <c r="A107" s="88" t="s">
@@ -8019,54 +8027,54 @@
       <c r="B107" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="153" t="s">
+      <c r="C107" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="162" t="s">
+      <c r="D107" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="163"/>
-      <c r="F107" s="199"/>
+      <c r="E107" s="179"/>
+      <c r="F107" s="180"/>
       <c r="G107" s="130"/>
       <c r="H107" s="137"/>
-      <c r="I107" s="150"/>
+      <c r="I107" s="142"/>
       <c r="J107" s="94"/>
     </row>
     <row r="108" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A108" s="159" t="s">
+      <c r="A108" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="160"/>
-      <c r="C108" s="160"/>
-      <c r="D108" s="160"/>
-      <c r="E108" s="160"/>
-      <c r="F108" s="160"/>
-      <c r="G108" s="160"/>
-      <c r="H108" s="160"/>
-      <c r="I108" s="160"/>
-      <c r="J108" s="161"/>
+      <c r="B108" s="194"/>
+      <c r="C108" s="194"/>
+      <c r="D108" s="194"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="194"/>
+      <c r="G108" s="194"/>
+      <c r="H108" s="194"/>
+      <c r="I108" s="194"/>
+      <c r="J108" s="195"/>
     </row>
     <row r="109" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A109" s="159" t="s">
+      <c r="A109" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="160"/>
-      <c r="C109" s="160"/>
-      <c r="D109" s="160"/>
-      <c r="E109" s="160"/>
-      <c r="F109" s="160"/>
-      <c r="G109" s="160"/>
-      <c r="H109" s="160"/>
-      <c r="I109" s="160"/>
-      <c r="J109" s="161"/>
+      <c r="B109" s="194"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="194"/>
+      <c r="E109" s="194"/>
+      <c r="F109" s="194"/>
+      <c r="G109" s="194"/>
+      <c r="H109" s="194"/>
+      <c r="I109" s="194"/>
+      <c r="J109" s="195"/>
     </row>
     <row r="110" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A110" s="88"/>
       <c r="B110" s="97"/>
       <c r="C110" s="92"/>
-      <c r="D110" s="162"/>
-      <c r="E110" s="163"/>
-      <c r="F110" s="163"/>
+      <c r="D110" s="178"/>
+      <c r="E110" s="179"/>
+      <c r="F110" s="179"/>
       <c r="G110" s="131"/>
       <c r="H110" s="138"/>
       <c r="I110" s="100"/>
@@ -8076,9 +8084,9 @@
       <c r="A111" s="88"/>
       <c r="B111" s="97"/>
       <c r="C111" s="92"/>
-      <c r="D111" s="162"/>
-      <c r="E111" s="163"/>
-      <c r="F111" s="163"/>
+      <c r="D111" s="178"/>
+      <c r="E111" s="179"/>
+      <c r="F111" s="179"/>
       <c r="G111" s="131"/>
       <c r="H111" s="138"/>
       <c r="I111" s="100"/>
@@ -8088,9 +8096,9 @@
       <c r="A112" s="88"/>
       <c r="B112" s="97"/>
       <c r="C112" s="92"/>
-      <c r="D112" s="162"/>
-      <c r="E112" s="163"/>
-      <c r="F112" s="163"/>
+      <c r="D112" s="178"/>
+      <c r="E112" s="179"/>
+      <c r="F112" s="179"/>
       <c r="G112" s="131"/>
       <c r="H112" s="138"/>
       <c r="I112" s="100"/>
@@ -8100,9 +8108,9 @@
       <c r="A113" s="88"/>
       <c r="B113" s="97"/>
       <c r="C113" s="92"/>
-      <c r="D113" s="162"/>
-      <c r="E113" s="163"/>
-      <c r="F113" s="163"/>
+      <c r="D113" s="178"/>
+      <c r="E113" s="179"/>
+      <c r="F113" s="179"/>
       <c r="G113" s="131"/>
       <c r="H113" s="138"/>
       <c r="I113" s="100"/>
@@ -8112,9 +8120,9 @@
       <c r="A114" s="88"/>
       <c r="B114" s="97"/>
       <c r="C114" s="92"/>
-      <c r="D114" s="162"/>
-      <c r="E114" s="163"/>
-      <c r="F114" s="163"/>
+      <c r="D114" s="178"/>
+      <c r="E114" s="179"/>
+      <c r="F114" s="179"/>
       <c r="G114" s="131"/>
       <c r="H114" s="138"/>
       <c r="I114" s="100"/>
@@ -8124,9 +8132,9 @@
       <c r="A115" s="88"/>
       <c r="B115" s="97"/>
       <c r="C115" s="92"/>
-      <c r="D115" s="162"/>
-      <c r="E115" s="163"/>
-      <c r="F115" s="163"/>
+      <c r="D115" s="178"/>
+      <c r="E115" s="179"/>
+      <c r="F115" s="179"/>
       <c r="G115" s="131"/>
       <c r="H115" s="138"/>
       <c r="I115" s="100"/>
@@ -8136,61 +8144,61 @@
       <c r="A116" s="88"/>
       <c r="B116" s="97"/>
       <c r="C116" s="92"/>
-      <c r="D116" s="162"/>
-      <c r="E116" s="163"/>
-      <c r="F116" s="163"/>
+      <c r="D116" s="178"/>
+      <c r="E116" s="179"/>
+      <c r="F116" s="179"/>
       <c r="G116" s="131"/>
       <c r="H116" s="138"/>
       <c r="I116" s="100"/>
       <c r="J116" s="94"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A117" s="159" t="s">
+      <c r="A117" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="160"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="160"/>
-      <c r="E117" s="160"/>
-      <c r="F117" s="160"/>
-      <c r="G117" s="160"/>
-      <c r="H117" s="160"/>
-      <c r="I117" s="160"/>
-      <c r="J117" s="161"/>
+      <c r="B117" s="194"/>
+      <c r="C117" s="194"/>
+      <c r="D117" s="194"/>
+      <c r="E117" s="194"/>
+      <c r="F117" s="194"/>
+      <c r="G117" s="194"/>
+      <c r="H117" s="194"/>
+      <c r="I117" s="194"/>
+      <c r="J117" s="195"/>
     </row>
     <row r="118" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A118" s="88"/>
       <c r="B118" s="97"/>
       <c r="C118" s="92"/>
-      <c r="D118" s="162"/>
-      <c r="E118" s="163"/>
-      <c r="F118" s="163"/>
+      <c r="D118" s="178"/>
+      <c r="E118" s="179"/>
+      <c r="F118" s="179"/>
       <c r="G118" s="131"/>
       <c r="H118" s="138"/>
       <c r="I118" s="100"/>
       <c r="J118" s="94"/>
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A119" s="159" t="s">
+      <c r="A119" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="160"/>
-      <c r="C119" s="160"/>
-      <c r="D119" s="160"/>
-      <c r="E119" s="160"/>
-      <c r="F119" s="160"/>
-      <c r="G119" s="160"/>
-      <c r="H119" s="160"/>
-      <c r="I119" s="160"/>
-      <c r="J119" s="161"/>
+      <c r="B119" s="194"/>
+      <c r="C119" s="194"/>
+      <c r="D119" s="194"/>
+      <c r="E119" s="194"/>
+      <c r="F119" s="194"/>
+      <c r="G119" s="194"/>
+      <c r="H119" s="194"/>
+      <c r="I119" s="194"/>
+      <c r="J119" s="195"/>
     </row>
     <row r="120" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A120" s="88"/>
       <c r="B120" s="97"/>
       <c r="C120" s="92"/>
-      <c r="D120" s="162"/>
-      <c r="E120" s="163"/>
-      <c r="F120" s="163"/>
+      <c r="D120" s="178"/>
+      <c r="E120" s="179"/>
+      <c r="F120" s="179"/>
       <c r="G120" s="131"/>
       <c r="H120" s="138"/>
       <c r="I120" s="106"/>
@@ -8200,9 +8208,9 @@
       <c r="A121" s="88"/>
       <c r="B121" s="97"/>
       <c r="C121" s="92"/>
-      <c r="D121" s="162"/>
-      <c r="E121" s="163"/>
-      <c r="F121" s="163"/>
+      <c r="D121" s="178"/>
+      <c r="E121" s="179"/>
+      <c r="F121" s="179"/>
       <c r="G121" s="131"/>
       <c r="H121" s="138"/>
       <c r="I121" s="100"/>
@@ -8212,35 +8220,35 @@
       <c r="A122" s="88"/>
       <c r="B122" s="97"/>
       <c r="C122" s="92"/>
-      <c r="D122" s="162"/>
-      <c r="E122" s="163"/>
-      <c r="F122" s="163"/>
+      <c r="D122" s="178"/>
+      <c r="E122" s="179"/>
+      <c r="F122" s="179"/>
       <c r="G122" s="131"/>
       <c r="H122" s="138"/>
       <c r="I122" s="100"/>
       <c r="J122" s="94"/>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A123" s="159" t="s">
+      <c r="A123" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="160"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="160"/>
-      <c r="E123" s="160"/>
-      <c r="F123" s="160"/>
-      <c r="G123" s="160"/>
-      <c r="H123" s="160"/>
-      <c r="I123" s="160"/>
-      <c r="J123" s="161"/>
+      <c r="B123" s="194"/>
+      <c r="C123" s="194"/>
+      <c r="D123" s="194"/>
+      <c r="E123" s="194"/>
+      <c r="F123" s="194"/>
+      <c r="G123" s="194"/>
+      <c r="H123" s="194"/>
+      <c r="I123" s="194"/>
+      <c r="J123" s="195"/>
     </row>
     <row r="124" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A124" s="88"/>
       <c r="B124" s="97"/>
       <c r="C124" s="92"/>
-      <c r="D124" s="162"/>
-      <c r="E124" s="163"/>
-      <c r="F124" s="163"/>
+      <c r="D124" s="178"/>
+      <c r="E124" s="179"/>
+      <c r="F124" s="179"/>
       <c r="G124" s="131"/>
       <c r="H124" s="138"/>
       <c r="I124" s="100"/>
@@ -8250,49 +8258,49 @@
       <c r="A125" s="88"/>
       <c r="B125" s="97"/>
       <c r="C125" s="92"/>
-      <c r="D125" s="164"/>
-      <c r="E125" s="163"/>
-      <c r="F125" s="163"/>
+      <c r="D125" s="225"/>
+      <c r="E125" s="179"/>
+      <c r="F125" s="179"/>
       <c r="G125" s="131"/>
       <c r="H125" s="138"/>
       <c r="I125" s="100"/>
       <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A126" s="159" t="s">
+      <c r="A126" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="160"/>
-      <c r="C126" s="160"/>
-      <c r="D126" s="160"/>
-      <c r="E126" s="160"/>
-      <c r="F126" s="160"/>
-      <c r="G126" s="160"/>
-      <c r="H126" s="160"/>
-      <c r="I126" s="160"/>
-      <c r="J126" s="161"/>
+      <c r="B126" s="194"/>
+      <c r="C126" s="194"/>
+      <c r="D126" s="194"/>
+      <c r="E126" s="194"/>
+      <c r="F126" s="194"/>
+      <c r="G126" s="194"/>
+      <c r="H126" s="194"/>
+      <c r="I126" s="194"/>
+      <c r="J126" s="195"/>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A127" s="159" t="s">
+      <c r="A127" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="160"/>
-      <c r="C127" s="160"/>
-      <c r="D127" s="160"/>
-      <c r="E127" s="160"/>
-      <c r="F127" s="160"/>
-      <c r="G127" s="160"/>
-      <c r="H127" s="160"/>
-      <c r="I127" s="160"/>
-      <c r="J127" s="161"/>
+      <c r="B127" s="194"/>
+      <c r="C127" s="194"/>
+      <c r="D127" s="194"/>
+      <c r="E127" s="194"/>
+      <c r="F127" s="194"/>
+      <c r="G127" s="194"/>
+      <c r="H127" s="194"/>
+      <c r="I127" s="194"/>
+      <c r="J127" s="195"/>
     </row>
     <row r="128" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A128" s="88"/>
       <c r="B128" s="97"/>
       <c r="C128" s="92"/>
-      <c r="D128" s="162"/>
-      <c r="E128" s="163"/>
-      <c r="F128" s="163"/>
+      <c r="D128" s="178"/>
+      <c r="E128" s="179"/>
+      <c r="F128" s="179"/>
       <c r="G128" s="131"/>
       <c r="H128" s="138"/>
       <c r="I128" s="100"/>
@@ -8302,35 +8310,35 @@
       <c r="A129" s="88"/>
       <c r="B129" s="97"/>
       <c r="C129" s="92"/>
-      <c r="D129" s="162"/>
-      <c r="E129" s="163"/>
-      <c r="F129" s="163"/>
+      <c r="D129" s="178"/>
+      <c r="E129" s="179"/>
+      <c r="F129" s="179"/>
       <c r="G129" s="131"/>
       <c r="H129" s="138"/>
       <c r="I129" s="100"/>
       <c r="J129" s="94"/>
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A130" s="159" t="s">
+      <c r="A130" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="160"/>
-      <c r="C130" s="160"/>
-      <c r="D130" s="160"/>
-      <c r="E130" s="160"/>
-      <c r="F130" s="160"/>
-      <c r="G130" s="160"/>
-      <c r="H130" s="160"/>
-      <c r="I130" s="160"/>
-      <c r="J130" s="161"/>
+      <c r="B130" s="194"/>
+      <c r="C130" s="194"/>
+      <c r="D130" s="194"/>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+      <c r="G130" s="194"/>
+      <c r="H130" s="194"/>
+      <c r="I130" s="194"/>
+      <c r="J130" s="195"/>
     </row>
     <row r="131" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A131" s="88"/>
       <c r="B131" s="97"/>
       <c r="C131" s="92"/>
-      <c r="D131" s="162"/>
-      <c r="E131" s="163"/>
-      <c r="F131" s="163"/>
+      <c r="D131" s="178"/>
+      <c r="E131" s="179"/>
+      <c r="F131" s="179"/>
       <c r="G131" s="131"/>
       <c r="H131" s="138"/>
       <c r="I131" s="100"/>
@@ -8340,35 +8348,35 @@
       <c r="A132" s="88"/>
       <c r="B132" s="97"/>
       <c r="C132" s="92"/>
-      <c r="D132" s="162"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
+      <c r="D132" s="178"/>
+      <c r="E132" s="179"/>
+      <c r="F132" s="179"/>
       <c r="G132" s="131"/>
       <c r="H132" s="138"/>
       <c r="I132" s="100"/>
       <c r="J132" s="94"/>
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A133" s="159" t="s">
+      <c r="A133" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="160"/>
-      <c r="C133" s="160"/>
-      <c r="D133" s="160"/>
-      <c r="E133" s="160"/>
-      <c r="F133" s="160"/>
-      <c r="G133" s="160"/>
-      <c r="H133" s="160"/>
-      <c r="I133" s="160"/>
-      <c r="J133" s="161"/>
+      <c r="B133" s="194"/>
+      <c r="C133" s="194"/>
+      <c r="D133" s="194"/>
+      <c r="E133" s="194"/>
+      <c r="F133" s="194"/>
+      <c r="G133" s="194"/>
+      <c r="H133" s="194"/>
+      <c r="I133" s="194"/>
+      <c r="J133" s="195"/>
     </row>
     <row r="134" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A134" s="88"/>
       <c r="B134" s="97"/>
       <c r="C134" s="92"/>
-      <c r="D134" s="162"/>
-      <c r="E134" s="163"/>
-      <c r="F134" s="163"/>
+      <c r="D134" s="178"/>
+      <c r="E134" s="179"/>
+      <c r="F134" s="179"/>
       <c r="G134" s="131"/>
       <c r="H134" s="138"/>
       <c r="I134" s="100"/>
@@ -8378,35 +8386,35 @@
       <c r="A135" s="88"/>
       <c r="B135" s="97"/>
       <c r="C135" s="92"/>
-      <c r="D135" s="162"/>
-      <c r="E135" s="163"/>
-      <c r="F135" s="163"/>
+      <c r="D135" s="178"/>
+      <c r="E135" s="179"/>
+      <c r="F135" s="179"/>
       <c r="G135" s="131"/>
       <c r="H135" s="138"/>
       <c r="I135" s="100"/>
       <c r="J135" s="94"/>
     </row>
     <row r="136" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A136" s="159" t="s">
+      <c r="A136" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="160"/>
-      <c r="C136" s="160"/>
-      <c r="D136" s="160"/>
-      <c r="E136" s="160"/>
-      <c r="F136" s="160"/>
-      <c r="G136" s="160"/>
-      <c r="H136" s="160"/>
-      <c r="I136" s="160"/>
-      <c r="J136" s="161"/>
+      <c r="B136" s="194"/>
+      <c r="C136" s="194"/>
+      <c r="D136" s="194"/>
+      <c r="E136" s="194"/>
+      <c r="F136" s="194"/>
+      <c r="G136" s="194"/>
+      <c r="H136" s="194"/>
+      <c r="I136" s="194"/>
+      <c r="J136" s="195"/>
     </row>
     <row r="137" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A137" s="88"/>
       <c r="B137" s="97"/>
       <c r="C137" s="92"/>
-      <c r="D137" s="162"/>
-      <c r="E137" s="163"/>
-      <c r="F137" s="163"/>
+      <c r="D137" s="178"/>
+      <c r="E137" s="179"/>
+      <c r="F137" s="179"/>
       <c r="G137" s="131"/>
       <c r="H137" s="138"/>
       <c r="I137" s="100"/>
@@ -8416,35 +8424,35 @@
       <c r="A138" s="88"/>
       <c r="B138" s="97"/>
       <c r="C138" s="92"/>
-      <c r="D138" s="162"/>
-      <c r="E138" s="163"/>
-      <c r="F138" s="163"/>
+      <c r="D138" s="178"/>
+      <c r="E138" s="179"/>
+      <c r="F138" s="179"/>
       <c r="G138" s="131"/>
       <c r="H138" s="138"/>
       <c r="I138" s="100"/>
       <c r="J138" s="94"/>
     </row>
     <row r="139" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A139" s="159" t="s">
+      <c r="A139" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="B139" s="160"/>
-      <c r="C139" s="160"/>
-      <c r="D139" s="160"/>
-      <c r="E139" s="160"/>
-      <c r="F139" s="160"/>
-      <c r="G139" s="160"/>
-      <c r="H139" s="160"/>
-      <c r="I139" s="160"/>
-      <c r="J139" s="161"/>
+      <c r="B139" s="194"/>
+      <c r="C139" s="194"/>
+      <c r="D139" s="194"/>
+      <c r="E139" s="194"/>
+      <c r="F139" s="194"/>
+      <c r="G139" s="194"/>
+      <c r="H139" s="194"/>
+      <c r="I139" s="194"/>
+      <c r="J139" s="195"/>
     </row>
     <row r="140" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A140" s="88"/>
       <c r="B140" s="97"/>
       <c r="C140" s="92"/>
-      <c r="D140" s="162"/>
-      <c r="E140" s="163"/>
-      <c r="F140" s="163"/>
+      <c r="D140" s="178"/>
+      <c r="E140" s="179"/>
+      <c r="F140" s="179"/>
       <c r="G140" s="131"/>
       <c r="H140" s="138"/>
       <c r="I140" s="100"/>
@@ -8454,9 +8462,9 @@
       <c r="A141" s="88"/>
       <c r="B141" s="97"/>
       <c r="C141" s="92"/>
-      <c r="D141" s="162"/>
-      <c r="E141" s="163"/>
-      <c r="F141" s="163"/>
+      <c r="D141" s="178"/>
+      <c r="E141" s="179"/>
+      <c r="F141" s="179"/>
       <c r="G141" s="131"/>
       <c r="H141" s="138"/>
       <c r="I141" s="100"/>
@@ -8502,29 +8510,108 @@
     <row r="179" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A127:J127"/>
+    <mergeCell ref="A130:J130"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="D54:F54"/>
@@ -8548,108 +8635,29 @@
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D72:F72"/>
     <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A108:J108"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="A117:J117"/>
-    <mergeCell ref="A119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A139:J139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A127:J127"/>
-    <mergeCell ref="A130:J130"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D77:F77"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8762,11 +8770,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -8794,11 +8802,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -8843,7 +8851,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>62.068965517241381</v>
+        <v>63.218390804597703</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>25</v>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kiemthutest\newupdate_thu7\CuaHangDoChoi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="300" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="-150" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1052,12 +1047,6 @@
 7: Nhập mật khẩu: 33</t>
   </si>
   <si>
-    <t>Nhập tên đăng nhập quá dài</t>
-  </si>
-  <si>
-    <t>Nhập giới tính quá dài</t>
-  </si>
-  <si>
     <t>TC39</t>
   </si>
   <si>
@@ -1085,25 +1074,7 @@
     <t>TC41</t>
   </si>
   <si>
-    <t>1: Nhập ID "118"
-2: Nhập họ tên "Nguyễn Văn Nghi"
-3: Nhập ngày sinh "19/11/1999"
-4: Nhập CMND "147896325"
-5: Nhập giới tính "Nam"
-6: Nhập tên đăng nhập "v a n n ghi2@^"
-7: Nhập mật khẩu: ""</t>
-  </si>
-  <si>
     <t>TC42</t>
-  </si>
-  <si>
-    <t>1: Nhập ID "118"
-2: Nhập họ tên "Nguyễn Văn Nghi"
-3: Nhập ngày sinh "19/11/1999"
-4: Nhập CMND "147896325"
-5: Nhập giới tính "Nam"
-6: Nhập tên đăng nhập "v a n n ghi2@^"
-7: Nhập mật khẩu: " "</t>
   </si>
   <si>
     <t>TC43</t>
@@ -1118,9 +1089,6 @@
 7: Nhập mật khẩu: "HSD F SDF SDF SD FS DF"</t>
   </si>
   <si>
-    <t>Nhập quá dài tự thoát chương trình</t>
-  </si>
-  <si>
     <t>TC44</t>
   </si>
   <si>
@@ -1233,14 +1201,6 @@
   </si>
   <si>
     <t>TC60</t>
-  </si>
-  <si>
-    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
-2: Sửa tên thành "Nguyễn Văn A"
-3: Sửa CMND thành "147896324"
-4: Sửa giới tính thành "Nu"
-5: Sửa ngày sinh thành "19/11/1999"
-5: Nhấn button "Cập nhật"</t>
   </si>
   <si>
     <t>Không sửa được ngày tháng năm</t>
@@ -1358,11 +1318,46 @@
 5: Sửa ngày sinh thành "19/11/1999"
 5: Nhấn button "Cập nhật"</t>
   </si>
+  <si>
+    <t>Thêm thành công và sửa giới tính thành nữ</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "vannghi2@^"
+7: Nhập mật khẩu: ""</t>
+  </si>
+  <si>
+    <t>1: Nhập ID "118"
+2: Nhập họ tên "Nguyễn Văn Nghi"
+3: Nhập ngày sinh "19/11/1999"
+4: Nhập CMND "147896325"
+5: Nhập giới tính "Nam"
+6: Nhập tên đăng nhập "vannghi2@^"
+7: Nhập mật khẩu: " "</t>
+  </si>
+  <si>
+    <t>Xuất thông báo :"Thêm thành công" và thêm dữ liệu vào bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lại thông báo xuất ra </t>
+  </si>
+  <si>
+    <t>1: Chọn dòng dữ liệu nhân viên cần sửa
+2: Sửa tên thành "Nguyễn Văn A"
+3: Sửa CMND thành "147896324"
+4: Sửa giới tính thành "Nu"
+5: Sửa ngày sinh thành "19/11/1980"
+5: Nhấn button "Cập nhật"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1548,7 +1543,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1610,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -2092,7 +2093,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2380,19 +2381,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2492,21 +2484,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2528,7 +2505,7 @@
     <xf numFmtId="14" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2537,6 +2514,72 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2546,72 +2589,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2687,34 +2664,64 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="24" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2725,6 +2732,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="25" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,9 +2747,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5082,7 +5089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5117,7 +5124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5400,11 +5407,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="171"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5413,11 +5420,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5630,8 +5637,8 @@
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5641,7 +5648,7 @@
     <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="139" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="136" customWidth="1"/>
     <col min="9" max="9" width="9" style="101"/>
     <col min="10" max="10" width="18" style="99" customWidth="1"/>
   </cols>
@@ -5650,26 +5657,26 @@
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="132"/>
+      <c r="H1" s="129"/>
       <c r="I1" s="108"/>
       <c r="J1" s="109"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="132"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="108"/>
       <c r="J2" s="109"/>
       <c r="K2" s="7"/>
@@ -5678,51 +5685,51 @@
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="208"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="202"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5731,7 +5738,7 @@
       </c>
       <c r="B6" s="95">
         <f>COUNTIF(I12:I138,"Pass")</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
@@ -5743,9 +5750,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5754,119 +5761,119 @@
       </c>
       <c r="B7" s="96">
         <f>COUNTIF(I12:I138,"Fail")</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="66">
         <f>COUNTA(A12:A141) -15</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="133"/>
+      <c r="H8" s="130"/>
       <c r="I8" s="110"/>
       <c r="J8" s="110"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="209" t="s">
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="205" t="s">
+      <c r="I9" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="205" t="s">
+      <c r="J9" s="197" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="205"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="197"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="211"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="184"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
       <c r="G13" s="86"/>
-      <c r="H13" s="122">
+      <c r="H13" s="119">
         <v>43774</v>
       </c>
       <c r="I13" s="87" t="s">
@@ -5878,19 +5885,19 @@
       <c r="A14" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
       <c r="G14" s="86"/>
-      <c r="H14" s="122">
+      <c r="H14" s="119">
         <v>43774</v>
       </c>
       <c r="I14" s="87" t="s">
@@ -5902,19 +5909,19 @@
       <c r="A15" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="86"/>
-      <c r="H15" s="122">
+      <c r="H15" s="119">
         <v>43774</v>
       </c>
       <c r="I15" s="87" t="s">
@@ -5926,19 +5933,19 @@
       <c r="A16" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="153" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
       <c r="G16" s="86"/>
-      <c r="H16" s="122">
+      <c r="H16" s="119">
         <v>43774</v>
       </c>
       <c r="I16" s="87" t="s">
@@ -5950,19 +5957,19 @@
       <c r="A17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="153" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="122">
+      <c r="H17" s="119">
         <v>43774</v>
       </c>
       <c r="I17" s="87" t="s">
@@ -5974,19 +5981,19 @@
       <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="153" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="122">
+      <c r="H18" s="119">
         <v>43774</v>
       </c>
       <c r="I18" s="87" t="s">
@@ -5998,19 +6005,19 @@
       <c r="A19" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="153" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="122">
+      <c r="H19" s="119">
         <v>43774</v>
       </c>
       <c r="I19" s="87" t="s">
@@ -6022,19 +6029,19 @@
       <c r="A20" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="122">
+      <c r="H20" s="119">
         <v>43774</v>
       </c>
       <c r="I20" s="111" t="s">
@@ -6046,19 +6053,19 @@
       <c r="A21" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="86"/>
-      <c r="H21" s="122">
+      <c r="H21" s="119">
         <v>43774</v>
       </c>
       <c r="I21" s="112" t="s">
@@ -6070,19 +6077,19 @@
       <c r="A22" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="178" t="s">
+      <c r="D22" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
       <c r="G22" s="86"/>
-      <c r="H22" s="122">
+      <c r="H22" s="119">
         <v>43774</v>
       </c>
       <c r="I22" s="111" t="s">
@@ -6094,19 +6101,19 @@
       <c r="A23" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
       <c r="G23" s="86"/>
-      <c r="H23" s="122">
+      <c r="H23" s="119">
         <v>43774</v>
       </c>
       <c r="I23" s="112" t="s">
@@ -6115,1134 +6122,1132 @@
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="222"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="224"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
       <c r="F25" s="113"/>
       <c r="G25" s="113"/>
-      <c r="H25" s="134"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="113"/>
       <c r="J25" s="114"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
-    </row>
-    <row r="27" spans="1:10" s="154" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="149" t="s">
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
+    </row>
+    <row r="27" spans="1:10" s="151" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A27" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="150" t="s">
+      <c r="B27" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="155">
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="152">
         <v>43774</v>
       </c>
       <c r="I27" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="1:10" s="154" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A28" s="149" t="s">
+      <c r="J27" s="150"/>
+    </row>
+    <row r="28" spans="1:10" s="151" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A28" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="175" t="s">
+      <c r="D28" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="155">
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="152">
         <v>43774</v>
       </c>
       <c r="I28" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="153"/>
-    </row>
-    <row r="29" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A29" s="149" t="s">
+      <c r="J28" s="150"/>
+    </row>
+    <row r="29" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A29" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="150" t="s">
+      <c r="B29" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="155">
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="152">
         <v>43774</v>
       </c>
       <c r="I29" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="153"/>
-    </row>
-    <row r="30" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A30" s="149" t="s">
+      <c r="J29" s="150"/>
+    </row>
+    <row r="30" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A30" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="151" t="s">
+      <c r="C30" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="175" t="s">
+      <c r="D30" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="155">
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="152">
         <v>43774</v>
       </c>
       <c r="I30" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="153"/>
-    </row>
-    <row r="31" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A31" s="149" t="s">
+      <c r="J30" s="150"/>
+    </row>
+    <row r="31" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="151" t="s">
+      <c r="C31" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="175" t="s">
+      <c r="D31" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="155">
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="152">
         <v>43774</v>
       </c>
       <c r="I31" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="153"/>
-    </row>
-    <row r="32" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A32" s="149" t="s">
+      <c r="J31" s="150"/>
+    </row>
+    <row r="32" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A32" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="175" t="s">
+      <c r="D32" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="155">
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="152">
         <v>43774</v>
       </c>
       <c r="I32" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="153"/>
-    </row>
-    <row r="33" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A33" s="149" t="s">
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A33" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="150" t="s">
+      <c r="B33" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="155">
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="152">
         <v>43774</v>
       </c>
       <c r="I33" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="153"/>
-    </row>
-    <row r="34" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A34" s="149" t="s">
+      <c r="J33" s="150"/>
+    </row>
+    <row r="34" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A34" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="150" t="s">
+      <c r="B34" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="155">
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="152">
         <v>43774</v>
       </c>
       <c r="I34" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="153"/>
-    </row>
-    <row r="35" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A35" s="149" t="s">
+      <c r="J34" s="150"/>
+    </row>
+    <row r="35" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A35" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="155">
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="152">
         <v>43774</v>
       </c>
       <c r="I35" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="153"/>
-    </row>
-    <row r="36" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A36" s="149" t="s">
+      <c r="J35" s="150"/>
+    </row>
+    <row r="36" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A36" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="150" t="s">
+      <c r="B36" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="151" t="s">
+      <c r="C36" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="155">
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="152">
         <v>43774</v>
       </c>
       <c r="I36" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="153"/>
-    </row>
-    <row r="37" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A37" s="149" t="s">
+      <c r="J36" s="150"/>
+    </row>
+    <row r="37" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A37" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="151" t="s">
+      <c r="C37" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="155">
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="152">
         <v>43774</v>
       </c>
       <c r="I37" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="153"/>
-    </row>
-    <row r="38" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A38" s="149" t="s">
+      <c r="J37" s="150"/>
+    </row>
+    <row r="38" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A38" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="150" t="s">
+      <c r="B38" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="151" t="s">
+      <c r="C38" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="155">
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="152">
         <v>43774</v>
       </c>
       <c r="I38" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="153"/>
-    </row>
-    <row r="39" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A39" s="149" t="s">
+      <c r="J38" s="150"/>
+    </row>
+    <row r="39" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="150" t="s">
+      <c r="B39" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="C39" s="217" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="155">
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="221">
         <v>43774</v>
       </c>
       <c r="I39" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="153"/>
-    </row>
-    <row r="40" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A40" s="149" t="s">
+      <c r="J39" s="222"/>
+    </row>
+    <row r="40" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A40" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="155">
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="221">
         <v>43774</v>
       </c>
       <c r="I40" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="153"/>
-    </row>
-    <row r="41" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A41" s="149" t="s">
+      <c r="J40" s="222"/>
+    </row>
+    <row r="41" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A41" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="151" t="s">
+      <c r="C41" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="155">
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="152">
         <v>43774</v>
       </c>
       <c r="I41" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="153"/>
-    </row>
-    <row r="42" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A42" s="149" t="s">
+      <c r="J41" s="150"/>
+    </row>
+    <row r="42" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A42" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="155">
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="221">
         <v>43774</v>
       </c>
       <c r="I42" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="153"/>
-    </row>
-    <row r="43" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A43" s="149" t="s">
+      <c r="J42" s="222"/>
+    </row>
+    <row r="43" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A43" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="155">
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="152">
         <v>43774</v>
       </c>
       <c r="I43" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="153"/>
-    </row>
-    <row r="44" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A44" s="149" t="s">
+      <c r="J43" s="150"/>
+    </row>
+    <row r="44" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A44" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="151" t="s">
+      <c r="C44" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="155">
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="152">
         <v>43774</v>
       </c>
       <c r="I44" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J44" s="153"/>
-    </row>
-    <row r="45" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A45" s="149" t="s">
+      <c r="J44" s="150"/>
+    </row>
+    <row r="45" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A45" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="155">
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="152">
         <v>43774</v>
       </c>
       <c r="I45" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="153"/>
-    </row>
-    <row r="46" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A46" s="149" t="s">
+      <c r="J45" s="150"/>
+    </row>
+    <row r="46" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A46" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="155">
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="152">
         <v>43774</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="153"/>
-    </row>
-    <row r="47" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A47" s="149" t="s">
+      <c r="J46" s="150"/>
+    </row>
+    <row r="47" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A47" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="155">
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="152">
         <v>43774</v>
       </c>
       <c r="I47" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="153"/>
-    </row>
-    <row r="48" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A48" s="149" t="s">
+      <c r="J47" s="150"/>
+    </row>
+    <row r="48" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A48" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="155">
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="152">
         <v>43774</v>
       </c>
       <c r="I48" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="153"/>
-    </row>
-    <row r="49" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A49" s="149" t="s">
+      <c r="J48" s="150"/>
+    </row>
+    <row r="49" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A49" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="150" t="s">
+      <c r="B49" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="C49" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="155">
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="152">
         <v>43774</v>
       </c>
       <c r="I49" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="153"/>
-    </row>
-    <row r="50" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A50" s="149" t="s">
+      <c r="J49" s="150"/>
+    </row>
+    <row r="50" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A50" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="C50" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="155">
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="152">
         <v>43774</v>
       </c>
       <c r="I50" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="153"/>
-    </row>
-    <row r="51" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A51" s="149" t="s">
+      <c r="J50" s="150"/>
+    </row>
+    <row r="51" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A51" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="151" t="s">
+      <c r="C51" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="155">
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="152">
         <v>43774</v>
       </c>
-      <c r="I51" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="153"/>
-    </row>
-    <row r="52" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A52" s="149" t="s">
+      <c r="I51" s="223" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="150" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A52" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="155">
+      <c r="E52" s="172"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="152">
         <v>43774</v>
       </c>
       <c r="I52" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J52" s="153"/>
-    </row>
-    <row r="53" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A53" s="149" t="s">
+      <c r="J52" s="150"/>
+    </row>
+    <row r="53" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A53" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="150" t="s">
+      <c r="B53" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="C53" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="155">
+      <c r="E53" s="219"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="220"/>
+      <c r="H53" s="221">
         <v>43774</v>
       </c>
       <c r="I53" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="153"/>
-    </row>
-    <row r="54" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A54" s="149" t="s">
+      <c r="J53" s="222"/>
+    </row>
+    <row r="54" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A54" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="C54" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="175" t="s">
+      <c r="D54" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="155">
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="152">
         <v>43774</v>
       </c>
       <c r="I54" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="153"/>
-    </row>
-    <row r="55" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A55" s="149" t="s">
+      <c r="J54" s="150"/>
+    </row>
+    <row r="55" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A55" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="C55" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="175" t="s">
+      <c r="D55" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="155">
+      <c r="E55" s="172"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="152">
         <v>43774</v>
       </c>
-      <c r="I55" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="153"/>
-    </row>
-    <row r="56" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A56" s="149" t="s">
+      <c r="I55" s="223" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="150" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A56" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="C56" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="155">
+      <c r="D56" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="152">
         <v>43774</v>
       </c>
       <c r="I56" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="153"/>
-    </row>
-    <row r="57" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A57" s="149" t="s">
+      <c r="J56" s="150"/>
+    </row>
+    <row r="57" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A57" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="155">
+      <c r="D57" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="152">
         <v>43774</v>
       </c>
       <c r="I57" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J57" s="153"/>
-    </row>
-    <row r="58" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A58" s="149" t="s">
+      <c r="J57" s="150"/>
+    </row>
+    <row r="58" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A58" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="C58" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I58" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" s="150"/>
+    </row>
+    <row r="59" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A59" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I59" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="150"/>
+    </row>
+    <row r="60" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A60" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="148" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="172"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I60" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="150"/>
+    </row>
+    <row r="61" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A61" s="215" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="216" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="217" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="155">
-        <v>43774</v>
-      </c>
-      <c r="I58" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="153"/>
-    </row>
-    <row r="59" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A59" s="149" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="151" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="155">
-        <v>43774</v>
-      </c>
-      <c r="I59" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="153"/>
-    </row>
-    <row r="60" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A60" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="172" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="121">
-        <v>43774</v>
-      </c>
-      <c r="I60" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="120" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A61" s="149" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="151" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="155">
+      <c r="E61" s="219"/>
+      <c r="F61" s="219"/>
+      <c r="G61" s="220"/>
+      <c r="H61" s="221">
         <v>43774</v>
       </c>
       <c r="I61" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="153"/>
-    </row>
-    <row r="62" spans="1:10" s="154" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
-      <c r="A62" s="149" t="s">
+      <c r="J61" s="222"/>
+    </row>
+    <row r="62" spans="1:10" s="151" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
+      <c r="A62" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="150" t="s">
+      <c r="B62" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="176"/>
-      <c r="F62" s="176"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="155">
+      <c r="E62" s="219"/>
+      <c r="F62" s="219"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="221">
         <v>43774</v>
       </c>
       <c r="I62" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="153"/>
-    </row>
-    <row r="63" spans="1:10" s="154" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A63" s="149" t="s">
+      <c r="J62" s="222"/>
+    </row>
+    <row r="63" spans="1:10" s="151" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A63" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="151" t="s">
+      <c r="C63" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="175" t="s">
+      <c r="D63" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="176"/>
-      <c r="F63" s="176"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="155">
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="152">
         <v>43774</v>
       </c>
       <c r="I63" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J63" s="153"/>
-    </row>
-    <row r="64" spans="1:10" s="154" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A64" s="115" t="s">
+      <c r="J63" s="150"/>
+    </row>
+    <row r="64" spans="1:10" s="151" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A64" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="C64" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="172" t="s">
+      <c r="D64" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="157">
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="161"/>
+      <c r="H64" s="152">
         <v>43774</v>
       </c>
-      <c r="I64" s="119" t="s">
+      <c r="I64" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="150"/>
+    </row>
+    <row r="65" spans="1:10" s="154" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A65" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I65" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="158"/>
+    </row>
+    <row r="66" spans="1:10" s="154" customFormat="1" ht="95.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="155" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="148" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I66" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="120" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="162" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A65" s="163" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="150" t="s">
+      <c r="J66" s="158"/>
+    </row>
+    <row r="67" spans="1:10" s="154" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A67" s="224" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="151" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="181" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="155">
+      <c r="C67" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="225" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="226"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="227"/>
+      <c r="H67" s="221">
         <v>43774</v>
       </c>
-      <c r="I65" s="165" t="s">
+      <c r="I67" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="228"/>
+    </row>
+    <row r="68" spans="1:10" s="154" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A68" s="155" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="148" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="167" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="152">
+        <v>43774</v>
+      </c>
+      <c r="I68" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="J65" s="166"/>
-    </row>
-    <row r="66" spans="1:10" s="162" customFormat="1" ht="95.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="163" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="150" t="s">
+      <c r="J68" s="158"/>
+    </row>
+    <row r="69" spans="1:10" s="154" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A69" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="151" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="164"/>
-      <c r="H66" s="155">
+      <c r="C69" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="167" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="152">
         <v>43774</v>
       </c>
-      <c r="I66" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="166"/>
-    </row>
-    <row r="67" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A67" s="163" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="151" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="182"/>
-      <c r="F67" s="182"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="155">
-        <v>43774</v>
-      </c>
-      <c r="I67" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="166"/>
-    </row>
-    <row r="68" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A68" s="163" t="s">
+      <c r="I69" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="158"/>
+    </row>
+    <row r="70" spans="1:10" s="151" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="146" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="182"/>
-      <c r="F68" s="182"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="155">
-        <v>43774</v>
-      </c>
-      <c r="I68" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="166"/>
-    </row>
-    <row r="69" spans="1:10" s="162" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A69" s="158" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" s="183" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="184"/>
-      <c r="F69" s="184"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="121">
-        <v>43774</v>
-      </c>
-      <c r="I69" s="160" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="161" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="154" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A70" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="151" t="s">
+      <c r="C70" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="176"/>
-      <c r="F70" s="176"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="155">
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="152">
         <v>43774</v>
       </c>
       <c r="I70" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J70" s="153"/>
-    </row>
-    <row r="71" spans="1:10" s="154" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A71" s="149" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="150" t="s">
+      <c r="J70" s="150"/>
+    </row>
+    <row r="71" spans="1:10" s="151" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="151" t="s">
+      <c r="C71" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="155">
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="152">
         <v>43774</v>
       </c>
       <c r="I71" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="153"/>
+      <c r="J71" s="150"/>
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
       <c r="A72" s="88" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B72" s="102" t="s">
         <v>105</v>
@@ -7250,13 +7255,13 @@
       <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="178" t="s">
+      <c r="D72" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="179"/>
-      <c r="F72" s="179"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
       <c r="G72" s="86"/>
-      <c r="H72" s="123">
+      <c r="H72" s="120">
         <v>43774</v>
       </c>
       <c r="I72" s="87" t="s">
@@ -7266,7 +7271,7 @@
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
       <c r="A73" s="88" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B73" s="102" t="s">
         <v>105</v>
@@ -7274,13 +7279,13 @@
       <c r="C73" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="178" t="s">
+      <c r="D73" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
       <c r="G73" s="86"/>
-      <c r="H73" s="122">
+      <c r="H73" s="119">
         <v>43774</v>
       </c>
       <c r="I73" s="87" t="s">
@@ -7290,7 +7295,7 @@
     </row>
     <row r="74" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" outlineLevel="1">
       <c r="A74" s="88" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B74" s="102" t="s">
         <v>105</v>
@@ -7298,13 +7303,13 @@
       <c r="C74" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="178" t="s">
+      <c r="D74" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="179"/>
-      <c r="F74" s="179"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="165"/>
       <c r="G74" s="86"/>
-      <c r="H74" s="122">
+      <c r="H74" s="119">
         <v>43774</v>
       </c>
       <c r="I74" s="87" t="s">
@@ -7314,7 +7319,7 @@
     </row>
     <row r="75" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A75" s="88" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B75" s="102" t="s">
         <v>105</v>
@@ -7322,13 +7327,13 @@
       <c r="C75" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="178" t="s">
+      <c r="D75" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="179"/>
-      <c r="F75" s="180"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="166"/>
       <c r="G75" s="87"/>
-      <c r="H75" s="122">
+      <c r="H75" s="119">
         <v>43774</v>
       </c>
       <c r="I75" s="87" t="s">
@@ -7338,7 +7343,7 @@
     </row>
     <row r="76" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A76" s="88" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B76" s="102" t="s">
         <v>105</v>
@@ -7346,109 +7351,109 @@
       <c r="C76" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="178" t="s">
+      <c r="D76" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="179"/>
-      <c r="F76" s="180"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="122">
+      <c r="E76" s="165"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="119">
         <v>43774</v>
       </c>
-      <c r="I76" s="124" t="s">
+      <c r="I76" s="121" t="s">
         <v>37</v>
       </c>
       <c r="J76" s="85"/>
     </row>
     <row r="77" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A77" s="88" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B77" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C77" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="178" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="179"/>
-      <c r="F77" s="180"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="122">
+      <c r="E77" s="165"/>
+      <c r="F77" s="166"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="119">
         <v>43774</v>
       </c>
-      <c r="I77" s="124" t="s">
+      <c r="I77" s="121" t="s">
         <v>37</v>
       </c>
       <c r="J77" s="85"/>
     </row>
     <row r="78" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A78" s="88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B78" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="179"/>
-      <c r="F78" s="180"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="122">
+      <c r="E78" s="165"/>
+      <c r="F78" s="166"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="119">
         <v>43774</v>
       </c>
-      <c r="I78" s="124" t="s">
+      <c r="I78" s="121" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="85"/>
     </row>
     <row r="79" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
       <c r="A79" s="88" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B79" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C79" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="178" t="s">
-        <v>226</v>
-      </c>
-      <c r="E79" s="179"/>
-      <c r="F79" s="180"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="122">
+        <v>220</v>
+      </c>
+      <c r="D79" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="165"/>
+      <c r="F79" s="166"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="119">
         <v>43774</v>
       </c>
-      <c r="I79" s="124" t="s">
+      <c r="I79" s="121" t="s">
         <v>37</v>
       </c>
       <c r="J79" s="85"/>
     </row>
     <row r="80" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
       <c r="A80" s="88" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B80" s="102" t="s">
         <v>125</v>
       </c>
       <c r="C80" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="D80" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="179"/>
-      <c r="F80" s="180"/>
+        <v>223</v>
+      </c>
+      <c r="D80" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="165"/>
+      <c r="F80" s="166"/>
       <c r="G80" s="87"/>
-      <c r="H80" s="122">
+      <c r="H80" s="119">
         <v>43774</v>
       </c>
       <c r="I80" s="87" t="s">
@@ -7457,118 +7462,118 @@
       <c r="J80" s="85"/>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
-      <c r="A81" s="88" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" s="102" t="s">
+      <c r="A81" s="215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="103" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="179"/>
-      <c r="F81" s="180"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="123">
+      <c r="C81" s="217" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="218" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="219"/>
+      <c r="F81" s="229"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="230">
         <v>43774</v>
       </c>
       <c r="I81" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="85"/>
+      <c r="J81" s="222"/>
     </row>
     <row r="82" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
-      <c r="A82" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="B82" s="102" t="s">
+      <c r="A82" s="215" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E82" s="179"/>
-      <c r="F82" s="180"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="123">
+      <c r="C82" s="217" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="218" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="219"/>
+      <c r="F82" s="229"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="230">
         <v>43774</v>
       </c>
       <c r="I82" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J82" s="85"/>
+      <c r="J82" s="222"/>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
-      <c r="A83" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="102" t="s">
+      <c r="A83" s="215" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E83" s="179"/>
-      <c r="F83" s="180"/>
-      <c r="G83" s="124"/>
-      <c r="H83" s="123">
+      <c r="C83" s="217" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="218" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="219"/>
+      <c r="F83" s="229"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="230">
         <v>43774</v>
       </c>
       <c r="I83" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="85"/>
+      <c r="J83" s="222"/>
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
-      <c r="A84" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" s="102" t="s">
+      <c r="A84" s="215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="179"/>
-      <c r="F84" s="180"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="123">
+      <c r="C84" s="217" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="218" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="219"/>
+      <c r="F84" s="229"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="230">
         <v>43774</v>
       </c>
       <c r="I84" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J84" s="85"/>
+      <c r="J84" s="222"/>
     </row>
     <row r="85" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
       <c r="A85" s="88" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B85" s="102" t="s">
         <v>125</v>
       </c>
       <c r="C85" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="178" t="s">
-        <v>241</v>
-      </c>
-      <c r="E85" s="179"/>
-      <c r="F85" s="180"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="123">
+        <v>235</v>
+      </c>
+      <c r="D85" s="164" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="165"/>
+      <c r="F85" s="166"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="120">
         <v>43774</v>
       </c>
       <c r="I85" s="111" t="s">
@@ -7577,120 +7582,120 @@
       <c r="J85" s="85"/>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A86" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B86" s="102" t="s">
+      <c r="A86" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="124" t="s">
+      <c r="C86" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="218" t="s">
         <v>243</v>
       </c>
-      <c r="D86" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="E86" s="179"/>
-      <c r="F86" s="180"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="123">
+      <c r="E86" s="219"/>
+      <c r="F86" s="229"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="230">
         <v>43774</v>
       </c>
       <c r="I86" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J86" s="85" t="s">
-        <v>244</v>
+      <c r="J86" s="222" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A87" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B87" s="102" t="s">
+      <c r="A87" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C87" s="124" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="E87" s="179"/>
-      <c r="F87" s="180"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="123">
+      <c r="C87" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="219"/>
+      <c r="F87" s="229"/>
+      <c r="G87" s="111"/>
+      <c r="H87" s="230">
         <v>43774</v>
       </c>
       <c r="I87" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="85"/>
+      <c r="J87" s="222"/>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A88" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B88" s="102" t="s">
+      <c r="A88" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="E88" s="179"/>
-      <c r="F88" s="180"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="123">
+      <c r="C88" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="219"/>
+      <c r="F88" s="229"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="230">
         <v>43774</v>
       </c>
-      <c r="I88" s="112" t="s">
+      <c r="I88" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="J88" s="85"/>
+      <c r="J88" s="222"/>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A89" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" s="102" t="s">
+      <c r="A89" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89" s="179"/>
-      <c r="F89" s="180"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="123">
+      <c r="C89" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="219"/>
+      <c r="F89" s="229"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="230">
         <v>43774</v>
       </c>
-      <c r="I89" s="112" t="s">
+      <c r="I89" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="J89" s="85"/>
+      <c r="J89" s="222"/>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A90" s="88" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B90" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="E90" s="179"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="123">
+      <c r="C90" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="164" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="165"/>
+      <c r="F90" s="166"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="120">
         <v>43774</v>
       </c>
       <c r="I90" s="112" t="s">
@@ -7700,21 +7705,21 @@
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A91" s="88" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B91" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="178" t="s">
+      <c r="C91" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="179"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="123">
+      <c r="D91" s="164" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="165"/>
+      <c r="F91" s="166"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="120">
         <v>43774</v>
       </c>
       <c r="I91" s="112" t="s">
@@ -7724,21 +7729,21 @@
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A92" s="88" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B92" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="D92" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="E92" s="179"/>
-      <c r="F92" s="180"/>
-      <c r="G92" s="124"/>
-      <c r="H92" s="123">
+      <c r="C92" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="164" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="165"/>
+      <c r="F92" s="166"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="120">
         <v>43774</v>
       </c>
       <c r="I92" s="112" t="s">
@@ -7748,21 +7753,21 @@
     </row>
     <row r="93" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A93" s="88" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B93" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="124" t="s">
-        <v>258</v>
-      </c>
-      <c r="D93" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="E93" s="179"/>
-      <c r="F93" s="180"/>
-      <c r="G93" s="124"/>
-      <c r="H93" s="123">
+      <c r="C93" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="164" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" s="165"/>
+      <c r="F93" s="166"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="120">
         <v>43774</v>
       </c>
       <c r="I93" s="112" t="s">
@@ -7772,101 +7777,103 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A94" s="115" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B94" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="172" t="s">
-        <v>248</v>
-      </c>
-      <c r="E94" s="173"/>
-      <c r="F94" s="174"/>
-      <c r="G94" s="119"/>
-      <c r="H94" s="168">
+      <c r="C94" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="186" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="187"/>
+      <c r="F94" s="188"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="160">
         <v>43774</v>
       </c>
-      <c r="I94" s="119" t="s">
+      <c r="I94" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="120" t="s">
-        <v>261</v>
+      <c r="J94" s="118" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A95" s="149" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" s="150" t="s">
+      <c r="A95" s="215" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="175" t="s">
-        <v>248</v>
-      </c>
-      <c r="E95" s="176"/>
-      <c r="F95" s="177"/>
-      <c r="G95" s="112"/>
-      <c r="H95" s="169">
+      <c r="C95" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="219"/>
+      <c r="F95" s="229"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="230">
         <v>43774</v>
       </c>
       <c r="I95" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="153"/>
+      <c r="J95" s="222"/>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A96" s="149" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" s="150" t="s">
+      <c r="A96" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="112" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="175" t="s">
-        <v>248</v>
-      </c>
-      <c r="E96" s="176"/>
-      <c r="F96" s="177"/>
-      <c r="G96" s="112"/>
-      <c r="H96" s="169">
+      <c r="C96" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="219"/>
+      <c r="F96" s="229"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="230">
         <v>43774</v>
       </c>
       <c r="I96" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J96" s="153"/>
+      <c r="J96" s="222"/>
     </row>
     <row r="97" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A97" s="185" t="s">
+      <c r="A97" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="186"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="186"/>
-      <c r="E97" s="186"/>
-      <c r="F97" s="186"/>
-      <c r="G97" s="186"/>
-      <c r="H97" s="186"/>
-      <c r="I97" s="186"/>
-      <c r="J97" s="187"/>
+      <c r="B97" s="177"/>
+      <c r="C97" s="177"/>
+      <c r="D97" s="177"/>
+      <c r="E97" s="177"/>
+      <c r="F97" s="177"/>
+      <c r="G97" s="177"/>
+      <c r="H97" s="177"/>
+      <c r="I97" s="177"/>
+      <c r="J97" s="178"/>
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A98" s="88"/>
+      <c r="A98" s="88" t="s">
+        <v>1</v>
+      </c>
       <c r="B98" s="102"/>
       <c r="C98" s="103"/>
-      <c r="D98" s="196"/>
-      <c r="E98" s="179"/>
-      <c r="F98" s="179"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
       <c r="G98" s="86"/>
-      <c r="H98" s="135"/>
+      <c r="H98" s="132"/>
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
     </row>
@@ -7874,11 +7881,11 @@
       <c r="A99" s="88"/>
       <c r="B99" s="102"/>
       <c r="C99" s="103"/>
-      <c r="D99" s="196"/>
-      <c r="E99" s="179"/>
-      <c r="F99" s="179"/>
+      <c r="D99" s="185"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="165"/>
       <c r="G99" s="86"/>
-      <c r="H99" s="135"/>
+      <c r="H99" s="132"/>
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
     </row>
@@ -7886,11 +7893,11 @@
       <c r="A100" s="88"/>
       <c r="B100" s="102"/>
       <c r="C100" s="103"/>
-      <c r="D100" s="196"/>
-      <c r="E100" s="179"/>
-      <c r="F100" s="179"/>
+      <c r="D100" s="185"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
       <c r="G100" s="86"/>
-      <c r="H100" s="136"/>
+      <c r="H100" s="133"/>
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
     </row>
@@ -7898,45 +7905,45 @@
       <c r="A101" s="88"/>
       <c r="B101" s="102"/>
       <c r="C101" s="103"/>
-      <c r="D101" s="196"/>
-      <c r="E101" s="179"/>
-      <c r="F101" s="179"/>
+      <c r="D101" s="185"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
       <c r="G101" s="86"/>
-      <c r="H101" s="135"/>
+      <c r="H101" s="132"/>
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
     </row>
     <row r="102" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A102" s="185" t="s">
+      <c r="A102" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="186"/>
-      <c r="C102" s="186"/>
-      <c r="D102" s="186"/>
-      <c r="E102" s="186"/>
-      <c r="F102" s="186"/>
-      <c r="G102" s="186"/>
-      <c r="H102" s="186"/>
-      <c r="I102" s="186"/>
-      <c r="J102" s="187"/>
+      <c r="B102" s="177"/>
+      <c r="C102" s="177"/>
+      <c r="D102" s="177"/>
+      <c r="E102" s="177"/>
+      <c r="F102" s="177"/>
+      <c r="G102" s="177"/>
+      <c r="H102" s="177"/>
+      <c r="I102" s="177"/>
+      <c r="J102" s="178"/>
     </row>
     <row r="103" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A103" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="129" t="s">
+      <c r="B103" s="126" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="188" t="s">
+      <c r="D103" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="188"/>
-      <c r="F103" s="188"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="137">
+      <c r="E103" s="179"/>
+      <c r="F103" s="179"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="134">
         <v>43774</v>
       </c>
       <c r="I103" s="104" t="s">
@@ -7945,138 +7952,140 @@
       <c r="J103" s="94"/>
     </row>
     <row r="104" spans="1:14" s="93" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A104" s="125" t="s">
+      <c r="A104" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="140" t="s">
+      <c r="B104" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="126" t="s">
+      <c r="C104" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="191" t="s">
+      <c r="D104" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="192"/>
-      <c r="F104" s="192"/>
-      <c r="G104" s="131"/>
-      <c r="H104" s="141">
+      <c r="E104" s="183"/>
+      <c r="F104" s="183"/>
+      <c r="G104" s="128"/>
+      <c r="H104" s="138">
         <v>43774</v>
       </c>
-      <c r="I104" s="127" t="s">
+      <c r="I104" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="J104" s="128"/>
-    </row>
-    <row r="105" spans="1:14" s="235" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
-      <c r="A105" s="149" t="s">
+      <c r="J104" s="125"/>
+    </row>
+    <row r="105" spans="1:14" s="237" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
+      <c r="A105" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="226" t="s">
+      <c r="B105" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="227" t="s">
+      <c r="C105" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="228" t="s">
+      <c r="D105" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="229"/>
-      <c r="F105" s="229"/>
-      <c r="G105" s="230"/>
-      <c r="H105" s="231">
+      <c r="E105" s="172"/>
+      <c r="F105" s="172"/>
+      <c r="G105" s="233"/>
+      <c r="H105" s="238">
         <v>43774</v>
       </c>
-      <c r="I105" s="232" t="s">
+      <c r="I105" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="233"/>
-      <c r="K105" s="234"/>
-      <c r="L105" s="234"/>
-      <c r="M105" s="234"/>
-      <c r="N105" s="234"/>
+      <c r="J105" s="235"/>
+      <c r="K105" s="236"/>
+      <c r="L105" s="236"/>
+      <c r="M105" s="236"/>
+      <c r="N105" s="236"/>
     </row>
     <row r="106" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
-      <c r="A106" s="143" t="s">
+      <c r="A106" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B106" s="144" t="s">
+      <c r="B106" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="145" t="s">
+      <c r="C106" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="189" t="s">
+      <c r="D106" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="190"/>
-      <c r="F106" s="190"/>
-      <c r="G106" s="131"/>
-      <c r="H106" s="146">
+      <c r="E106" s="181"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="128"/>
+      <c r="H106" s="143">
         <v>43774</v>
       </c>
-      <c r="I106" s="147" t="s">
+      <c r="I106" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="J106" s="148"/>
+      <c r="J106" s="145"/>
     </row>
     <row r="107" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
       <c r="A107" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="129" t="s">
+      <c r="B107" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="145" t="s">
+      <c r="C107" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="178" t="s">
+      <c r="D107" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="179"/>
-      <c r="F107" s="180"/>
-      <c r="G107" s="130"/>
-      <c r="H107" s="137"/>
-      <c r="I107" s="142"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="166"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="134">
+        <v>43774</v>
+      </c>
+      <c r="I107" s="139"/>
       <c r="J107" s="94"/>
     </row>
     <row r="108" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A108" s="193" t="s">
+      <c r="A108" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="194"/>
-      <c r="C108" s="194"/>
-      <c r="D108" s="194"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="194"/>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
-      <c r="I108" s="194"/>
-      <c r="J108" s="195"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="170"/>
+      <c r="D108" s="170"/>
+      <c r="E108" s="170"/>
+      <c r="F108" s="170"/>
+      <c r="G108" s="170"/>
+      <c r="H108" s="170"/>
+      <c r="I108" s="170"/>
+      <c r="J108" s="184"/>
     </row>
     <row r="109" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A109" s="193" t="s">
+      <c r="A109" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="194"/>
-      <c r="C109" s="194"/>
-      <c r="D109" s="194"/>
-      <c r="E109" s="194"/>
-      <c r="F109" s="194"/>
-      <c r="G109" s="194"/>
-      <c r="H109" s="194"/>
-      <c r="I109" s="194"/>
-      <c r="J109" s="195"/>
+      <c r="B109" s="170"/>
+      <c r="C109" s="170"/>
+      <c r="D109" s="170"/>
+      <c r="E109" s="170"/>
+      <c r="F109" s="170"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="170"/>
+      <c r="I109" s="170"/>
+      <c r="J109" s="184"/>
     </row>
     <row r="110" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A110" s="88"/>
       <c r="B110" s="97"/>
       <c r="C110" s="92"/>
-      <c r="D110" s="178"/>
-      <c r="E110" s="179"/>
-      <c r="F110" s="179"/>
-      <c r="G110" s="131"/>
-      <c r="H110" s="138"/>
+      <c r="D110" s="164"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="165"/>
+      <c r="G110" s="128"/>
+      <c r="H110" s="135"/>
       <c r="I110" s="100"/>
       <c r="J110" s="94"/>
     </row>
@@ -8084,11 +8093,11 @@
       <c r="A111" s="88"/>
       <c r="B111" s="97"/>
       <c r="C111" s="92"/>
-      <c r="D111" s="178"/>
-      <c r="E111" s="179"/>
-      <c r="F111" s="179"/>
-      <c r="G111" s="131"/>
-      <c r="H111" s="138"/>
+      <c r="D111" s="164"/>
+      <c r="E111" s="165"/>
+      <c r="F111" s="165"/>
+      <c r="G111" s="128"/>
+      <c r="H111" s="135"/>
       <c r="I111" s="100"/>
       <c r="J111" s="94"/>
     </row>
@@ -8096,11 +8105,11 @@
       <c r="A112" s="88"/>
       <c r="B112" s="97"/>
       <c r="C112" s="92"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="179"/>
-      <c r="F112" s="179"/>
-      <c r="G112" s="131"/>
-      <c r="H112" s="138"/>
+      <c r="D112" s="164"/>
+      <c r="E112" s="165"/>
+      <c r="F112" s="165"/>
+      <c r="G112" s="128"/>
+      <c r="H112" s="135"/>
       <c r="I112" s="100"/>
       <c r="J112" s="94"/>
     </row>
@@ -8108,11 +8117,11 @@
       <c r="A113" s="88"/>
       <c r="B113" s="97"/>
       <c r="C113" s="92"/>
-      <c r="D113" s="178"/>
-      <c r="E113" s="179"/>
-      <c r="F113" s="179"/>
-      <c r="G113" s="131"/>
-      <c r="H113" s="138"/>
+      <c r="D113" s="164"/>
+      <c r="E113" s="165"/>
+      <c r="F113" s="165"/>
+      <c r="G113" s="128"/>
+      <c r="H113" s="135"/>
       <c r="I113" s="100"/>
       <c r="J113" s="94"/>
     </row>
@@ -8120,11 +8129,11 @@
       <c r="A114" s="88"/>
       <c r="B114" s="97"/>
       <c r="C114" s="92"/>
-      <c r="D114" s="178"/>
-      <c r="E114" s="179"/>
-      <c r="F114" s="179"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="138"/>
+      <c r="D114" s="164"/>
+      <c r="E114" s="165"/>
+      <c r="F114" s="165"/>
+      <c r="G114" s="128"/>
+      <c r="H114" s="135"/>
       <c r="I114" s="100"/>
       <c r="J114" s="94"/>
     </row>
@@ -8132,11 +8141,11 @@
       <c r="A115" s="88"/>
       <c r="B115" s="97"/>
       <c r="C115" s="92"/>
-      <c r="D115" s="178"/>
-      <c r="E115" s="179"/>
-      <c r="F115" s="179"/>
-      <c r="G115" s="131"/>
-      <c r="H115" s="138"/>
+      <c r="D115" s="164"/>
+      <c r="E115" s="165"/>
+      <c r="F115" s="165"/>
+      <c r="G115" s="128"/>
+      <c r="H115" s="135"/>
       <c r="I115" s="100"/>
       <c r="J115" s="94"/>
     </row>
@@ -8144,63 +8153,63 @@
       <c r="A116" s="88"/>
       <c r="B116" s="97"/>
       <c r="C116" s="92"/>
-      <c r="D116" s="178"/>
-      <c r="E116" s="179"/>
-      <c r="F116" s="179"/>
-      <c r="G116" s="131"/>
-      <c r="H116" s="138"/>
+      <c r="D116" s="164"/>
+      <c r="E116" s="165"/>
+      <c r="F116" s="165"/>
+      <c r="G116" s="128"/>
+      <c r="H116" s="135"/>
       <c r="I116" s="100"/>
       <c r="J116" s="94"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A117" s="193" t="s">
+      <c r="A117" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="194"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="194"/>
-      <c r="E117" s="194"/>
-      <c r="F117" s="194"/>
-      <c r="G117" s="194"/>
-      <c r="H117" s="194"/>
-      <c r="I117" s="194"/>
-      <c r="J117" s="195"/>
+      <c r="B117" s="170"/>
+      <c r="C117" s="170"/>
+      <c r="D117" s="170"/>
+      <c r="E117" s="170"/>
+      <c r="F117" s="170"/>
+      <c r="G117" s="170"/>
+      <c r="H117" s="170"/>
+      <c r="I117" s="170"/>
+      <c r="J117" s="184"/>
     </row>
     <row r="118" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A118" s="88"/>
       <c r="B118" s="97"/>
       <c r="C118" s="92"/>
-      <c r="D118" s="178"/>
-      <c r="E118" s="179"/>
-      <c r="F118" s="179"/>
-      <c r="G118" s="131"/>
-      <c r="H118" s="138"/>
+      <c r="D118" s="164"/>
+      <c r="E118" s="165"/>
+      <c r="F118" s="165"/>
+      <c r="G118" s="128"/>
+      <c r="H118" s="135"/>
       <c r="I118" s="100"/>
       <c r="J118" s="94"/>
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A119" s="193" t="s">
+      <c r="A119" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="194"/>
-      <c r="C119" s="194"/>
-      <c r="D119" s="194"/>
-      <c r="E119" s="194"/>
-      <c r="F119" s="194"/>
-      <c r="G119" s="194"/>
-      <c r="H119" s="194"/>
-      <c r="I119" s="194"/>
-      <c r="J119" s="195"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
+      <c r="J119" s="184"/>
     </row>
     <row r="120" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A120" s="88"/>
       <c r="B120" s="97"/>
       <c r="C120" s="92"/>
-      <c r="D120" s="178"/>
-      <c r="E120" s="179"/>
-      <c r="F120" s="179"/>
-      <c r="G120" s="131"/>
-      <c r="H120" s="138"/>
+      <c r="D120" s="164"/>
+      <c r="E120" s="165"/>
+      <c r="F120" s="165"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="135"/>
       <c r="I120" s="106"/>
       <c r="J120" s="94"/>
     </row>
@@ -8208,11 +8217,11 @@
       <c r="A121" s="88"/>
       <c r="B121" s="97"/>
       <c r="C121" s="92"/>
-      <c r="D121" s="178"/>
-      <c r="E121" s="179"/>
-      <c r="F121" s="179"/>
-      <c r="G121" s="131"/>
-      <c r="H121" s="138"/>
+      <c r="D121" s="164"/>
+      <c r="E121" s="165"/>
+      <c r="F121" s="165"/>
+      <c r="G121" s="128"/>
+      <c r="H121" s="135"/>
       <c r="I121" s="100"/>
       <c r="J121" s="94"/>
     </row>
@@ -8220,37 +8229,37 @@
       <c r="A122" s="88"/>
       <c r="B122" s="97"/>
       <c r="C122" s="92"/>
-      <c r="D122" s="178"/>
-      <c r="E122" s="179"/>
-      <c r="F122" s="179"/>
-      <c r="G122" s="131"/>
-      <c r="H122" s="138"/>
+      <c r="D122" s="164"/>
+      <c r="E122" s="165"/>
+      <c r="F122" s="165"/>
+      <c r="G122" s="128"/>
+      <c r="H122" s="135"/>
       <c r="I122" s="100"/>
       <c r="J122" s="94"/>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A123" s="193" t="s">
+      <c r="A123" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="194"/>
-      <c r="C123" s="194"/>
-      <c r="D123" s="194"/>
-      <c r="E123" s="194"/>
-      <c r="F123" s="194"/>
-      <c r="G123" s="194"/>
-      <c r="H123" s="194"/>
-      <c r="I123" s="194"/>
-      <c r="J123" s="195"/>
+      <c r="B123" s="170"/>
+      <c r="C123" s="170"/>
+      <c r="D123" s="170"/>
+      <c r="E123" s="170"/>
+      <c r="F123" s="170"/>
+      <c r="G123" s="170"/>
+      <c r="H123" s="170"/>
+      <c r="I123" s="170"/>
+      <c r="J123" s="184"/>
     </row>
     <row r="124" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A124" s="88"/>
       <c r="B124" s="97"/>
       <c r="C124" s="92"/>
-      <c r="D124" s="178"/>
-      <c r="E124" s="179"/>
-      <c r="F124" s="179"/>
-      <c r="G124" s="131"/>
-      <c r="H124" s="138"/>
+      <c r="D124" s="164"/>
+      <c r="E124" s="165"/>
+      <c r="F124" s="165"/>
+      <c r="G124" s="128"/>
+      <c r="H124" s="135"/>
       <c r="I124" s="100"/>
       <c r="J124" s="94"/>
     </row>
@@ -8258,51 +8267,51 @@
       <c r="A125" s="88"/>
       <c r="B125" s="97"/>
       <c r="C125" s="92"/>
-      <c r="D125" s="225"/>
-      <c r="E125" s="179"/>
-      <c r="F125" s="179"/>
-      <c r="G125" s="131"/>
-      <c r="H125" s="138"/>
+      <c r="D125" s="214"/>
+      <c r="E125" s="165"/>
+      <c r="F125" s="165"/>
+      <c r="G125" s="128"/>
+      <c r="H125" s="135"/>
       <c r="I125" s="100"/>
       <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A126" s="193" t="s">
+      <c r="A126" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="194"/>
-      <c r="C126" s="194"/>
-      <c r="D126" s="194"/>
-      <c r="E126" s="194"/>
-      <c r="F126" s="194"/>
-      <c r="G126" s="194"/>
-      <c r="H126" s="194"/>
-      <c r="I126" s="194"/>
-      <c r="J126" s="195"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="170"/>
+      <c r="D126" s="170"/>
+      <c r="E126" s="170"/>
+      <c r="F126" s="170"/>
+      <c r="G126" s="170"/>
+      <c r="H126" s="170"/>
+      <c r="I126" s="170"/>
+      <c r="J126" s="184"/>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A127" s="193" t="s">
+      <c r="A127" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="194"/>
-      <c r="C127" s="194"/>
-      <c r="D127" s="194"/>
-      <c r="E127" s="194"/>
-      <c r="F127" s="194"/>
-      <c r="G127" s="194"/>
-      <c r="H127" s="194"/>
-      <c r="I127" s="194"/>
-      <c r="J127" s="195"/>
+      <c r="B127" s="170"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="170"/>
+      <c r="J127" s="184"/>
     </row>
     <row r="128" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A128" s="88"/>
       <c r="B128" s="97"/>
       <c r="C128" s="92"/>
-      <c r="D128" s="178"/>
-      <c r="E128" s="179"/>
-      <c r="F128" s="179"/>
-      <c r="G128" s="131"/>
-      <c r="H128" s="138"/>
+      <c r="D128" s="164"/>
+      <c r="E128" s="165"/>
+      <c r="F128" s="165"/>
+      <c r="G128" s="128"/>
+      <c r="H128" s="135"/>
       <c r="I128" s="100"/>
       <c r="J128" s="94"/>
     </row>
@@ -8310,37 +8319,37 @@
       <c r="A129" s="88"/>
       <c r="B129" s="97"/>
       <c r="C129" s="92"/>
-      <c r="D129" s="178"/>
-      <c r="E129" s="179"/>
-      <c r="F129" s="179"/>
-      <c r="G129" s="131"/>
-      <c r="H129" s="138"/>
+      <c r="D129" s="164"/>
+      <c r="E129" s="165"/>
+      <c r="F129" s="165"/>
+      <c r="G129" s="128"/>
+      <c r="H129" s="135"/>
       <c r="I129" s="100"/>
       <c r="J129" s="94"/>
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A130" s="193" t="s">
+      <c r="A130" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="194"/>
-      <c r="C130" s="194"/>
-      <c r="D130" s="194"/>
-      <c r="E130" s="194"/>
-      <c r="F130" s="194"/>
-      <c r="G130" s="194"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="194"/>
-      <c r="J130" s="195"/>
+      <c r="B130" s="170"/>
+      <c r="C130" s="170"/>
+      <c r="D130" s="170"/>
+      <c r="E130" s="170"/>
+      <c r="F130" s="170"/>
+      <c r="G130" s="170"/>
+      <c r="H130" s="170"/>
+      <c r="I130" s="170"/>
+      <c r="J130" s="184"/>
     </row>
     <row r="131" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A131" s="88"/>
       <c r="B131" s="97"/>
       <c r="C131" s="92"/>
-      <c r="D131" s="178"/>
-      <c r="E131" s="179"/>
-      <c r="F131" s="179"/>
-      <c r="G131" s="131"/>
-      <c r="H131" s="138"/>
+      <c r="D131" s="164"/>
+      <c r="E131" s="165"/>
+      <c r="F131" s="165"/>
+      <c r="G131" s="128"/>
+      <c r="H131" s="135"/>
       <c r="I131" s="100"/>
       <c r="J131" s="94"/>
     </row>
@@ -8348,37 +8357,37 @@
       <c r="A132" s="88"/>
       <c r="B132" s="97"/>
       <c r="C132" s="92"/>
-      <c r="D132" s="178"/>
-      <c r="E132" s="179"/>
-      <c r="F132" s="179"/>
-      <c r="G132" s="131"/>
-      <c r="H132" s="138"/>
+      <c r="D132" s="164"/>
+      <c r="E132" s="165"/>
+      <c r="F132" s="165"/>
+      <c r="G132" s="128"/>
+      <c r="H132" s="135"/>
       <c r="I132" s="100"/>
       <c r="J132" s="94"/>
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A133" s="193" t="s">
+      <c r="A133" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="194"/>
-      <c r="C133" s="194"/>
-      <c r="D133" s="194"/>
-      <c r="E133" s="194"/>
-      <c r="F133" s="194"/>
-      <c r="G133" s="194"/>
-      <c r="H133" s="194"/>
-      <c r="I133" s="194"/>
-      <c r="J133" s="195"/>
+      <c r="B133" s="170"/>
+      <c r="C133" s="170"/>
+      <c r="D133" s="170"/>
+      <c r="E133" s="170"/>
+      <c r="F133" s="170"/>
+      <c r="G133" s="170"/>
+      <c r="H133" s="170"/>
+      <c r="I133" s="170"/>
+      <c r="J133" s="184"/>
     </row>
     <row r="134" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A134" s="88"/>
       <c r="B134" s="97"/>
       <c r="C134" s="92"/>
-      <c r="D134" s="178"/>
-      <c r="E134" s="179"/>
-      <c r="F134" s="179"/>
-      <c r="G134" s="131"/>
-      <c r="H134" s="138"/>
+      <c r="D134" s="164"/>
+      <c r="E134" s="165"/>
+      <c r="F134" s="165"/>
+      <c r="G134" s="128"/>
+      <c r="H134" s="135"/>
       <c r="I134" s="100"/>
       <c r="J134" s="94"/>
     </row>
@@ -8386,37 +8395,37 @@
       <c r="A135" s="88"/>
       <c r="B135" s="97"/>
       <c r="C135" s="92"/>
-      <c r="D135" s="178"/>
-      <c r="E135" s="179"/>
-      <c r="F135" s="179"/>
-      <c r="G135" s="131"/>
-      <c r="H135" s="138"/>
+      <c r="D135" s="164"/>
+      <c r="E135" s="165"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="128"/>
+      <c r="H135" s="135"/>
       <c r="I135" s="100"/>
       <c r="J135" s="94"/>
     </row>
     <row r="136" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A136" s="193" t="s">
+      <c r="A136" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="194"/>
-      <c r="C136" s="194"/>
-      <c r="D136" s="194"/>
-      <c r="E136" s="194"/>
-      <c r="F136" s="194"/>
-      <c r="G136" s="194"/>
-      <c r="H136" s="194"/>
-      <c r="I136" s="194"/>
-      <c r="J136" s="195"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="170"/>
+      <c r="D136" s="170"/>
+      <c r="E136" s="170"/>
+      <c r="F136" s="170"/>
+      <c r="G136" s="170"/>
+      <c r="H136" s="170"/>
+      <c r="I136" s="170"/>
+      <c r="J136" s="184"/>
     </row>
     <row r="137" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A137" s="88"/>
       <c r="B137" s="97"/>
       <c r="C137" s="92"/>
-      <c r="D137" s="178"/>
-      <c r="E137" s="179"/>
-      <c r="F137" s="179"/>
-      <c r="G137" s="131"/>
-      <c r="H137" s="138"/>
+      <c r="D137" s="164"/>
+      <c r="E137" s="165"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="128"/>
+      <c r="H137" s="135"/>
       <c r="I137" s="100"/>
       <c r="J137" s="94"/>
     </row>
@@ -8424,37 +8433,37 @@
       <c r="A138" s="88"/>
       <c r="B138" s="97"/>
       <c r="C138" s="92"/>
-      <c r="D138" s="178"/>
-      <c r="E138" s="179"/>
-      <c r="F138" s="179"/>
-      <c r="G138" s="131"/>
-      <c r="H138" s="138"/>
+      <c r="D138" s="164"/>
+      <c r="E138" s="165"/>
+      <c r="F138" s="165"/>
+      <c r="G138" s="128"/>
+      <c r="H138" s="135"/>
       <c r="I138" s="100"/>
       <c r="J138" s="94"/>
     </row>
     <row r="139" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A139" s="193" t="s">
+      <c r="A139" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="B139" s="194"/>
-      <c r="C139" s="194"/>
-      <c r="D139" s="194"/>
-      <c r="E139" s="194"/>
-      <c r="F139" s="194"/>
-      <c r="G139" s="194"/>
-      <c r="H139" s="194"/>
-      <c r="I139" s="194"/>
-      <c r="J139" s="195"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="170"/>
+      <c r="D139" s="170"/>
+      <c r="E139" s="170"/>
+      <c r="F139" s="170"/>
+      <c r="G139" s="170"/>
+      <c r="H139" s="170"/>
+      <c r="I139" s="170"/>
+      <c r="J139" s="184"/>
     </row>
     <row r="140" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A140" s="88"/>
       <c r="B140" s="97"/>
       <c r="C140" s="92"/>
-      <c r="D140" s="178"/>
-      <c r="E140" s="179"/>
-      <c r="F140" s="179"/>
-      <c r="G140" s="131"/>
-      <c r="H140" s="138"/>
+      <c r="D140" s="164"/>
+      <c r="E140" s="165"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="135"/>
       <c r="I140" s="100"/>
       <c r="J140" s="94"/>
     </row>
@@ -8462,11 +8471,11 @@
       <c r="A141" s="88"/>
       <c r="B141" s="97"/>
       <c r="C141" s="92"/>
-      <c r="D141" s="178"/>
-      <c r="E141" s="179"/>
-      <c r="F141" s="179"/>
-      <c r="G141" s="131"/>
-      <c r="H141" s="138"/>
+      <c r="D141" s="164"/>
+      <c r="E141" s="165"/>
+      <c r="F141" s="165"/>
+      <c r="G141" s="128"/>
+      <c r="H141" s="135"/>
       <c r="I141" s="100"/>
       <c r="J141" s="94"/>
     </row>
@@ -8547,6 +8556,7 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -8586,6 +8596,10 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="A102:J102"/>
     <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D89:F89"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="D113:F113"/>
     <mergeCell ref="D103:F103"/>
@@ -8596,7 +8610,6 @@
     <mergeCell ref="D110:F110"/>
     <mergeCell ref="D111:F111"/>
     <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D22:F22"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="D73:F73"/>
     <mergeCell ref="D71:F71"/>
@@ -8609,6 +8622,18 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="A24:J24"/>
@@ -8633,22 +8658,6 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D89:F89"/>
     <mergeCell ref="D90:F90"/>
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="D92:F92"/>
@@ -8671,7 +8680,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8770,11 +8779,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -8782,7 +8791,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -8802,11 +8811,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -8814,7 +8823,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -8835,7 +8844,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>97.701149425287355</v>
+        <v>96.590909090909093</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>25</v>
@@ -8851,7 +8860,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>63.218390804597703</v>
+        <v>71.590909090909093</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>25</v>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="300" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="750" windowWidth="12120" windowHeight="9060" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -2531,184 +2531,10 @@
     <xf numFmtId="14" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2725,6 +2551,180 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5400,11 +5400,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="171"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5413,11 +5413,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5630,8 +5630,8 @@
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5650,9 +5650,9 @@
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5663,9 +5663,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5678,51 +5678,51 @@
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="208"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="202"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5743,9 +5743,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5766,16 +5766,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5785,70 +5785,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="209" t="s">
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="205" t="s">
+      <c r="I9" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="205" t="s">
+      <c r="J9" s="194" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="205"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="211"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="A11" s="200"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -5860,11 +5860,11 @@
       <c r="C13" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="86"/>
       <c r="H13" s="122">
         <v>43774</v>
@@ -5884,11 +5884,11 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
       <c r="G14" s="86"/>
       <c r="H14" s="122">
         <v>43774</v>
@@ -5908,11 +5908,11 @@
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="86"/>
       <c r="H15" s="122">
         <v>43774</v>
@@ -5932,11 +5932,11 @@
       <c r="C16" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="86"/>
       <c r="H16" s="122">
         <v>43774</v>
@@ -5956,11 +5956,11 @@
       <c r="C17" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
       <c r="G17" s="86"/>
       <c r="H17" s="122">
         <v>43774</v>
@@ -5980,11 +5980,11 @@
       <c r="C18" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
       <c r="G18" s="86"/>
       <c r="H18" s="122">
         <v>43774</v>
@@ -6004,11 +6004,11 @@
       <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
       <c r="G19" s="86"/>
       <c r="H19" s="122">
         <v>43774</v>
@@ -6028,11 +6028,11 @@
       <c r="C20" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="86"/>
       <c r="H20" s="122">
         <v>43774</v>
@@ -6052,11 +6052,11 @@
       <c r="C21" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="86"/>
       <c r="H21" s="122">
         <v>43774</v>
@@ -6076,11 +6076,11 @@
       <c r="C22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="178" t="s">
+      <c r="D22" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="86"/>
       <c r="H22" s="122">
         <v>43774</v>
@@ -6100,11 +6100,11 @@
       <c r="C23" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
       <c r="G23" s="86"/>
       <c r="H23" s="122">
         <v>43774</v>
@@ -6115,23 +6115,23 @@
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="222"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="224"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="227"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
       <c r="F25" s="113"/>
@@ -6141,18 +6141,18 @@
       <c r="J25" s="114"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="213"/>
     </row>
     <row r="27" spans="1:10" s="154" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="149" t="s">
@@ -6164,11 +6164,11 @@
       <c r="C27" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
       <c r="G27" s="152"/>
       <c r="H27" s="155">
         <v>43774</v>
@@ -6188,11 +6188,11 @@
       <c r="C28" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="175" t="s">
+      <c r="D28" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
       <c r="G28" s="152"/>
       <c r="H28" s="155">
         <v>43774</v>
@@ -6212,11 +6212,11 @@
       <c r="C29" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
       <c r="G29" s="152"/>
       <c r="H29" s="155">
         <v>43774</v>
@@ -6236,11 +6236,11 @@
       <c r="C30" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="175" t="s">
+      <c r="D30" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
       <c r="G30" s="152"/>
       <c r="H30" s="155">
         <v>43774</v>
@@ -6260,11 +6260,11 @@
       <c r="C31" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="175" t="s">
+      <c r="D31" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
       <c r="G31" s="152"/>
       <c r="H31" s="155">
         <v>43774</v>
@@ -6284,11 +6284,11 @@
       <c r="C32" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="175" t="s">
+      <c r="D32" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="152"/>
       <c r="H32" s="155">
         <v>43774</v>
@@ -6308,11 +6308,11 @@
       <c r="C33" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
       <c r="G33" s="152"/>
       <c r="H33" s="155">
         <v>43774</v>
@@ -6332,11 +6332,11 @@
       <c r="C34" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
       <c r="G34" s="152"/>
       <c r="H34" s="155">
         <v>43774</v>
@@ -6356,11 +6356,11 @@
       <c r="C35" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="152"/>
       <c r="H35" s="155">
         <v>43774</v>
@@ -6380,11 +6380,11 @@
       <c r="C36" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
       <c r="G36" s="152"/>
       <c r="H36" s="155">
         <v>43774</v>
@@ -6404,11 +6404,11 @@
       <c r="C37" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
       <c r="G37" s="152"/>
       <c r="H37" s="155">
         <v>43774</v>
@@ -6428,11 +6428,11 @@
       <c r="C38" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
       <c r="G38" s="152"/>
       <c r="H38" s="155">
         <v>43774</v>
@@ -6452,11 +6452,11 @@
       <c r="C39" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="224"/>
       <c r="G39" s="152"/>
       <c r="H39" s="155">
         <v>43774</v>
@@ -6476,11 +6476,11 @@
       <c r="C40" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
       <c r="G40" s="152"/>
       <c r="H40" s="155">
         <v>43774</v>
@@ -6500,11 +6500,11 @@
       <c r="C41" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="152"/>
       <c r="H41" s="155">
         <v>43774</v>
@@ -6524,11 +6524,11 @@
       <c r="C42" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
       <c r="G42" s="152"/>
       <c r="H42" s="155">
         <v>43774</v>
@@ -6548,11 +6548,11 @@
       <c r="C43" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="224"/>
       <c r="G43" s="152"/>
       <c r="H43" s="155">
         <v>43774</v>
@@ -6572,11 +6572,11 @@
       <c r="C44" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="224"/>
       <c r="G44" s="152"/>
       <c r="H44" s="155">
         <v>43774</v>
@@ -6596,11 +6596,11 @@
       <c r="C45" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
       <c r="G45" s="152"/>
       <c r="H45" s="155">
         <v>43774</v>
@@ -6620,11 +6620,11 @@
       <c r="C46" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="224"/>
       <c r="G46" s="152"/>
       <c r="H46" s="155">
         <v>43774</v>
@@ -6644,11 +6644,11 @@
       <c r="C47" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
       <c r="G47" s="152"/>
       <c r="H47" s="155">
         <v>43774</v>
@@ -6668,11 +6668,11 @@
       <c r="C48" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="224"/>
       <c r="G48" s="152"/>
       <c r="H48" s="155">
         <v>43774</v>
@@ -6692,11 +6692,11 @@
       <c r="C49" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
       <c r="G49" s="152"/>
       <c r="H49" s="155">
         <v>43774</v>
@@ -6716,11 +6716,11 @@
       <c r="C50" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
       <c r="G50" s="152"/>
       <c r="H50" s="155">
         <v>43774</v>
@@ -6740,11 +6740,11 @@
       <c r="C51" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
+      <c r="E51" s="224"/>
+      <c r="F51" s="224"/>
       <c r="G51" s="152"/>
       <c r="H51" s="155">
         <v>43774</v>
@@ -6764,11 +6764,11 @@
       <c r="C52" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
+      <c r="E52" s="224"/>
+      <c r="F52" s="224"/>
       <c r="G52" s="152"/>
       <c r="H52" s="155">
         <v>43774</v>
@@ -6788,11 +6788,11 @@
       <c r="C53" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="224"/>
       <c r="G53" s="152"/>
       <c r="H53" s="155">
         <v>43774</v>
@@ -6812,11 +6812,11 @@
       <c r="C54" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="175" t="s">
+      <c r="D54" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
+      <c r="E54" s="224"/>
+      <c r="F54" s="224"/>
       <c r="G54" s="152"/>
       <c r="H54" s="155">
         <v>43774</v>
@@ -6836,11 +6836,11 @@
       <c r="C55" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="175" t="s">
+      <c r="D55" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
+      <c r="E55" s="224"/>
+      <c r="F55" s="224"/>
       <c r="G55" s="152"/>
       <c r="H55" s="155">
         <v>43774</v>
@@ -6860,11 +6860,11 @@
       <c r="C56" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="175" t="s">
+      <c r="D56" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
+      <c r="E56" s="224"/>
+      <c r="F56" s="224"/>
       <c r="G56" s="152"/>
       <c r="H56" s="155">
         <v>43774</v>
@@ -6884,11 +6884,11 @@
       <c r="C57" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="175" t="s">
+      <c r="D57" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
+      <c r="E57" s="224"/>
+      <c r="F57" s="224"/>
       <c r="G57" s="152"/>
       <c r="H57" s="155">
         <v>43774</v>
@@ -6908,11 +6908,11 @@
       <c r="C58" s="151" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="224"/>
       <c r="G58" s="152"/>
       <c r="H58" s="155">
         <v>43774</v>
@@ -6932,11 +6932,11 @@
       <c r="C59" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
+      <c r="E59" s="224"/>
+      <c r="F59" s="224"/>
       <c r="G59" s="152"/>
       <c r="H59" s="155">
         <v>43774</v>
@@ -6956,11 +6956,11 @@
       <c r="C60" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="172" t="s">
+      <c r="D60" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="229"/>
       <c r="G60" s="118"/>
       <c r="H60" s="121">
         <v>43774</v>
@@ -6982,11 +6982,11 @@
       <c r="C61" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="175" t="s">
+      <c r="D61" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
+      <c r="E61" s="224"/>
+      <c r="F61" s="224"/>
       <c r="G61" s="152"/>
       <c r="H61" s="155">
         <v>43774</v>
@@ -7006,11 +7006,11 @@
       <c r="C62" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="176"/>
-      <c r="F62" s="176"/>
+      <c r="E62" s="224"/>
+      <c r="F62" s="224"/>
       <c r="G62" s="152"/>
       <c r="H62" s="155">
         <v>43774</v>
@@ -7030,11 +7030,11 @@
       <c r="C63" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="175" t="s">
+      <c r="D63" s="223" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="176"/>
-      <c r="F63" s="176"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="224"/>
       <c r="G63" s="152"/>
       <c r="H63" s="155">
         <v>43774</v>
@@ -7054,11 +7054,11 @@
       <c r="C64" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="172" t="s">
+      <c r="D64" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
       <c r="G64" s="118"/>
       <c r="H64" s="157">
         <v>43774</v>
@@ -7080,11 +7080,11 @@
       <c r="C65" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="181" t="s">
+      <c r="D65" s="230" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="231"/>
       <c r="G65" s="164"/>
       <c r="H65" s="155">
         <v>43774</v>
@@ -7104,11 +7104,11 @@
       <c r="C66" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="181" t="s">
+      <c r="D66" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="231"/>
       <c r="G66" s="164"/>
       <c r="H66" s="155">
         <v>43774</v>
@@ -7128,11 +7128,11 @@
       <c r="C67" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="181" t="s">
+      <c r="D67" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="182"/>
-      <c r="F67" s="182"/>
+      <c r="E67" s="231"/>
+      <c r="F67" s="231"/>
       <c r="G67" s="164"/>
       <c r="H67" s="155">
         <v>43774</v>
@@ -7152,11 +7152,11 @@
       <c r="C68" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="181" t="s">
+      <c r="D68" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="182"/>
-      <c r="F68" s="182"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
       <c r="G68" s="164"/>
       <c r="H68" s="155">
         <v>43774</v>
@@ -7176,11 +7176,11 @@
       <c r="C69" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="183" t="s">
+      <c r="D69" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="184"/>
-      <c r="F69" s="184"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
       <c r="G69" s="159"/>
       <c r="H69" s="121">
         <v>43774</v>
@@ -7202,11 +7202,11 @@
       <c r="C70" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="176"/>
-      <c r="F70" s="176"/>
+      <c r="E70" s="224"/>
+      <c r="F70" s="224"/>
       <c r="G70" s="152"/>
       <c r="H70" s="155">
         <v>43774</v>
@@ -7226,11 +7226,11 @@
       <c r="C71" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
+      <c r="E71" s="224"/>
+      <c r="F71" s="224"/>
       <c r="G71" s="152"/>
       <c r="H71" s="155">
         <v>43774</v>
@@ -7250,11 +7250,11 @@
       <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="178" t="s">
+      <c r="D72" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="179"/>
-      <c r="F72" s="179"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
       <c r="G72" s="86"/>
       <c r="H72" s="123">
         <v>43774</v>
@@ -7274,11 +7274,11 @@
       <c r="C73" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="178" t="s">
+      <c r="D73" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
+      <c r="E73" s="184"/>
+      <c r="F73" s="184"/>
       <c r="G73" s="86"/>
       <c r="H73" s="122">
         <v>43774</v>
@@ -7298,11 +7298,11 @@
       <c r="C74" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="178" t="s">
+      <c r="D74" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="179"/>
-      <c r="F74" s="179"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
       <c r="G74" s="86"/>
       <c r="H74" s="122">
         <v>43774</v>
@@ -7322,11 +7322,11 @@
       <c r="C75" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="178" t="s">
+      <c r="D75" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="179"/>
-      <c r="F75" s="180"/>
+      <c r="E75" s="184"/>
+      <c r="F75" s="214"/>
       <c r="G75" s="87"/>
       <c r="H75" s="122">
         <v>43774</v>
@@ -7346,11 +7346,11 @@
       <c r="C76" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="178" t="s">
+      <c r="D76" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="179"/>
-      <c r="F76" s="180"/>
+      <c r="E76" s="184"/>
+      <c r="F76" s="214"/>
       <c r="G76" s="124"/>
       <c r="H76" s="122">
         <v>43774</v>
@@ -7370,11 +7370,11 @@
       <c r="C77" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="178" t="s">
+      <c r="D77" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="179"/>
-      <c r="F77" s="180"/>
+      <c r="E77" s="184"/>
+      <c r="F77" s="214"/>
       <c r="G77" s="124"/>
       <c r="H77" s="122">
         <v>43774</v>
@@ -7394,11 +7394,11 @@
       <c r="C78" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="178" t="s">
+      <c r="D78" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="179"/>
-      <c r="F78" s="180"/>
+      <c r="E78" s="184"/>
+      <c r="F78" s="214"/>
       <c r="G78" s="124"/>
       <c r="H78" s="122">
         <v>43774</v>
@@ -7418,11 +7418,11 @@
       <c r="C79" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="178" t="s">
+      <c r="D79" s="183" t="s">
         <v>226</v>
       </c>
-      <c r="E79" s="179"/>
-      <c r="F79" s="180"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="214"/>
       <c r="G79" s="124"/>
       <c r="H79" s="122">
         <v>43774</v>
@@ -7442,11 +7442,11 @@
       <c r="C80" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="178" t="s">
+      <c r="D80" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="179"/>
-      <c r="F80" s="180"/>
+      <c r="E80" s="184"/>
+      <c r="F80" s="214"/>
       <c r="G80" s="87"/>
       <c r="H80" s="122">
         <v>43774</v>
@@ -7466,11 +7466,11 @@
       <c r="C81" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="178" t="s">
+      <c r="D81" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="179"/>
-      <c r="F81" s="180"/>
+      <c r="E81" s="184"/>
+      <c r="F81" s="214"/>
       <c r="G81" s="124"/>
       <c r="H81" s="123">
         <v>43774</v>
@@ -7490,11 +7490,11 @@
       <c r="C82" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="178" t="s">
+      <c r="D82" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="E82" s="179"/>
-      <c r="F82" s="180"/>
+      <c r="E82" s="184"/>
+      <c r="F82" s="214"/>
       <c r="G82" s="124"/>
       <c r="H82" s="123">
         <v>43774</v>
@@ -7514,11 +7514,11 @@
       <c r="C83" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="178" t="s">
+      <c r="D83" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="179"/>
-      <c r="F83" s="180"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="214"/>
       <c r="G83" s="124"/>
       <c r="H83" s="123">
         <v>43774</v>
@@ -7538,11 +7538,11 @@
       <c r="C84" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="D84" s="178" t="s">
+      <c r="D84" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="E84" s="179"/>
-      <c r="F84" s="180"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="214"/>
       <c r="G84" s="124"/>
       <c r="H84" s="123">
         <v>43774</v>
@@ -7562,11 +7562,11 @@
       <c r="C85" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="178" t="s">
+      <c r="D85" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="E85" s="179"/>
-      <c r="F85" s="180"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="214"/>
       <c r="G85" s="124"/>
       <c r="H85" s="123">
         <v>43774</v>
@@ -7586,11 +7586,11 @@
       <c r="C86" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="D86" s="178" t="s">
+      <c r="D86" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="179"/>
-      <c r="F86" s="180"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="214"/>
       <c r="G86" s="124"/>
       <c r="H86" s="123">
         <v>43774</v>
@@ -7612,11 +7612,11 @@
       <c r="C87" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="178" t="s">
+      <c r="D87" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="179"/>
-      <c r="F87" s="180"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="214"/>
       <c r="G87" s="124"/>
       <c r="H87" s="123">
         <v>43774</v>
@@ -7636,11 +7636,11 @@
       <c r="C88" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="178" t="s">
+      <c r="D88" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="179"/>
-      <c r="F88" s="180"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="214"/>
       <c r="G88" s="124"/>
       <c r="H88" s="123">
         <v>43774</v>
@@ -7660,11 +7660,11 @@
       <c r="C89" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="178" t="s">
+      <c r="D89" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="E89" s="179"/>
-      <c r="F89" s="180"/>
+      <c r="E89" s="184"/>
+      <c r="F89" s="214"/>
       <c r="G89" s="124"/>
       <c r="H89" s="123">
         <v>43774</v>
@@ -7684,11 +7684,11 @@
       <c r="C90" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="D90" s="178" t="s">
+      <c r="D90" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="E90" s="179"/>
-      <c r="F90" s="180"/>
+      <c r="E90" s="184"/>
+      <c r="F90" s="214"/>
       <c r="G90" s="124"/>
       <c r="H90" s="123">
         <v>43774</v>
@@ -7708,11 +7708,11 @@
       <c r="C91" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="178" t="s">
+      <c r="D91" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="179"/>
-      <c r="F91" s="180"/>
+      <c r="E91" s="184"/>
+      <c r="F91" s="214"/>
       <c r="G91" s="124"/>
       <c r="H91" s="123">
         <v>43774</v>
@@ -7732,11 +7732,11 @@
       <c r="C92" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="178" t="s">
+      <c r="D92" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="E92" s="179"/>
-      <c r="F92" s="180"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="214"/>
       <c r="G92" s="124"/>
       <c r="H92" s="123">
         <v>43774</v>
@@ -7756,11 +7756,11 @@
       <c r="C93" s="124" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="178" t="s">
+      <c r="D93" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="179"/>
-      <c r="F93" s="180"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="214"/>
       <c r="G93" s="124"/>
       <c r="H93" s="123">
         <v>43774</v>
@@ -7780,11 +7780,11 @@
       <c r="C94" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="172" t="s">
+      <c r="D94" s="228" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="173"/>
-      <c r="F94" s="174"/>
+      <c r="E94" s="229"/>
+      <c r="F94" s="232"/>
       <c r="G94" s="119"/>
       <c r="H94" s="168">
         <v>43774</v>
@@ -7806,11 +7806,11 @@
       <c r="C95" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="175" t="s">
+      <c r="D95" s="223" t="s">
         <v>248</v>
       </c>
-      <c r="E95" s="176"/>
-      <c r="F95" s="177"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="233"/>
       <c r="G95" s="112"/>
       <c r="H95" s="169">
         <v>43774</v>
@@ -7830,11 +7830,11 @@
       <c r="C96" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="175" t="s">
+      <c r="D96" s="223" t="s">
         <v>248</v>
       </c>
-      <c r="E96" s="176"/>
-      <c r="F96" s="177"/>
+      <c r="E96" s="224"/>
+      <c r="F96" s="233"/>
       <c r="G96" s="112"/>
       <c r="H96" s="169">
         <v>43774</v>
@@ -7845,26 +7845,26 @@
       <c r="J96" s="153"/>
     </row>
     <row r="97" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A97" s="185" t="s">
+      <c r="A97" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="186"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="186"/>
-      <c r="E97" s="186"/>
-      <c r="F97" s="186"/>
-      <c r="G97" s="186"/>
-      <c r="H97" s="186"/>
-      <c r="I97" s="186"/>
-      <c r="J97" s="187"/>
+      <c r="B97" s="212"/>
+      <c r="C97" s="212"/>
+      <c r="D97" s="212"/>
+      <c r="E97" s="212"/>
+      <c r="F97" s="212"/>
+      <c r="G97" s="212"/>
+      <c r="H97" s="212"/>
+      <c r="I97" s="212"/>
+      <c r="J97" s="213"/>
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A98" s="88"/>
       <c r="B98" s="102"/>
       <c r="C98" s="103"/>
-      <c r="D98" s="196"/>
-      <c r="E98" s="179"/>
-      <c r="F98" s="179"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="184"/>
+      <c r="F98" s="184"/>
       <c r="G98" s="86"/>
       <c r="H98" s="135"/>
       <c r="I98" s="87"/>
@@ -7874,9 +7874,9 @@
       <c r="A99" s="88"/>
       <c r="B99" s="102"/>
       <c r="C99" s="103"/>
-      <c r="D99" s="196"/>
-      <c r="E99" s="179"/>
-      <c r="F99" s="179"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="184"/>
+      <c r="F99" s="184"/>
       <c r="G99" s="86"/>
       <c r="H99" s="135"/>
       <c r="I99" s="87"/>
@@ -7886,9 +7886,9 @@
       <c r="A100" s="88"/>
       <c r="B100" s="102"/>
       <c r="C100" s="103"/>
-      <c r="D100" s="196"/>
-      <c r="E100" s="179"/>
-      <c r="F100" s="179"/>
+      <c r="D100" s="215"/>
+      <c r="E100" s="184"/>
+      <c r="F100" s="184"/>
       <c r="G100" s="86"/>
       <c r="H100" s="136"/>
       <c r="I100" s="87"/>
@@ -7898,27 +7898,27 @@
       <c r="A101" s="88"/>
       <c r="B101" s="102"/>
       <c r="C101" s="103"/>
-      <c r="D101" s="196"/>
-      <c r="E101" s="179"/>
-      <c r="F101" s="179"/>
+      <c r="D101" s="215"/>
+      <c r="E101" s="184"/>
+      <c r="F101" s="184"/>
       <c r="G101" s="86"/>
       <c r="H101" s="135"/>
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
     </row>
     <row r="102" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A102" s="185" t="s">
+      <c r="A102" s="211" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="186"/>
-      <c r="C102" s="186"/>
-      <c r="D102" s="186"/>
-      <c r="E102" s="186"/>
-      <c r="F102" s="186"/>
-      <c r="G102" s="186"/>
-      <c r="H102" s="186"/>
-      <c r="I102" s="186"/>
-      <c r="J102" s="187"/>
+      <c r="B102" s="212"/>
+      <c r="C102" s="212"/>
+      <c r="D102" s="212"/>
+      <c r="E102" s="212"/>
+      <c r="F102" s="212"/>
+      <c r="G102" s="212"/>
+      <c r="H102" s="212"/>
+      <c r="I102" s="212"/>
+      <c r="J102" s="213"/>
     </row>
     <row r="103" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A103" s="88" t="s">
@@ -7930,11 +7930,11 @@
       <c r="C103" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="188" t="s">
+      <c r="D103" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="188"/>
-      <c r="F103" s="188"/>
+      <c r="E103" s="216"/>
+      <c r="F103" s="216"/>
       <c r="G103" s="130"/>
       <c r="H103" s="137">
         <v>43774</v>
@@ -7954,11 +7954,11 @@
       <c r="C104" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="191" t="s">
+      <c r="D104" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="192"/>
-      <c r="F104" s="192"/>
+      <c r="E104" s="222"/>
+      <c r="F104" s="222"/>
       <c r="G104" s="131"/>
       <c r="H104" s="141">
         <v>43774</v>
@@ -7968,33 +7968,33 @@
       </c>
       <c r="J104" s="128"/>
     </row>
-    <row r="105" spans="1:14" s="235" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
+    <row r="105" spans="1:14" s="177" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
       <c r="A105" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="226" t="s">
+      <c r="B105" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="227" t="s">
+      <c r="C105" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="228" t="s">
+      <c r="D105" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="229"/>
-      <c r="F105" s="229"/>
-      <c r="G105" s="230"/>
-      <c r="H105" s="231">
+      <c r="E105" s="220"/>
+      <c r="F105" s="220"/>
+      <c r="G105" s="172"/>
+      <c r="H105" s="173">
         <v>43774</v>
       </c>
-      <c r="I105" s="232" t="s">
+      <c r="I105" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="233"/>
-      <c r="K105" s="234"/>
-      <c r="L105" s="234"/>
-      <c r="M105" s="234"/>
-      <c r="N105" s="234"/>
+      <c r="J105" s="175"/>
+      <c r="K105" s="176"/>
+      <c r="L105" s="176"/>
+      <c r="M105" s="176"/>
+      <c r="N105" s="176"/>
     </row>
     <row r="106" spans="1:14" s="93" customFormat="1" ht="80.25" customHeight="1" outlineLevel="1">
       <c r="A106" s="143" t="s">
@@ -8006,11 +8006,11 @@
       <c r="C106" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="189" t="s">
+      <c r="D106" s="217" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="190"/>
-      <c r="F106" s="190"/>
+      <c r="E106" s="218"/>
+      <c r="F106" s="218"/>
       <c r="G106" s="131"/>
       <c r="H106" s="146">
         <v>43774</v>
@@ -8030,51 +8030,51 @@
       <c r="C107" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="178" t="s">
+      <c r="D107" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="179"/>
-      <c r="F107" s="180"/>
+      <c r="E107" s="184"/>
+      <c r="F107" s="214"/>
       <c r="G107" s="130"/>
       <c r="H107" s="137"/>
       <c r="I107" s="142"/>
       <c r="J107" s="94"/>
     </row>
     <row r="108" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A108" s="193" t="s">
+      <c r="A108" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="194"/>
-      <c r="C108" s="194"/>
-      <c r="D108" s="194"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="194"/>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
-      <c r="I108" s="194"/>
-      <c r="J108" s="195"/>
+      <c r="B108" s="181"/>
+      <c r="C108" s="181"/>
+      <c r="D108" s="181"/>
+      <c r="E108" s="181"/>
+      <c r="F108" s="181"/>
+      <c r="G108" s="181"/>
+      <c r="H108" s="181"/>
+      <c r="I108" s="181"/>
+      <c r="J108" s="182"/>
     </row>
     <row r="109" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A109" s="193" t="s">
+      <c r="A109" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="194"/>
-      <c r="C109" s="194"/>
-      <c r="D109" s="194"/>
-      <c r="E109" s="194"/>
-      <c r="F109" s="194"/>
-      <c r="G109" s="194"/>
-      <c r="H109" s="194"/>
-      <c r="I109" s="194"/>
-      <c r="J109" s="195"/>
+      <c r="B109" s="181"/>
+      <c r="C109" s="181"/>
+      <c r="D109" s="181"/>
+      <c r="E109" s="181"/>
+      <c r="F109" s="181"/>
+      <c r="G109" s="181"/>
+      <c r="H109" s="181"/>
+      <c r="I109" s="181"/>
+      <c r="J109" s="182"/>
     </row>
     <row r="110" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A110" s="88"/>
       <c r="B110" s="97"/>
       <c r="C110" s="92"/>
-      <c r="D110" s="178"/>
-      <c r="E110" s="179"/>
-      <c r="F110" s="179"/>
+      <c r="D110" s="183"/>
+      <c r="E110" s="184"/>
+      <c r="F110" s="184"/>
       <c r="G110" s="131"/>
       <c r="H110" s="138"/>
       <c r="I110" s="100"/>
@@ -8084,9 +8084,9 @@
       <c r="A111" s="88"/>
       <c r="B111" s="97"/>
       <c r="C111" s="92"/>
-      <c r="D111" s="178"/>
-      <c r="E111" s="179"/>
-      <c r="F111" s="179"/>
+      <c r="D111" s="183"/>
+      <c r="E111" s="184"/>
+      <c r="F111" s="184"/>
       <c r="G111" s="131"/>
       <c r="H111" s="138"/>
       <c r="I111" s="100"/>
@@ -8096,9 +8096,9 @@
       <c r="A112" s="88"/>
       <c r="B112" s="97"/>
       <c r="C112" s="92"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="179"/>
-      <c r="F112" s="179"/>
+      <c r="D112" s="183"/>
+      <c r="E112" s="184"/>
+      <c r="F112" s="184"/>
       <c r="G112" s="131"/>
       <c r="H112" s="138"/>
       <c r="I112" s="100"/>
@@ -8108,9 +8108,9 @@
       <c r="A113" s="88"/>
       <c r="B113" s="97"/>
       <c r="C113" s="92"/>
-      <c r="D113" s="178"/>
-      <c r="E113" s="179"/>
-      <c r="F113" s="179"/>
+      <c r="D113" s="183"/>
+      <c r="E113" s="184"/>
+      <c r="F113" s="184"/>
       <c r="G113" s="131"/>
       <c r="H113" s="138"/>
       <c r="I113" s="100"/>
@@ -8120,9 +8120,9 @@
       <c r="A114" s="88"/>
       <c r="B114" s="97"/>
       <c r="C114" s="92"/>
-      <c r="D114" s="178"/>
-      <c r="E114" s="179"/>
-      <c r="F114" s="179"/>
+      <c r="D114" s="183"/>
+      <c r="E114" s="184"/>
+      <c r="F114" s="184"/>
       <c r="G114" s="131"/>
       <c r="H114" s="138"/>
       <c r="I114" s="100"/>
@@ -8132,9 +8132,9 @@
       <c r="A115" s="88"/>
       <c r="B115" s="97"/>
       <c r="C115" s="92"/>
-      <c r="D115" s="178"/>
-      <c r="E115" s="179"/>
-      <c r="F115" s="179"/>
+      <c r="D115" s="183"/>
+      <c r="E115" s="184"/>
+      <c r="F115" s="184"/>
       <c r="G115" s="131"/>
       <c r="H115" s="138"/>
       <c r="I115" s="100"/>
@@ -8144,61 +8144,61 @@
       <c r="A116" s="88"/>
       <c r="B116" s="97"/>
       <c r="C116" s="92"/>
-      <c r="D116" s="178"/>
-      <c r="E116" s="179"/>
-      <c r="F116" s="179"/>
+      <c r="D116" s="183"/>
+      <c r="E116" s="184"/>
+      <c r="F116" s="184"/>
       <c r="G116" s="131"/>
       <c r="H116" s="138"/>
       <c r="I116" s="100"/>
       <c r="J116" s="94"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A117" s="193" t="s">
+      <c r="A117" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="194"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="194"/>
-      <c r="E117" s="194"/>
-      <c r="F117" s="194"/>
-      <c r="G117" s="194"/>
-      <c r="H117" s="194"/>
-      <c r="I117" s="194"/>
-      <c r="J117" s="195"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="181"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="181"/>
+      <c r="F117" s="181"/>
+      <c r="G117" s="181"/>
+      <c r="H117" s="181"/>
+      <c r="I117" s="181"/>
+      <c r="J117" s="182"/>
     </row>
     <row r="118" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A118" s="88"/>
       <c r="B118" s="97"/>
       <c r="C118" s="92"/>
-      <c r="D118" s="178"/>
-      <c r="E118" s="179"/>
-      <c r="F118" s="179"/>
+      <c r="D118" s="183"/>
+      <c r="E118" s="184"/>
+      <c r="F118" s="184"/>
       <c r="G118" s="131"/>
       <c r="H118" s="138"/>
       <c r="I118" s="100"/>
       <c r="J118" s="94"/>
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A119" s="193" t="s">
+      <c r="A119" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="194"/>
-      <c r="C119" s="194"/>
-      <c r="D119" s="194"/>
-      <c r="E119" s="194"/>
-      <c r="F119" s="194"/>
-      <c r="G119" s="194"/>
-      <c r="H119" s="194"/>
-      <c r="I119" s="194"/>
-      <c r="J119" s="195"/>
+      <c r="B119" s="181"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="181"/>
+      <c r="E119" s="181"/>
+      <c r="F119" s="181"/>
+      <c r="G119" s="181"/>
+      <c r="H119" s="181"/>
+      <c r="I119" s="181"/>
+      <c r="J119" s="182"/>
     </row>
     <row r="120" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A120" s="88"/>
       <c r="B120" s="97"/>
       <c r="C120" s="92"/>
-      <c r="D120" s="178"/>
-      <c r="E120" s="179"/>
-      <c r="F120" s="179"/>
+      <c r="D120" s="183"/>
+      <c r="E120" s="184"/>
+      <c r="F120" s="184"/>
       <c r="G120" s="131"/>
       <c r="H120" s="138"/>
       <c r="I120" s="106"/>
@@ -8208,9 +8208,9 @@
       <c r="A121" s="88"/>
       <c r="B121" s="97"/>
       <c r="C121" s="92"/>
-      <c r="D121" s="178"/>
-      <c r="E121" s="179"/>
-      <c r="F121" s="179"/>
+      <c r="D121" s="183"/>
+      <c r="E121" s="184"/>
+      <c r="F121" s="184"/>
       <c r="G121" s="131"/>
       <c r="H121" s="138"/>
       <c r="I121" s="100"/>
@@ -8220,35 +8220,35 @@
       <c r="A122" s="88"/>
       <c r="B122" s="97"/>
       <c r="C122" s="92"/>
-      <c r="D122" s="178"/>
-      <c r="E122" s="179"/>
-      <c r="F122" s="179"/>
+      <c r="D122" s="183"/>
+      <c r="E122" s="184"/>
+      <c r="F122" s="184"/>
       <c r="G122" s="131"/>
       <c r="H122" s="138"/>
       <c r="I122" s="100"/>
       <c r="J122" s="94"/>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A123" s="193" t="s">
+      <c r="A123" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="194"/>
-      <c r="C123" s="194"/>
-      <c r="D123" s="194"/>
-      <c r="E123" s="194"/>
-      <c r="F123" s="194"/>
-      <c r="G123" s="194"/>
-      <c r="H123" s="194"/>
-      <c r="I123" s="194"/>
-      <c r="J123" s="195"/>
+      <c r="B123" s="181"/>
+      <c r="C123" s="181"/>
+      <c r="D123" s="181"/>
+      <c r="E123" s="181"/>
+      <c r="F123" s="181"/>
+      <c r="G123" s="181"/>
+      <c r="H123" s="181"/>
+      <c r="I123" s="181"/>
+      <c r="J123" s="182"/>
     </row>
     <row r="124" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A124" s="88"/>
       <c r="B124" s="97"/>
       <c r="C124" s="92"/>
-      <c r="D124" s="178"/>
-      <c r="E124" s="179"/>
-      <c r="F124" s="179"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="184"/>
+      <c r="F124" s="184"/>
       <c r="G124" s="131"/>
       <c r="H124" s="138"/>
       <c r="I124" s="100"/>
@@ -8258,49 +8258,49 @@
       <c r="A125" s="88"/>
       <c r="B125" s="97"/>
       <c r="C125" s="92"/>
-      <c r="D125" s="225"/>
-      <c r="E125" s="179"/>
-      <c r="F125" s="179"/>
+      <c r="D125" s="185"/>
+      <c r="E125" s="184"/>
+      <c r="F125" s="184"/>
       <c r="G125" s="131"/>
       <c r="H125" s="138"/>
       <c r="I125" s="100"/>
       <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A126" s="193" t="s">
+      <c r="A126" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="194"/>
-      <c r="C126" s="194"/>
-      <c r="D126" s="194"/>
-      <c r="E126" s="194"/>
-      <c r="F126" s="194"/>
-      <c r="G126" s="194"/>
-      <c r="H126" s="194"/>
-      <c r="I126" s="194"/>
-      <c r="J126" s="195"/>
+      <c r="B126" s="181"/>
+      <c r="C126" s="181"/>
+      <c r="D126" s="181"/>
+      <c r="E126" s="181"/>
+      <c r="F126" s="181"/>
+      <c r="G126" s="181"/>
+      <c r="H126" s="181"/>
+      <c r="I126" s="181"/>
+      <c r="J126" s="182"/>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A127" s="193" t="s">
+      <c r="A127" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="194"/>
-      <c r="C127" s="194"/>
-      <c r="D127" s="194"/>
-      <c r="E127" s="194"/>
-      <c r="F127" s="194"/>
-      <c r="G127" s="194"/>
-      <c r="H127" s="194"/>
-      <c r="I127" s="194"/>
-      <c r="J127" s="195"/>
+      <c r="B127" s="181"/>
+      <c r="C127" s="181"/>
+      <c r="D127" s="181"/>
+      <c r="E127" s="181"/>
+      <c r="F127" s="181"/>
+      <c r="G127" s="181"/>
+      <c r="H127" s="181"/>
+      <c r="I127" s="181"/>
+      <c r="J127" s="182"/>
     </row>
     <row r="128" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A128" s="88"/>
       <c r="B128" s="97"/>
       <c r="C128" s="92"/>
-      <c r="D128" s="178"/>
-      <c r="E128" s="179"/>
-      <c r="F128" s="179"/>
+      <c r="D128" s="183"/>
+      <c r="E128" s="184"/>
+      <c r="F128" s="184"/>
       <c r="G128" s="131"/>
       <c r="H128" s="138"/>
       <c r="I128" s="100"/>
@@ -8310,35 +8310,35 @@
       <c r="A129" s="88"/>
       <c r="B129" s="97"/>
       <c r="C129" s="92"/>
-      <c r="D129" s="178"/>
-      <c r="E129" s="179"/>
-      <c r="F129" s="179"/>
+      <c r="D129" s="183"/>
+      <c r="E129" s="184"/>
+      <c r="F129" s="184"/>
       <c r="G129" s="131"/>
       <c r="H129" s="138"/>
       <c r="I129" s="100"/>
       <c r="J129" s="94"/>
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A130" s="193" t="s">
+      <c r="A130" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="194"/>
-      <c r="C130" s="194"/>
-      <c r="D130" s="194"/>
-      <c r="E130" s="194"/>
-      <c r="F130" s="194"/>
-      <c r="G130" s="194"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="194"/>
-      <c r="J130" s="195"/>
+      <c r="B130" s="181"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="181"/>
+      <c r="F130" s="181"/>
+      <c r="G130" s="181"/>
+      <c r="H130" s="181"/>
+      <c r="I130" s="181"/>
+      <c r="J130" s="182"/>
     </row>
     <row r="131" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A131" s="88"/>
       <c r="B131" s="97"/>
       <c r="C131" s="92"/>
-      <c r="D131" s="178"/>
-      <c r="E131" s="179"/>
-      <c r="F131" s="179"/>
+      <c r="D131" s="183"/>
+      <c r="E131" s="184"/>
+      <c r="F131" s="184"/>
       <c r="G131" s="131"/>
       <c r="H131" s="138"/>
       <c r="I131" s="100"/>
@@ -8348,35 +8348,35 @@
       <c r="A132" s="88"/>
       <c r="B132" s="97"/>
       <c r="C132" s="92"/>
-      <c r="D132" s="178"/>
-      <c r="E132" s="179"/>
-      <c r="F132" s="179"/>
+      <c r="D132" s="183"/>
+      <c r="E132" s="184"/>
+      <c r="F132" s="184"/>
       <c r="G132" s="131"/>
       <c r="H132" s="138"/>
       <c r="I132" s="100"/>
       <c r="J132" s="94"/>
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A133" s="193" t="s">
+      <c r="A133" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="194"/>
-      <c r="C133" s="194"/>
-      <c r="D133" s="194"/>
-      <c r="E133" s="194"/>
-      <c r="F133" s="194"/>
-      <c r="G133" s="194"/>
-      <c r="H133" s="194"/>
-      <c r="I133" s="194"/>
-      <c r="J133" s="195"/>
+      <c r="B133" s="181"/>
+      <c r="C133" s="181"/>
+      <c r="D133" s="181"/>
+      <c r="E133" s="181"/>
+      <c r="F133" s="181"/>
+      <c r="G133" s="181"/>
+      <c r="H133" s="181"/>
+      <c r="I133" s="181"/>
+      <c r="J133" s="182"/>
     </row>
     <row r="134" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A134" s="88"/>
       <c r="B134" s="97"/>
       <c r="C134" s="92"/>
-      <c r="D134" s="178"/>
-      <c r="E134" s="179"/>
-      <c r="F134" s="179"/>
+      <c r="D134" s="183"/>
+      <c r="E134" s="184"/>
+      <c r="F134" s="184"/>
       <c r="G134" s="131"/>
       <c r="H134" s="138"/>
       <c r="I134" s="100"/>
@@ -8386,35 +8386,35 @@
       <c r="A135" s="88"/>
       <c r="B135" s="97"/>
       <c r="C135" s="92"/>
-      <c r="D135" s="178"/>
-      <c r="E135" s="179"/>
-      <c r="F135" s="179"/>
+      <c r="D135" s="183"/>
+      <c r="E135" s="184"/>
+      <c r="F135" s="184"/>
       <c r="G135" s="131"/>
       <c r="H135" s="138"/>
       <c r="I135" s="100"/>
       <c r="J135" s="94"/>
     </row>
     <row r="136" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A136" s="193" t="s">
+      <c r="A136" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="194"/>
-      <c r="C136" s="194"/>
-      <c r="D136" s="194"/>
-      <c r="E136" s="194"/>
-      <c r="F136" s="194"/>
-      <c r="G136" s="194"/>
-      <c r="H136" s="194"/>
-      <c r="I136" s="194"/>
-      <c r="J136" s="195"/>
+      <c r="B136" s="181"/>
+      <c r="C136" s="181"/>
+      <c r="D136" s="181"/>
+      <c r="E136" s="181"/>
+      <c r="F136" s="181"/>
+      <c r="G136" s="181"/>
+      <c r="H136" s="181"/>
+      <c r="I136" s="181"/>
+      <c r="J136" s="182"/>
     </row>
     <row r="137" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A137" s="88"/>
       <c r="B137" s="97"/>
       <c r="C137" s="92"/>
-      <c r="D137" s="178"/>
-      <c r="E137" s="179"/>
-      <c r="F137" s="179"/>
+      <c r="D137" s="183"/>
+      <c r="E137" s="184"/>
+      <c r="F137" s="184"/>
       <c r="G137" s="131"/>
       <c r="H137" s="138"/>
       <c r="I137" s="100"/>
@@ -8424,35 +8424,35 @@
       <c r="A138" s="88"/>
       <c r="B138" s="97"/>
       <c r="C138" s="92"/>
-      <c r="D138" s="178"/>
-      <c r="E138" s="179"/>
-      <c r="F138" s="179"/>
+      <c r="D138" s="183"/>
+      <c r="E138" s="184"/>
+      <c r="F138" s="184"/>
       <c r="G138" s="131"/>
       <c r="H138" s="138"/>
       <c r="I138" s="100"/>
       <c r="J138" s="94"/>
     </row>
     <row r="139" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A139" s="193" t="s">
+      <c r="A139" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B139" s="194"/>
-      <c r="C139" s="194"/>
-      <c r="D139" s="194"/>
-      <c r="E139" s="194"/>
-      <c r="F139" s="194"/>
-      <c r="G139" s="194"/>
-      <c r="H139" s="194"/>
-      <c r="I139" s="194"/>
-      <c r="J139" s="195"/>
+      <c r="B139" s="181"/>
+      <c r="C139" s="181"/>
+      <c r="D139" s="181"/>
+      <c r="E139" s="181"/>
+      <c r="F139" s="181"/>
+      <c r="G139" s="181"/>
+      <c r="H139" s="181"/>
+      <c r="I139" s="181"/>
+      <c r="J139" s="182"/>
     </row>
     <row r="140" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A140" s="88"/>
       <c r="B140" s="97"/>
       <c r="C140" s="92"/>
-      <c r="D140" s="178"/>
-      <c r="E140" s="179"/>
-      <c r="F140" s="179"/>
+      <c r="D140" s="183"/>
+      <c r="E140" s="184"/>
+      <c r="F140" s="184"/>
       <c r="G140" s="131"/>
       <c r="H140" s="138"/>
       <c r="I140" s="100"/>
@@ -8462,9 +8462,9 @@
       <c r="A141" s="88"/>
       <c r="B141" s="97"/>
       <c r="C141" s="92"/>
-      <c r="D141" s="178"/>
-      <c r="E141" s="179"/>
-      <c r="F141" s="179"/>
+      <c r="D141" s="183"/>
+      <c r="E141" s="184"/>
+      <c r="F141" s="184"/>
       <c r="G141" s="131"/>
       <c r="H141" s="138"/>
       <c r="I141" s="100"/>
@@ -8510,105 +8510,15 @@
     <row r="179" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="A139:J139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A127:J127"/>
-    <mergeCell ref="A130:J130"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="A117:J117"/>
-    <mergeCell ref="A119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A108:J108"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D77:F77"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="A24:J24"/>
@@ -8633,6 +8543,18 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="D72:F72"/>
     <mergeCell ref="D70:F70"/>
     <mergeCell ref="D61:F61"/>
@@ -8645,19 +8567,97 @@
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A127:J127"/>
+    <mergeCell ref="A130:J130"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="402">
   <si>
     <t>31/07/2007</t>
   </si>
@@ -1277,9 +1277,6 @@
 4: Sửa giới tính thành "23142SDFDSFSDF"
 5: Sửa ngày sinh thành "19/11/1999"
 5: Nhấn button "Cập nhật"</t>
-  </si>
-  <si>
-    <t>Sửa giới tính quá dài</t>
   </si>
   <si>
     <t>TC67</t>
@@ -3083,7 +3080,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3594,186 +3591,6 @@
     <xf numFmtId="2" fontId="24" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="24" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3787,12 +3604,6 @@
     <xf numFmtId="2" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="24" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3800,12 +3611,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="24" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3816,6 +3621,232 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="25" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6490,11 +6521,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="197"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="209"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -6503,11 +6534,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="197"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -6718,10 +6749,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -6740,9 +6771,9 @@
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -6753,9 +6784,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6768,51 +6799,51 @@
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="235" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="216"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -6820,22 +6851,22 @@
         <v>37</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(I12:I244,"Pass")</f>
-        <v>84</v>
+        <f>COUNTIF(I12:I243,"Pass")</f>
+        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I966,"Pending")</f>
+        <f>COUNTIF(I10:I965,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -6843,29 +6874,29 @@
         <v>8</v>
       </c>
       <c r="B7" s="96">
-        <f>COUNTIF(I12:I244,"Fail")</f>
-        <v>61</v>
+        <f>COUNTIF(I12:I243,"Fail")</f>
+        <v>59</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A247) -15</f>
-        <v>197</v>
+        <f>COUNTA(A12:A246) -15</f>
+        <v>196</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="233"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -6875,70 +6906,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="227" t="s">
+      <c r="C9" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="245" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="223" t="s">
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="219" t="s">
+      <c r="I9" s="234" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="219" t="s">
+      <c r="J9" s="234" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="219"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="225"/>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="226"/>
+      <c r="A11" s="240"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="241"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="206"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="207"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -6950,11 +6981,11 @@
       <c r="C13" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="208" t="s">
+      <c r="D13" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
       <c r="G13" s="86"/>
       <c r="H13" s="118">
         <v>43774</v>
@@ -6974,11 +7005,11 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="208" t="s">
+      <c r="D14" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
       <c r="G14" s="86"/>
       <c r="H14" s="118">
         <v>43774</v>
@@ -6998,11 +7029,11 @@
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="208" t="s">
+      <c r="D15" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
       <c r="G15" s="86"/>
       <c r="H15" s="118">
         <v>43774</v>
@@ -7022,11 +7053,11 @@
       <c r="C16" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="208" t="s">
+      <c r="D16" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
       <c r="G16" s="86"/>
       <c r="H16" s="118">
         <v>43774</v>
@@ -7046,11 +7077,11 @@
       <c r="C17" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="208" t="s">
+      <c r="D17" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
       <c r="G17" s="86"/>
       <c r="H17" s="118">
         <v>43774</v>
@@ -7070,11 +7101,11 @@
       <c r="C18" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="D18" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
       <c r="G18" s="86"/>
       <c r="H18" s="118">
         <v>43774</v>
@@ -7094,11 +7125,11 @@
       <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="208" t="s">
+      <c r="D19" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
       <c r="G19" s="86"/>
       <c r="H19" s="118">
         <v>43774</v>
@@ -7118,11 +7149,11 @@
       <c r="C20" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="208" t="s">
+      <c r="D20" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
       <c r="G20" s="86"/>
       <c r="H20" s="118">
         <v>43774</v>
@@ -7142,11 +7173,11 @@
       <c r="C21" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="208" t="s">
+      <c r="D21" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
       <c r="G21" s="86"/>
       <c r="H21" s="118">
         <v>43774</v>
@@ -7166,11 +7197,11 @@
       <c r="C22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="208" t="s">
+      <c r="D22" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
       <c r="G22" s="86"/>
       <c r="H22" s="118">
         <v>43774</v>
@@ -7190,11 +7221,11 @@
       <c r="C23" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="208" t="s">
+      <c r="D23" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
       <c r="G23" s="86"/>
       <c r="H23" s="118">
         <v>43774</v>
@@ -7205,23 +7236,23 @@
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="251"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="253"/>
+      <c r="A24" s="265"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="267"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="206"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
       <c r="F25" s="112"/>
@@ -7231,18 +7262,18 @@
       <c r="J25" s="113"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="237"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="238"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="219"/>
     </row>
     <row r="27" spans="1:10" s="147" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="142" t="s">
@@ -7254,11 +7285,11 @@
       <c r="C27" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="203" t="s">
+      <c r="D27" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
       <c r="G27" s="145"/>
       <c r="H27" s="148">
         <v>43774</v>
@@ -7278,11 +7309,11 @@
       <c r="C28" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="203" t="s">
+      <c r="D28" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
       <c r="G28" s="145"/>
       <c r="H28" s="148">
         <v>43774</v>
@@ -7302,11 +7333,11 @@
       <c r="C29" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="203" t="s">
+      <c r="D29" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="145"/>
       <c r="H29" s="148">
         <v>43774</v>
@@ -7326,11 +7357,11 @@
       <c r="C30" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="203" t="s">
+      <c r="D30" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
       <c r="G30" s="145"/>
       <c r="H30" s="148">
         <v>43774</v>
@@ -7350,11 +7381,11 @@
       <c r="C31" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="203" t="s">
+      <c r="D31" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
       <c r="G31" s="145"/>
       <c r="H31" s="148">
         <v>43774</v>
@@ -7374,11 +7405,11 @@
       <c r="C32" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="203" t="s">
+      <c r="D32" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
       <c r="G32" s="145"/>
       <c r="H32" s="148">
         <v>43774</v>
@@ -7398,11 +7429,11 @@
       <c r="C33" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="203" t="s">
+      <c r="D33" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
       <c r="G33" s="145"/>
       <c r="H33" s="148">
         <v>43774</v>
@@ -7422,11 +7453,11 @@
       <c r="C34" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="203" t="s">
+      <c r="D34" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
       <c r="G34" s="145"/>
       <c r="H34" s="148">
         <v>43774</v>
@@ -7446,11 +7477,11 @@
       <c r="C35" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="203" t="s">
+      <c r="D35" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
       <c r="G35" s="145"/>
       <c r="H35" s="148">
         <v>43774</v>
@@ -7470,11 +7501,11 @@
       <c r="C36" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
       <c r="G36" s="145"/>
       <c r="H36" s="148">
         <v>43774</v>
@@ -7494,11 +7525,11 @@
       <c r="C37" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="203" t="s">
+      <c r="D37" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
       <c r="G37" s="145"/>
       <c r="H37" s="148">
         <v>43774</v>
@@ -7518,11 +7549,11 @@
       <c r="C38" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="203" t="s">
+      <c r="D38" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
       <c r="G38" s="145"/>
       <c r="H38" s="148">
         <v>43774</v>
@@ -7542,11 +7573,11 @@
       <c r="C39" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="203" t="s">
+      <c r="D39" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
       <c r="G39" s="159"/>
       <c r="H39" s="148">
         <v>43774</v>
@@ -7566,11 +7597,11 @@
       <c r="C40" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="203" t="s">
+      <c r="D40" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
       <c r="G40" s="159"/>
       <c r="H40" s="148">
         <v>43774</v>
@@ -7590,11 +7621,11 @@
       <c r="C41" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="203" t="s">
+      <c r="D41" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
       <c r="G41" s="145"/>
       <c r="H41" s="148">
         <v>43774</v>
@@ -7614,11 +7645,11 @@
       <c r="C42" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="203" t="s">
+      <c r="D42" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
       <c r="G42" s="159"/>
       <c r="H42" s="148">
         <v>43774</v>
@@ -7638,11 +7669,11 @@
       <c r="C43" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="203" t="s">
+      <c r="D43" s="215" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
       <c r="G43" s="145"/>
       <c r="H43" s="148">
         <v>43774</v>
@@ -7662,11 +7693,11 @@
       <c r="C44" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="203" t="s">
+      <c r="D44" s="215" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
       <c r="G44" s="145"/>
       <c r="H44" s="148">
         <v>43774</v>
@@ -7686,11 +7717,11 @@
       <c r="C45" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="203" t="s">
+      <c r="D45" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
       <c r="G45" s="145"/>
       <c r="H45" s="148">
         <v>43774</v>
@@ -7710,11 +7741,11 @@
       <c r="C46" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="203" t="s">
+      <c r="D46" s="215" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
       <c r="G46" s="145"/>
       <c r="H46" s="148">
         <v>43774</v>
@@ -7734,11 +7765,11 @@
       <c r="C47" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="203" t="s">
+      <c r="D47" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="204"/>
-      <c r="F47" s="204"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
       <c r="G47" s="145"/>
       <c r="H47" s="148">
         <v>43774</v>
@@ -7758,11 +7789,11 @@
       <c r="C48" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="203" t="s">
+      <c r="D48" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
       <c r="G48" s="145"/>
       <c r="H48" s="148">
         <v>43774</v>
@@ -7782,11 +7813,11 @@
       <c r="C49" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="203" t="s">
+      <c r="D49" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="204"/>
-      <c r="F49" s="204"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="216"/>
       <c r="G49" s="145"/>
       <c r="H49" s="148">
         <v>43774</v>
@@ -7806,11 +7837,11 @@
       <c r="C50" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="203" t="s">
+      <c r="D50" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
       <c r="G50" s="145"/>
       <c r="H50" s="148">
         <v>43774</v>
@@ -7830,11 +7861,11 @@
       <c r="C51" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="203" t="s">
+      <c r="D51" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="204"/>
-      <c r="F51" s="204"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="216"/>
       <c r="G51" s="145"/>
       <c r="H51" s="148">
         <v>43774</v>
@@ -7843,7 +7874,7 @@
         <v>37</v>
       </c>
       <c r="J51" s="146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="147" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
@@ -7856,11 +7887,11 @@
       <c r="C52" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="203" t="s">
+      <c r="D52" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="216"/>
       <c r="G52" s="145"/>
       <c r="H52" s="148">
         <v>43774</v>
@@ -7880,11 +7911,11 @@
       <c r="C53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="240" t="s">
+      <c r="D53" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="241"/>
-      <c r="F53" s="241"/>
+      <c r="E53" s="253"/>
+      <c r="F53" s="253"/>
       <c r="G53" s="165"/>
       <c r="H53" s="166">
         <v>43774</v>
@@ -7904,11 +7935,11 @@
       <c r="C54" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="203" t="s">
+      <c r="D54" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="204"/>
-      <c r="F54" s="204"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="216"/>
       <c r="G54" s="145"/>
       <c r="H54" s="148">
         <v>43774</v>
@@ -7928,11 +7959,11 @@
       <c r="C55" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="203" t="s">
+      <c r="D55" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
       <c r="G55" s="145"/>
       <c r="H55" s="148">
         <v>43774</v>
@@ -7941,7 +7972,7 @@
         <v>37</v>
       </c>
       <c r="J55" s="146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="147" customFormat="1" ht="99" customHeight="1" outlineLevel="1">
@@ -7954,11 +7985,11 @@
       <c r="C56" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="204"/>
-      <c r="F56" s="204"/>
+      <c r="D56" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="216"/>
+      <c r="F56" s="216"/>
       <c r="G56" s="145"/>
       <c r="H56" s="148">
         <v>43774</v>
@@ -7978,11 +8009,11 @@
       <c r="C57" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" s="204"/>
-      <c r="F57" s="204"/>
+      <c r="D57" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="216"/>
+      <c r="F57" s="216"/>
       <c r="G57" s="145"/>
       <c r="H57" s="148">
         <v>43774</v>
@@ -8002,11 +8033,11 @@
       <c r="C58" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="E58" s="204"/>
-      <c r="F58" s="204"/>
+      <c r="D58" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="216"/>
+      <c r="F58" s="216"/>
       <c r="G58" s="145"/>
       <c r="H58" s="148">
         <v>43774</v>
@@ -8026,11 +8057,11 @@
       <c r="C59" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" s="204"/>
-      <c r="F59" s="204"/>
+      <c r="D59" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="216"/>
+      <c r="F59" s="216"/>
       <c r="G59" s="145"/>
       <c r="H59" s="148">
         <v>43774</v>
@@ -8050,11 +8081,11 @@
       <c r="C60" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="E60" s="204"/>
-      <c r="F60" s="204"/>
+      <c r="D60" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
       <c r="G60" s="158"/>
       <c r="H60" s="148">
         <v>43774</v>
@@ -8074,11 +8105,11 @@
       <c r="C61" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="240" t="s">
+      <c r="D61" s="252" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="241"/>
-      <c r="F61" s="241"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="253"/>
       <c r="G61" s="165"/>
       <c r="H61" s="166">
         <v>43774</v>
@@ -8098,11 +8129,11 @@
       <c r="C62" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="240" t="s">
+      <c r="D62" s="252" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="241"/>
-      <c r="F62" s="241"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
       <c r="G62" s="165"/>
       <c r="H62" s="166">
         <v>43774</v>
@@ -8122,11 +8153,11 @@
       <c r="C63" s="144" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="203" t="s">
+      <c r="D63" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
       <c r="G63" s="145"/>
       <c r="H63" s="148">
         <v>43774</v>
@@ -8146,11 +8177,11 @@
       <c r="C64" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="203" t="s">
+      <c r="D64" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
       <c r="G64" s="158"/>
       <c r="H64" s="148">
         <v>43774</v>
@@ -8170,11 +8201,11 @@
       <c r="C65" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="249" t="s">
+      <c r="D65" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="250"/>
-      <c r="F65" s="250"/>
+      <c r="E65" s="264"/>
+      <c r="F65" s="264"/>
       <c r="G65" s="152"/>
       <c r="H65" s="148">
         <v>43774</v>
@@ -8194,11 +8225,11 @@
       <c r="C66" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="249" t="s">
+      <c r="D66" s="263" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="250"/>
-      <c r="F66" s="250"/>
+      <c r="E66" s="264"/>
+      <c r="F66" s="264"/>
       <c r="G66" s="152"/>
       <c r="H66" s="148">
         <v>43774</v>
@@ -8216,13 +8247,13 @@
         <v>189</v>
       </c>
       <c r="C67" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="D67" s="254" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="268" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="255"/>
-      <c r="F67" s="255"/>
+      <c r="E67" s="269"/>
+      <c r="F67" s="269"/>
       <c r="G67" s="170"/>
       <c r="H67" s="166">
         <v>43774</v>
@@ -8240,13 +8271,13 @@
         <v>189</v>
       </c>
       <c r="C68" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="249" t="s">
-        <v>259</v>
-      </c>
-      <c r="E68" s="250"/>
-      <c r="F68" s="250"/>
+      <c r="E68" s="264"/>
+      <c r="F68" s="264"/>
       <c r="G68" s="152"/>
       <c r="H68" s="148">
         <v>43774</v>
@@ -8266,11 +8297,11 @@
       <c r="C69" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="249" t="s">
-        <v>259</v>
-      </c>
-      <c r="E69" s="250"/>
-      <c r="F69" s="250"/>
+      <c r="D69" s="263" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="264"/>
+      <c r="F69" s="264"/>
       <c r="G69" s="152"/>
       <c r="H69" s="148">
         <v>43774</v>
@@ -8290,11 +8321,11 @@
       <c r="C70" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="203" t="s">
+      <c r="D70" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
       <c r="G70" s="145"/>
       <c r="H70" s="148">
         <v>43774</v>
@@ -8314,11 +8345,11 @@
       <c r="C71" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="203" t="s">
+      <c r="D71" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="204"/>
-      <c r="F71" s="204"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="216"/>
       <c r="G71" s="145"/>
       <c r="H71" s="148">
         <v>43774</v>
@@ -8338,11 +8369,11 @@
       <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="208" t="s">
+      <c r="D72" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="209"/>
-      <c r="F72" s="209"/>
+      <c r="E72" s="221"/>
+      <c r="F72" s="221"/>
       <c r="G72" s="86"/>
       <c r="H72" s="119">
         <v>43774</v>
@@ -8362,11 +8393,11 @@
       <c r="C73" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="208" t="s">
+      <c r="D73" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="209"/>
-      <c r="F73" s="209"/>
+      <c r="E73" s="221"/>
+      <c r="F73" s="221"/>
       <c r="G73" s="86"/>
       <c r="H73" s="118">
         <v>43774</v>
@@ -8386,11 +8417,11 @@
       <c r="C74" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="208" t="s">
+      <c r="D74" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="209"/>
-      <c r="F74" s="209"/>
+      <c r="E74" s="221"/>
+      <c r="F74" s="221"/>
       <c r="G74" s="86"/>
       <c r="H74" s="118">
         <v>43774</v>
@@ -8410,11 +8441,11 @@
       <c r="C75" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="208" t="s">
+      <c r="D75" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="209"/>
-      <c r="F75" s="239"/>
+      <c r="E75" s="221"/>
+      <c r="F75" s="251"/>
       <c r="G75" s="87"/>
       <c r="H75" s="118">
         <v>43774</v>
@@ -8434,11 +8465,11 @@
       <c r="C76" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="208" t="s">
+      <c r="D76" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="209"/>
-      <c r="F76" s="239"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="251"/>
       <c r="G76" s="120"/>
       <c r="H76" s="118">
         <v>43774</v>
@@ -8458,11 +8489,11 @@
       <c r="C77" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="208" t="s">
+      <c r="D77" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="209"/>
-      <c r="F77" s="239"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="251"/>
       <c r="G77" s="120"/>
       <c r="H77" s="118">
         <v>43774</v>
@@ -8482,11 +8513,11 @@
       <c r="C78" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="208" t="s">
+      <c r="D78" s="220" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="209"/>
-      <c r="F78" s="239"/>
+      <c r="E78" s="221"/>
+      <c r="F78" s="251"/>
       <c r="G78" s="120"/>
       <c r="H78" s="118">
         <v>43774</v>
@@ -8506,11 +8537,11 @@
       <c r="C79" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="208" t="s">
+      <c r="D79" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="209"/>
-      <c r="F79" s="239"/>
+      <c r="E79" s="221"/>
+      <c r="F79" s="251"/>
       <c r="G79" s="120"/>
       <c r="H79" s="118">
         <v>43774</v>
@@ -8530,11 +8561,11 @@
       <c r="C80" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="208" t="s">
+      <c r="D80" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="E80" s="209"/>
-      <c r="F80" s="239"/>
+      <c r="E80" s="221"/>
+      <c r="F80" s="251"/>
       <c r="G80" s="87"/>
       <c r="H80" s="118">
         <v>43774</v>
@@ -8554,11 +8585,11 @@
       <c r="C81" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="240" t="s">
+      <c r="D81" s="252" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="241"/>
-      <c r="F81" s="242"/>
+      <c r="E81" s="253"/>
+      <c r="F81" s="254"/>
       <c r="G81" s="110"/>
       <c r="H81" s="172">
         <v>43774</v>
@@ -8578,11 +8609,11 @@
       <c r="C82" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="240" t="s">
+      <c r="D82" s="252" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="241"/>
-      <c r="F82" s="242"/>
+      <c r="E82" s="253"/>
+      <c r="F82" s="254"/>
       <c r="G82" s="110"/>
       <c r="H82" s="172">
         <v>43774</v>
@@ -8602,11 +8633,11 @@
       <c r="C83" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="203" t="s">
+      <c r="D83" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="204"/>
-      <c r="F83" s="243"/>
+      <c r="E83" s="216"/>
+      <c r="F83" s="255"/>
       <c r="G83" s="111"/>
       <c r="H83" s="157">
         <v>43774</v>
@@ -8626,11 +8657,11 @@
       <c r="C84" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="203" t="s">
+      <c r="D84" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="204"/>
-      <c r="F84" s="243"/>
+      <c r="E84" s="216"/>
+      <c r="F84" s="255"/>
       <c r="G84" s="111"/>
       <c r="H84" s="157">
         <v>43774</v>
@@ -8650,11 +8681,11 @@
       <c r="C85" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D85" s="208" t="s">
+      <c r="D85" s="220" t="s">
         <v>232</v>
       </c>
-      <c r="E85" s="209"/>
-      <c r="F85" s="239"/>
+      <c r="E85" s="221"/>
+      <c r="F85" s="251"/>
       <c r="G85" s="120"/>
       <c r="H85" s="119">
         <v>43774</v>
@@ -8672,13 +8703,13 @@
         <v>121</v>
       </c>
       <c r="C86" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" s="240" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" s="252" t="s">
         <v>239</v>
       </c>
-      <c r="E86" s="241"/>
-      <c r="F86" s="242"/>
+      <c r="E86" s="253"/>
+      <c r="F86" s="254"/>
       <c r="G86" s="110"/>
       <c r="H86" s="172">
         <v>43774</v>
@@ -8700,11 +8731,11 @@
       <c r="C87" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="240" t="s">
+      <c r="D87" s="252" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="241"/>
-      <c r="F87" s="242"/>
+      <c r="E87" s="253"/>
+      <c r="F87" s="254"/>
       <c r="G87" s="110"/>
       <c r="H87" s="172">
         <v>43774</v>
@@ -8724,11 +8755,11 @@
       <c r="C88" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="D88" s="203" t="s">
+      <c r="D88" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="204"/>
-      <c r="F88" s="243"/>
+      <c r="E88" s="216"/>
+      <c r="F88" s="255"/>
       <c r="G88" s="111"/>
       <c r="H88" s="157">
         <v>43774</v>
@@ -8748,11 +8779,11 @@
       <c r="C89" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="203" t="s">
+      <c r="D89" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="E89" s="204"/>
-      <c r="F89" s="243"/>
+      <c r="E89" s="216"/>
+      <c r="F89" s="255"/>
       <c r="G89" s="111"/>
       <c r="H89" s="157">
         <v>43774</v>
@@ -8772,11 +8803,11 @@
       <c r="C90" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="208" t="s">
+      <c r="D90" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E90" s="209"/>
-      <c r="F90" s="239"/>
+      <c r="E90" s="221"/>
+      <c r="F90" s="251"/>
       <c r="G90" s="120"/>
       <c r="H90" s="119">
         <v>43774</v>
@@ -8796,11 +8827,11 @@
       <c r="C91" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="208" t="s">
+      <c r="D91" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E91" s="209"/>
-      <c r="F91" s="239"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="251"/>
       <c r="G91" s="120"/>
       <c r="H91" s="119">
         <v>43774</v>
@@ -8820,11 +8851,11 @@
       <c r="C92" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="208" t="s">
+      <c r="D92" s="220" t="s">
         <v>239</v>
       </c>
-      <c r="E92" s="209"/>
-      <c r="F92" s="239"/>
+      <c r="E92" s="221"/>
+      <c r="F92" s="251"/>
       <c r="G92" s="120"/>
       <c r="H92" s="119">
         <v>43774</v>
@@ -8844,11 +8875,11 @@
       <c r="C93" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="208" t="s">
+      <c r="D93" s="220" t="s">
         <v>239</v>
       </c>
-      <c r="E93" s="209"/>
-      <c r="F93" s="239"/>
+      <c r="E93" s="221"/>
+      <c r="F93" s="251"/>
       <c r="G93" s="120"/>
       <c r="H93" s="119">
         <v>43774</v>
@@ -8859,46 +8890,44 @@
       <c r="J93" s="85"/>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="142" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="115" t="s">
+      <c r="B94" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="116" t="s">
+      <c r="C94" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="200" t="s">
+      <c r="D94" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="E94" s="201"/>
-      <c r="F94" s="202"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="156">
-        <v>43774</v>
-      </c>
-      <c r="I94" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="117" t="s">
-        <v>251</v>
-      </c>
+      <c r="E94" s="216"/>
+      <c r="F94" s="255"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="272">
+        <v>43774</v>
+      </c>
+      <c r="I94" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" s="146"/>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A95" s="162" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" s="163" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="240" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="252" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="241"/>
-      <c r="F95" s="242"/>
+      <c r="E95" s="253"/>
+      <c r="F95" s="254"/>
       <c r="G95" s="110"/>
       <c r="H95" s="172">
         <v>43774</v>
@@ -8910,19 +8939,19 @@
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A96" s="162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96" s="163" t="s">
         <v>121</v>
       </c>
       <c r="C96" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="252" t="s">
         <v>238</v>
       </c>
-      <c r="E96" s="241"/>
-      <c r="F96" s="242"/>
+      <c r="E96" s="253"/>
+      <c r="F96" s="254"/>
       <c r="G96" s="110"/>
       <c r="H96" s="172">
         <v>43774</v>
@@ -8934,19 +8963,19 @@
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" ht="84.75" customHeight="1" outlineLevel="1">
       <c r="A97" s="114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" s="115" t="s">
         <v>121</v>
       </c>
       <c r="C97" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="200" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="201"/>
-      <c r="F97" s="202"/>
+      <c r="E97" s="213"/>
+      <c r="F97" s="214"/>
       <c r="G97" s="116"/>
       <c r="H97" s="156">
         <v>43774</v>
@@ -8955,38 +8984,38 @@
         <v>8</v>
       </c>
       <c r="J97" s="117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A98" s="236" t="s">
+      <c r="A98" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="237"/>
-      <c r="C98" s="237"/>
-      <c r="D98" s="237"/>
-      <c r="E98" s="237"/>
-      <c r="F98" s="237"/>
-      <c r="G98" s="237"/>
-      <c r="H98" s="237"/>
-      <c r="I98" s="237"/>
-      <c r="J98" s="238"/>
+      <c r="B98" s="218"/>
+      <c r="C98" s="218"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="218"/>
+      <c r="F98" s="218"/>
+      <c r="G98" s="218"/>
+      <c r="H98" s="218"/>
+      <c r="I98" s="218"/>
+      <c r="J98" s="219"/>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" ht="48" customHeight="1" outlineLevel="1">
       <c r="A99" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B99" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="103" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" s="208" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="209"/>
-      <c r="F99" s="209"/>
+      <c r="D99" s="220" t="s">
+        <v>344</v>
+      </c>
+      <c r="E99" s="221"/>
+      <c r="F99" s="221"/>
       <c r="G99" s="86"/>
       <c r="H99" s="118">
         <v>43774</v>
@@ -8999,16 +9028,16 @@
         <v>2</v>
       </c>
       <c r="B100" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C100" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="D100" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E100" s="209"/>
-      <c r="F100" s="209"/>
+      <c r="E100" s="221"/>
+      <c r="F100" s="221"/>
       <c r="G100" s="86"/>
       <c r="H100" s="118">
         <v>43774</v>
@@ -9021,16 +9050,16 @@
         <v>3</v>
       </c>
       <c r="B101" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" s="220" t="s">
         <v>346</v>
       </c>
-      <c r="D101" s="208" t="s">
-        <v>347</v>
-      </c>
-      <c r="E101" s="209"/>
-      <c r="F101" s="209"/>
+      <c r="E101" s="221"/>
+      <c r="F101" s="221"/>
       <c r="G101" s="86"/>
       <c r="H101" s="119">
         <v>43774</v>
@@ -9043,16 +9072,16 @@
         <v>4</v>
       </c>
       <c r="B102" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C102" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" s="220" t="s">
         <v>348</v>
       </c>
-      <c r="D102" s="208" t="s">
-        <v>349</v>
-      </c>
-      <c r="E102" s="209"/>
-      <c r="F102" s="209"/>
+      <c r="E102" s="221"/>
+      <c r="F102" s="221"/>
       <c r="G102" s="160"/>
       <c r="H102" s="118">
         <v>43774</v>
@@ -9065,16 +9094,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C103" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="D103" s="208" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="209"/>
-      <c r="F103" s="209"/>
+      <c r="E103" s="221"/>
+      <c r="F103" s="221"/>
       <c r="G103" s="160"/>
       <c r="H103" s="118">
         <v>43774</v>
@@ -9087,16 +9116,16 @@
         <v>6</v>
       </c>
       <c r="B104" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C104" s="103" t="s">
-        <v>350</v>
-      </c>
-      <c r="D104" s="208" t="s">
-        <v>345</v>
-      </c>
-      <c r="E104" s="209"/>
-      <c r="F104" s="209"/>
+        <v>349</v>
+      </c>
+      <c r="D104" s="220" t="s">
+        <v>344</v>
+      </c>
+      <c r="E104" s="221"/>
+      <c r="F104" s="221"/>
       <c r="G104" s="86"/>
       <c r="H104" s="118">
         <v>43774</v>
@@ -9109,19 +9138,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="C105" s="103" t="s">
+      <c r="D105" s="220" t="s">
         <v>353</v>
       </c>
-      <c r="D105" s="208" t="s">
-        <v>354</v>
-      </c>
-      <c r="E105" s="209"/>
-      <c r="F105" s="209"/>
+      <c r="E105" s="221"/>
+      <c r="F105" s="221"/>
       <c r="G105" s="160"/>
       <c r="H105" s="118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I105" s="161"/>
       <c r="J105" s="85"/>
@@ -9131,16 +9160,16 @@
         <v>41</v>
       </c>
       <c r="B106" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C106" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="D106" s="208" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="209"/>
-      <c r="F106" s="209"/>
+      <c r="E106" s="221"/>
+      <c r="F106" s="221"/>
       <c r="G106" s="160"/>
       <c r="H106" s="118">
         <v>43774</v>
@@ -9153,16 +9182,16 @@
         <v>43</v>
       </c>
       <c r="B107" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C107" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="D107" s="208" t="s">
+        <v>357</v>
+      </c>
+      <c r="D107" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E107" s="209"/>
-      <c r="F107" s="209"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
       <c r="G107" s="160"/>
       <c r="H107" s="118">
         <v>43774</v>
@@ -9175,16 +9204,16 @@
         <v>44</v>
       </c>
       <c r="B108" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C108" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="D108" s="208" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="209"/>
-      <c r="F108" s="209"/>
+      <c r="E108" s="221"/>
+      <c r="F108" s="221"/>
       <c r="G108" s="160"/>
       <c r="H108" s="118">
         <v>43774</v>
@@ -9197,16 +9226,16 @@
         <v>45</v>
       </c>
       <c r="B109" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="208" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="209"/>
-      <c r="F109" s="209"/>
+      <c r="E109" s="221"/>
+      <c r="F109" s="221"/>
       <c r="G109" s="160"/>
       <c r="H109" s="118">
         <v>43774</v>
@@ -9219,16 +9248,16 @@
         <v>46</v>
       </c>
       <c r="B110" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C110" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="D110" s="208" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="209"/>
-      <c r="F110" s="209"/>
+      <c r="E110" s="221"/>
+      <c r="F110" s="221"/>
       <c r="G110" s="160"/>
       <c r="H110" s="118">
         <v>43774</v>
@@ -9238,19 +9267,19 @@
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A111" s="88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C111" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="D111" s="208" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E111" s="209"/>
-      <c r="F111" s="209"/>
+      <c r="E111" s="221"/>
+      <c r="F111" s="221"/>
       <c r="G111" s="160"/>
       <c r="H111" s="118">
         <v>43774</v>
@@ -9260,19 +9289,19 @@
     </row>
     <row r="112" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A112" s="88" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B112" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C112" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="D112" s="208" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E112" s="209"/>
-      <c r="F112" s="209"/>
+      <c r="E112" s="221"/>
+      <c r="F112" s="221"/>
       <c r="G112" s="160"/>
       <c r="H112" s="118">
         <v>43774</v>
@@ -9282,19 +9311,19 @@
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A113" s="88" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C113" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="D113" s="208" t="s">
+      <c r="D113" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E113" s="209"/>
-      <c r="F113" s="209"/>
+      <c r="E113" s="221"/>
+      <c r="F113" s="221"/>
       <c r="G113" s="160"/>
       <c r="H113" s="118">
         <v>43774</v>
@@ -9304,19 +9333,19 @@
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A114" s="88" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B114" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C114" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="D114" s="208" t="s">
+      <c r="D114" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E114" s="209"/>
-      <c r="F114" s="209"/>
+      <c r="E114" s="221"/>
+      <c r="F114" s="221"/>
       <c r="G114" s="160"/>
       <c r="H114" s="118">
         <v>43774</v>
@@ -9326,19 +9355,19 @@
     </row>
     <row r="115" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A115" s="88" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B115" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C115" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="208" t="s">
+      <c r="D115" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="209"/>
-      <c r="F115" s="209"/>
+      <c r="E115" s="221"/>
+      <c r="F115" s="221"/>
       <c r="G115" s="160"/>
       <c r="H115" s="118">
         <v>43774</v>
@@ -9348,19 +9377,19 @@
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A116" s="88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B116" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C116" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="208" t="s">
+      <c r="D116" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E116" s="209"/>
-      <c r="F116" s="209"/>
+      <c r="E116" s="221"/>
+      <c r="F116" s="221"/>
       <c r="G116" s="160"/>
       <c r="H116" s="118">
         <v>43774</v>
@@ -9370,19 +9399,19 @@
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A117" s="88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="208" t="s">
-        <v>238</v>
-      </c>
-      <c r="E117" s="209"/>
-      <c r="F117" s="209"/>
+      <c r="D117" s="220" t="s">
+        <v>353</v>
+      </c>
+      <c r="E117" s="221"/>
+      <c r="F117" s="221"/>
       <c r="G117" s="160"/>
       <c r="H117" s="118">
         <v>43774</v>
@@ -9392,19 +9421,19 @@
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A118" s="88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C118" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="D118" s="208" t="s">
-        <v>354</v>
-      </c>
-      <c r="E118" s="209"/>
-      <c r="F118" s="209"/>
+      <c r="D118" s="220" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" s="221"/>
+      <c r="F118" s="221"/>
       <c r="G118" s="160"/>
       <c r="H118" s="118">
         <v>43774</v>
@@ -9414,19 +9443,19 @@
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A119" s="88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="D119" s="208" t="s">
-        <v>238</v>
-      </c>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
+      <c r="D119" s="220" t="s">
+        <v>353</v>
+      </c>
+      <c r="E119" s="221"/>
+      <c r="F119" s="221"/>
       <c r="G119" s="160"/>
       <c r="H119" s="118">
         <v>43774</v>
@@ -9436,19 +9465,19 @@
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A120" s="88" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C120" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="208" t="s">
-        <v>354</v>
-      </c>
-      <c r="E120" s="209"/>
-      <c r="F120" s="209"/>
+      <c r="D120" s="220" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="221"/>
+      <c r="F120" s="221"/>
       <c r="G120" s="160"/>
       <c r="H120" s="118">
         <v>43774</v>
@@ -9458,19 +9487,19 @@
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A121" s="88" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B121" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C121" s="103" t="s">
-        <v>381</v>
-      </c>
-      <c r="D121" s="208" t="s">
+        <v>383</v>
+      </c>
+      <c r="D121" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E121" s="209"/>
-      <c r="F121" s="209"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
       <c r="G121" s="160"/>
       <c r="H121" s="118">
         <v>43774</v>
@@ -9480,19 +9509,19 @@
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A122" s="88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B122" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C122" s="103" t="s">
-        <v>384</v>
-      </c>
-      <c r="D122" s="208" t="s">
+        <v>381</v>
+      </c>
+      <c r="D122" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E122" s="209"/>
-      <c r="F122" s="209"/>
+      <c r="E122" s="221"/>
+      <c r="F122" s="221"/>
       <c r="G122" s="160"/>
       <c r="H122" s="118">
         <v>43774</v>
@@ -9502,19 +9531,19 @@
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A123" s="88" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B123" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C123" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="D123" s="208" t="s">
+      <c r="D123" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E123" s="209"/>
-      <c r="F123" s="209"/>
+      <c r="E123" s="221"/>
+      <c r="F123" s="221"/>
       <c r="G123" s="160"/>
       <c r="H123" s="118">
         <v>43774</v>
@@ -9522,21 +9551,21 @@
       <c r="I123" s="161"/>
       <c r="J123" s="85"/>
     </row>
-    <row r="124" spans="1:10" s="4" customFormat="1" ht="97.5" customHeight="1" outlineLevel="1">
+    <row r="124" spans="1:10" s="4" customFormat="1" ht="98.25" customHeight="1" outlineLevel="1">
       <c r="A124" s="88" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B124" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C124" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="D124" s="208" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="E124" s="209"/>
-      <c r="F124" s="209"/>
+      <c r="E124" s="221"/>
+      <c r="F124" s="221"/>
       <c r="G124" s="160"/>
       <c r="H124" s="118">
         <v>43774</v>
@@ -9544,21 +9573,21 @@
       <c r="I124" s="161"/>
       <c r="J124" s="85"/>
     </row>
-    <row r="125" spans="1:10" s="4" customFormat="1" ht="98.25" customHeight="1" outlineLevel="1">
+    <row r="125" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A125" s="88" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B125" s="102" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C125" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125" s="208" t="s">
-        <v>238</v>
-      </c>
-      <c r="E125" s="209"/>
-      <c r="F125" s="209"/>
+        <v>366</v>
+      </c>
+      <c r="D125" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E125" s="221"/>
+      <c r="F125" s="221"/>
       <c r="G125" s="160"/>
       <c r="H125" s="118">
         <v>43774</v>
@@ -9568,19 +9597,19 @@
     </row>
     <row r="126" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A126" s="88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B126" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C126" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="D126" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E126" s="209"/>
-      <c r="F126" s="209"/>
+      <c r="D126" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E126" s="221"/>
+      <c r="F126" s="221"/>
       <c r="G126" s="160"/>
       <c r="H126" s="118">
         <v>43774</v>
@@ -9590,19 +9619,19 @@
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A127" s="88" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B127" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E127" s="209"/>
-      <c r="F127" s="209"/>
+      <c r="D127" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E127" s="221"/>
+      <c r="F127" s="221"/>
       <c r="G127" s="160"/>
       <c r="H127" s="118">
         <v>43774</v>
@@ -9612,19 +9641,19 @@
     </row>
     <row r="128" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A128" s="88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B128" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C128" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="D128" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E128" s="209"/>
-      <c r="F128" s="209"/>
+      <c r="D128" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" s="221"/>
+      <c r="F128" s="221"/>
       <c r="G128" s="160"/>
       <c r="H128" s="118">
         <v>43774</v>
@@ -9634,19 +9663,19 @@
     </row>
     <row r="129" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A129" s="88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="D129" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E129" s="209"/>
-      <c r="F129" s="209"/>
+      <c r="D129" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" s="221"/>
+      <c r="F129" s="221"/>
       <c r="G129" s="160"/>
       <c r="H129" s="118">
         <v>43774</v>
@@ -9656,19 +9685,19 @@
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A130" s="88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B130" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="D130" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E130" s="209"/>
-      <c r="F130" s="209"/>
+      <c r="D130" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E130" s="221"/>
+      <c r="F130" s="221"/>
       <c r="G130" s="160"/>
       <c r="H130" s="118">
         <v>43774</v>
@@ -9678,19 +9707,19 @@
     </row>
     <row r="131" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A131" s="88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B131" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D131" s="220" t="s">
         <v>365</v>
       </c>
-      <c r="C131" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="D131" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E131" s="209"/>
-      <c r="F131" s="209"/>
+      <c r="E131" s="221"/>
+      <c r="F131" s="221"/>
       <c r="G131" s="160"/>
       <c r="H131" s="118">
         <v>43774</v>
@@ -9700,19 +9729,19 @@
     </row>
     <row r="132" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A132" s="88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B132" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C132" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="D132" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E132" s="209"/>
-      <c r="F132" s="209"/>
+      <c r="D132" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E132" s="221"/>
+      <c r="F132" s="221"/>
       <c r="G132" s="160"/>
       <c r="H132" s="118">
         <v>43774</v>
@@ -9722,19 +9751,19 @@
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A133" s="88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B133" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="D133" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E133" s="209"/>
-      <c r="F133" s="209"/>
+      <c r="D133" s="220" t="s">
+        <v>342</v>
+      </c>
+      <c r="E133" s="221"/>
+      <c r="F133" s="221"/>
       <c r="G133" s="160"/>
       <c r="H133" s="118">
         <v>43774</v>
@@ -9744,19 +9773,19 @@
     </row>
     <row r="134" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A134" s="88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B134" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C134" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="D134" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="E134" s="209"/>
-      <c r="F134" s="209"/>
+      <c r="D134" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E134" s="221"/>
+      <c r="F134" s="221"/>
       <c r="G134" s="160"/>
       <c r="H134" s="118">
         <v>43774</v>
@@ -9766,19 +9795,19 @@
     </row>
     <row r="135" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A135" s="88" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B135" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C135" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="D135" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E135" s="209"/>
-      <c r="F135" s="209"/>
+      <c r="D135" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E135" s="221"/>
+      <c r="F135" s="221"/>
       <c r="G135" s="160"/>
       <c r="H135" s="118">
         <v>43774</v>
@@ -9788,19 +9817,19 @@
     </row>
     <row r="136" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A136" s="88" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B136" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C136" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="D136" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E136" s="209"/>
-      <c r="F136" s="209"/>
+      <c r="D136" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E136" s="221"/>
+      <c r="F136" s="221"/>
       <c r="G136" s="160"/>
       <c r="H136" s="118">
         <v>43774</v>
@@ -9810,19 +9839,19 @@
     </row>
     <row r="137" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A137" s="88" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B137" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C137" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="D137" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E137" s="209"/>
-      <c r="F137" s="209"/>
+      <c r="D137" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E137" s="221"/>
+      <c r="F137" s="221"/>
       <c r="G137" s="160"/>
       <c r="H137" s="118">
         <v>43774</v>
@@ -9832,19 +9861,19 @@
     </row>
     <row r="138" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A138" s="88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B138" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="D138" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E138" s="209"/>
-      <c r="F138" s="209"/>
+      <c r="D138" s="220" t="s">
+        <v>342</v>
+      </c>
+      <c r="E138" s="221"/>
+      <c r="F138" s="221"/>
       <c r="G138" s="160"/>
       <c r="H138" s="118">
         <v>43774</v>
@@ -9854,19 +9883,19 @@
     </row>
     <row r="139" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A139" s="88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B139" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C139" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="D139" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="E139" s="209"/>
-      <c r="F139" s="209"/>
+      <c r="D139" s="220" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="221"/>
+      <c r="F139" s="221"/>
       <c r="G139" s="160"/>
       <c r="H139" s="118">
         <v>43774</v>
@@ -9876,19 +9905,19 @@
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A140" s="88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B140" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" s="103" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="E140" s="209"/>
-      <c r="F140" s="209"/>
+      <c r="D140" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" s="221"/>
+      <c r="F140" s="221"/>
       <c r="G140" s="160"/>
       <c r="H140" s="118">
         <v>43774</v>
@@ -9898,19 +9927,19 @@
     </row>
     <row r="141" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A141" s="88" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B141" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C141" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="D141" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E141" s="209"/>
-      <c r="F141" s="209"/>
+      <c r="D141" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141" s="221"/>
+      <c r="F141" s="221"/>
       <c r="G141" s="160"/>
       <c r="H141" s="118">
         <v>43774</v>
@@ -9920,19 +9949,19 @@
     </row>
     <row r="142" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A142" s="88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B142" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C142" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E142" s="209"/>
-      <c r="F142" s="209"/>
+      <c r="D142" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E142" s="221"/>
+      <c r="F142" s="221"/>
       <c r="G142" s="160"/>
       <c r="H142" s="118">
         <v>43774</v>
@@ -9942,19 +9971,19 @@
     </row>
     <row r="143" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A143" s="88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B143" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C143" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="D143" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E143" s="209"/>
-      <c r="F143" s="209"/>
+      <c r="D143" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E143" s="221"/>
+      <c r="F143" s="221"/>
       <c r="G143" s="160"/>
       <c r="H143" s="118">
         <v>43774</v>
@@ -9964,19 +9993,19 @@
     </row>
     <row r="144" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A144" s="88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B144" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C144" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="D144" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E144" s="209"/>
-      <c r="F144" s="209"/>
+      <c r="D144" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E144" s="221"/>
+      <c r="F144" s="221"/>
       <c r="G144" s="160"/>
       <c r="H144" s="118">
         <v>43774</v>
@@ -9986,19 +10015,19 @@
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A145" s="88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B145" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C145" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="D145" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E145" s="209"/>
-      <c r="F145" s="209"/>
+      <c r="D145" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E145" s="221"/>
+      <c r="F145" s="221"/>
       <c r="G145" s="160"/>
       <c r="H145" s="118">
         <v>43774</v>
@@ -10008,19 +10037,19 @@
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A146" s="88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B146" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="D146" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E146" s="209"/>
-      <c r="F146" s="209"/>
+      <c r="D146" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E146" s="221"/>
+      <c r="F146" s="221"/>
       <c r="G146" s="160"/>
       <c r="H146" s="118">
         <v>43774</v>
@@ -10030,19 +10059,19 @@
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
       <c r="A147" s="88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B147" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C147" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="D147" s="208" t="s">
-        <v>366</v>
-      </c>
-      <c r="E147" s="209"/>
-      <c r="F147" s="209"/>
+      <c r="D147" s="220" t="s">
+        <v>342</v>
+      </c>
+      <c r="E147" s="221"/>
+      <c r="F147" s="221"/>
       <c r="G147" s="160"/>
       <c r="H147" s="118">
         <v>43774</v>
@@ -10050,135 +10079,141 @@
       <c r="I147" s="161"/>
       <c r="J147" s="85"/>
     </row>
-    <row r="148" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
+    <row r="148" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A148" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="B148" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="C148" s="103" t="s">
-        <v>402</v>
-      </c>
-      <c r="D148" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="E148" s="209"/>
-      <c r="F148" s="209"/>
-      <c r="G148" s="160"/>
-      <c r="H148" s="118">
+        <v>41</v>
+      </c>
+      <c r="B148" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="C148" s="161" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="220" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" s="221"/>
+      <c r="F148" s="251"/>
+      <c r="G148" s="161"/>
+      <c r="H148" s="119">
         <v>43774</v>
       </c>
       <c r="I148" s="161"/>
       <c r="J148" s="85"/>
     </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
-      <c r="A149" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149" s="149" t="s">
-        <v>363</v>
-      </c>
-      <c r="C149" s="161" t="s">
-        <v>364</v>
-      </c>
-      <c r="D149" s="208" t="s">
-        <v>119</v>
-      </c>
-      <c r="E149" s="209"/>
-      <c r="F149" s="239"/>
-      <c r="G149" s="161"/>
-      <c r="H149" s="119">
-        <v>43774</v>
-      </c>
-      <c r="I149" s="161"/>
-      <c r="J149" s="85"/>
-    </row>
-    <row r="150" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A150" s="236" t="s">
+    <row r="149" spans="1:14" s="4" customFormat="1" ht="12.75">
+      <c r="A149" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="B150" s="237"/>
-      <c r="C150" s="237"/>
-      <c r="D150" s="237"/>
-      <c r="E150" s="237"/>
-      <c r="F150" s="237"/>
-      <c r="G150" s="237"/>
-      <c r="H150" s="237"/>
-      <c r="I150" s="237"/>
-      <c r="J150" s="238"/>
-    </row>
-    <row r="151" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A151" s="88" t="s">
+      <c r="B149" s="218"/>
+      <c r="C149" s="218"/>
+      <c r="D149" s="218"/>
+      <c r="E149" s="218"/>
+      <c r="F149" s="218"/>
+      <c r="G149" s="218"/>
+      <c r="H149" s="218"/>
+      <c r="I149" s="218"/>
+      <c r="J149" s="219"/>
+    </row>
+    <row r="150" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A150" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="125" t="s">
+      <c r="B150" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C151" s="92" t="s">
+      <c r="C150" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150" s="256" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="256"/>
+      <c r="F150" s="256"/>
+      <c r="G150" s="126"/>
+      <c r="H150" s="131">
+        <v>43774</v>
+      </c>
+      <c r="I150" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J150" s="94"/>
+    </row>
+    <row r="151" spans="1:14" s="93" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
+      <c r="A151" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="D151" s="244" t="s">
-        <v>111</v>
-      </c>
-      <c r="E151" s="244"/>
-      <c r="F151" s="244"/>
-      <c r="G151" s="126"/>
-      <c r="H151" s="131">
-        <v>43774</v>
-      </c>
-      <c r="I151" s="104" t="s">
+      <c r="D151" s="259" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151" s="260"/>
+      <c r="F151" s="260"/>
+      <c r="G151" s="127"/>
+      <c r="H151" s="135">
+        <v>43774</v>
+      </c>
+      <c r="I151" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="J151" s="94"/>
-    </row>
-    <row r="152" spans="1:14" s="93" customFormat="1" ht="60.75" customHeight="1" outlineLevel="1">
-      <c r="A152" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="134" t="s">
+      <c r="J151" s="124"/>
+    </row>
+    <row r="152" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+      <c r="A152" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="C152" s="122" t="s">
-        <v>268</v>
-      </c>
-      <c r="D152" s="247" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" s="248"/>
-      <c r="F152" s="248"/>
-      <c r="G152" s="127"/>
-      <c r="H152" s="135">
-        <v>43774</v>
-      </c>
-      <c r="I152" s="123" t="s">
+      <c r="C152" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152" s="215" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="216"/>
+      <c r="F152" s="216"/>
+      <c r="G152" s="175"/>
+      <c r="H152" s="180">
+        <v>43774</v>
+      </c>
+      <c r="I152" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="124"/>
+      <c r="J152" s="177"/>
+      <c r="K152" s="178"/>
+      <c r="L152" s="178"/>
+      <c r="M152" s="178"/>
+      <c r="N152" s="178"/>
     </row>
     <row r="153" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A153" s="142" t="s">
-        <v>3</v>
+      <c r="A153" s="181" t="s">
+        <v>4</v>
       </c>
       <c r="B153" s="173" t="s">
         <v>112</v>
       </c>
       <c r="C153" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D153" s="203" t="s">
-        <v>117</v>
-      </c>
-      <c r="E153" s="204"/>
-      <c r="F153" s="204"/>
+        <v>268</v>
+      </c>
+      <c r="D153" s="215" t="s">
+        <v>269</v>
+      </c>
+      <c r="E153" s="216"/>
+      <c r="F153" s="216"/>
       <c r="G153" s="175"/>
-      <c r="H153" s="180">
-        <v>43774</v>
-      </c>
-      <c r="I153" s="176" t="s">
+      <c r="H153" s="182">
+        <v>43774</v>
+      </c>
+      <c r="I153" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="J153" s="177"/>
+      <c r="J153" s="184"/>
       <c r="K153" s="178"/>
       <c r="L153" s="178"/>
       <c r="M153" s="178"/>
@@ -10186,27 +10221,29 @@
     </row>
     <row r="154" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A154" s="181" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" s="173" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="D154" s="215" t="s">
         <v>269</v>
       </c>
-      <c r="D154" s="203" t="s">
-        <v>270</v>
-      </c>
-      <c r="E154" s="204"/>
-      <c r="F154" s="204"/>
+      <c r="E154" s="216"/>
+      <c r="F154" s="216"/>
       <c r="G154" s="175"/>
       <c r="H154" s="182">
         <v>43774</v>
       </c>
-      <c r="I154" s="183" t="s">
+      <c r="I154" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="J154" s="184"/>
+      <c r="J154" s="186" t="s">
+        <v>271</v>
+      </c>
       <c r="K154" s="178"/>
       <c r="L154" s="178"/>
       <c r="M154" s="178"/>
@@ -10214,29 +10251,27 @@
     </row>
     <row r="155" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A155" s="181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B155" s="173" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="174" t="s">
-        <v>271</v>
-      </c>
-      <c r="D155" s="203" t="s">
-        <v>270</v>
-      </c>
-      <c r="E155" s="204"/>
-      <c r="F155" s="204"/>
+        <v>272</v>
+      </c>
+      <c r="D155" s="215" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155" s="216"/>
+      <c r="F155" s="216"/>
       <c r="G155" s="175"/>
       <c r="H155" s="182">
         <v>43774</v>
       </c>
-      <c r="I155" s="185" t="s">
+      <c r="I155" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="J155" s="186" t="s">
-        <v>272</v>
-      </c>
+      <c r="J155" s="186"/>
       <c r="K155" s="178"/>
       <c r="L155" s="178"/>
       <c r="M155" s="178"/>
@@ -10244,7 +10279,7 @@
     </row>
     <row r="156" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A156" s="181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B156" s="173" t="s">
         <v>112</v>
@@ -10252,11 +10287,11 @@
       <c r="C156" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="D156" s="203" t="s">
+      <c r="D156" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="E156" s="204"/>
-      <c r="F156" s="204"/>
+      <c r="E156" s="216"/>
+      <c r="F156" s="216"/>
       <c r="G156" s="175"/>
       <c r="H156" s="182">
         <v>43774</v>
@@ -10272,7 +10307,7 @@
     </row>
     <row r="157" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A157" s="181" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B157" s="173" t="s">
         <v>112</v>
@@ -10280,11 +10315,11 @@
       <c r="C157" s="174" t="s">
         <v>274</v>
       </c>
-      <c r="D157" s="203" t="s">
+      <c r="D157" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="E157" s="204"/>
-      <c r="F157" s="204"/>
+      <c r="E157" s="216"/>
+      <c r="F157" s="216"/>
       <c r="G157" s="175"/>
       <c r="H157" s="182">
         <v>43774</v>
@@ -10298,49 +10333,51 @@
       <c r="M157" s="178"/>
       <c r="N157" s="178"/>
     </row>
-    <row r="158" spans="1:14" s="179" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A158" s="181" t="s">
-        <v>41</v>
-      </c>
-      <c r="B158" s="173" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" s="174" t="s">
+    <row r="158" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A158" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" s="192" t="s">
+        <v>277</v>
+      </c>
+      <c r="D158" s="210" t="s">
         <v>275</v>
       </c>
-      <c r="D158" s="203" t="s">
-        <v>111</v>
-      </c>
-      <c r="E158" s="204"/>
-      <c r="F158" s="204"/>
-      <c r="G158" s="175"/>
-      <c r="H158" s="182">
-        <v>43774</v>
-      </c>
-      <c r="I158" s="183" t="s">
-        <v>37</v>
-      </c>
-      <c r="J158" s="186"/>
+      <c r="E158" s="211"/>
+      <c r="F158" s="211"/>
+      <c r="G158" s="193"/>
+      <c r="H158" s="189">
+        <v>43774</v>
+      </c>
+      <c r="I158" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="188" t="s">
+        <v>280</v>
+      </c>
       <c r="K158" s="178"/>
       <c r="L158" s="178"/>
       <c r="M158" s="178"/>
       <c r="N158" s="178"/>
     </row>
-    <row r="159" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+    <row r="159" spans="1:14" s="179" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
       <c r="A159" s="190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B159" s="191" t="s">
-        <v>282</v>
-      </c>
-      <c r="C159" s="192" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="195" t="s">
+        <v>276</v>
+      </c>
+      <c r="D159" s="210" t="s">
         <v>278</v>
       </c>
-      <c r="D159" s="198" t="s">
-        <v>276</v>
-      </c>
-      <c r="E159" s="199"/>
-      <c r="F159" s="199"/>
+      <c r="E159" s="211"/>
+      <c r="F159" s="211"/>
       <c r="G159" s="193"/>
       <c r="H159" s="189">
         <v>43774</v>
@@ -10349,28 +10386,28 @@
         <v>8</v>
       </c>
       <c r="J159" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K159" s="178"/>
       <c r="L159" s="178"/>
       <c r="M159" s="178"/>
       <c r="N159" s="178"/>
     </row>
-    <row r="160" spans="1:14" s="179" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+    <row r="160" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A160" s="190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B160" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C160" s="195" t="s">
-        <v>277</v>
-      </c>
-      <c r="D160" s="198" t="s">
         <v>279</v>
       </c>
-      <c r="E160" s="199"/>
-      <c r="F160" s="199"/>
+      <c r="D160" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E160" s="211"/>
+      <c r="F160" s="211"/>
       <c r="G160" s="193"/>
       <c r="H160" s="189">
         <v>43774</v>
@@ -10379,7 +10416,7 @@
         <v>8</v>
       </c>
       <c r="J160" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K160" s="178"/>
       <c r="L160" s="178"/>
@@ -10388,19 +10425,19 @@
     </row>
     <row r="161" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A161" s="190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B161" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="195" t="s">
         <v>282</v>
       </c>
-      <c r="C161" s="195" t="s">
-        <v>280</v>
-      </c>
-      <c r="D161" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="E161" s="199"/>
-      <c r="F161" s="199"/>
+      <c r="D161" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E161" s="211"/>
+      <c r="F161" s="211"/>
       <c r="G161" s="193"/>
       <c r="H161" s="189">
         <v>43774</v>
@@ -10409,7 +10446,7 @@
         <v>8</v>
       </c>
       <c r="J161" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K161" s="178"/>
       <c r="L161" s="178"/>
@@ -10418,19 +10455,19 @@
     </row>
     <row r="162" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A162" s="190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B162" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C162" s="195" t="s">
         <v>283</v>
       </c>
-      <c r="D162" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="E162" s="199"/>
-      <c r="F162" s="199"/>
+      <c r="D162" s="210" t="s">
+        <v>284</v>
+      </c>
+      <c r="E162" s="211"/>
+      <c r="F162" s="211"/>
       <c r="G162" s="193"/>
       <c r="H162" s="189">
         <v>43774</v>
@@ -10439,7 +10476,7 @@
         <v>8</v>
       </c>
       <c r="J162" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K162" s="178"/>
       <c r="L162" s="178"/>
@@ -10448,19 +10485,19 @@
     </row>
     <row r="163" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A163" s="190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B163" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C163" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="D163" s="198" t="s">
         <v>285</v>
       </c>
-      <c r="E163" s="199"/>
-      <c r="F163" s="199"/>
+      <c r="D163" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E163" s="211"/>
+      <c r="F163" s="211"/>
       <c r="G163" s="193"/>
       <c r="H163" s="189">
         <v>43774</v>
@@ -10469,7 +10506,7 @@
         <v>8</v>
       </c>
       <c r="J163" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K163" s="178"/>
       <c r="L163" s="178"/>
@@ -10478,19 +10515,19 @@
     </row>
     <row r="164" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A164" s="190" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B164" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C164" s="195" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="E164" s="199"/>
-      <c r="F164" s="199"/>
+      <c r="D164" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E164" s="211"/>
+      <c r="F164" s="211"/>
       <c r="G164" s="193"/>
       <c r="H164" s="189">
         <v>43774</v>
@@ -10499,7 +10536,7 @@
         <v>8</v>
       </c>
       <c r="J164" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K164" s="178"/>
       <c r="L164" s="178"/>
@@ -10507,30 +10544,28 @@
       <c r="N164" s="178"/>
     </row>
     <row r="165" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A165" s="190" t="s">
-        <v>142</v>
-      </c>
-      <c r="B165" s="191" t="s">
-        <v>282</v>
-      </c>
-      <c r="C165" s="195" t="s">
+      <c r="A165" s="196" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="200" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="273" t="s">
         <v>287</v>
       </c>
-      <c r="D165" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="E165" s="199"/>
-      <c r="F165" s="199"/>
-      <c r="G165" s="193"/>
-      <c r="H165" s="189">
-        <v>43774</v>
-      </c>
-      <c r="I165" s="194" t="s">
-        <v>8</v>
-      </c>
-      <c r="J165" s="188" t="s">
-        <v>281</v>
-      </c>
+      <c r="D165" s="270" t="s">
+        <v>289</v>
+      </c>
+      <c r="E165" s="271"/>
+      <c r="F165" s="271"/>
+      <c r="G165" s="198"/>
+      <c r="H165" s="274">
+        <v>43774</v>
+      </c>
+      <c r="I165" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J165" s="186"/>
       <c r="K165" s="178"/>
       <c r="L165" s="178"/>
       <c r="M165" s="178"/>
@@ -10538,19 +10573,19 @@
     </row>
     <row r="166" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A166" s="190" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B166" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="195" t="s">
-        <v>288</v>
-      </c>
-      <c r="D166" s="198" t="s">
         <v>290</v>
       </c>
-      <c r="E166" s="199"/>
-      <c r="F166" s="199"/>
+      <c r="D166" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E166" s="211"/>
+      <c r="F166" s="211"/>
       <c r="G166" s="193"/>
       <c r="H166" s="189">
         <v>43774</v>
@@ -10559,7 +10594,7 @@
         <v>8</v>
       </c>
       <c r="J166" s="188" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K166" s="178"/>
       <c r="L166" s="178"/>
@@ -10568,19 +10603,19 @@
     </row>
     <row r="167" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A167" s="190" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B167" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C167" s="195" t="s">
+        <v>292</v>
+      </c>
+      <c r="D167" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="D167" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E167" s="199"/>
-      <c r="F167" s="199"/>
+      <c r="E167" s="211"/>
+      <c r="F167" s="211"/>
       <c r="G167" s="193"/>
       <c r="H167" s="189">
         <v>43774</v>
@@ -10589,7 +10624,7 @@
         <v>8</v>
       </c>
       <c r="J167" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K167" s="178"/>
       <c r="L167" s="178"/>
@@ -10598,19 +10633,19 @@
     </row>
     <row r="168" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A168" s="190" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B168" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C168" s="195" t="s">
         <v>293</v>
       </c>
-      <c r="D168" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E168" s="199"/>
-      <c r="F168" s="199"/>
+      <c r="D168" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E168" s="211"/>
+      <c r="F168" s="211"/>
       <c r="G168" s="193"/>
       <c r="H168" s="189">
         <v>43774</v>
@@ -10619,7 +10654,7 @@
         <v>8</v>
       </c>
       <c r="J168" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K168" s="178"/>
       <c r="L168" s="178"/>
@@ -10628,19 +10663,19 @@
     </row>
     <row r="169" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A169" s="190" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B169" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="D169" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E169" s="199"/>
-      <c r="F169" s="199"/>
+      <c r="D169" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E169" s="211"/>
+      <c r="F169" s="211"/>
       <c r="G169" s="193"/>
       <c r="H169" s="189">
         <v>43774</v>
@@ -10649,7 +10684,7 @@
         <v>8</v>
       </c>
       <c r="J169" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K169" s="178"/>
       <c r="L169" s="178"/>
@@ -10658,19 +10693,19 @@
     </row>
     <row r="170" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A170" s="190" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B170" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C170" s="195" t="s">
         <v>295</v>
       </c>
-      <c r="D170" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E170" s="199"/>
-      <c r="F170" s="199"/>
+      <c r="D170" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E170" s="211"/>
+      <c r="F170" s="211"/>
       <c r="G170" s="193"/>
       <c r="H170" s="189">
         <v>43774</v>
@@ -10679,7 +10714,7 @@
         <v>8</v>
       </c>
       <c r="J170" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K170" s="178"/>
       <c r="L170" s="178"/>
@@ -10688,19 +10723,19 @@
     </row>
     <row r="171" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A171" s="190" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B171" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C171" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="D171" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E171" s="199"/>
-      <c r="F171" s="199"/>
+      <c r="D171" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E171" s="211"/>
+      <c r="F171" s="211"/>
       <c r="G171" s="193"/>
       <c r="H171" s="189">
         <v>43774</v>
@@ -10709,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="J171" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K171" s="178"/>
       <c r="L171" s="178"/>
@@ -10718,19 +10753,19 @@
     </row>
     <row r="172" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A172" s="190" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B172" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C172" s="195" t="s">
         <v>297</v>
       </c>
-      <c r="D172" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E172" s="199"/>
-      <c r="F172" s="199"/>
+      <c r="D172" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E172" s="211"/>
+      <c r="F172" s="211"/>
       <c r="G172" s="193"/>
       <c r="H172" s="189">
         <v>43774</v>
@@ -10739,7 +10774,7 @@
         <v>8</v>
       </c>
       <c r="J172" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K172" s="178"/>
       <c r="L172" s="178"/>
@@ -10748,19 +10783,19 @@
     </row>
     <row r="173" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A173" s="190" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B173" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C173" s="195" t="s">
         <v>298</v>
       </c>
-      <c r="D173" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E173" s="199"/>
-      <c r="F173" s="199"/>
+      <c r="D173" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E173" s="211"/>
+      <c r="F173" s="211"/>
       <c r="G173" s="193"/>
       <c r="H173" s="189">
         <v>43774</v>
@@ -10769,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="J173" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K173" s="178"/>
       <c r="L173" s="178"/>
@@ -10778,19 +10813,19 @@
     </row>
     <row r="174" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A174" s="190" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B174" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C174" s="195" t="s">
         <v>299</v>
       </c>
-      <c r="D174" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E174" s="199"/>
-      <c r="F174" s="199"/>
+      <c r="D174" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E174" s="211"/>
+      <c r="F174" s="211"/>
       <c r="G174" s="193"/>
       <c r="H174" s="189">
         <v>43774</v>
@@ -10799,7 +10834,7 @@
         <v>8</v>
       </c>
       <c r="J174" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K174" s="178"/>
       <c r="L174" s="178"/>
@@ -10808,19 +10843,19 @@
     </row>
     <row r="175" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A175" s="190" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B175" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C175" s="195" t="s">
         <v>300</v>
       </c>
-      <c r="D175" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E175" s="199"/>
-      <c r="F175" s="199"/>
+      <c r="D175" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E175" s="211"/>
+      <c r="F175" s="211"/>
       <c r="G175" s="193"/>
       <c r="H175" s="189">
         <v>43774</v>
@@ -10829,7 +10864,7 @@
         <v>8</v>
       </c>
       <c r="J175" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K175" s="178"/>
       <c r="L175" s="178"/>
@@ -10838,19 +10873,19 @@
     </row>
     <row r="176" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A176" s="190" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B176" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C176" s="195" t="s">
         <v>301</v>
       </c>
-      <c r="D176" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E176" s="199"/>
-      <c r="F176" s="199"/>
+      <c r="D176" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E176" s="211"/>
+      <c r="F176" s="211"/>
       <c r="G176" s="193"/>
       <c r="H176" s="189">
         <v>43774</v>
@@ -10859,7 +10894,7 @@
         <v>8</v>
       </c>
       <c r="J176" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K176" s="178"/>
       <c r="L176" s="178"/>
@@ -10868,19 +10903,19 @@
     </row>
     <row r="177" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A177" s="190" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B177" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C177" s="195" t="s">
         <v>302</v>
       </c>
-      <c r="D177" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E177" s="199"/>
-      <c r="F177" s="199"/>
+      <c r="D177" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E177" s="211"/>
+      <c r="F177" s="211"/>
       <c r="G177" s="193"/>
       <c r="H177" s="189">
         <v>43774</v>
@@ -10889,7 +10924,7 @@
         <v>8</v>
       </c>
       <c r="J177" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K177" s="178"/>
       <c r="L177" s="178"/>
@@ -10898,19 +10933,19 @@
     </row>
     <row r="178" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A178" s="190" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B178" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C178" s="195" t="s">
         <v>303</v>
       </c>
-      <c r="D178" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E178" s="199"/>
-      <c r="F178" s="199"/>
+      <c r="D178" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E178" s="211"/>
+      <c r="F178" s="211"/>
       <c r="G178" s="193"/>
       <c r="H178" s="189">
         <v>43774</v>
@@ -10919,7 +10954,7 @@
         <v>8</v>
       </c>
       <c r="J178" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K178" s="178"/>
       <c r="L178" s="178"/>
@@ -10928,19 +10963,19 @@
     </row>
     <row r="179" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A179" s="190" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B179" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C179" s="195" t="s">
         <v>304</v>
       </c>
-      <c r="D179" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E179" s="199"/>
-      <c r="F179" s="199"/>
+      <c r="D179" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E179" s="211"/>
+      <c r="F179" s="211"/>
       <c r="G179" s="193"/>
       <c r="H179" s="189">
         <v>43774</v>
@@ -10949,7 +10984,7 @@
         <v>8</v>
       </c>
       <c r="J179" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K179" s="178"/>
       <c r="L179" s="178"/>
@@ -10958,19 +10993,19 @@
     </row>
     <row r="180" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A180" s="190" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B180" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C180" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="D180" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E180" s="199"/>
-      <c r="F180" s="199"/>
+      <c r="D180" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E180" s="211"/>
+      <c r="F180" s="211"/>
       <c r="G180" s="193"/>
       <c r="H180" s="189">
         <v>43774</v>
@@ -10979,7 +11014,7 @@
         <v>8</v>
       </c>
       <c r="J180" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K180" s="178"/>
       <c r="L180" s="178"/>
@@ -10988,19 +11023,19 @@
     </row>
     <row r="181" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A181" s="190" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B181" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C181" s="195" t="s">
         <v>306</v>
       </c>
-      <c r="D181" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E181" s="199"/>
-      <c r="F181" s="199"/>
+      <c r="D181" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E181" s="211"/>
+      <c r="F181" s="211"/>
       <c r="G181" s="193"/>
       <c r="H181" s="189">
         <v>43774</v>
@@ -11009,7 +11044,7 @@
         <v>8</v>
       </c>
       <c r="J181" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K181" s="178"/>
       <c r="L181" s="178"/>
@@ -11018,19 +11053,19 @@
     </row>
     <row r="182" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A182" s="190" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B182" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C182" s="195" t="s">
         <v>307</v>
       </c>
-      <c r="D182" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E182" s="199"/>
-      <c r="F182" s="199"/>
+      <c r="D182" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E182" s="211"/>
+      <c r="F182" s="211"/>
       <c r="G182" s="193"/>
       <c r="H182" s="189">
         <v>43774</v>
@@ -11039,7 +11074,7 @@
         <v>8</v>
       </c>
       <c r="J182" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K182" s="178"/>
       <c r="L182" s="178"/>
@@ -11048,19 +11083,19 @@
     </row>
     <row r="183" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A183" s="190" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B183" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C183" s="195" t="s">
         <v>308</v>
       </c>
-      <c r="D183" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E183" s="199"/>
-      <c r="F183" s="199"/>
+      <c r="D183" s="210" t="s">
+        <v>309</v>
+      </c>
+      <c r="E183" s="211"/>
+      <c r="F183" s="211"/>
       <c r="G183" s="193"/>
       <c r="H183" s="189">
         <v>43774</v>
@@ -11069,7 +11104,7 @@
         <v>8</v>
       </c>
       <c r="J183" s="188" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K183" s="178"/>
       <c r="L183" s="178"/>
@@ -11078,19 +11113,19 @@
     </row>
     <row r="184" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A184" s="190" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C184" s="195" t="s">
-        <v>309</v>
-      </c>
-      <c r="D184" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="E184" s="199"/>
-      <c r="F184" s="199"/>
+      <c r="D184" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E184" s="211"/>
+      <c r="F184" s="211"/>
       <c r="G184" s="193"/>
       <c r="H184" s="189">
         <v>43774</v>
@@ -11099,7 +11134,7 @@
         <v>8</v>
       </c>
       <c r="J184" s="188" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K184" s="178"/>
       <c r="L184" s="178"/>
@@ -11108,19 +11143,19 @@
     </row>
     <row r="185" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A185" s="190" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C185" s="195" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E185" s="199"/>
-      <c r="F185" s="199"/>
+      <c r="D185" s="210" t="s">
+        <v>289</v>
+      </c>
+      <c r="E185" s="211"/>
+      <c r="F185" s="211"/>
       <c r="G185" s="193"/>
       <c r="H185" s="189">
         <v>43774</v>
@@ -11129,7 +11164,7 @@
         <v>8</v>
       </c>
       <c r="J185" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K185" s="178"/>
       <c r="L185" s="178"/>
@@ -11138,19 +11173,19 @@
     </row>
     <row r="186" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A186" s="190" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B186" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C186" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="198" t="s">
-        <v>290</v>
-      </c>
-      <c r="E186" s="199"/>
-      <c r="F186" s="199"/>
+      <c r="D186" s="210" t="s">
+        <v>289</v>
+      </c>
+      <c r="E186" s="211"/>
+      <c r="F186" s="211"/>
       <c r="G186" s="193"/>
       <c r="H186" s="189">
         <v>43774</v>
@@ -11159,7 +11194,7 @@
         <v>8</v>
       </c>
       <c r="J186" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K186" s="178"/>
       <c r="L186" s="178"/>
@@ -11168,19 +11203,19 @@
     </row>
     <row r="187" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A187" s="190" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B187" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C187" s="195" t="s">
         <v>313</v>
       </c>
-      <c r="D187" s="198" t="s">
-        <v>290</v>
-      </c>
-      <c r="E187" s="199"/>
-      <c r="F187" s="199"/>
+      <c r="D187" s="210" t="s">
+        <v>291</v>
+      </c>
+      <c r="E187" s="211"/>
+      <c r="F187" s="211"/>
       <c r="G187" s="193"/>
       <c r="H187" s="189">
         <v>43774</v>
@@ -11189,7 +11224,7 @@
         <v>8</v>
       </c>
       <c r="J187" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K187" s="178"/>
       <c r="L187" s="178"/>
@@ -11198,19 +11233,19 @@
     </row>
     <row r="188" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A188" s="190" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B188" s="191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C188" s="195" t="s">
         <v>314</v>
       </c>
-      <c r="D188" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="E188" s="199"/>
-      <c r="F188" s="199"/>
+      <c r="D188" s="210" t="s">
+        <v>315</v>
+      </c>
+      <c r="E188" s="211"/>
+      <c r="F188" s="211"/>
       <c r="G188" s="193"/>
       <c r="H188" s="189">
         <v>43774</v>
@@ -11219,7 +11254,7 @@
         <v>8</v>
       </c>
       <c r="J188" s="188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K188" s="178"/>
       <c r="L188" s="178"/>
@@ -11227,195 +11262,193 @@
       <c r="N188" s="178"/>
     </row>
     <row r="189" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A189" s="190" t="s">
-        <v>200</v>
-      </c>
-      <c r="B189" s="191" t="s">
-        <v>282</v>
-      </c>
-      <c r="C189" s="195" t="s">
-        <v>315</v>
-      </c>
-      <c r="D189" s="198" t="s">
+      <c r="A189" s="196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="200" t="s">
         <v>316</v>
       </c>
-      <c r="E189" s="199"/>
-      <c r="F189" s="199"/>
-      <c r="G189" s="193"/>
-      <c r="H189" s="189">
-        <v>43774</v>
-      </c>
-      <c r="I189" s="194" t="s">
-        <v>8</v>
-      </c>
-      <c r="J189" s="188" t="s">
-        <v>281</v>
-      </c>
+      <c r="C189" s="197" t="s">
+        <v>317</v>
+      </c>
+      <c r="D189" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E189" s="271"/>
+      <c r="F189" s="271"/>
+      <c r="G189" s="198"/>
+      <c r="H189" s="182">
+        <v>43774</v>
+      </c>
+      <c r="I189" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J189" s="186"/>
       <c r="K189" s="178"/>
       <c r="L189" s="178"/>
       <c r="M189" s="178"/>
       <c r="N189" s="178"/>
     </row>
     <row r="190" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A190" s="256" t="s">
-        <v>201</v>
-      </c>
-      <c r="B190" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C190" s="257" t="s">
-        <v>318</v>
+      <c r="A190" s="201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C190" s="203" t="s">
+        <v>319</v>
       </c>
       <c r="D190" s="261" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="E190" s="262"/>
       <c r="F190" s="262"/>
-      <c r="G190" s="258"/>
-      <c r="H190" s="182">
-        <v>43774</v>
-      </c>
-      <c r="I190" s="259" t="s">
-        <v>37</v>
-      </c>
-      <c r="J190" s="186"/>
+      <c r="G190" s="204"/>
+      <c r="H190" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I190" s="206" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="207"/>
       <c r="K190" s="178"/>
       <c r="L190" s="178"/>
       <c r="M190" s="178"/>
       <c r="N190" s="178"/>
     </row>
     <row r="191" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A191" s="263" t="s">
-        <v>202</v>
-      </c>
-      <c r="B191" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C191" s="265" t="s">
+      <c r="A191" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B191" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C191" s="203" t="s">
         <v>320</v>
       </c>
-      <c r="D191" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E191" s="267"/>
-      <c r="F191" s="267"/>
-      <c r="G191" s="268"/>
-      <c r="H191" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I191" s="270" t="s">
+      <c r="D191" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="E191" s="262"/>
+      <c r="F191" s="262"/>
+      <c r="G191" s="204"/>
+      <c r="H191" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I191" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="J191" s="271"/>
+      <c r="J191" s="207"/>
       <c r="K191" s="178"/>
       <c r="L191" s="178"/>
       <c r="M191" s="178"/>
       <c r="N191" s="178"/>
     </row>
     <row r="192" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A192" s="263" t="s">
-        <v>204</v>
-      </c>
-      <c r="B192" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C192" s="265" t="s">
+      <c r="A192" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C192" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="D192" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E192" s="267"/>
-      <c r="F192" s="267"/>
-      <c r="G192" s="268"/>
-      <c r="H192" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I192" s="270" t="s">
+      <c r="D192" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="E192" s="262"/>
+      <c r="F192" s="262"/>
+      <c r="G192" s="204"/>
+      <c r="H192" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I192" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="J192" s="271"/>
+      <c r="J192" s="207"/>
       <c r="K192" s="178"/>
       <c r="L192" s="178"/>
       <c r="M192" s="178"/>
       <c r="N192" s="178"/>
     </row>
     <row r="193" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A193" s="263" t="s">
-        <v>205</v>
-      </c>
-      <c r="B193" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C193" s="265" t="s">
+      <c r="A193" s="201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B193" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C193" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="D193" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E193" s="267"/>
-      <c r="F193" s="267"/>
-      <c r="G193" s="268"/>
-      <c r="H193" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I193" s="270" t="s">
+      <c r="D193" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="E193" s="262"/>
+      <c r="F193" s="262"/>
+      <c r="G193" s="204"/>
+      <c r="H193" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I193" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="J193" s="271"/>
+      <c r="J193" s="207"/>
       <c r="K193" s="178"/>
       <c r="L193" s="178"/>
       <c r="M193" s="178"/>
       <c r="N193" s="178"/>
     </row>
     <row r="194" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A194" s="263" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C194" s="265" t="s">
+      <c r="A194" s="196" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="197" t="s">
         <v>323</v>
       </c>
-      <c r="D194" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E194" s="267"/>
-      <c r="F194" s="267"/>
-      <c r="G194" s="268"/>
-      <c r="H194" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I194" s="270" t="s">
-        <v>8</v>
-      </c>
-      <c r="J194" s="271"/>
+      <c r="D194" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E194" s="271"/>
+      <c r="F194" s="271"/>
+      <c r="G194" s="198"/>
+      <c r="H194" s="182">
+        <v>47427</v>
+      </c>
+      <c r="I194" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J194" s="186"/>
       <c r="K194" s="178"/>
       <c r="L194" s="178"/>
       <c r="M194" s="178"/>
       <c r="N194" s="178"/>
     </row>
     <row r="195" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A195" s="256" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C195" s="257" t="s">
+      <c r="A195" s="196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B195" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C195" s="197" t="s">
         <v>324</v>
       </c>
-      <c r="D195" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E195" s="262"/>
-      <c r="F195" s="262"/>
-      <c r="G195" s="258"/>
+      <c r="D195" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E195" s="271"/>
+      <c r="F195" s="271"/>
+      <c r="G195" s="198"/>
       <c r="H195" s="182">
-        <v>47427</v>
-      </c>
-      <c r="I195" s="259" t="s">
+        <v>43774</v>
+      </c>
+      <c r="I195" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J195" s="186"/>
@@ -11425,25 +11458,25 @@
       <c r="N195" s="178"/>
     </row>
     <row r="196" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A196" s="256" t="s">
-        <v>208</v>
-      </c>
-      <c r="B196" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C196" s="257" t="s">
+      <c r="A196" s="196" t="s">
+        <v>209</v>
+      </c>
+      <c r="B196" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C196" s="197" t="s">
         <v>325</v>
       </c>
-      <c r="D196" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E196" s="262"/>
-      <c r="F196" s="262"/>
-      <c r="G196" s="258"/>
+      <c r="D196" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E196" s="271"/>
+      <c r="F196" s="271"/>
+      <c r="G196" s="198"/>
       <c r="H196" s="182">
         <v>43774</v>
       </c>
-      <c r="I196" s="259" t="s">
+      <c r="I196" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J196" s="186"/>
@@ -11453,25 +11486,25 @@
       <c r="N196" s="178"/>
     </row>
     <row r="197" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A197" s="256" t="s">
-        <v>209</v>
-      </c>
-      <c r="B197" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C197" s="257" t="s">
+      <c r="A197" s="196" t="s">
+        <v>210</v>
+      </c>
+      <c r="B197" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C197" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="D197" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E197" s="262"/>
-      <c r="F197" s="262"/>
-      <c r="G197" s="258"/>
+      <c r="D197" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E197" s="271"/>
+      <c r="F197" s="271"/>
+      <c r="G197" s="198"/>
       <c r="H197" s="182">
         <v>43774</v>
       </c>
-      <c r="I197" s="259" t="s">
+      <c r="I197" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J197" s="186"/>
@@ -11481,25 +11514,25 @@
       <c r="N197" s="178"/>
     </row>
     <row r="198" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A198" s="256" t="s">
-        <v>210</v>
-      </c>
-      <c r="B198" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C198" s="257" t="s">
+      <c r="A198" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="B198" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C198" s="197" t="s">
         <v>327</v>
       </c>
-      <c r="D198" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E198" s="262"/>
-      <c r="F198" s="262"/>
-      <c r="G198" s="258"/>
+      <c r="D198" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E198" s="271"/>
+      <c r="F198" s="271"/>
+      <c r="G198" s="198"/>
       <c r="H198" s="182">
         <v>43774</v>
       </c>
-      <c r="I198" s="259" t="s">
+      <c r="I198" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J198" s="186"/>
@@ -11509,25 +11542,25 @@
       <c r="N198" s="178"/>
     </row>
     <row r="199" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A199" s="256" t="s">
-        <v>211</v>
-      </c>
-      <c r="B199" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C199" s="257" t="s">
+      <c r="A199" s="196" t="s">
+        <v>212</v>
+      </c>
+      <c r="B199" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C199" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="D199" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E199" s="262"/>
-      <c r="F199" s="262"/>
-      <c r="G199" s="258"/>
+      <c r="D199" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E199" s="271"/>
+      <c r="F199" s="271"/>
+      <c r="G199" s="198"/>
       <c r="H199" s="182">
         <v>43774</v>
       </c>
-      <c r="I199" s="259" t="s">
+      <c r="I199" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J199" s="186"/>
@@ -11537,25 +11570,25 @@
       <c r="N199" s="178"/>
     </row>
     <row r="200" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A200" s="256" t="s">
-        <v>212</v>
-      </c>
-      <c r="B200" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C200" s="257" t="s">
+      <c r="A200" s="196" t="s">
+        <v>215</v>
+      </c>
+      <c r="B200" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C200" s="197" t="s">
         <v>329</v>
       </c>
-      <c r="D200" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E200" s="262"/>
-      <c r="F200" s="262"/>
-      <c r="G200" s="258"/>
+      <c r="D200" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E200" s="271"/>
+      <c r="F200" s="271"/>
+      <c r="G200" s="198"/>
       <c r="H200" s="182">
         <v>43774</v>
       </c>
-      <c r="I200" s="259" t="s">
+      <c r="I200" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J200" s="186"/>
@@ -11565,109 +11598,109 @@
       <c r="N200" s="178"/>
     </row>
     <row r="201" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A201" s="256" t="s">
-        <v>215</v>
-      </c>
-      <c r="B201" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C201" s="257" t="s">
+      <c r="A201" s="201" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C201" s="203" t="s">
         <v>330</v>
       </c>
       <c r="D201" s="261" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E201" s="262"/>
       <c r="F201" s="262"/>
-      <c r="G201" s="258"/>
-      <c r="H201" s="182">
-        <v>43774</v>
-      </c>
-      <c r="I201" s="259" t="s">
-        <v>37</v>
-      </c>
-      <c r="J201" s="186"/>
+      <c r="G201" s="204"/>
+      <c r="H201" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I201" s="206" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="207"/>
       <c r="K201" s="178"/>
       <c r="L201" s="178"/>
       <c r="M201" s="178"/>
       <c r="N201" s="178"/>
     </row>
     <row r="202" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A202" s="263" t="s">
-        <v>218</v>
-      </c>
-      <c r="B202" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C202" s="265" t="s">
+      <c r="A202" s="201" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C202" s="203" t="s">
         <v>331</v>
       </c>
-      <c r="D202" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E202" s="267"/>
-      <c r="F202" s="267"/>
-      <c r="G202" s="268"/>
-      <c r="H202" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I202" s="270" t="s">
+      <c r="D202" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="E202" s="262"/>
+      <c r="F202" s="262"/>
+      <c r="G202" s="204"/>
+      <c r="H202" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I202" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="J202" s="271"/>
+      <c r="J202" s="207"/>
       <c r="K202" s="178"/>
       <c r="L202" s="178"/>
       <c r="M202" s="178"/>
       <c r="N202" s="178"/>
     </row>
     <row r="203" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A203" s="263" t="s">
-        <v>220</v>
-      </c>
-      <c r="B203" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C203" s="265" t="s">
+      <c r="A203" s="196" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C203" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="D203" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E203" s="267"/>
-      <c r="F203" s="267"/>
-      <c r="G203" s="268"/>
-      <c r="H203" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I203" s="270" t="s">
-        <v>8</v>
-      </c>
-      <c r="J203" s="271"/>
+      <c r="D203" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E203" s="271"/>
+      <c r="F203" s="271"/>
+      <c r="G203" s="198"/>
+      <c r="H203" s="182">
+        <v>43774</v>
+      </c>
+      <c r="I203" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J203" s="186"/>
       <c r="K203" s="178"/>
       <c r="L203" s="178"/>
       <c r="M203" s="178"/>
       <c r="N203" s="178"/>
     </row>
     <row r="204" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A204" s="256" t="s">
-        <v>224</v>
-      </c>
-      <c r="B204" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C204" s="257" t="s">
+      <c r="A204" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C204" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="D204" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E204" s="262"/>
-      <c r="F204" s="262"/>
-      <c r="G204" s="258"/>
+      <c r="D204" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E204" s="271"/>
+      <c r="F204" s="271"/>
+      <c r="G204" s="198"/>
       <c r="H204" s="182">
         <v>43774</v>
       </c>
-      <c r="I204" s="259" t="s">
+      <c r="I204" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J204" s="186"/>
@@ -11677,25 +11710,25 @@
       <c r="N204" s="178"/>
     </row>
     <row r="205" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A205" s="256" t="s">
-        <v>226</v>
-      </c>
-      <c r="B205" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C205" s="257" t="s">
+      <c r="A205" s="196" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C205" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="D205" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E205" s="262"/>
-      <c r="F205" s="262"/>
-      <c r="G205" s="258"/>
+      <c r="D205" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E205" s="271"/>
+      <c r="F205" s="271"/>
+      <c r="G205" s="198"/>
       <c r="H205" s="182">
         <v>43774</v>
       </c>
-      <c r="I205" s="259" t="s">
+      <c r="I205" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J205" s="186"/>
@@ -11705,25 +11738,25 @@
       <c r="N205" s="178"/>
     </row>
     <row r="206" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A206" s="256" t="s">
-        <v>228</v>
-      </c>
-      <c r="B206" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C206" s="257" t="s">
+      <c r="A206" s="196" t="s">
+        <v>233</v>
+      </c>
+      <c r="B206" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C206" s="197" t="s">
         <v>335</v>
       </c>
-      <c r="D206" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E206" s="262"/>
-      <c r="F206" s="262"/>
-      <c r="G206" s="258"/>
+      <c r="D206" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E206" s="271"/>
+      <c r="F206" s="271"/>
+      <c r="G206" s="198"/>
       <c r="H206" s="182">
         <v>43774</v>
       </c>
-      <c r="I206" s="259" t="s">
+      <c r="I206" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J206" s="186"/>
@@ -11733,25 +11766,25 @@
       <c r="N206" s="178"/>
     </row>
     <row r="207" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A207" s="256" t="s">
-        <v>233</v>
-      </c>
-      <c r="B207" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C207" s="257" t="s">
+      <c r="A207" s="196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C207" s="197" t="s">
         <v>336</v>
       </c>
-      <c r="D207" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E207" s="262"/>
-      <c r="F207" s="262"/>
-      <c r="G207" s="258"/>
+      <c r="D207" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E207" s="271"/>
+      <c r="F207" s="271"/>
+      <c r="G207" s="198"/>
       <c r="H207" s="182">
         <v>43774</v>
       </c>
-      <c r="I207" s="259" t="s">
+      <c r="I207" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J207" s="186"/>
@@ -11761,25 +11794,25 @@
       <c r="N207" s="178"/>
     </row>
     <row r="208" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A208" s="256" t="s">
-        <v>235</v>
-      </c>
-      <c r="B208" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C208" s="257" t="s">
+      <c r="A208" s="196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B208" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="D208" s="261" t="s">
-        <v>292</v>
-      </c>
-      <c r="E208" s="262"/>
-      <c r="F208" s="262"/>
-      <c r="G208" s="258"/>
+      <c r="D208" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E208" s="271"/>
+      <c r="F208" s="271"/>
+      <c r="G208" s="198"/>
       <c r="H208" s="182">
         <v>43774</v>
       </c>
-      <c r="I208" s="259" t="s">
+      <c r="I208" s="199" t="s">
         <v>37</v>
       </c>
       <c r="J208" s="186"/>
@@ -11789,178 +11822,162 @@
       <c r="N208" s="178"/>
     </row>
     <row r="209" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A209" s="256" t="s">
-        <v>241</v>
-      </c>
-      <c r="B209" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C209" s="257" t="s">
+      <c r="A209" s="201" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C209" s="203" t="s">
         <v>338</v>
       </c>
       <c r="D209" s="261" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E209" s="262"/>
       <c r="F209" s="262"/>
-      <c r="G209" s="258"/>
-      <c r="H209" s="182">
-        <v>43774</v>
-      </c>
-      <c r="I209" s="259" t="s">
-        <v>37</v>
-      </c>
-      <c r="J209" s="186"/>
+      <c r="G209" s="204"/>
+      <c r="H209" s="205">
+        <v>43774</v>
+      </c>
+      <c r="I209" s="206" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="207"/>
       <c r="K209" s="178"/>
       <c r="L209" s="178"/>
       <c r="M209" s="178"/>
       <c r="N209" s="178"/>
     </row>
     <row r="210" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A210" s="263" t="s">
-        <v>243</v>
-      </c>
-      <c r="B210" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C210" s="265" t="s">
+      <c r="A210" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="B210" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="D210" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="E210" s="267"/>
-      <c r="F210" s="267"/>
-      <c r="G210" s="268"/>
-      <c r="H210" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I210" s="270" t="s">
-        <v>8</v>
-      </c>
-      <c r="J210" s="271"/>
+      <c r="D210" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E210" s="271"/>
+      <c r="F210" s="271"/>
+      <c r="G210" s="198"/>
+      <c r="H210" s="182">
+        <v>43774</v>
+      </c>
+      <c r="I210" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J210" s="186"/>
       <c r="K210" s="178"/>
       <c r="L210" s="178"/>
       <c r="M210" s="178"/>
       <c r="N210" s="178"/>
     </row>
-    <row r="211" spans="1:14" s="179" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A211" s="256" t="s">
-        <v>245</v>
-      </c>
-      <c r="B211" s="260" t="s">
-        <v>317</v>
-      </c>
-      <c r="C211" s="257" t="s">
+    <row r="211" spans="1:14" s="179" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
+      <c r="A211" s="275" t="s">
+        <v>247</v>
+      </c>
+      <c r="B211" s="276" t="s">
+        <v>316</v>
+      </c>
+      <c r="C211" s="277" t="s">
         <v>340</v>
       </c>
-      <c r="D211" s="261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E211" s="262"/>
-      <c r="F211" s="262"/>
-      <c r="G211" s="258"/>
-      <c r="H211" s="182">
-        <v>43774</v>
-      </c>
-      <c r="I211" s="259" t="s">
-        <v>37</v>
-      </c>
-      <c r="J211" s="186"/>
+      <c r="D211" s="278" t="s">
+        <v>342</v>
+      </c>
+      <c r="E211" s="279"/>
+      <c r="F211" s="279"/>
+      <c r="G211" s="280"/>
+      <c r="H211" s="281">
+        <v>43774</v>
+      </c>
+      <c r="I211" s="282" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="283" t="s">
+        <v>341</v>
+      </c>
       <c r="K211" s="178"/>
       <c r="L211" s="178"/>
       <c r="M211" s="178"/>
       <c r="N211" s="178"/>
     </row>
-    <row r="212" spans="1:14" s="179" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
-      <c r="A212" s="263" t="s">
-        <v>247</v>
-      </c>
-      <c r="B212" s="264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C212" s="265" t="s">
-        <v>341</v>
-      </c>
-      <c r="D212" s="266" t="s">
-        <v>343</v>
-      </c>
-      <c r="E212" s="267"/>
-      <c r="F212" s="267"/>
-      <c r="G212" s="268"/>
-      <c r="H212" s="269">
-        <v>43774</v>
-      </c>
-      <c r="I212" s="270" t="s">
-        <v>8</v>
-      </c>
-      <c r="J212" s="271" t="s">
-        <v>342</v>
-      </c>
-      <c r="K212" s="178"/>
-      <c r="L212" s="178"/>
-      <c r="M212" s="178"/>
-      <c r="N212" s="178"/>
-    </row>
-    <row r="213" spans="1:14" s="93" customFormat="1" ht="68.25" customHeight="1" outlineLevel="1">
-      <c r="A213" s="136" t="s">
+    <row r="212" spans="1:14" s="93" customFormat="1" ht="68.25" customHeight="1" outlineLevel="1">
+      <c r="A212" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B213" s="137" t="s">
+      <c r="B212" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C213" s="138" t="s">
+      <c r="C212" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D213" s="245" t="s">
+      <c r="D212" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="E213" s="246"/>
-      <c r="F213" s="246"/>
-      <c r="G213" s="127"/>
-      <c r="H213" s="139">
-        <v>43774</v>
-      </c>
-      <c r="I213" s="140" t="s">
+      <c r="E212" s="258"/>
+      <c r="F212" s="258"/>
+      <c r="G212" s="127"/>
+      <c r="H212" s="139">
+        <v>43774</v>
+      </c>
+      <c r="I212" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="J213" s="141"/>
-    </row>
-    <row r="214" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A214" s="205" t="s">
+      <c r="J212" s="141"/>
+    </row>
+    <row r="213" spans="1:14" s="4" customFormat="1" ht="12.75">
+      <c r="A213" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B214" s="206"/>
-      <c r="C214" s="206"/>
-      <c r="D214" s="206"/>
-      <c r="E214" s="206"/>
-      <c r="F214" s="206"/>
-      <c r="G214" s="206"/>
-      <c r="H214" s="206"/>
-      <c r="I214" s="206"/>
-      <c r="J214" s="207"/>
-    </row>
-    <row r="215" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A215" s="205" t="s">
+      <c r="B213" s="223"/>
+      <c r="C213" s="223"/>
+      <c r="D213" s="223"/>
+      <c r="E213" s="223"/>
+      <c r="F213" s="223"/>
+      <c r="G213" s="223"/>
+      <c r="H213" s="223"/>
+      <c r="I213" s="223"/>
+      <c r="J213" s="224"/>
+    </row>
+    <row r="214" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A214" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="B215" s="206"/>
-      <c r="C215" s="206"/>
-      <c r="D215" s="206"/>
-      <c r="E215" s="206"/>
-      <c r="F215" s="206"/>
-      <c r="G215" s="206"/>
-      <c r="H215" s="206"/>
-      <c r="I215" s="206"/>
-      <c r="J215" s="207"/>
-    </row>
-    <row r="216" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="B214" s="223"/>
+      <c r="C214" s="223"/>
+      <c r="D214" s="223"/>
+      <c r="E214" s="223"/>
+      <c r="F214" s="223"/>
+      <c r="G214" s="223"/>
+      <c r="H214" s="223"/>
+      <c r="I214" s="223"/>
+      <c r="J214" s="224"/>
+    </row>
+    <row r="215" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A215" s="88"/>
+      <c r="B215" s="97"/>
+      <c r="C215" s="92"/>
+      <c r="D215" s="220"/>
+      <c r="E215" s="221"/>
+      <c r="F215" s="221"/>
+      <c r="G215" s="127"/>
+      <c r="H215" s="132"/>
+      <c r="I215" s="100"/>
+      <c r="J215" s="94"/>
+    </row>
+    <row r="216" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A216" s="88"/>
       <c r="B216" s="97"/>
       <c r="C216" s="92"/>
-      <c r="D216" s="208"/>
-      <c r="E216" s="209"/>
-      <c r="F216" s="209"/>
+      <c r="D216" s="220"/>
+      <c r="E216" s="221"/>
+      <c r="F216" s="221"/>
       <c r="G216" s="127"/>
       <c r="H216" s="132"/>
       <c r="I216" s="100"/>
@@ -11970,392 +11987,381 @@
       <c r="A217" s="88"/>
       <c r="B217" s="97"/>
       <c r="C217" s="92"/>
-      <c r="D217" s="208"/>
-      <c r="E217" s="209"/>
-      <c r="F217" s="209"/>
+      <c r="D217" s="220"/>
+      <c r="E217" s="221"/>
+      <c r="F217" s="221"/>
       <c r="G217" s="127"/>
       <c r="H217" s="132"/>
       <c r="I217" s="100"/>
       <c r="J217" s="94"/>
     </row>
-    <row r="218" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+    <row r="218" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A218" s="88"/>
       <c r="B218" s="97"/>
       <c r="C218" s="92"/>
-      <c r="D218" s="208"/>
-      <c r="E218" s="209"/>
-      <c r="F218" s="209"/>
+      <c r="D218" s="220"/>
+      <c r="E218" s="221"/>
+      <c r="F218" s="221"/>
       <c r="G218" s="127"/>
       <c r="H218" s="132"/>
       <c r="I218" s="100"/>
       <c r="J218" s="94"/>
     </row>
-    <row r="219" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+    <row r="219" spans="1:14" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
       <c r="A219" s="88"/>
       <c r="B219" s="97"/>
       <c r="C219" s="92"/>
-      <c r="D219" s="208"/>
-      <c r="E219" s="209"/>
-      <c r="F219" s="209"/>
+      <c r="D219" s="220"/>
+      <c r="E219" s="221"/>
+      <c r="F219" s="221"/>
       <c r="G219" s="127"/>
       <c r="H219" s="132"/>
       <c r="I219" s="100"/>
       <c r="J219" s="94"/>
     </row>
-    <row r="220" spans="1:14" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+    <row r="220" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A220" s="88"/>
       <c r="B220" s="97"/>
       <c r="C220" s="92"/>
-      <c r="D220" s="208"/>
-      <c r="E220" s="209"/>
-      <c r="F220" s="209"/>
+      <c r="D220" s="220"/>
+      <c r="E220" s="221"/>
+      <c r="F220" s="221"/>
       <c r="G220" s="127"/>
       <c r="H220" s="132"/>
       <c r="I220" s="100"/>
       <c r="J220" s="94"/>
     </row>
-    <row r="221" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+    <row r="221" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A221" s="88"/>
       <c r="B221" s="97"/>
       <c r="C221" s="92"/>
-      <c r="D221" s="208"/>
-      <c r="E221" s="209"/>
-      <c r="F221" s="209"/>
+      <c r="D221" s="220"/>
+      <c r="E221" s="221"/>
+      <c r="F221" s="221"/>
       <c r="G221" s="127"/>
       <c r="H221" s="132"/>
       <c r="I221" s="100"/>
       <c r="J221" s="94"/>
     </row>
-    <row r="222" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A222" s="88"/>
-      <c r="B222" s="97"/>
-      <c r="C222" s="92"/>
-      <c r="D222" s="208"/>
-      <c r="E222" s="209"/>
-      <c r="F222" s="209"/>
-      <c r="G222" s="127"/>
-      <c r="H222" s="132"/>
-      <c r="I222" s="100"/>
-      <c r="J222" s="94"/>
-    </row>
-    <row r="223" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A223" s="205" t="s">
+    <row r="222" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A222" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="B223" s="206"/>
-      <c r="C223" s="206"/>
-      <c r="D223" s="206"/>
-      <c r="E223" s="206"/>
-      <c r="F223" s="206"/>
-      <c r="G223" s="206"/>
-      <c r="H223" s="206"/>
-      <c r="I223" s="206"/>
-      <c r="J223" s="207"/>
-    </row>
-    <row r="224" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A224" s="88"/>
-      <c r="B224" s="97"/>
-      <c r="C224" s="92"/>
-      <c r="D224" s="208"/>
-      <c r="E224" s="209"/>
-      <c r="F224" s="209"/>
-      <c r="G224" s="127"/>
-      <c r="H224" s="132"/>
-      <c r="I224" s="100"/>
-      <c r="J224" s="94"/>
-    </row>
-    <row r="225" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A225" s="205" t="s">
+      <c r="B222" s="223"/>
+      <c r="C222" s="223"/>
+      <c r="D222" s="223"/>
+      <c r="E222" s="223"/>
+      <c r="F222" s="223"/>
+      <c r="G222" s="223"/>
+      <c r="H222" s="223"/>
+      <c r="I222" s="223"/>
+      <c r="J222" s="224"/>
+    </row>
+    <row r="223" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A223" s="88"/>
+      <c r="B223" s="97"/>
+      <c r="C223" s="92"/>
+      <c r="D223" s="220"/>
+      <c r="E223" s="221"/>
+      <c r="F223" s="221"/>
+      <c r="G223" s="127"/>
+      <c r="H223" s="132"/>
+      <c r="I223" s="100"/>
+      <c r="J223" s="94"/>
+    </row>
+    <row r="224" spans="1:14" s="4" customFormat="1" ht="12.75">
+      <c r="A224" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B225" s="206"/>
-      <c r="C225" s="206"/>
-      <c r="D225" s="206"/>
-      <c r="E225" s="206"/>
-      <c r="F225" s="206"/>
-      <c r="G225" s="206"/>
-      <c r="H225" s="206"/>
-      <c r="I225" s="206"/>
-      <c r="J225" s="207"/>
-    </row>
-    <row r="226" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="B224" s="223"/>
+      <c r="C224" s="223"/>
+      <c r="D224" s="223"/>
+      <c r="E224" s="223"/>
+      <c r="F224" s="223"/>
+      <c r="G224" s="223"/>
+      <c r="H224" s="223"/>
+      <c r="I224" s="223"/>
+      <c r="J224" s="224"/>
+    </row>
+    <row r="225" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A225" s="88"/>
+      <c r="B225" s="97"/>
+      <c r="C225" s="92"/>
+      <c r="D225" s="220"/>
+      <c r="E225" s="221"/>
+      <c r="F225" s="221"/>
+      <c r="G225" s="127"/>
+      <c r="H225" s="132"/>
+      <c r="I225" s="187"/>
+      <c r="J225" s="94"/>
+    </row>
+    <row r="226" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A226" s="88"/>
       <c r="B226" s="97"/>
       <c r="C226" s="92"/>
-      <c r="D226" s="208"/>
-      <c r="E226" s="209"/>
-      <c r="F226" s="209"/>
+      <c r="D226" s="220"/>
+      <c r="E226" s="221"/>
+      <c r="F226" s="221"/>
       <c r="G226" s="127"/>
       <c r="H226" s="132"/>
-      <c r="I226" s="187"/>
+      <c r="I226" s="100"/>
       <c r="J226" s="94"/>
     </row>
     <row r="227" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A227" s="88"/>
       <c r="B227" s="97"/>
       <c r="C227" s="92"/>
-      <c r="D227" s="208"/>
-      <c r="E227" s="209"/>
-      <c r="F227" s="209"/>
+      <c r="D227" s="220"/>
+      <c r="E227" s="221"/>
+      <c r="F227" s="221"/>
       <c r="G227" s="127"/>
       <c r="H227" s="132"/>
       <c r="I227" s="100"/>
       <c r="J227" s="94"/>
     </row>
-    <row r="228" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A228" s="88"/>
-      <c r="B228" s="97"/>
-      <c r="C228" s="92"/>
-      <c r="D228" s="208"/>
-      <c r="E228" s="209"/>
-      <c r="F228" s="209"/>
-      <c r="G228" s="127"/>
-      <c r="H228" s="132"/>
-      <c r="I228" s="100"/>
-      <c r="J228" s="94"/>
-    </row>
-    <row r="229" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A229" s="205" t="s">
+    <row r="228" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A228" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="B229" s="206"/>
-      <c r="C229" s="206"/>
-      <c r="D229" s="206"/>
-      <c r="E229" s="206"/>
-      <c r="F229" s="206"/>
-      <c r="G229" s="206"/>
-      <c r="H229" s="206"/>
-      <c r="I229" s="206"/>
-      <c r="J229" s="207"/>
-    </row>
-    <row r="230" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="B228" s="223"/>
+      <c r="C228" s="223"/>
+      <c r="D228" s="223"/>
+      <c r="E228" s="223"/>
+      <c r="F228" s="223"/>
+      <c r="G228" s="223"/>
+      <c r="H228" s="223"/>
+      <c r="I228" s="223"/>
+      <c r="J228" s="224"/>
+    </row>
+    <row r="229" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A229" s="88"/>
+      <c r="B229" s="97"/>
+      <c r="C229" s="92"/>
+      <c r="D229" s="220"/>
+      <c r="E229" s="221"/>
+      <c r="F229" s="221"/>
+      <c r="G229" s="127"/>
+      <c r="H229" s="132"/>
+      <c r="I229" s="100"/>
+      <c r="J229" s="94"/>
+    </row>
+    <row r="230" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
       <c r="A230" s="88"/>
       <c r="B230" s="97"/>
       <c r="C230" s="92"/>
-      <c r="D230" s="208"/>
-      <c r="E230" s="209"/>
-      <c r="F230" s="209"/>
+      <c r="D230" s="225"/>
+      <c r="E230" s="221"/>
+      <c r="F230" s="221"/>
       <c r="G230" s="127"/>
       <c r="H230" s="132"/>
       <c r="I230" s="100"/>
       <c r="J230" s="94"/>
     </row>
-    <row r="231" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A231" s="88"/>
-      <c r="B231" s="97"/>
-      <c r="C231" s="92"/>
-      <c r="D231" s="210"/>
-      <c r="E231" s="209"/>
-      <c r="F231" s="209"/>
-      <c r="G231" s="127"/>
-      <c r="H231" s="132"/>
-      <c r="I231" s="100"/>
-      <c r="J231" s="94"/>
-    </row>
-    <row r="232" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A232" s="205" t="s">
+    <row r="231" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A231" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B232" s="206"/>
-      <c r="C232" s="206"/>
-      <c r="D232" s="206"/>
-      <c r="E232" s="206"/>
-      <c r="F232" s="206"/>
-      <c r="G232" s="206"/>
-      <c r="H232" s="206"/>
-      <c r="I232" s="206"/>
-      <c r="J232" s="207"/>
-    </row>
-    <row r="233" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A233" s="205" t="s">
+      <c r="B231" s="223"/>
+      <c r="C231" s="223"/>
+      <c r="D231" s="223"/>
+      <c r="E231" s="223"/>
+      <c r="F231" s="223"/>
+      <c r="G231" s="223"/>
+      <c r="H231" s="223"/>
+      <c r="I231" s="223"/>
+      <c r="J231" s="224"/>
+    </row>
+    <row r="232" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A232" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="B233" s="206"/>
-      <c r="C233" s="206"/>
-      <c r="D233" s="206"/>
-      <c r="E233" s="206"/>
-      <c r="F233" s="206"/>
-      <c r="G233" s="206"/>
-      <c r="H233" s="206"/>
-      <c r="I233" s="206"/>
-      <c r="J233" s="207"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="223"/>
+      <c r="D232" s="223"/>
+      <c r="E232" s="223"/>
+      <c r="F232" s="223"/>
+      <c r="G232" s="223"/>
+      <c r="H232" s="223"/>
+      <c r="I232" s="223"/>
+      <c r="J232" s="224"/>
+    </row>
+    <row r="233" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A233" s="88"/>
+      <c r="B233" s="97"/>
+      <c r="C233" s="92"/>
+      <c r="D233" s="220"/>
+      <c r="E233" s="221"/>
+      <c r="F233" s="221"/>
+      <c r="G233" s="127"/>
+      <c r="H233" s="132"/>
+      <c r="I233" s="100"/>
+      <c r="J233" s="94"/>
     </row>
     <row r="234" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A234" s="88"/>
       <c r="B234" s="97"/>
       <c r="C234" s="92"/>
-      <c r="D234" s="208"/>
-      <c r="E234" s="209"/>
-      <c r="F234" s="209"/>
+      <c r="D234" s="220"/>
+      <c r="E234" s="221"/>
+      <c r="F234" s="221"/>
       <c r="G234" s="127"/>
       <c r="H234" s="132"/>
       <c r="I234" s="100"/>
       <c r="J234" s="94"/>
     </row>
-    <row r="235" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A235" s="88"/>
-      <c r="B235" s="97"/>
-      <c r="C235" s="92"/>
-      <c r="D235" s="208"/>
-      <c r="E235" s="209"/>
-      <c r="F235" s="209"/>
-      <c r="G235" s="127"/>
-      <c r="H235" s="132"/>
-      <c r="I235" s="100"/>
-      <c r="J235" s="94"/>
-    </row>
-    <row r="236" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A236" s="205" t="s">
+    <row r="235" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A235" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="B236" s="206"/>
-      <c r="C236" s="206"/>
-      <c r="D236" s="206"/>
-      <c r="E236" s="206"/>
-      <c r="F236" s="206"/>
-      <c r="G236" s="206"/>
-      <c r="H236" s="206"/>
-      <c r="I236" s="206"/>
-      <c r="J236" s="207"/>
+      <c r="B235" s="223"/>
+      <c r="C235" s="223"/>
+      <c r="D235" s="223"/>
+      <c r="E235" s="223"/>
+      <c r="F235" s="223"/>
+      <c r="G235" s="223"/>
+      <c r="H235" s="223"/>
+      <c r="I235" s="223"/>
+      <c r="J235" s="224"/>
+    </row>
+    <row r="236" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A236" s="88"/>
+      <c r="B236" s="97"/>
+      <c r="C236" s="92"/>
+      <c r="D236" s="220"/>
+      <c r="E236" s="221"/>
+      <c r="F236" s="221"/>
+      <c r="G236" s="127"/>
+      <c r="H236" s="132"/>
+      <c r="I236" s="100"/>
+      <c r="J236" s="94"/>
     </row>
     <row r="237" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A237" s="88"/>
       <c r="B237" s="97"/>
       <c r="C237" s="92"/>
-      <c r="D237" s="208"/>
-      <c r="E237" s="209"/>
-      <c r="F237" s="209"/>
+      <c r="D237" s="220"/>
+      <c r="E237" s="221"/>
+      <c r="F237" s="221"/>
       <c r="G237" s="127"/>
       <c r="H237" s="132"/>
       <c r="I237" s="100"/>
       <c r="J237" s="94"/>
     </row>
-    <row r="238" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A238" s="88"/>
-      <c r="B238" s="97"/>
-      <c r="C238" s="92"/>
-      <c r="D238" s="208"/>
-      <c r="E238" s="209"/>
-      <c r="F238" s="209"/>
-      <c r="G238" s="127"/>
-      <c r="H238" s="132"/>
-      <c r="I238" s="100"/>
-      <c r="J238" s="94"/>
-    </row>
-    <row r="239" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A239" s="205" t="s">
+    <row r="238" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A238" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="B239" s="206"/>
-      <c r="C239" s="206"/>
-      <c r="D239" s="206"/>
-      <c r="E239" s="206"/>
-      <c r="F239" s="206"/>
-      <c r="G239" s="206"/>
-      <c r="H239" s="206"/>
-      <c r="I239" s="206"/>
-      <c r="J239" s="207"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="223"/>
+      <c r="D238" s="223"/>
+      <c r="E238" s="223"/>
+      <c r="F238" s="223"/>
+      <c r="G238" s="223"/>
+      <c r="H238" s="223"/>
+      <c r="I238" s="223"/>
+      <c r="J238" s="224"/>
+    </row>
+    <row r="239" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A239" s="88"/>
+      <c r="B239" s="97"/>
+      <c r="C239" s="92"/>
+      <c r="D239" s="220"/>
+      <c r="E239" s="221"/>
+      <c r="F239" s="221"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="132"/>
+      <c r="I239" s="100"/>
+      <c r="J239" s="94"/>
     </row>
     <row r="240" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A240" s="88"/>
       <c r="B240" s="97"/>
       <c r="C240" s="92"/>
-      <c r="D240" s="208"/>
-      <c r="E240" s="209"/>
-      <c r="F240" s="209"/>
+      <c r="D240" s="220"/>
+      <c r="E240" s="221"/>
+      <c r="F240" s="221"/>
       <c r="G240" s="127"/>
       <c r="H240" s="132"/>
       <c r="I240" s="100"/>
       <c r="J240" s="94"/>
     </row>
-    <row r="241" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A241" s="88"/>
-      <c r="B241" s="97"/>
-      <c r="C241" s="92"/>
-      <c r="D241" s="208"/>
-      <c r="E241" s="209"/>
-      <c r="F241" s="209"/>
-      <c r="G241" s="127"/>
-      <c r="H241" s="132"/>
-      <c r="I241" s="100"/>
-      <c r="J241" s="94"/>
-    </row>
-    <row r="242" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A242" s="205" t="s">
+    <row r="241" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A241" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="B242" s="206"/>
-      <c r="C242" s="206"/>
-      <c r="D242" s="206"/>
-      <c r="E242" s="206"/>
-      <c r="F242" s="206"/>
-      <c r="G242" s="206"/>
-      <c r="H242" s="206"/>
-      <c r="I242" s="206"/>
-      <c r="J242" s="207"/>
+      <c r="B241" s="223"/>
+      <c r="C241" s="223"/>
+      <c r="D241" s="223"/>
+      <c r="E241" s="223"/>
+      <c r="F241" s="223"/>
+      <c r="G241" s="223"/>
+      <c r="H241" s="223"/>
+      <c r="I241" s="223"/>
+      <c r="J241" s="224"/>
+    </row>
+    <row r="242" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A242" s="88"/>
+      <c r="B242" s="97"/>
+      <c r="C242" s="92"/>
+      <c r="D242" s="220"/>
+      <c r="E242" s="221"/>
+      <c r="F242" s="221"/>
+      <c r="G242" s="127"/>
+      <c r="H242" s="132"/>
+      <c r="I242" s="100"/>
+      <c r="J242" s="94"/>
     </row>
     <row r="243" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A243" s="88"/>
       <c r="B243" s="97"/>
       <c r="C243" s="92"/>
-      <c r="D243" s="208"/>
-      <c r="E243" s="209"/>
-      <c r="F243" s="209"/>
+      <c r="D243" s="220"/>
+      <c r="E243" s="221"/>
+      <c r="F243" s="221"/>
       <c r="G243" s="127"/>
       <c r="H243" s="132"/>
       <c r="I243" s="100"/>
       <c r="J243" s="94"/>
     </row>
-    <row r="244" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A244" s="88"/>
-      <c r="B244" s="97"/>
-      <c r="C244" s="92"/>
-      <c r="D244" s="208"/>
-      <c r="E244" s="209"/>
-      <c r="F244" s="209"/>
-      <c r="G244" s="127"/>
-      <c r="H244" s="132"/>
-      <c r="I244" s="100"/>
-      <c r="J244" s="94"/>
-    </row>
-    <row r="245" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A245" s="205" t="s">
+    <row r="244" spans="1:10" s="4" customFormat="1" ht="12.75">
+      <c r="A244" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="B245" s="206"/>
-      <c r="C245" s="206"/>
-      <c r="D245" s="206"/>
-      <c r="E245" s="206"/>
-      <c r="F245" s="206"/>
-      <c r="G245" s="206"/>
-      <c r="H245" s="206"/>
-      <c r="I245" s="206"/>
-      <c r="J245" s="207"/>
+      <c r="B244" s="223"/>
+      <c r="C244" s="223"/>
+      <c r="D244" s="223"/>
+      <c r="E244" s="223"/>
+      <c r="F244" s="223"/>
+      <c r="G244" s="223"/>
+      <c r="H244" s="223"/>
+      <c r="I244" s="223"/>
+      <c r="J244" s="224"/>
+    </row>
+    <row r="245" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A245" s="88"/>
+      <c r="B245" s="97"/>
+      <c r="C245" s="92"/>
+      <c r="D245" s="220"/>
+      <c r="E245" s="221"/>
+      <c r="F245" s="221"/>
+      <c r="G245" s="127"/>
+      <c r="H245" s="132"/>
+      <c r="I245" s="100"/>
+      <c r="J245" s="94"/>
     </row>
     <row r="246" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A246" s="88"/>
       <c r="B246" s="97"/>
       <c r="C246" s="92"/>
-      <c r="D246" s="208"/>
-      <c r="E246" s="209"/>
-      <c r="F246" s="209"/>
+      <c r="D246" s="220"/>
+      <c r="E246" s="221"/>
+      <c r="F246" s="221"/>
       <c r="G246" s="127"/>
       <c r="H246" s="132"/>
       <c r="I246" s="100"/>
       <c r="J246" s="94"/>
     </row>
-    <row r="247" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A247" s="88"/>
-      <c r="B247" s="97"/>
-      <c r="C247" s="92"/>
-      <c r="D247" s="208"/>
-      <c r="E247" s="209"/>
-      <c r="F247" s="209"/>
-      <c r="G247" s="127"/>
-      <c r="H247" s="132"/>
-      <c r="I247" s="100"/>
-      <c r="J247" s="94"/>
-    </row>
+    <row r="247" spans="1:10" ht="12" customHeight="1"/>
     <row r="248" spans="1:10" ht="12" customHeight="1"/>
     <row r="249" spans="1:10" ht="12" customHeight="1"/>
     <row r="250" spans="1:10" ht="12" customHeight="1"/>
@@ -12393,22 +12399,32 @@
     <row r="282" ht="12" customHeight="1"/>
     <row r="283" ht="12" customHeight="1"/>
     <row r="284" ht="12" customHeight="1"/>
-    <row r="285" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
+  <mergeCells count="253">
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D204:F204"/>
     <mergeCell ref="D205:F205"/>
     <mergeCell ref="D206:F206"/>
     <mergeCell ref="D207:F207"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="D209:F209"/>
     <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D203:F203"/>
     <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
     <mergeCell ref="D102:F102"/>
     <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D148:F148"/>
     <mergeCell ref="D105:F105"/>
     <mergeCell ref="D106:F106"/>
     <mergeCell ref="D107:F107"/>
@@ -12421,34 +12437,21 @@
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="D115:F115"/>
     <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D195:F195"/>
     <mergeCell ref="D196:F196"/>
     <mergeCell ref="D197:F197"/>
     <mergeCell ref="D198:F198"/>
     <mergeCell ref="D199:F199"/>
     <mergeCell ref="D200:F200"/>
     <mergeCell ref="D201:F201"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="D204:F204"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D146:F146"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="D69:F69"/>
     <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D117:F117"/>
     <mergeCell ref="D118:F118"/>
     <mergeCell ref="D119:F119"/>
     <mergeCell ref="D120:F120"/>
@@ -12463,7 +12466,9 @@
     <mergeCell ref="D129:F129"/>
     <mergeCell ref="D130:F130"/>
     <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="A24:J24"/>
@@ -12512,16 +12517,17 @@
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D220:F220"/>
     <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D152:F152"/>
     <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="D215:F215"/>
     <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D161:F161"/>
     <mergeCell ref="D162:F162"/>
     <mergeCell ref="D163:F163"/>
     <mergeCell ref="D164:F164"/>
@@ -12535,12 +12541,19 @@
     <mergeCell ref="D172:F172"/>
     <mergeCell ref="D173:F173"/>
     <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="A215:J215"/>
-    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
     <mergeCell ref="D79:F79"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="D84:F84"/>
@@ -12550,16 +12563,6 @@
     <mergeCell ref="D86:F86"/>
     <mergeCell ref="D87:F87"/>
     <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="A150:J150"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -12579,6 +12582,14 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A238:J238"/>
+    <mergeCell ref="A231:J231"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="A222:J222"/>
+    <mergeCell ref="A224:J224"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D227:F227"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
@@ -12590,34 +12601,42 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="A244:J244"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="A241:J241"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="A232:J232"/>
+    <mergeCell ref="A235:J235"/>
     <mergeCell ref="D221:F221"/>
-    <mergeCell ref="A229:J229"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="A239:J239"/>
-    <mergeCell ref="A232:J232"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="A223:J223"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="A245:J245"/>
-    <mergeCell ref="D246:F246"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="A242:J242"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="A233:J233"/>
-    <mergeCell ref="A236:J236"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
     <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D153:F153"/>
     <mergeCell ref="D154:F154"/>
     <mergeCell ref="D155:F155"/>
     <mergeCell ref="D156:F156"/>
@@ -12625,8 +12644,8 @@
     <mergeCell ref="D158:F158"/>
     <mergeCell ref="D159:F159"/>
     <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
     <mergeCell ref="A98:J98"/>
+    <mergeCell ref="D132:F132"/>
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="D135:F135"/>
@@ -12635,21 +12654,6 @@
     <mergeCell ref="D138:F138"/>
     <mergeCell ref="D139:F139"/>
     <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12762,11 +12766,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -12774,7 +12778,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -12794,11 +12798,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -12806,7 +12810,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -12827,7 +12831,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>73.604060913705581</v>
+        <v>73.979591836734699</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>25</v>
@@ -12843,7 +12847,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>42.639593908629443</v>
+        <v>43.877551020408163</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>25</v>

--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kiemthutest\newupdate_thu7\CuaHangDoChoi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-90" windowWidth="12120" windowHeight="9000" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="360" windowWidth="12120" windowHeight="9000" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -24,12 +29,12 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="405">
   <si>
     <t>31/07/2007</t>
   </si>
@@ -2322,11 +2327,20 @@
 3: Click button "Cập nhật"
 </t>
   </si>
+  <si>
+    <t>Đã sửa</t>
+  </si>
+  <si>
+    <t>nên xóa</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3623,198 +3637,6 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3831,12 +3653,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="24" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3848,6 +3664,204 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3861,6 +3875,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6203,7 +6220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6238,7 +6255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6521,11 +6538,11 @@
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="209"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -6534,11 +6551,11 @@
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="209"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -6751,8 +6768,8 @@
   </sheetPr>
   <dimension ref="A1:N284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:F105"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -6771,9 +6788,9 @@
       <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -6784,9 +6801,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6799,51 +6816,51 @@
       <c r="A3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="264" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="266"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="231"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="260"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="232"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -6864,9 +6881,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -6887,16 +6904,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="228"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -6906,70 +6923,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="242" t="s">
+      <c r="C9" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="245" t="s">
+      <c r="D9" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="238" t="s">
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="234" t="s">
+      <c r="I9" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="234" t="s">
+      <c r="J9" s="263" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="234"/>
-      <c r="B10" s="244"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
+      <c r="A10" s="263"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="279"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="263"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="240"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
+      <c r="A11" s="269"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="270"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="235" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="252"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -6981,11 +6998,11 @@
       <c r="C13" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="220" t="s">
+      <c r="D13" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
       <c r="G13" s="86"/>
       <c r="H13" s="118">
         <v>43774</v>
@@ -7005,11 +7022,11 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="220" t="s">
+      <c r="D14" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
       <c r="G14" s="86"/>
       <c r="H14" s="118">
         <v>43774</v>
@@ -7029,11 +7046,11 @@
       <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
       <c r="G15" s="86"/>
       <c r="H15" s="118">
         <v>43774</v>
@@ -7053,11 +7070,11 @@
       <c r="C16" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="220" t="s">
+      <c r="D16" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
       <c r="G16" s="86"/>
       <c r="H16" s="118">
         <v>43774</v>
@@ -7077,11 +7094,11 @@
       <c r="C17" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="220" t="s">
+      <c r="D17" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
       <c r="G17" s="86"/>
       <c r="H17" s="118">
         <v>43774</v>
@@ -7101,11 +7118,11 @@
       <c r="C18" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
       <c r="G18" s="86"/>
       <c r="H18" s="118">
         <v>43774</v>
@@ -7125,11 +7142,11 @@
       <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
       <c r="G19" s="86"/>
       <c r="H19" s="118">
         <v>43774</v>
@@ -7149,11 +7166,11 @@
       <c r="C20" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="220" t="s">
+      <c r="D20" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
       <c r="G20" s="86"/>
       <c r="H20" s="118">
         <v>43774</v>
@@ -7173,11 +7190,11 @@
       <c r="C21" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="220" t="s">
+      <c r="D21" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="229"/>
       <c r="G21" s="86"/>
       <c r="H21" s="118">
         <v>43774</v>
@@ -7197,11 +7214,11 @@
       <c r="C22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
       <c r="G22" s="86"/>
       <c r="H22" s="118">
         <v>43774</v>
@@ -7221,11 +7238,11 @@
       <c r="C23" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
       <c r="G23" s="86"/>
       <c r="H23" s="118">
         <v>43774</v>
@@ -7236,23 +7253,23 @@
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="265"/>
-      <c r="B24" s="266"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="266"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="267"/>
+      <c r="A24" s="239"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="241"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
       <c r="F25" s="112"/>
@@ -7262,18 +7279,18 @@
       <c r="J25" s="113"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="219"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="245"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="245"/>
+      <c r="J26" s="246"/>
     </row>
     <row r="27" spans="1:10" s="147" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="142" t="s">
@@ -7285,11 +7302,11 @@
       <c r="C27" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="215" t="s">
+      <c r="D27" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
       <c r="G27" s="145"/>
       <c r="H27" s="148">
         <v>43774</v>
@@ -7309,11 +7326,11 @@
       <c r="C28" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="215" t="s">
+      <c r="D28" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
       <c r="G28" s="145"/>
       <c r="H28" s="148">
         <v>43774</v>
@@ -7333,11 +7350,11 @@
       <c r="C29" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
       <c r="G29" s="145"/>
       <c r="H29" s="148">
         <v>43774</v>
@@ -7357,11 +7374,11 @@
       <c r="C30" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="215" t="s">
+      <c r="D30" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
       <c r="G30" s="145"/>
       <c r="H30" s="148">
         <v>43774</v>
@@ -7381,11 +7398,11 @@
       <c r="C31" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="215" t="s">
+      <c r="D31" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
       <c r="G31" s="145"/>
       <c r="H31" s="148">
         <v>43774</v>
@@ -7405,11 +7422,11 @@
       <c r="C32" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="215" t="s">
+      <c r="D32" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
       <c r="G32" s="145"/>
       <c r="H32" s="148">
         <v>43774</v>
@@ -7429,11 +7446,11 @@
       <c r="C33" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="215" t="s">
+      <c r="D33" s="237" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="238"/>
       <c r="G33" s="145"/>
       <c r="H33" s="148">
         <v>43774</v>
@@ -7453,11 +7470,11 @@
       <c r="C34" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="215" t="s">
+      <c r="D34" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="238"/>
       <c r="G34" s="145"/>
       <c r="H34" s="148">
         <v>43774</v>
@@ -7477,11 +7494,11 @@
       <c r="C35" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="215" t="s">
+      <c r="D35" s="237" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="238"/>
       <c r="G35" s="145"/>
       <c r="H35" s="148">
         <v>43774</v>
@@ -7501,11 +7518,11 @@
       <c r="C36" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="215" t="s">
+      <c r="D36" s="237" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="238"/>
       <c r="G36" s="145"/>
       <c r="H36" s="148">
         <v>43774</v>
@@ -7525,11 +7542,11 @@
       <c r="C37" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="215" t="s">
+      <c r="D37" s="237" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
+      <c r="E37" s="238"/>
+      <c r="F37" s="238"/>
       <c r="G37" s="145"/>
       <c r="H37" s="148">
         <v>43774</v>
@@ -7549,11 +7566,11 @@
       <c r="C38" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="215" t="s">
+      <c r="D38" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
+      <c r="E38" s="238"/>
+      <c r="F38" s="238"/>
       <c r="G38" s="145"/>
       <c r="H38" s="148">
         <v>43774</v>
@@ -7573,11 +7590,11 @@
       <c r="C39" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="215" t="s">
+      <c r="D39" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="238"/>
       <c r="G39" s="159"/>
       <c r="H39" s="148">
         <v>43774</v>
@@ -7597,11 +7614,11 @@
       <c r="C40" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="215" t="s">
+      <c r="D40" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="238"/>
       <c r="G40" s="159"/>
       <c r="H40" s="148">
         <v>43774</v>
@@ -7621,11 +7638,11 @@
       <c r="C41" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="215" t="s">
+      <c r="D41" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="216"/>
-      <c r="F41" s="216"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="238"/>
       <c r="G41" s="145"/>
       <c r="H41" s="148">
         <v>43774</v>
@@ -7645,11 +7662,11 @@
       <c r="C42" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="215" t="s">
+      <c r="D42" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="238"/>
       <c r="G42" s="159"/>
       <c r="H42" s="148">
         <v>43774</v>
@@ -7669,11 +7686,11 @@
       <c r="C43" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="215" t="s">
+      <c r="D43" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="238"/>
       <c r="G43" s="145"/>
       <c r="H43" s="148">
         <v>43774</v>
@@ -7693,11 +7710,11 @@
       <c r="C44" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="215" t="s">
+      <c r="D44" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="238"/>
       <c r="G44" s="145"/>
       <c r="H44" s="148">
         <v>43774</v>
@@ -7717,11 +7734,11 @@
       <c r="C45" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="215" t="s">
+      <c r="D45" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="238"/>
       <c r="G45" s="145"/>
       <c r="H45" s="148">
         <v>43774</v>
@@ -7741,11 +7758,11 @@
       <c r="C46" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="215" t="s">
+      <c r="D46" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="238"/>
       <c r="G46" s="145"/>
       <c r="H46" s="148">
         <v>43774</v>
@@ -7765,11 +7782,11 @@
       <c r="C47" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="215" t="s">
+      <c r="D47" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="238"/>
       <c r="G47" s="145"/>
       <c r="H47" s="148">
         <v>43774</v>
@@ -7789,11 +7806,11 @@
       <c r="C48" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="215" t="s">
+      <c r="D48" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="238"/>
       <c r="G48" s="145"/>
       <c r="H48" s="148">
         <v>43774</v>
@@ -7813,11 +7830,11 @@
       <c r="C49" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="215" t="s">
+      <c r="D49" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="216"/>
-      <c r="F49" s="216"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="238"/>
       <c r="G49" s="145"/>
       <c r="H49" s="148">
         <v>43774</v>
@@ -7837,11 +7854,11 @@
       <c r="C50" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="215" t="s">
+      <c r="D50" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="238"/>
       <c r="G50" s="145"/>
       <c r="H50" s="148">
         <v>43774</v>
@@ -7861,11 +7878,11 @@
       <c r="C51" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="215" t="s">
+      <c r="D51" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="216"/>
-      <c r="F51" s="216"/>
+      <c r="E51" s="238"/>
+      <c r="F51" s="238"/>
       <c r="G51" s="145"/>
       <c r="H51" s="148">
         <v>43774</v>
@@ -7887,11 +7904,11 @@
       <c r="C52" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="215" t="s">
+      <c r="D52" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="216"/>
-      <c r="F52" s="216"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
       <c r="G52" s="145"/>
       <c r="H52" s="148">
         <v>43774</v>
@@ -7911,11 +7928,11 @@
       <c r="C53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="252" t="s">
+      <c r="D53" s="242" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="253"/>
-      <c r="F53" s="253"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="243"/>
       <c r="G53" s="165"/>
       <c r="H53" s="166">
         <v>43774</v>
@@ -7935,11 +7952,11 @@
       <c r="C54" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="215" t="s">
+      <c r="D54" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="216"/>
-      <c r="F54" s="216"/>
+      <c r="E54" s="238"/>
+      <c r="F54" s="238"/>
       <c r="G54" s="145"/>
       <c r="H54" s="148">
         <v>43774</v>
@@ -7959,11 +7976,11 @@
       <c r="C55" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="215" t="s">
+      <c r="D55" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="216"/>
-      <c r="F55" s="216"/>
+      <c r="E55" s="238"/>
+      <c r="F55" s="238"/>
       <c r="G55" s="145"/>
       <c r="H55" s="148">
         <v>43774</v>
@@ -7985,11 +8002,11 @@
       <c r="C56" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="215" t="s">
+      <c r="D56" s="237" t="s">
         <v>255</v>
       </c>
-      <c r="E56" s="216"/>
-      <c r="F56" s="216"/>
+      <c r="E56" s="238"/>
+      <c r="F56" s="238"/>
       <c r="G56" s="145"/>
       <c r="H56" s="148">
         <v>43774</v>
@@ -8009,11 +8026,11 @@
       <c r="C57" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="215" t="s">
+      <c r="D57" s="237" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="216"/>
-      <c r="F57" s="216"/>
+      <c r="E57" s="238"/>
+      <c r="F57" s="238"/>
       <c r="G57" s="145"/>
       <c r="H57" s="148">
         <v>43774</v>
@@ -8033,11 +8050,11 @@
       <c r="C58" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="215" t="s">
+      <c r="D58" s="237" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="216"/>
-      <c r="F58" s="216"/>
+      <c r="E58" s="238"/>
+      <c r="F58" s="238"/>
       <c r="G58" s="145"/>
       <c r="H58" s="148">
         <v>43774</v>
@@ -8057,11 +8074,11 @@
       <c r="C59" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="215" t="s">
+      <c r="D59" s="237" t="s">
         <v>255</v>
       </c>
-      <c r="E59" s="216"/>
-      <c r="F59" s="216"/>
+      <c r="E59" s="238"/>
+      <c r="F59" s="238"/>
       <c r="G59" s="145"/>
       <c r="H59" s="148">
         <v>43774</v>
@@ -8081,11 +8098,11 @@
       <c r="C60" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="215" t="s">
+      <c r="D60" s="237" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
+      <c r="E60" s="238"/>
+      <c r="F60" s="238"/>
       <c r="G60" s="158"/>
       <c r="H60" s="148">
         <v>43774</v>
@@ -8105,11 +8122,11 @@
       <c r="C61" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="252" t="s">
+      <c r="D61" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="253"/>
-      <c r="F61" s="253"/>
+      <c r="E61" s="243"/>
+      <c r="F61" s="243"/>
       <c r="G61" s="165"/>
       <c r="H61" s="166">
         <v>43774</v>
@@ -8129,11 +8146,11 @@
       <c r="C62" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="252" t="s">
+      <c r="D62" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
+      <c r="E62" s="243"/>
+      <c r="F62" s="243"/>
       <c r="G62" s="165"/>
       <c r="H62" s="166">
         <v>43774</v>
@@ -8153,11 +8170,11 @@
       <c r="C63" s="144" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="215" t="s">
+      <c r="D63" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
+      <c r="E63" s="238"/>
+      <c r="F63" s="238"/>
       <c r="G63" s="145"/>
       <c r="H63" s="148">
         <v>43774</v>
@@ -8177,11 +8194,11 @@
       <c r="C64" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="215" t="s">
+      <c r="D64" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
       <c r="G64" s="158"/>
       <c r="H64" s="148">
         <v>43774</v>
@@ -8201,11 +8218,11 @@
       <c r="C65" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="263" t="s">
+      <c r="D65" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="264"/>
-      <c r="F65" s="264"/>
+      <c r="E65" s="232"/>
+      <c r="F65" s="232"/>
       <c r="G65" s="152"/>
       <c r="H65" s="148">
         <v>43774</v>
@@ -8225,11 +8242,11 @@
       <c r="C66" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="263" t="s">
+      <c r="D66" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="264"/>
-      <c r="F66" s="264"/>
+      <c r="E66" s="232"/>
+      <c r="F66" s="232"/>
       <c r="G66" s="152"/>
       <c r="H66" s="148">
         <v>43774</v>
@@ -8249,11 +8266,11 @@
       <c r="C67" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="268" t="s">
+      <c r="D67" s="233" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="269"/>
-      <c r="F67" s="269"/>
+      <c r="E67" s="234"/>
+      <c r="F67" s="234"/>
       <c r="G67" s="170"/>
       <c r="H67" s="166">
         <v>43774</v>
@@ -8273,11 +8290,11 @@
       <c r="C68" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="263" t="s">
+      <c r="D68" s="231" t="s">
         <v>258</v>
       </c>
-      <c r="E68" s="264"/>
-      <c r="F68" s="264"/>
+      <c r="E68" s="232"/>
+      <c r="F68" s="232"/>
       <c r="G68" s="152"/>
       <c r="H68" s="148">
         <v>43774</v>
@@ -8297,11 +8314,11 @@
       <c r="C69" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="263" t="s">
+      <c r="D69" s="231" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="264"/>
-      <c r="F69" s="264"/>
+      <c r="E69" s="232"/>
+      <c r="F69" s="232"/>
       <c r="G69" s="152"/>
       <c r="H69" s="148">
         <v>43774</v>
@@ -8321,11 +8338,11 @@
       <c r="C70" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="215" t="s">
+      <c r="D70" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="216"/>
-      <c r="F70" s="216"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="238"/>
       <c r="G70" s="145"/>
       <c r="H70" s="148">
         <v>43774</v>
@@ -8345,11 +8362,11 @@
       <c r="C71" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="215" t="s">
+      <c r="D71" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="216"/>
-      <c r="F71" s="216"/>
+      <c r="E71" s="238"/>
+      <c r="F71" s="238"/>
       <c r="G71" s="145"/>
       <c r="H71" s="148">
         <v>43774</v>
@@ -8369,11 +8386,11 @@
       <c r="C72" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="220" t="s">
+      <c r="D72" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="221"/>
-      <c r="F72" s="221"/>
+      <c r="E72" s="229"/>
+      <c r="F72" s="229"/>
       <c r="G72" s="86"/>
       <c r="H72" s="119">
         <v>43774</v>
@@ -8393,11 +8410,11 @@
       <c r="C73" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="220" t="s">
+      <c r="D73" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="221"/>
-      <c r="F73" s="221"/>
+      <c r="E73" s="229"/>
+      <c r="F73" s="229"/>
       <c r="G73" s="86"/>
       <c r="H73" s="118">
         <v>43774</v>
@@ -8417,11 +8434,11 @@
       <c r="C74" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="220" t="s">
+      <c r="D74" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="221"/>
-      <c r="F74" s="221"/>
+      <c r="E74" s="229"/>
+      <c r="F74" s="229"/>
       <c r="G74" s="86"/>
       <c r="H74" s="118">
         <v>43774</v>
@@ -8441,11 +8458,11 @@
       <c r="C75" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="220" t="s">
+      <c r="D75" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="221"/>
-      <c r="F75" s="251"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="230"/>
       <c r="G75" s="87"/>
       <c r="H75" s="118">
         <v>43774</v>
@@ -8465,11 +8482,11 @@
       <c r="C76" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="220" t="s">
+      <c r="D76" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="221"/>
-      <c r="F76" s="251"/>
+      <c r="E76" s="229"/>
+      <c r="F76" s="230"/>
       <c r="G76" s="120"/>
       <c r="H76" s="118">
         <v>43774</v>
@@ -8489,11 +8506,11 @@
       <c r="C77" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="220" t="s">
+      <c r="D77" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="221"/>
-      <c r="F77" s="251"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="230"/>
       <c r="G77" s="120"/>
       <c r="H77" s="118">
         <v>43774</v>
@@ -8513,11 +8530,11 @@
       <c r="C78" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="220" t="s">
+      <c r="D78" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="221"/>
-      <c r="F78" s="251"/>
+      <c r="E78" s="229"/>
+      <c r="F78" s="230"/>
       <c r="G78" s="120"/>
       <c r="H78" s="118">
         <v>43774</v>
@@ -8537,11 +8554,11 @@
       <c r="C79" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="220" t="s">
+      <c r="D79" s="228" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="221"/>
-      <c r="F79" s="251"/>
+      <c r="E79" s="229"/>
+      <c r="F79" s="230"/>
       <c r="G79" s="120"/>
       <c r="H79" s="118">
         <v>43774</v>
@@ -8561,11 +8578,11 @@
       <c r="C80" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="220" t="s">
+      <c r="D80" s="228" t="s">
         <v>222</v>
       </c>
-      <c r="E80" s="221"/>
-      <c r="F80" s="251"/>
+      <c r="E80" s="229"/>
+      <c r="F80" s="230"/>
       <c r="G80" s="87"/>
       <c r="H80" s="118">
         <v>43774</v>
@@ -8585,10 +8602,10 @@
       <c r="C81" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="252" t="s">
+      <c r="D81" s="242" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="253"/>
+      <c r="E81" s="243"/>
       <c r="F81" s="254"/>
       <c r="G81" s="110"/>
       <c r="H81" s="172">
@@ -8609,10 +8626,10 @@
       <c r="C82" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="252" t="s">
+      <c r="D82" s="242" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="253"/>
+      <c r="E82" s="243"/>
       <c r="F82" s="254"/>
       <c r="G82" s="110"/>
       <c r="H82" s="172">
@@ -8633,11 +8650,11 @@
       <c r="C83" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="215" t="s">
+      <c r="D83" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="216"/>
-      <c r="F83" s="255"/>
+      <c r="E83" s="238"/>
+      <c r="F83" s="253"/>
       <c r="G83" s="111"/>
       <c r="H83" s="157">
         <v>43774</v>
@@ -8657,11 +8674,11 @@
       <c r="C84" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="215" t="s">
+      <c r="D84" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="216"/>
-      <c r="F84" s="255"/>
+      <c r="E84" s="238"/>
+      <c r="F84" s="253"/>
       <c r="G84" s="111"/>
       <c r="H84" s="157">
         <v>43774</v>
@@ -8681,11 +8698,11 @@
       <c r="C85" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D85" s="220" t="s">
+      <c r="D85" s="228" t="s">
         <v>232</v>
       </c>
-      <c r="E85" s="221"/>
-      <c r="F85" s="251"/>
+      <c r="E85" s="229"/>
+      <c r="F85" s="230"/>
       <c r="G85" s="120"/>
       <c r="H85" s="119">
         <v>43774</v>
@@ -8705,10 +8722,10 @@
       <c r="C86" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="252" t="s">
+      <c r="D86" s="242" t="s">
         <v>239</v>
       </c>
-      <c r="E86" s="253"/>
+      <c r="E86" s="243"/>
       <c r="F86" s="254"/>
       <c r="G86" s="110"/>
       <c r="H86" s="172">
@@ -8731,10 +8748,10 @@
       <c r="C87" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="252" t="s">
+      <c r="D87" s="242" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="253"/>
+      <c r="E87" s="243"/>
       <c r="F87" s="254"/>
       <c r="G87" s="110"/>
       <c r="H87" s="172">
@@ -8755,11 +8772,11 @@
       <c r="C88" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="D88" s="215" t="s">
+      <c r="D88" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="216"/>
-      <c r="F88" s="255"/>
+      <c r="E88" s="238"/>
+      <c r="F88" s="253"/>
       <c r="G88" s="111"/>
       <c r="H88" s="157">
         <v>43774</v>
@@ -8779,11 +8796,11 @@
       <c r="C89" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="215" t="s">
+      <c r="D89" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="E89" s="216"/>
-      <c r="F89" s="255"/>
+      <c r="E89" s="238"/>
+      <c r="F89" s="253"/>
       <c r="G89" s="111"/>
       <c r="H89" s="157">
         <v>43774</v>
@@ -8803,11 +8820,11 @@
       <c r="C90" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="220" t="s">
+      <c r="D90" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E90" s="221"/>
-      <c r="F90" s="251"/>
+      <c r="E90" s="229"/>
+      <c r="F90" s="230"/>
       <c r="G90" s="120"/>
       <c r="H90" s="119">
         <v>43774</v>
@@ -8827,11 +8844,11 @@
       <c r="C91" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="220" t="s">
+      <c r="D91" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E91" s="221"/>
-      <c r="F91" s="251"/>
+      <c r="E91" s="229"/>
+      <c r="F91" s="230"/>
       <c r="G91" s="120"/>
       <c r="H91" s="119">
         <v>43774</v>
@@ -8851,11 +8868,11 @@
       <c r="C92" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="220" t="s">
+      <c r="D92" s="228" t="s">
         <v>239</v>
       </c>
-      <c r="E92" s="221"/>
-      <c r="F92" s="251"/>
+      <c r="E92" s="229"/>
+      <c r="F92" s="230"/>
       <c r="G92" s="120"/>
       <c r="H92" s="119">
         <v>43774</v>
@@ -8875,11 +8892,11 @@
       <c r="C93" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="220" t="s">
+      <c r="D93" s="228" t="s">
         <v>239</v>
       </c>
-      <c r="E93" s="221"/>
-      <c r="F93" s="251"/>
+      <c r="E93" s="229"/>
+      <c r="F93" s="230"/>
       <c r="G93" s="120"/>
       <c r="H93" s="119">
         <v>43774</v>
@@ -8899,13 +8916,13 @@
       <c r="C94" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="215" t="s">
+      <c r="D94" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="E94" s="216"/>
-      <c r="F94" s="255"/>
+      <c r="E94" s="238"/>
+      <c r="F94" s="253"/>
       <c r="G94" s="111"/>
-      <c r="H94" s="272">
+      <c r="H94" s="208">
         <v>43774</v>
       </c>
       <c r="I94" s="111" t="s">
@@ -8923,10 +8940,10 @@
       <c r="C95" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="252" t="s">
+      <c r="D95" s="242" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="253"/>
+      <c r="E95" s="243"/>
       <c r="F95" s="254"/>
       <c r="G95" s="110"/>
       <c r="H95" s="172">
@@ -8947,10 +8964,10 @@
       <c r="C96" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="D96" s="252" t="s">
+      <c r="D96" s="242" t="s">
         <v>238</v>
       </c>
-      <c r="E96" s="253"/>
+      <c r="E96" s="243"/>
       <c r="F96" s="254"/>
       <c r="G96" s="110"/>
       <c r="H96" s="172">
@@ -8971,11 +8988,11 @@
       <c r="C97" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="D97" s="212" t="s">
+      <c r="D97" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="213"/>
-      <c r="F97" s="214"/>
+      <c r="E97" s="282"/>
+      <c r="F97" s="283"/>
       <c r="G97" s="116"/>
       <c r="H97" s="156">
         <v>43774</v>
@@ -8988,18 +9005,18 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A98" s="217" t="s">
+      <c r="A98" s="244" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="218"/>
-      <c r="C98" s="218"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="218"/>
-      <c r="F98" s="218"/>
-      <c r="G98" s="218"/>
-      <c r="H98" s="218"/>
-      <c r="I98" s="218"/>
-      <c r="J98" s="219"/>
+      <c r="B98" s="245"/>
+      <c r="C98" s="245"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="245"/>
+      <c r="F98" s="245"/>
+      <c r="G98" s="245"/>
+      <c r="H98" s="245"/>
+      <c r="I98" s="245"/>
+      <c r="J98" s="246"/>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" ht="48" customHeight="1" outlineLevel="1">
       <c r="A99" s="88" t="s">
@@ -9011,11 +9028,11 @@
       <c r="C99" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="220" t="s">
+      <c r="D99" s="228" t="s">
         <v>344</v>
       </c>
-      <c r="E99" s="221"/>
-      <c r="F99" s="221"/>
+      <c r="E99" s="229"/>
+      <c r="F99" s="229"/>
       <c r="G99" s="86"/>
       <c r="H99" s="118">
         <v>43774</v>
@@ -9033,11 +9050,11 @@
       <c r="C100" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="D100" s="220" t="s">
+      <c r="D100" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="E100" s="221"/>
-      <c r="F100" s="221"/>
+      <c r="E100" s="229"/>
+      <c r="F100" s="229"/>
       <c r="G100" s="86"/>
       <c r="H100" s="118">
         <v>43774</v>
@@ -9055,11 +9072,11 @@
       <c r="C101" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="D101" s="220" t="s">
+      <c r="D101" s="228" t="s">
         <v>346</v>
       </c>
-      <c r="E101" s="221"/>
-      <c r="F101" s="221"/>
+      <c r="E101" s="229"/>
+      <c r="F101" s="229"/>
       <c r="G101" s="86"/>
       <c r="H101" s="119">
         <v>43774</v>
@@ -9077,11 +9094,11 @@
       <c r="C102" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="D102" s="220" t="s">
+      <c r="D102" s="228" t="s">
         <v>348</v>
       </c>
-      <c r="E102" s="221"/>
-      <c r="F102" s="221"/>
+      <c r="E102" s="229"/>
+      <c r="F102" s="229"/>
       <c r="G102" s="160"/>
       <c r="H102" s="118">
         <v>43774</v>
@@ -9099,11 +9116,11 @@
       <c r="C103" s="103" t="s">
         <v>350</v>
       </c>
-      <c r="D103" s="220" t="s">
+      <c r="D103" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="221"/>
-      <c r="F103" s="221"/>
+      <c r="E103" s="229"/>
+      <c r="F103" s="229"/>
       <c r="G103" s="160"/>
       <c r="H103" s="118">
         <v>43774</v>
@@ -9121,11 +9138,11 @@
       <c r="C104" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="D104" s="220" t="s">
+      <c r="D104" s="228" t="s">
         <v>344</v>
       </c>
-      <c r="E104" s="221"/>
-      <c r="F104" s="221"/>
+      <c r="E104" s="229"/>
+      <c r="F104" s="229"/>
       <c r="G104" s="86"/>
       <c r="H104" s="118">
         <v>43774</v>
@@ -9143,11 +9160,11 @@
       <c r="C105" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="D105" s="220" t="s">
+      <c r="D105" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="E105" s="221"/>
-      <c r="F105" s="221"/>
+      <c r="E105" s="229"/>
+      <c r="F105" s="229"/>
       <c r="G105" s="160"/>
       <c r="H105" s="118" t="s">
         <v>354</v>
@@ -9165,11 +9182,11 @@
       <c r="C106" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="D106" s="220" t="s">
+      <c r="D106" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="221"/>
-      <c r="F106" s="221"/>
+      <c r="E106" s="229"/>
+      <c r="F106" s="229"/>
       <c r="G106" s="160"/>
       <c r="H106" s="118">
         <v>43774</v>
@@ -9187,11 +9204,11 @@
       <c r="C107" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="D107" s="220" t="s">
+      <c r="D107" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E107" s="221"/>
-      <c r="F107" s="221"/>
+      <c r="E107" s="229"/>
+      <c r="F107" s="229"/>
       <c r="G107" s="160"/>
       <c r="H107" s="118">
         <v>43774</v>
@@ -9209,11 +9226,11 @@
       <c r="C108" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="D108" s="220" t="s">
+      <c r="D108" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="221"/>
-      <c r="F108" s="221"/>
+      <c r="E108" s="229"/>
+      <c r="F108" s="229"/>
       <c r="G108" s="160"/>
       <c r="H108" s="118">
         <v>43774</v>
@@ -9231,11 +9248,11 @@
       <c r="C109" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="D109" s="220" t="s">
+      <c r="D109" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="221"/>
-      <c r="F109" s="221"/>
+      <c r="E109" s="229"/>
+      <c r="F109" s="229"/>
       <c r="G109" s="160"/>
       <c r="H109" s="118">
         <v>43774</v>
@@ -9253,11 +9270,11 @@
       <c r="C110" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="D110" s="220" t="s">
+      <c r="D110" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="221"/>
-      <c r="F110" s="221"/>
+      <c r="E110" s="229"/>
+      <c r="F110" s="229"/>
       <c r="G110" s="160"/>
       <c r="H110" s="118">
         <v>43774</v>
@@ -9275,11 +9292,11 @@
       <c r="C111" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="D111" s="220" t="s">
+      <c r="D111" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E111" s="221"/>
-      <c r="F111" s="221"/>
+      <c r="E111" s="229"/>
+      <c r="F111" s="229"/>
       <c r="G111" s="160"/>
       <c r="H111" s="118">
         <v>43774</v>
@@ -9297,11 +9314,11 @@
       <c r="C112" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="220" t="s">
+      <c r="D112" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E112" s="221"/>
-      <c r="F112" s="221"/>
+      <c r="E112" s="229"/>
+      <c r="F112" s="229"/>
       <c r="G112" s="160"/>
       <c r="H112" s="118">
         <v>43774</v>
@@ -9319,11 +9336,11 @@
       <c r="C113" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="D113" s="220" t="s">
+      <c r="D113" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E113" s="221"/>
-      <c r="F113" s="221"/>
+      <c r="E113" s="229"/>
+      <c r="F113" s="229"/>
       <c r="G113" s="160"/>
       <c r="H113" s="118">
         <v>43774</v>
@@ -9341,11 +9358,11 @@
       <c r="C114" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="D114" s="220" t="s">
+      <c r="D114" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E114" s="221"/>
-      <c r="F114" s="221"/>
+      <c r="E114" s="229"/>
+      <c r="F114" s="229"/>
       <c r="G114" s="160"/>
       <c r="H114" s="118">
         <v>43774</v>
@@ -9363,11 +9380,11 @@
       <c r="C115" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="220" t="s">
+      <c r="D115" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="221"/>
-      <c r="F115" s="221"/>
+      <c r="E115" s="229"/>
+      <c r="F115" s="229"/>
       <c r="G115" s="160"/>
       <c r="H115" s="118">
         <v>43774</v>
@@ -9385,11 +9402,11 @@
       <c r="C116" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="220" t="s">
+      <c r="D116" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E116" s="221"/>
-      <c r="F116" s="221"/>
+      <c r="E116" s="229"/>
+      <c r="F116" s="229"/>
       <c r="G116" s="160"/>
       <c r="H116" s="118">
         <v>43774</v>
@@ -9407,11 +9424,11 @@
       <c r="C117" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="220" t="s">
+      <c r="D117" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="E117" s="221"/>
-      <c r="F117" s="221"/>
+      <c r="E117" s="229"/>
+      <c r="F117" s="229"/>
       <c r="G117" s="160"/>
       <c r="H117" s="118">
         <v>43774</v>
@@ -9429,11 +9446,11 @@
       <c r="C118" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="D118" s="220" t="s">
+      <c r="D118" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E118" s="221"/>
-      <c r="F118" s="221"/>
+      <c r="E118" s="229"/>
+      <c r="F118" s="229"/>
       <c r="G118" s="160"/>
       <c r="H118" s="118">
         <v>43774</v>
@@ -9451,11 +9468,11 @@
       <c r="C119" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="D119" s="220" t="s">
+      <c r="D119" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="E119" s="221"/>
-      <c r="F119" s="221"/>
+      <c r="E119" s="229"/>
+      <c r="F119" s="229"/>
       <c r="G119" s="160"/>
       <c r="H119" s="118">
         <v>43774</v>
@@ -9473,11 +9490,11 @@
       <c r="C120" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="220" t="s">
+      <c r="D120" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E120" s="221"/>
-      <c r="F120" s="221"/>
+      <c r="E120" s="229"/>
+      <c r="F120" s="229"/>
       <c r="G120" s="160"/>
       <c r="H120" s="118">
         <v>43774</v>
@@ -9495,11 +9512,11 @@
       <c r="C121" s="103" t="s">
         <v>383</v>
       </c>
-      <c r="D121" s="220" t="s">
+      <c r="D121" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E121" s="221"/>
-      <c r="F121" s="221"/>
+      <c r="E121" s="229"/>
+      <c r="F121" s="229"/>
       <c r="G121" s="160"/>
       <c r="H121" s="118">
         <v>43774</v>
@@ -9517,11 +9534,11 @@
       <c r="C122" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="D122" s="220" t="s">
+      <c r="D122" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E122" s="221"/>
-      <c r="F122" s="221"/>
+      <c r="E122" s="229"/>
+      <c r="F122" s="229"/>
       <c r="G122" s="160"/>
       <c r="H122" s="118">
         <v>43774</v>
@@ -9539,11 +9556,11 @@
       <c r="C123" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="D123" s="220" t="s">
+      <c r="D123" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E123" s="221"/>
-      <c r="F123" s="221"/>
+      <c r="E123" s="229"/>
+      <c r="F123" s="229"/>
       <c r="G123" s="160"/>
       <c r="H123" s="118">
         <v>43774</v>
@@ -9561,11 +9578,11 @@
       <c r="C124" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="D124" s="220" t="s">
+      <c r="D124" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="E124" s="221"/>
-      <c r="F124" s="221"/>
+      <c r="E124" s="229"/>
+      <c r="F124" s="229"/>
       <c r="G124" s="160"/>
       <c r="H124" s="118">
         <v>43774</v>
@@ -9583,11 +9600,11 @@
       <c r="C125" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="D125" s="220" t="s">
+      <c r="D125" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E125" s="221"/>
-      <c r="F125" s="221"/>
+      <c r="E125" s="229"/>
+      <c r="F125" s="229"/>
       <c r="G125" s="160"/>
       <c r="H125" s="118">
         <v>43774</v>
@@ -9605,11 +9622,11 @@
       <c r="C126" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="D126" s="220" t="s">
+      <c r="D126" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E126" s="221"/>
-      <c r="F126" s="221"/>
+      <c r="E126" s="229"/>
+      <c r="F126" s="229"/>
       <c r="G126" s="160"/>
       <c r="H126" s="118">
         <v>43774</v>
@@ -9627,11 +9644,11 @@
       <c r="C127" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="220" t="s">
+      <c r="D127" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E127" s="221"/>
-      <c r="F127" s="221"/>
+      <c r="E127" s="229"/>
+      <c r="F127" s="229"/>
       <c r="G127" s="160"/>
       <c r="H127" s="118">
         <v>43774</v>
@@ -9649,11 +9666,11 @@
       <c r="C128" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="D128" s="220" t="s">
+      <c r="D128" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E128" s="221"/>
-      <c r="F128" s="221"/>
+      <c r="E128" s="229"/>
+      <c r="F128" s="229"/>
       <c r="G128" s="160"/>
       <c r="H128" s="118">
         <v>43774</v>
@@ -9671,11 +9688,11 @@
       <c r="C129" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="D129" s="220" t="s">
+      <c r="D129" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E129" s="221"/>
-      <c r="F129" s="221"/>
+      <c r="E129" s="229"/>
+      <c r="F129" s="229"/>
       <c r="G129" s="160"/>
       <c r="H129" s="118">
         <v>43774</v>
@@ -9693,11 +9710,11 @@
       <c r="C130" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="D130" s="220" t="s">
+      <c r="D130" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E130" s="221"/>
-      <c r="F130" s="221"/>
+      <c r="E130" s="229"/>
+      <c r="F130" s="229"/>
       <c r="G130" s="160"/>
       <c r="H130" s="118">
         <v>43774</v>
@@ -9715,11 +9732,11 @@
       <c r="C131" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="D131" s="220" t="s">
+      <c r="D131" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E131" s="221"/>
-      <c r="F131" s="221"/>
+      <c r="E131" s="229"/>
+      <c r="F131" s="229"/>
       <c r="G131" s="160"/>
       <c r="H131" s="118">
         <v>43774</v>
@@ -9737,11 +9754,11 @@
       <c r="C132" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="D132" s="220" t="s">
+      <c r="D132" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E132" s="221"/>
-      <c r="F132" s="221"/>
+      <c r="E132" s="229"/>
+      <c r="F132" s="229"/>
       <c r="G132" s="160"/>
       <c r="H132" s="118">
         <v>43774</v>
@@ -9759,11 +9776,11 @@
       <c r="C133" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="D133" s="220" t="s">
+      <c r="D133" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="E133" s="221"/>
-      <c r="F133" s="221"/>
+      <c r="E133" s="229"/>
+      <c r="F133" s="229"/>
       <c r="G133" s="160"/>
       <c r="H133" s="118">
         <v>43774</v>
@@ -9781,11 +9798,11 @@
       <c r="C134" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="D134" s="220" t="s">
+      <c r="D134" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E134" s="221"/>
-      <c r="F134" s="221"/>
+      <c r="E134" s="229"/>
+      <c r="F134" s="229"/>
       <c r="G134" s="160"/>
       <c r="H134" s="118">
         <v>43774</v>
@@ -9803,11 +9820,11 @@
       <c r="C135" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="D135" s="220" t="s">
+      <c r="D135" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E135" s="221"/>
-      <c r="F135" s="221"/>
+      <c r="E135" s="229"/>
+      <c r="F135" s="229"/>
       <c r="G135" s="160"/>
       <c r="H135" s="118">
         <v>43774</v>
@@ -9825,11 +9842,11 @@
       <c r="C136" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="D136" s="220" t="s">
+      <c r="D136" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E136" s="221"/>
-      <c r="F136" s="221"/>
+      <c r="E136" s="229"/>
+      <c r="F136" s="229"/>
       <c r="G136" s="160"/>
       <c r="H136" s="118">
         <v>43774</v>
@@ -9847,11 +9864,11 @@
       <c r="C137" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="D137" s="220" t="s">
+      <c r="D137" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E137" s="221"/>
-      <c r="F137" s="221"/>
+      <c r="E137" s="229"/>
+      <c r="F137" s="229"/>
       <c r="G137" s="160"/>
       <c r="H137" s="118">
         <v>43774</v>
@@ -9869,11 +9886,11 @@
       <c r="C138" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="D138" s="220" t="s">
+      <c r="D138" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="E138" s="221"/>
-      <c r="F138" s="221"/>
+      <c r="E138" s="229"/>
+      <c r="F138" s="229"/>
       <c r="G138" s="160"/>
       <c r="H138" s="118">
         <v>43774</v>
@@ -9891,11 +9908,11 @@
       <c r="C139" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="D139" s="220" t="s">
+      <c r="D139" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="E139" s="221"/>
-      <c r="F139" s="221"/>
+      <c r="E139" s="229"/>
+      <c r="F139" s="229"/>
       <c r="G139" s="160"/>
       <c r="H139" s="118">
         <v>43774</v>
@@ -9913,11 +9930,11 @@
       <c r="C140" s="103" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="220" t="s">
+      <c r="D140" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E140" s="221"/>
-      <c r="F140" s="221"/>
+      <c r="E140" s="229"/>
+      <c r="F140" s="229"/>
       <c r="G140" s="160"/>
       <c r="H140" s="118">
         <v>43774</v>
@@ -9935,11 +9952,11 @@
       <c r="C141" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="D141" s="220" t="s">
+      <c r="D141" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E141" s="221"/>
-      <c r="F141" s="221"/>
+      <c r="E141" s="229"/>
+      <c r="F141" s="229"/>
       <c r="G141" s="160"/>
       <c r="H141" s="118">
         <v>43774</v>
@@ -9957,11 +9974,11 @@
       <c r="C142" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="220" t="s">
+      <c r="D142" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E142" s="221"/>
-      <c r="F142" s="221"/>
+      <c r="E142" s="229"/>
+      <c r="F142" s="229"/>
       <c r="G142" s="160"/>
       <c r="H142" s="118">
         <v>43774</v>
@@ -9979,11 +9996,11 @@
       <c r="C143" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="D143" s="220" t="s">
+      <c r="D143" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E143" s="221"/>
-      <c r="F143" s="221"/>
+      <c r="E143" s="229"/>
+      <c r="F143" s="229"/>
       <c r="G143" s="160"/>
       <c r="H143" s="118">
         <v>43774</v>
@@ -10001,11 +10018,11 @@
       <c r="C144" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="D144" s="220" t="s">
+      <c r="D144" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E144" s="221"/>
-      <c r="F144" s="221"/>
+      <c r="E144" s="229"/>
+      <c r="F144" s="229"/>
       <c r="G144" s="160"/>
       <c r="H144" s="118">
         <v>43774</v>
@@ -10023,11 +10040,11 @@
       <c r="C145" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="D145" s="220" t="s">
+      <c r="D145" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E145" s="221"/>
-      <c r="F145" s="221"/>
+      <c r="E145" s="229"/>
+      <c r="F145" s="229"/>
       <c r="G145" s="160"/>
       <c r="H145" s="118">
         <v>43774</v>
@@ -10045,11 +10062,11 @@
       <c r="C146" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="D146" s="220" t="s">
+      <c r="D146" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="E146" s="221"/>
-      <c r="F146" s="221"/>
+      <c r="E146" s="229"/>
+      <c r="F146" s="229"/>
       <c r="G146" s="160"/>
       <c r="H146" s="118">
         <v>43774</v>
@@ -10067,11 +10084,11 @@
       <c r="C147" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="D147" s="220" t="s">
+      <c r="D147" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="E147" s="221"/>
-      <c r="F147" s="221"/>
+      <c r="E147" s="229"/>
+      <c r="F147" s="229"/>
       <c r="G147" s="160"/>
       <c r="H147" s="118">
         <v>43774</v>
@@ -10089,11 +10106,11 @@
       <c r="C148" s="161" t="s">
         <v>363</v>
       </c>
-      <c r="D148" s="220" t="s">
+      <c r="D148" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="E148" s="221"/>
-      <c r="F148" s="251"/>
+      <c r="E148" s="229"/>
+      <c r="F148" s="230"/>
       <c r="G148" s="161"/>
       <c r="H148" s="119">
         <v>43774</v>
@@ -10102,18 +10119,18 @@
       <c r="J148" s="85"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A149" s="217" t="s">
+      <c r="A149" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="B149" s="218"/>
-      <c r="C149" s="218"/>
-      <c r="D149" s="218"/>
-      <c r="E149" s="218"/>
-      <c r="F149" s="218"/>
-      <c r="G149" s="218"/>
-      <c r="H149" s="218"/>
-      <c r="I149" s="218"/>
-      <c r="J149" s="219"/>
+      <c r="B149" s="245"/>
+      <c r="C149" s="245"/>
+      <c r="D149" s="245"/>
+      <c r="E149" s="245"/>
+      <c r="F149" s="245"/>
+      <c r="G149" s="245"/>
+      <c r="H149" s="245"/>
+      <c r="I149" s="245"/>
+      <c r="J149" s="246"/>
     </row>
     <row r="150" spans="1:14" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A150" s="88" t="s">
@@ -10125,11 +10142,11 @@
       <c r="C150" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="D150" s="256" t="s">
+      <c r="D150" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="E150" s="256"/>
-      <c r="F150" s="256"/>
+      <c r="E150" s="247"/>
+      <c r="F150" s="247"/>
       <c r="G150" s="126"/>
       <c r="H150" s="131">
         <v>43774</v>
@@ -10149,11 +10166,11 @@
       <c r="C151" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="D151" s="259" t="s">
+      <c r="D151" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="E151" s="260"/>
-      <c r="F151" s="260"/>
+      <c r="E151" s="251"/>
+      <c r="F151" s="251"/>
       <c r="G151" s="127"/>
       <c r="H151" s="135">
         <v>43774</v>
@@ -10173,11 +10190,11 @@
       <c r="C152" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D152" s="215" t="s">
+      <c r="D152" s="237" t="s">
         <v>117</v>
       </c>
-      <c r="E152" s="216"/>
-      <c r="F152" s="216"/>
+      <c r="E152" s="238"/>
+      <c r="F152" s="238"/>
       <c r="G152" s="175"/>
       <c r="H152" s="180">
         <v>43774</v>
@@ -10201,11 +10218,11 @@
       <c r="C153" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="D153" s="215" t="s">
+      <c r="D153" s="237" t="s">
         <v>269</v>
       </c>
-      <c r="E153" s="216"/>
-      <c r="F153" s="216"/>
+      <c r="E153" s="238"/>
+      <c r="F153" s="238"/>
       <c r="G153" s="175"/>
       <c r="H153" s="182">
         <v>43774</v>
@@ -10229,11 +10246,11 @@
       <c r="C154" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="D154" s="215" t="s">
+      <c r="D154" s="237" t="s">
         <v>269</v>
       </c>
-      <c r="E154" s="216"/>
-      <c r="F154" s="216"/>
+      <c r="E154" s="238"/>
+      <c r="F154" s="238"/>
       <c r="G154" s="175"/>
       <c r="H154" s="182">
         <v>43774</v>
@@ -10259,11 +10276,11 @@
       <c r="C155" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D155" s="215" t="s">
+      <c r="D155" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="E155" s="216"/>
-      <c r="F155" s="216"/>
+      <c r="E155" s="238"/>
+      <c r="F155" s="238"/>
       <c r="G155" s="175"/>
       <c r="H155" s="182">
         <v>43774</v>
@@ -10287,11 +10304,11 @@
       <c r="C156" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="D156" s="215" t="s">
+      <c r="D156" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="E156" s="216"/>
-      <c r="F156" s="216"/>
+      <c r="E156" s="238"/>
+      <c r="F156" s="238"/>
       <c r="G156" s="175"/>
       <c r="H156" s="182">
         <v>43774</v>
@@ -10315,11 +10332,11 @@
       <c r="C157" s="174" t="s">
         <v>274</v>
       </c>
-      <c r="D157" s="215" t="s">
+      <c r="D157" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="E157" s="216"/>
-      <c r="F157" s="216"/>
+      <c r="E157" s="238"/>
+      <c r="F157" s="238"/>
       <c r="G157" s="175"/>
       <c r="H157" s="182">
         <v>43774</v>
@@ -10343,11 +10360,11 @@
       <c r="C158" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="D158" s="210" t="s">
+      <c r="D158" s="220" t="s">
         <v>275</v>
       </c>
-      <c r="E158" s="211"/>
-      <c r="F158" s="211"/>
+      <c r="E158" s="221"/>
+      <c r="F158" s="221"/>
       <c r="G158" s="193"/>
       <c r="H158" s="189">
         <v>43774</v>
@@ -10358,7 +10375,9 @@
       <c r="J158" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K158" s="178"/>
+      <c r="K158" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L158" s="178"/>
       <c r="M158" s="178"/>
       <c r="N158" s="178"/>
@@ -10373,11 +10392,11 @@
       <c r="C159" s="195" t="s">
         <v>276</v>
       </c>
-      <c r="D159" s="210" t="s">
+      <c r="D159" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="211"/>
-      <c r="F159" s="211"/>
+      <c r="E159" s="221"/>
+      <c r="F159" s="221"/>
       <c r="G159" s="193"/>
       <c r="H159" s="189">
         <v>43774</v>
@@ -10388,7 +10407,9 @@
       <c r="J159" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K159" s="178"/>
+      <c r="K159" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L159" s="178"/>
       <c r="M159" s="178"/>
       <c r="N159" s="178"/>
@@ -10403,11 +10424,11 @@
       <c r="C160" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="D160" s="210" t="s">
+      <c r="D160" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="E160" s="211"/>
-      <c r="F160" s="211"/>
+      <c r="E160" s="221"/>
+      <c r="F160" s="221"/>
       <c r="G160" s="193"/>
       <c r="H160" s="189">
         <v>43774</v>
@@ -10418,7 +10439,9 @@
       <c r="J160" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K160" s="178"/>
+      <c r="K160" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L160" s="178"/>
       <c r="M160" s="178"/>
       <c r="N160" s="178"/>
@@ -10433,11 +10456,11 @@
       <c r="C161" s="195" t="s">
         <v>282</v>
       </c>
-      <c r="D161" s="210" t="s">
+      <c r="D161" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="211"/>
-      <c r="F161" s="211"/>
+      <c r="E161" s="221"/>
+      <c r="F161" s="221"/>
       <c r="G161" s="193"/>
       <c r="H161" s="189">
         <v>43774</v>
@@ -10448,7 +10471,9 @@
       <c r="J161" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K161" s="178"/>
+      <c r="K161" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L161" s="178"/>
       <c r="M161" s="178"/>
       <c r="N161" s="178"/>
@@ -10463,11 +10488,11 @@
       <c r="C162" s="195" t="s">
         <v>283</v>
       </c>
-      <c r="D162" s="210" t="s">
+      <c r="D162" s="220" t="s">
         <v>284</v>
       </c>
-      <c r="E162" s="211"/>
-      <c r="F162" s="211"/>
+      <c r="E162" s="221"/>
+      <c r="F162" s="221"/>
       <c r="G162" s="193"/>
       <c r="H162" s="189">
         <v>43774</v>
@@ -10478,7 +10503,9 @@
       <c r="J162" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K162" s="178"/>
+      <c r="K162" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L162" s="178"/>
       <c r="M162" s="178"/>
       <c r="N162" s="178"/>
@@ -10493,11 +10520,11 @@
       <c r="C163" s="195" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="210" t="s">
+      <c r="D163" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="E163" s="211"/>
-      <c r="F163" s="211"/>
+      <c r="E163" s="221"/>
+      <c r="F163" s="221"/>
       <c r="G163" s="193"/>
       <c r="H163" s="189">
         <v>43774</v>
@@ -10508,7 +10535,9 @@
       <c r="J163" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K163" s="178"/>
+      <c r="K163" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L163" s="178"/>
       <c r="M163" s="178"/>
       <c r="N163" s="178"/>
@@ -10523,11 +10552,11 @@
       <c r="C164" s="195" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="210" t="s">
+      <c r="D164" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="211"/>
-      <c r="F164" s="211"/>
+      <c r="E164" s="221"/>
+      <c r="F164" s="221"/>
       <c r="G164" s="193"/>
       <c r="H164" s="189">
         <v>43774</v>
@@ -10538,7 +10567,9 @@
       <c r="J164" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K164" s="178"/>
+      <c r="K164" s="178" t="s">
+        <v>403</v>
+      </c>
       <c r="L164" s="178"/>
       <c r="M164" s="178"/>
       <c r="N164" s="178"/>
@@ -10550,16 +10581,16 @@
       <c r="B165" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="C165" s="273" t="s">
+      <c r="C165" s="209" t="s">
         <v>287</v>
       </c>
-      <c r="D165" s="270" t="s">
+      <c r="D165" s="222" t="s">
         <v>289</v>
       </c>
-      <c r="E165" s="271"/>
-      <c r="F165" s="271"/>
+      <c r="E165" s="223"/>
+      <c r="F165" s="223"/>
       <c r="G165" s="198"/>
-      <c r="H165" s="274">
+      <c r="H165" s="210">
         <v>43774</v>
       </c>
       <c r="I165" s="199" t="s">
@@ -10581,11 +10612,11 @@
       <c r="C166" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="D166" s="210" t="s">
+      <c r="D166" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E166" s="211"/>
-      <c r="F166" s="211"/>
+      <c r="E166" s="221"/>
+      <c r="F166" s="221"/>
       <c r="G166" s="193"/>
       <c r="H166" s="189">
         <v>43774</v>
@@ -10596,7 +10627,9 @@
       <c r="J166" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K166" s="178"/>
+      <c r="K166" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L166" s="178"/>
       <c r="M166" s="178"/>
       <c r="N166" s="178"/>
@@ -10611,11 +10644,11 @@
       <c r="C167" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="D167" s="210" t="s">
+      <c r="D167" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E167" s="211"/>
-      <c r="F167" s="211"/>
+      <c r="E167" s="221"/>
+      <c r="F167" s="221"/>
       <c r="G167" s="193"/>
       <c r="H167" s="189">
         <v>43774</v>
@@ -10626,7 +10659,9 @@
       <c r="J167" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K167" s="178"/>
+      <c r="K167" s="178" t="s">
+        <v>404</v>
+      </c>
       <c r="L167" s="178"/>
       <c r="M167" s="178"/>
       <c r="N167" s="178"/>
@@ -10641,11 +10676,11 @@
       <c r="C168" s="195" t="s">
         <v>293</v>
       </c>
-      <c r="D168" s="210" t="s">
+      <c r="D168" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E168" s="211"/>
-      <c r="F168" s="211"/>
+      <c r="E168" s="221"/>
+      <c r="F168" s="221"/>
       <c r="G168" s="193"/>
       <c r="H168" s="189">
         <v>43774</v>
@@ -10656,7 +10691,9 @@
       <c r="J168" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K168" s="178"/>
+      <c r="K168" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L168" s="178"/>
       <c r="M168" s="178"/>
       <c r="N168" s="178"/>
@@ -10671,11 +10708,11 @@
       <c r="C169" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="D169" s="210" t="s">
+      <c r="D169" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E169" s="211"/>
-      <c r="F169" s="211"/>
+      <c r="E169" s="221"/>
+      <c r="F169" s="221"/>
       <c r="G169" s="193"/>
       <c r="H169" s="189">
         <v>43774</v>
@@ -10686,7 +10723,9 @@
       <c r="J169" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K169" s="178"/>
+      <c r="K169" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L169" s="178"/>
       <c r="M169" s="178"/>
       <c r="N169" s="178"/>
@@ -10701,11 +10740,11 @@
       <c r="C170" s="195" t="s">
         <v>295</v>
       </c>
-      <c r="D170" s="210" t="s">
+      <c r="D170" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E170" s="211"/>
-      <c r="F170" s="211"/>
+      <c r="E170" s="221"/>
+      <c r="F170" s="221"/>
       <c r="G170" s="193"/>
       <c r="H170" s="189">
         <v>43774</v>
@@ -10716,7 +10755,9 @@
       <c r="J170" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K170" s="178"/>
+      <c r="K170" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L170" s="178"/>
       <c r="M170" s="178"/>
       <c r="N170" s="178"/>
@@ -10731,11 +10772,11 @@
       <c r="C171" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="D171" s="210" t="s">
+      <c r="D171" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E171" s="211"/>
-      <c r="F171" s="211"/>
+      <c r="E171" s="221"/>
+      <c r="F171" s="221"/>
       <c r="G171" s="193"/>
       <c r="H171" s="189">
         <v>43774</v>
@@ -10746,7 +10787,9 @@
       <c r="J171" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K171" s="178"/>
+      <c r="K171" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L171" s="178"/>
       <c r="M171" s="178"/>
       <c r="N171" s="178"/>
@@ -10761,11 +10804,11 @@
       <c r="C172" s="195" t="s">
         <v>297</v>
       </c>
-      <c r="D172" s="210" t="s">
+      <c r="D172" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E172" s="211"/>
-      <c r="F172" s="211"/>
+      <c r="E172" s="221"/>
+      <c r="F172" s="221"/>
       <c r="G172" s="193"/>
       <c r="H172" s="189">
         <v>43774</v>
@@ -10776,7 +10819,9 @@
       <c r="J172" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K172" s="178"/>
+      <c r="K172" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L172" s="178"/>
       <c r="M172" s="178"/>
       <c r="N172" s="178"/>
@@ -10791,11 +10836,11 @@
       <c r="C173" s="195" t="s">
         <v>298</v>
       </c>
-      <c r="D173" s="210" t="s">
+      <c r="D173" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E173" s="211"/>
-      <c r="F173" s="211"/>
+      <c r="E173" s="221"/>
+      <c r="F173" s="221"/>
       <c r="G173" s="193"/>
       <c r="H173" s="189">
         <v>43774</v>
@@ -10806,7 +10851,9 @@
       <c r="J173" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K173" s="178"/>
+      <c r="K173" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L173" s="178"/>
       <c r="M173" s="178"/>
       <c r="N173" s="178"/>
@@ -10821,11 +10868,11 @@
       <c r="C174" s="195" t="s">
         <v>299</v>
       </c>
-      <c r="D174" s="210" t="s">
+      <c r="D174" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E174" s="211"/>
-      <c r="F174" s="211"/>
+      <c r="E174" s="221"/>
+      <c r="F174" s="221"/>
       <c r="G174" s="193"/>
       <c r="H174" s="189">
         <v>43774</v>
@@ -10836,7 +10883,9 @@
       <c r="J174" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K174" s="178"/>
+      <c r="K174" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L174" s="178"/>
       <c r="M174" s="178"/>
       <c r="N174" s="178"/>
@@ -10851,11 +10900,11 @@
       <c r="C175" s="195" t="s">
         <v>300</v>
       </c>
-      <c r="D175" s="210" t="s">
+      <c r="D175" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E175" s="211"/>
-      <c r="F175" s="211"/>
+      <c r="E175" s="221"/>
+      <c r="F175" s="221"/>
       <c r="G175" s="193"/>
       <c r="H175" s="189">
         <v>43774</v>
@@ -10866,7 +10915,9 @@
       <c r="J175" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K175" s="178"/>
+      <c r="K175" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L175" s="178"/>
       <c r="M175" s="178"/>
       <c r="N175" s="178"/>
@@ -10881,11 +10932,11 @@
       <c r="C176" s="195" t="s">
         <v>301</v>
       </c>
-      <c r="D176" s="210" t="s">
+      <c r="D176" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E176" s="211"/>
-      <c r="F176" s="211"/>
+      <c r="E176" s="221"/>
+      <c r="F176" s="221"/>
       <c r="G176" s="193"/>
       <c r="H176" s="189">
         <v>43774</v>
@@ -10896,7 +10947,9 @@
       <c r="J176" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K176" s="178"/>
+      <c r="K176" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L176" s="178"/>
       <c r="M176" s="178"/>
       <c r="N176" s="178"/>
@@ -10911,11 +10964,11 @@
       <c r="C177" s="195" t="s">
         <v>302</v>
       </c>
-      <c r="D177" s="210" t="s">
+      <c r="D177" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E177" s="211"/>
-      <c r="F177" s="211"/>
+      <c r="E177" s="221"/>
+      <c r="F177" s="221"/>
       <c r="G177" s="193"/>
       <c r="H177" s="189">
         <v>43774</v>
@@ -10926,7 +10979,9 @@
       <c r="J177" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K177" s="178"/>
+      <c r="K177" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L177" s="178"/>
       <c r="M177" s="178"/>
       <c r="N177" s="178"/>
@@ -10941,11 +10996,11 @@
       <c r="C178" s="195" t="s">
         <v>303</v>
       </c>
-      <c r="D178" s="210" t="s">
+      <c r="D178" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E178" s="211"/>
-      <c r="F178" s="211"/>
+      <c r="E178" s="221"/>
+      <c r="F178" s="221"/>
       <c r="G178" s="193"/>
       <c r="H178" s="189">
         <v>43774</v>
@@ -10956,7 +11011,9 @@
       <c r="J178" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K178" s="178"/>
+      <c r="K178" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L178" s="178"/>
       <c r="M178" s="178"/>
       <c r="N178" s="178"/>
@@ -10971,11 +11028,11 @@
       <c r="C179" s="195" t="s">
         <v>304</v>
       </c>
-      <c r="D179" s="210" t="s">
+      <c r="D179" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E179" s="211"/>
-      <c r="F179" s="211"/>
+      <c r="E179" s="221"/>
+      <c r="F179" s="221"/>
       <c r="G179" s="193"/>
       <c r="H179" s="189">
         <v>43774</v>
@@ -10986,7 +11043,9 @@
       <c r="J179" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="178"/>
+      <c r="K179" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L179" s="178"/>
       <c r="M179" s="178"/>
       <c r="N179" s="178"/>
@@ -11001,11 +11060,11 @@
       <c r="C180" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="D180" s="210" t="s">
+      <c r="D180" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E180" s="211"/>
-      <c r="F180" s="211"/>
+      <c r="E180" s="221"/>
+      <c r="F180" s="221"/>
       <c r="G180" s="193"/>
       <c r="H180" s="189">
         <v>43774</v>
@@ -11016,7 +11075,9 @@
       <c r="J180" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K180" s="178"/>
+      <c r="K180" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L180" s="178"/>
       <c r="M180" s="178"/>
       <c r="N180" s="178"/>
@@ -11031,11 +11092,11 @@
       <c r="C181" s="195" t="s">
         <v>306</v>
       </c>
-      <c r="D181" s="210" t="s">
+      <c r="D181" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E181" s="211"/>
-      <c r="F181" s="211"/>
+      <c r="E181" s="221"/>
+      <c r="F181" s="221"/>
       <c r="G181" s="193"/>
       <c r="H181" s="189">
         <v>43774</v>
@@ -11046,7 +11107,9 @@
       <c r="J181" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K181" s="178"/>
+      <c r="K181" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L181" s="178"/>
       <c r="M181" s="178"/>
       <c r="N181" s="178"/>
@@ -11061,11 +11124,11 @@
       <c r="C182" s="195" t="s">
         <v>307</v>
       </c>
-      <c r="D182" s="210" t="s">
+      <c r="D182" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E182" s="211"/>
-      <c r="F182" s="211"/>
+      <c r="E182" s="221"/>
+      <c r="F182" s="221"/>
       <c r="G182" s="193"/>
       <c r="H182" s="189">
         <v>43774</v>
@@ -11076,7 +11139,9 @@
       <c r="J182" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K182" s="178"/>
+      <c r="K182" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L182" s="178"/>
       <c r="M182" s="178"/>
       <c r="N182" s="178"/>
@@ -11091,11 +11156,11 @@
       <c r="C183" s="195" t="s">
         <v>308</v>
       </c>
-      <c r="D183" s="210" t="s">
+      <c r="D183" s="220" t="s">
         <v>309</v>
       </c>
-      <c r="E183" s="211"/>
-      <c r="F183" s="211"/>
+      <c r="E183" s="221"/>
+      <c r="F183" s="221"/>
       <c r="G183" s="193"/>
       <c r="H183" s="189">
         <v>43774</v>
@@ -11106,7 +11171,9 @@
       <c r="J183" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="K183" s="178"/>
+      <c r="K183" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L183" s="178"/>
       <c r="M183" s="178"/>
       <c r="N183" s="178"/>
@@ -11121,11 +11188,11 @@
       <c r="C184" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="D184" s="210" t="s">
+      <c r="D184" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E184" s="211"/>
-      <c r="F184" s="211"/>
+      <c r="E184" s="221"/>
+      <c r="F184" s="221"/>
       <c r="G184" s="193"/>
       <c r="H184" s="189">
         <v>43774</v>
@@ -11136,7 +11203,9 @@
       <c r="J184" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K184" s="178"/>
+      <c r="K184" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L184" s="178"/>
       <c r="M184" s="178"/>
       <c r="N184" s="178"/>
@@ -11151,11 +11220,11 @@
       <c r="C185" s="195" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="210" t="s">
+      <c r="D185" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="E185" s="211"/>
-      <c r="F185" s="211"/>
+      <c r="E185" s="221"/>
+      <c r="F185" s="221"/>
       <c r="G185" s="193"/>
       <c r="H185" s="189">
         <v>43774</v>
@@ -11166,7 +11235,9 @@
       <c r="J185" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K185" s="178"/>
+      <c r="K185" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L185" s="178"/>
       <c r="M185" s="178"/>
       <c r="N185" s="178"/>
@@ -11181,11 +11252,11 @@
       <c r="C186" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="210" t="s">
+      <c r="D186" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="E186" s="211"/>
-      <c r="F186" s="211"/>
+      <c r="E186" s="221"/>
+      <c r="F186" s="221"/>
       <c r="G186" s="193"/>
       <c r="H186" s="189">
         <v>43774</v>
@@ -11196,7 +11267,9 @@
       <c r="J186" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K186" s="178"/>
+      <c r="K186" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L186" s="178"/>
       <c r="M186" s="178"/>
       <c r="N186" s="178"/>
@@ -11211,11 +11284,11 @@
       <c r="C187" s="195" t="s">
         <v>313</v>
       </c>
-      <c r="D187" s="210" t="s">
+      <c r="D187" s="220" t="s">
         <v>291</v>
       </c>
-      <c r="E187" s="211"/>
-      <c r="F187" s="211"/>
+      <c r="E187" s="221"/>
+      <c r="F187" s="221"/>
       <c r="G187" s="193"/>
       <c r="H187" s="189">
         <v>43774</v>
@@ -11226,7 +11299,9 @@
       <c r="J187" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K187" s="178"/>
+      <c r="K187" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L187" s="178"/>
       <c r="M187" s="178"/>
       <c r="N187" s="178"/>
@@ -11241,11 +11316,11 @@
       <c r="C188" s="195" t="s">
         <v>314</v>
       </c>
-      <c r="D188" s="210" t="s">
+      <c r="D188" s="220" t="s">
         <v>315</v>
       </c>
-      <c r="E188" s="211"/>
-      <c r="F188" s="211"/>
+      <c r="E188" s="221"/>
+      <c r="F188" s="221"/>
       <c r="G188" s="193"/>
       <c r="H188" s="189">
         <v>43774</v>
@@ -11256,7 +11331,9 @@
       <c r="J188" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="K188" s="178"/>
+      <c r="K188" s="178" t="s">
+        <v>402</v>
+      </c>
       <c r="L188" s="178"/>
       <c r="M188" s="178"/>
       <c r="N188" s="178"/>
@@ -11271,11 +11348,11 @@
       <c r="C189" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="D189" s="270" t="s">
+      <c r="D189" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E189" s="271"/>
-      <c r="F189" s="271"/>
+      <c r="E189" s="223"/>
+      <c r="F189" s="223"/>
       <c r="G189" s="198"/>
       <c r="H189" s="182">
         <v>43774</v>
@@ -11299,11 +11376,11 @@
       <c r="C190" s="203" t="s">
         <v>319</v>
       </c>
-      <c r="D190" s="261" t="s">
+      <c r="D190" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E190" s="262"/>
-      <c r="F190" s="262"/>
+      <c r="E190" s="225"/>
+      <c r="F190" s="225"/>
       <c r="G190" s="204"/>
       <c r="H190" s="205">
         <v>43774</v>
@@ -11327,11 +11404,11 @@
       <c r="C191" s="203" t="s">
         <v>320</v>
       </c>
-      <c r="D191" s="261" t="s">
+      <c r="D191" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E191" s="262"/>
-      <c r="F191" s="262"/>
+      <c r="E191" s="225"/>
+      <c r="F191" s="225"/>
       <c r="G191" s="204"/>
       <c r="H191" s="205">
         <v>43774</v>
@@ -11355,11 +11432,11 @@
       <c r="C192" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="D192" s="261" t="s">
+      <c r="D192" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E192" s="262"/>
-      <c r="F192" s="262"/>
+      <c r="E192" s="225"/>
+      <c r="F192" s="225"/>
       <c r="G192" s="204"/>
       <c r="H192" s="205">
         <v>43774</v>
@@ -11383,11 +11460,11 @@
       <c r="C193" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="D193" s="261" t="s">
+      <c r="D193" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E193" s="262"/>
-      <c r="F193" s="262"/>
+      <c r="E193" s="225"/>
+      <c r="F193" s="225"/>
       <c r="G193" s="204"/>
       <c r="H193" s="205">
         <v>43774</v>
@@ -11411,11 +11488,11 @@
       <c r="C194" s="197" t="s">
         <v>323</v>
       </c>
-      <c r="D194" s="270" t="s">
+      <c r="D194" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E194" s="271"/>
-      <c r="F194" s="271"/>
+      <c r="E194" s="223"/>
+      <c r="F194" s="223"/>
       <c r="G194" s="198"/>
       <c r="H194" s="182">
         <v>47427</v>
@@ -11439,11 +11516,11 @@
       <c r="C195" s="197" t="s">
         <v>324</v>
       </c>
-      <c r="D195" s="270" t="s">
+      <c r="D195" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E195" s="271"/>
-      <c r="F195" s="271"/>
+      <c r="E195" s="223"/>
+      <c r="F195" s="223"/>
       <c r="G195" s="198"/>
       <c r="H195" s="182">
         <v>43774</v>
@@ -11467,11 +11544,11 @@
       <c r="C196" s="197" t="s">
         <v>325</v>
       </c>
-      <c r="D196" s="270" t="s">
+      <c r="D196" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E196" s="271"/>
-      <c r="F196" s="271"/>
+      <c r="E196" s="223"/>
+      <c r="F196" s="223"/>
       <c r="G196" s="198"/>
       <c r="H196" s="182">
         <v>43774</v>
@@ -11495,11 +11572,11 @@
       <c r="C197" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="D197" s="270" t="s">
+      <c r="D197" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E197" s="271"/>
-      <c r="F197" s="271"/>
+      <c r="E197" s="223"/>
+      <c r="F197" s="223"/>
       <c r="G197" s="198"/>
       <c r="H197" s="182">
         <v>43774</v>
@@ -11523,11 +11600,11 @@
       <c r="C198" s="197" t="s">
         <v>327</v>
       </c>
-      <c r="D198" s="270" t="s">
+      <c r="D198" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E198" s="271"/>
-      <c r="F198" s="271"/>
+      <c r="E198" s="223"/>
+      <c r="F198" s="223"/>
       <c r="G198" s="198"/>
       <c r="H198" s="182">
         <v>43774</v>
@@ -11551,11 +11628,11 @@
       <c r="C199" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="D199" s="270" t="s">
+      <c r="D199" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E199" s="271"/>
-      <c r="F199" s="271"/>
+      <c r="E199" s="223"/>
+      <c r="F199" s="223"/>
       <c r="G199" s="198"/>
       <c r="H199" s="182">
         <v>43774</v>
@@ -11579,11 +11656,11 @@
       <c r="C200" s="197" t="s">
         <v>329</v>
       </c>
-      <c r="D200" s="270" t="s">
+      <c r="D200" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E200" s="271"/>
-      <c r="F200" s="271"/>
+      <c r="E200" s="223"/>
+      <c r="F200" s="223"/>
       <c r="G200" s="198"/>
       <c r="H200" s="182">
         <v>43774</v>
@@ -11607,11 +11684,11 @@
       <c r="C201" s="203" t="s">
         <v>330</v>
       </c>
-      <c r="D201" s="261" t="s">
+      <c r="D201" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E201" s="262"/>
-      <c r="F201" s="262"/>
+      <c r="E201" s="225"/>
+      <c r="F201" s="225"/>
       <c r="G201" s="204"/>
       <c r="H201" s="205">
         <v>43774</v>
@@ -11635,11 +11712,11 @@
       <c r="C202" s="203" t="s">
         <v>331</v>
       </c>
-      <c r="D202" s="261" t="s">
+      <c r="D202" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E202" s="262"/>
-      <c r="F202" s="262"/>
+      <c r="E202" s="225"/>
+      <c r="F202" s="225"/>
       <c r="G202" s="204"/>
       <c r="H202" s="205">
         <v>43774</v>
@@ -11663,11 +11740,11 @@
       <c r="C203" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="D203" s="270" t="s">
+      <c r="D203" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E203" s="271"/>
-      <c r="F203" s="271"/>
+      <c r="E203" s="223"/>
+      <c r="F203" s="223"/>
       <c r="G203" s="198"/>
       <c r="H203" s="182">
         <v>43774</v>
@@ -11691,11 +11768,11 @@
       <c r="C204" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="D204" s="270" t="s">
+      <c r="D204" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E204" s="271"/>
-      <c r="F204" s="271"/>
+      <c r="E204" s="223"/>
+      <c r="F204" s="223"/>
       <c r="G204" s="198"/>
       <c r="H204" s="182">
         <v>43774</v>
@@ -11719,11 +11796,11 @@
       <c r="C205" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="D205" s="270" t="s">
+      <c r="D205" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E205" s="271"/>
-      <c r="F205" s="271"/>
+      <c r="E205" s="223"/>
+      <c r="F205" s="223"/>
       <c r="G205" s="198"/>
       <c r="H205" s="182">
         <v>43774</v>
@@ -11747,11 +11824,11 @@
       <c r="C206" s="197" t="s">
         <v>335</v>
       </c>
-      <c r="D206" s="270" t="s">
+      <c r="D206" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E206" s="271"/>
-      <c r="F206" s="271"/>
+      <c r="E206" s="223"/>
+      <c r="F206" s="223"/>
       <c r="G206" s="198"/>
       <c r="H206" s="182">
         <v>43774</v>
@@ -11775,11 +11852,11 @@
       <c r="C207" s="197" t="s">
         <v>336</v>
       </c>
-      <c r="D207" s="270" t="s">
+      <c r="D207" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E207" s="271"/>
-      <c r="F207" s="271"/>
+      <c r="E207" s="223"/>
+      <c r="F207" s="223"/>
       <c r="G207" s="198"/>
       <c r="H207" s="182">
         <v>43774</v>
@@ -11803,11 +11880,11 @@
       <c r="C208" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="D208" s="270" t="s">
+      <c r="D208" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="E208" s="271"/>
-      <c r="F208" s="271"/>
+      <c r="E208" s="223"/>
+      <c r="F208" s="223"/>
       <c r="G208" s="198"/>
       <c r="H208" s="182">
         <v>43774</v>
@@ -11831,11 +11908,11 @@
       <c r="C209" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="D209" s="261" t="s">
+      <c r="D209" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E209" s="262"/>
-      <c r="F209" s="262"/>
+      <c r="E209" s="225"/>
+      <c r="F209" s="225"/>
       <c r="G209" s="204"/>
       <c r="H209" s="205">
         <v>43774</v>
@@ -11859,11 +11936,11 @@
       <c r="C210" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="D210" s="270" t="s">
+      <c r="D210" s="222" t="s">
         <v>318</v>
       </c>
-      <c r="E210" s="271"/>
-      <c r="F210" s="271"/>
+      <c r="E210" s="223"/>
+      <c r="F210" s="223"/>
       <c r="G210" s="198"/>
       <c r="H210" s="182">
         <v>43774</v>
@@ -11878,28 +11955,28 @@
       <c r="N210" s="178"/>
     </row>
     <row r="211" spans="1:14" s="179" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
-      <c r="A211" s="275" t="s">
+      <c r="A211" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="B211" s="276" t="s">
+      <c r="B211" s="212" t="s">
         <v>316</v>
       </c>
-      <c r="C211" s="277" t="s">
+      <c r="C211" s="213" t="s">
         <v>340</v>
       </c>
-      <c r="D211" s="278" t="s">
+      <c r="D211" s="226" t="s">
         <v>342</v>
       </c>
-      <c r="E211" s="279"/>
-      <c r="F211" s="279"/>
-      <c r="G211" s="280"/>
-      <c r="H211" s="281">
-        <v>43774</v>
-      </c>
-      <c r="I211" s="282" t="s">
+      <c r="E211" s="227"/>
+      <c r="F211" s="227"/>
+      <c r="G211" s="214"/>
+      <c r="H211" s="215">
+        <v>43774</v>
+      </c>
+      <c r="I211" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="J211" s="283" t="s">
+      <c r="J211" s="217" t="s">
         <v>341</v>
       </c>
       <c r="K211" s="178"/>
@@ -11917,11 +11994,11 @@
       <c r="C212" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D212" s="257" t="s">
+      <c r="D212" s="248" t="s">
         <v>119</v>
       </c>
-      <c r="E212" s="258"/>
-      <c r="F212" s="258"/>
+      <c r="E212" s="249"/>
+      <c r="F212" s="249"/>
       <c r="G212" s="127"/>
       <c r="H212" s="139">
         <v>43774</v>
@@ -11932,40 +12009,40 @@
       <c r="J212" s="141"/>
     </row>
     <row r="213" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A213" s="222" t="s">
+      <c r="A213" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="B213" s="223"/>
-      <c r="C213" s="223"/>
-      <c r="D213" s="223"/>
-      <c r="E213" s="223"/>
-      <c r="F213" s="223"/>
-      <c r="G213" s="223"/>
-      <c r="H213" s="223"/>
-      <c r="I213" s="223"/>
-      <c r="J213" s="224"/>
+      <c r="B213" s="236"/>
+      <c r="C213" s="236"/>
+      <c r="D213" s="236"/>
+      <c r="E213" s="236"/>
+      <c r="F213" s="236"/>
+      <c r="G213" s="236"/>
+      <c r="H213" s="236"/>
+      <c r="I213" s="236"/>
+      <c r="J213" s="252"/>
     </row>
     <row r="214" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A214" s="222" t="s">
+      <c r="A214" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="223"/>
-      <c r="C214" s="223"/>
-      <c r="D214" s="223"/>
-      <c r="E214" s="223"/>
-      <c r="F214" s="223"/>
-      <c r="G214" s="223"/>
-      <c r="H214" s="223"/>
-      <c r="I214" s="223"/>
-      <c r="J214" s="224"/>
+      <c r="B214" s="236"/>
+      <c r="C214" s="236"/>
+      <c r="D214" s="236"/>
+      <c r="E214" s="236"/>
+      <c r="F214" s="236"/>
+      <c r="G214" s="236"/>
+      <c r="H214" s="236"/>
+      <c r="I214" s="236"/>
+      <c r="J214" s="252"/>
     </row>
     <row r="215" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A215" s="88"/>
       <c r="B215" s="97"/>
       <c r="C215" s="92"/>
-      <c r="D215" s="220"/>
-      <c r="E215" s="221"/>
-      <c r="F215" s="221"/>
+      <c r="D215" s="228"/>
+      <c r="E215" s="229"/>
+      <c r="F215" s="229"/>
       <c r="G215" s="127"/>
       <c r="H215" s="132"/>
       <c r="I215" s="100"/>
@@ -11975,9 +12052,9 @@
       <c r="A216" s="88"/>
       <c r="B216" s="97"/>
       <c r="C216" s="92"/>
-      <c r="D216" s="220"/>
-      <c r="E216" s="221"/>
-      <c r="F216" s="221"/>
+      <c r="D216" s="228"/>
+      <c r="E216" s="229"/>
+      <c r="F216" s="229"/>
       <c r="G216" s="127"/>
       <c r="H216" s="132"/>
       <c r="I216" s="100"/>
@@ -11987,9 +12064,9 @@
       <c r="A217" s="88"/>
       <c r="B217" s="97"/>
       <c r="C217" s="92"/>
-      <c r="D217" s="220"/>
-      <c r="E217" s="221"/>
-      <c r="F217" s="221"/>
+      <c r="D217" s="228"/>
+      <c r="E217" s="229"/>
+      <c r="F217" s="229"/>
       <c r="G217" s="127"/>
       <c r="H217" s="132"/>
       <c r="I217" s="100"/>
@@ -11999,9 +12076,9 @@
       <c r="A218" s="88"/>
       <c r="B218" s="97"/>
       <c r="C218" s="92"/>
-      <c r="D218" s="220"/>
-      <c r="E218" s="221"/>
-      <c r="F218" s="221"/>
+      <c r="D218" s="228"/>
+      <c r="E218" s="229"/>
+      <c r="F218" s="229"/>
       <c r="G218" s="127"/>
       <c r="H218" s="132"/>
       <c r="I218" s="100"/>
@@ -12011,9 +12088,9 @@
       <c r="A219" s="88"/>
       <c r="B219" s="97"/>
       <c r="C219" s="92"/>
-      <c r="D219" s="220"/>
-      <c r="E219" s="221"/>
-      <c r="F219" s="221"/>
+      <c r="D219" s="228"/>
+      <c r="E219" s="229"/>
+      <c r="F219" s="229"/>
       <c r="G219" s="127"/>
       <c r="H219" s="132"/>
       <c r="I219" s="100"/>
@@ -12023,9 +12100,9 @@
       <c r="A220" s="88"/>
       <c r="B220" s="97"/>
       <c r="C220" s="92"/>
-      <c r="D220" s="220"/>
-      <c r="E220" s="221"/>
-      <c r="F220" s="221"/>
+      <c r="D220" s="228"/>
+      <c r="E220" s="229"/>
+      <c r="F220" s="229"/>
       <c r="G220" s="127"/>
       <c r="H220" s="132"/>
       <c r="I220" s="100"/>
@@ -12035,61 +12112,61 @@
       <c r="A221" s="88"/>
       <c r="B221" s="97"/>
       <c r="C221" s="92"/>
-      <c r="D221" s="220"/>
-      <c r="E221" s="221"/>
-      <c r="F221" s="221"/>
+      <c r="D221" s="228"/>
+      <c r="E221" s="229"/>
+      <c r="F221" s="229"/>
       <c r="G221" s="127"/>
       <c r="H221" s="132"/>
       <c r="I221" s="100"/>
       <c r="J221" s="94"/>
     </row>
     <row r="222" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A222" s="222" t="s">
+      <c r="A222" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="B222" s="223"/>
-      <c r="C222" s="223"/>
-      <c r="D222" s="223"/>
-      <c r="E222" s="223"/>
-      <c r="F222" s="223"/>
-      <c r="G222" s="223"/>
-      <c r="H222" s="223"/>
-      <c r="I222" s="223"/>
-      <c r="J222" s="224"/>
+      <c r="B222" s="236"/>
+      <c r="C222" s="236"/>
+      <c r="D222" s="236"/>
+      <c r="E222" s="236"/>
+      <c r="F222" s="236"/>
+      <c r="G222" s="236"/>
+      <c r="H222" s="236"/>
+      <c r="I222" s="236"/>
+      <c r="J222" s="252"/>
     </row>
     <row r="223" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A223" s="88"/>
       <c r="B223" s="97"/>
       <c r="C223" s="92"/>
-      <c r="D223" s="220"/>
-      <c r="E223" s="221"/>
-      <c r="F223" s="221"/>
+      <c r="D223" s="228"/>
+      <c r="E223" s="229"/>
+      <c r="F223" s="229"/>
       <c r="G223" s="127"/>
       <c r="H223" s="132"/>
       <c r="I223" s="100"/>
       <c r="J223" s="94"/>
     </row>
     <row r="224" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A224" s="222" t="s">
+      <c r="A224" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="B224" s="223"/>
-      <c r="C224" s="223"/>
-      <c r="D224" s="223"/>
-      <c r="E224" s="223"/>
-      <c r="F224" s="223"/>
-      <c r="G224" s="223"/>
-      <c r="H224" s="223"/>
-      <c r="I224" s="223"/>
-      <c r="J224" s="224"/>
+      <c r="B224" s="236"/>
+      <c r="C224" s="236"/>
+      <c r="D224" s="236"/>
+      <c r="E224" s="236"/>
+      <c r="F224" s="236"/>
+      <c r="G224" s="236"/>
+      <c r="H224" s="236"/>
+      <c r="I224" s="236"/>
+      <c r="J224" s="252"/>
     </row>
     <row r="225" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A225" s="88"/>
       <c r="B225" s="97"/>
       <c r="C225" s="92"/>
-      <c r="D225" s="220"/>
-      <c r="E225" s="221"/>
-      <c r="F225" s="221"/>
+      <c r="D225" s="228"/>
+      <c r="E225" s="229"/>
+      <c r="F225" s="229"/>
       <c r="G225" s="127"/>
       <c r="H225" s="132"/>
       <c r="I225" s="187"/>
@@ -12099,9 +12176,9 @@
       <c r="A226" s="88"/>
       <c r="B226" s="97"/>
       <c r="C226" s="92"/>
-      <c r="D226" s="220"/>
-      <c r="E226" s="221"/>
-      <c r="F226" s="221"/>
+      <c r="D226" s="228"/>
+      <c r="E226" s="229"/>
+      <c r="F226" s="229"/>
       <c r="G226" s="127"/>
       <c r="H226" s="132"/>
       <c r="I226" s="100"/>
@@ -12111,35 +12188,35 @@
       <c r="A227" s="88"/>
       <c r="B227" s="97"/>
       <c r="C227" s="92"/>
-      <c r="D227" s="220"/>
-      <c r="E227" s="221"/>
-      <c r="F227" s="221"/>
+      <c r="D227" s="228"/>
+      <c r="E227" s="229"/>
+      <c r="F227" s="229"/>
       <c r="G227" s="127"/>
       <c r="H227" s="132"/>
       <c r="I227" s="100"/>
       <c r="J227" s="94"/>
     </row>
     <row r="228" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A228" s="222" t="s">
+      <c r="A228" s="235" t="s">
         <v>53</v>
       </c>
-      <c r="B228" s="223"/>
-      <c r="C228" s="223"/>
-      <c r="D228" s="223"/>
-      <c r="E228" s="223"/>
-      <c r="F228" s="223"/>
-      <c r="G228" s="223"/>
-      <c r="H228" s="223"/>
-      <c r="I228" s="223"/>
-      <c r="J228" s="224"/>
+      <c r="B228" s="236"/>
+      <c r="C228" s="236"/>
+      <c r="D228" s="236"/>
+      <c r="E228" s="236"/>
+      <c r="F228" s="236"/>
+      <c r="G228" s="236"/>
+      <c r="H228" s="236"/>
+      <c r="I228" s="236"/>
+      <c r="J228" s="252"/>
     </row>
     <row r="229" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A229" s="88"/>
       <c r="B229" s="97"/>
       <c r="C229" s="92"/>
-      <c r="D229" s="220"/>
-      <c r="E229" s="221"/>
-      <c r="F229" s="221"/>
+      <c r="D229" s="228"/>
+      <c r="E229" s="229"/>
+      <c r="F229" s="229"/>
       <c r="G229" s="127"/>
       <c r="H229" s="132"/>
       <c r="I229" s="100"/>
@@ -12149,49 +12226,49 @@
       <c r="A230" s="88"/>
       <c r="B230" s="97"/>
       <c r="C230" s="92"/>
-      <c r="D230" s="225"/>
-      <c r="E230" s="221"/>
-      <c r="F230" s="221"/>
+      <c r="D230" s="280"/>
+      <c r="E230" s="229"/>
+      <c r="F230" s="229"/>
       <c r="G230" s="127"/>
       <c r="H230" s="132"/>
       <c r="I230" s="100"/>
       <c r="J230" s="94"/>
     </row>
     <row r="231" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A231" s="222" t="s">
+      <c r="A231" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="B231" s="223"/>
-      <c r="C231" s="223"/>
-      <c r="D231" s="223"/>
-      <c r="E231" s="223"/>
-      <c r="F231" s="223"/>
-      <c r="G231" s="223"/>
-      <c r="H231" s="223"/>
-      <c r="I231" s="223"/>
-      <c r="J231" s="224"/>
+      <c r="B231" s="236"/>
+      <c r="C231" s="236"/>
+      <c r="D231" s="236"/>
+      <c r="E231" s="236"/>
+      <c r="F231" s="236"/>
+      <c r="G231" s="236"/>
+      <c r="H231" s="236"/>
+      <c r="I231" s="236"/>
+      <c r="J231" s="252"/>
     </row>
     <row r="232" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A232" s="222" t="s">
+      <c r="A232" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="B232" s="223"/>
-      <c r="C232" s="223"/>
-      <c r="D232" s="223"/>
-      <c r="E232" s="223"/>
-      <c r="F232" s="223"/>
-      <c r="G232" s="223"/>
-      <c r="H232" s="223"/>
-      <c r="I232" s="223"/>
-      <c r="J232" s="224"/>
+      <c r="B232" s="236"/>
+      <c r="C232" s="236"/>
+      <c r="D232" s="236"/>
+      <c r="E232" s="236"/>
+      <c r="F232" s="236"/>
+      <c r="G232" s="236"/>
+      <c r="H232" s="236"/>
+      <c r="I232" s="236"/>
+      <c r="J232" s="252"/>
     </row>
     <row r="233" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A233" s="88"/>
       <c r="B233" s="97"/>
       <c r="C233" s="92"/>
-      <c r="D233" s="220"/>
-      <c r="E233" s="221"/>
-      <c r="F233" s="221"/>
+      <c r="D233" s="228"/>
+      <c r="E233" s="229"/>
+      <c r="F233" s="229"/>
       <c r="G233" s="127"/>
       <c r="H233" s="132"/>
       <c r="I233" s="100"/>
@@ -12201,35 +12278,35 @@
       <c r="A234" s="88"/>
       <c r="B234" s="97"/>
       <c r="C234" s="92"/>
-      <c r="D234" s="220"/>
-      <c r="E234" s="221"/>
-      <c r="F234" s="221"/>
+      <c r="D234" s="228"/>
+      <c r="E234" s="229"/>
+      <c r="F234" s="229"/>
       <c r="G234" s="127"/>
       <c r="H234" s="132"/>
       <c r="I234" s="100"/>
       <c r="J234" s="94"/>
     </row>
     <row r="235" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A235" s="222" t="s">
+      <c r="A235" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B235" s="223"/>
-      <c r="C235" s="223"/>
-      <c r="D235" s="223"/>
-      <c r="E235" s="223"/>
-      <c r="F235" s="223"/>
-      <c r="G235" s="223"/>
-      <c r="H235" s="223"/>
-      <c r="I235" s="223"/>
-      <c r="J235" s="224"/>
+      <c r="B235" s="236"/>
+      <c r="C235" s="236"/>
+      <c r="D235" s="236"/>
+      <c r="E235" s="236"/>
+      <c r="F235" s="236"/>
+      <c r="G235" s="236"/>
+      <c r="H235" s="236"/>
+      <c r="I235" s="236"/>
+      <c r="J235" s="252"/>
     </row>
     <row r="236" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A236" s="88"/>
       <c r="B236" s="97"/>
       <c r="C236" s="92"/>
-      <c r="D236" s="220"/>
-      <c r="E236" s="221"/>
-      <c r="F236" s="221"/>
+      <c r="D236" s="228"/>
+      <c r="E236" s="229"/>
+      <c r="F236" s="229"/>
       <c r="G236" s="127"/>
       <c r="H236" s="132"/>
       <c r="I236" s="100"/>
@@ -12239,35 +12316,35 @@
       <c r="A237" s="88"/>
       <c r="B237" s="97"/>
       <c r="C237" s="92"/>
-      <c r="D237" s="220"/>
-      <c r="E237" s="221"/>
-      <c r="F237" s="221"/>
+      <c r="D237" s="228"/>
+      <c r="E237" s="229"/>
+      <c r="F237" s="229"/>
       <c r="G237" s="127"/>
       <c r="H237" s="132"/>
       <c r="I237" s="100"/>
       <c r="J237" s="94"/>
     </row>
     <row r="238" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A238" s="222" t="s">
+      <c r="A238" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="B238" s="223"/>
-      <c r="C238" s="223"/>
-      <c r="D238" s="223"/>
-      <c r="E238" s="223"/>
-      <c r="F238" s="223"/>
-      <c r="G238" s="223"/>
-      <c r="H238" s="223"/>
-      <c r="I238" s="223"/>
-      <c r="J238" s="224"/>
+      <c r="B238" s="236"/>
+      <c r="C238" s="236"/>
+      <c r="D238" s="236"/>
+      <c r="E238" s="236"/>
+      <c r="F238" s="236"/>
+      <c r="G238" s="236"/>
+      <c r="H238" s="236"/>
+      <c r="I238" s="236"/>
+      <c r="J238" s="252"/>
     </row>
     <row r="239" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A239" s="88"/>
       <c r="B239" s="97"/>
       <c r="C239" s="92"/>
-      <c r="D239" s="220"/>
-      <c r="E239" s="221"/>
-      <c r="F239" s="221"/>
+      <c r="D239" s="228"/>
+      <c r="E239" s="229"/>
+      <c r="F239" s="229"/>
       <c r="G239" s="127"/>
       <c r="H239" s="132"/>
       <c r="I239" s="100"/>
@@ -12277,35 +12354,35 @@
       <c r="A240" s="88"/>
       <c r="B240" s="97"/>
       <c r="C240" s="92"/>
-      <c r="D240" s="220"/>
-      <c r="E240" s="221"/>
-      <c r="F240" s="221"/>
+      <c r="D240" s="228"/>
+      <c r="E240" s="229"/>
+      <c r="F240" s="229"/>
       <c r="G240" s="127"/>
       <c r="H240" s="132"/>
       <c r="I240" s="100"/>
       <c r="J240" s="94"/>
     </row>
     <row r="241" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A241" s="222" t="s">
+      <c r="A241" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="B241" s="223"/>
-      <c r="C241" s="223"/>
-      <c r="D241" s="223"/>
-      <c r="E241" s="223"/>
-      <c r="F241" s="223"/>
-      <c r="G241" s="223"/>
-      <c r="H241" s="223"/>
-      <c r="I241" s="223"/>
-      <c r="J241" s="224"/>
+      <c r="B241" s="236"/>
+      <c r="C241" s="236"/>
+      <c r="D241" s="236"/>
+      <c r="E241" s="236"/>
+      <c r="F241" s="236"/>
+      <c r="G241" s="236"/>
+      <c r="H241" s="236"/>
+      <c r="I241" s="236"/>
+      <c r="J241" s="252"/>
     </row>
     <row r="242" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A242" s="88"/>
       <c r="B242" s="97"/>
       <c r="C242" s="92"/>
-      <c r="D242" s="220"/>
-      <c r="E242" s="221"/>
-      <c r="F242" s="221"/>
+      <c r="D242" s="228"/>
+      <c r="E242" s="229"/>
+      <c r="F242" s="229"/>
       <c r="G242" s="127"/>
       <c r="H242" s="132"/>
       <c r="I242" s="100"/>
@@ -12315,35 +12392,35 @@
       <c r="A243" s="88"/>
       <c r="B243" s="97"/>
       <c r="C243" s="92"/>
-      <c r="D243" s="220"/>
-      <c r="E243" s="221"/>
-      <c r="F243" s="221"/>
+      <c r="D243" s="228"/>
+      <c r="E243" s="229"/>
+      <c r="F243" s="229"/>
       <c r="G243" s="127"/>
       <c r="H243" s="132"/>
       <c r="I243" s="100"/>
       <c r="J243" s="94"/>
     </row>
     <row r="244" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A244" s="222" t="s">
+      <c r="A244" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="B244" s="223"/>
-      <c r="C244" s="223"/>
-      <c r="D244" s="223"/>
-      <c r="E244" s="223"/>
-      <c r="F244" s="223"/>
-      <c r="G244" s="223"/>
-      <c r="H244" s="223"/>
-      <c r="I244" s="223"/>
-      <c r="J244" s="224"/>
+      <c r="B244" s="236"/>
+      <c r="C244" s="236"/>
+      <c r="D244" s="236"/>
+      <c r="E244" s="236"/>
+      <c r="F244" s="236"/>
+      <c r="G244" s="236"/>
+      <c r="H244" s="236"/>
+      <c r="I244" s="236"/>
+      <c r="J244" s="252"/>
     </row>
     <row r="245" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A245" s="88"/>
       <c r="B245" s="97"/>
       <c r="C245" s="92"/>
-      <c r="D245" s="220"/>
-      <c r="E245" s="221"/>
-      <c r="F245" s="221"/>
+      <c r="D245" s="228"/>
+      <c r="E245" s="229"/>
+      <c r="F245" s="229"/>
       <c r="G245" s="127"/>
       <c r="H245" s="132"/>
       <c r="I245" s="100"/>
@@ -12353,9 +12430,9 @@
       <c r="A246" s="88"/>
       <c r="B246" s="97"/>
       <c r="C246" s="92"/>
-      <c r="D246" s="220"/>
-      <c r="E246" s="221"/>
-      <c r="F246" s="221"/>
+      <c r="D246" s="228"/>
+      <c r="E246" s="229"/>
+      <c r="F246" s="229"/>
       <c r="G246" s="127"/>
       <c r="H246" s="132"/>
       <c r="I246" s="100"/>
@@ -12401,26 +12478,215 @@
     <row r="284" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="253">
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D204:F204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="A244:J244"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="A241:J241"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="A232:J232"/>
+    <mergeCell ref="A235:J235"/>
+    <mergeCell ref="A238:J238"/>
+    <mergeCell ref="A231:J231"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="A222:J222"/>
+    <mergeCell ref="A224:J224"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
     <mergeCell ref="D211:F211"/>
     <mergeCell ref="D102:F102"/>
     <mergeCell ref="D103:F103"/>
@@ -12445,215 +12711,26 @@
     <mergeCell ref="D200:F200"/>
     <mergeCell ref="D201:F201"/>
     <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="A213:J213"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A238:J238"/>
-    <mergeCell ref="A231:J231"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="A222:J222"/>
-    <mergeCell ref="A224:J224"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="A214:J214"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="A244:J244"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="D246:F246"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="A241:J241"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D239:F239"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="A232:J232"/>
-    <mergeCell ref="A235:J235"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A228:J228"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
